--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17F3CB2-F693-451E-A2C9-29A96D781468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1AFD8-8AF3-4A18-8A57-A0E898101570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2935" uniqueCount="817">
   <si>
     <t>id</t>
   </si>
@@ -3353,6 +3353,94 @@
   </si>
   <si>
     <t>2023-09-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soulpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peachpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 185-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpackage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 소탕권 세트3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditationpension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9044,9044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(70단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(71단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(72단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(73단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3879,11 +3967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U281"/>
+  <dimension ref="A1:U290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U276" sqref="U276"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4615,7 @@
         <v>585</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>373</v>
+        <v>808</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>410</v>
@@ -4648,7 +4736,7 @@
         <v>585</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>569</v>
+        <v>804</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>124</v>
@@ -20149,7 +20237,7 @@
         <v>594</v>
       </c>
       <c r="T269">
-        <f t="shared" ref="T269:T281" si="7">ROW()-2</f>
+        <f t="shared" ref="T269:T290" si="7">ROW()-2</f>
         <v>267</v>
       </c>
       <c r="U269" s="15" t="s">
@@ -20876,6 +20964,546 @@
         <v>279</v>
       </c>
       <c r="U281" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>293</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="s">
+        <v>796</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G282" t="s">
+        <v>745</v>
+      </c>
+      <c r="H282" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282">
+        <v>50000</v>
+      </c>
+      <c r="J282" t="s">
+        <v>746</v>
+      </c>
+      <c r="K282">
+        <v>5</v>
+      </c>
+      <c r="M282" t="b">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
+        <v>752</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282" t="s">
+        <v>753</v>
+      </c>
+      <c r="T282">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="U282" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>294</v>
+      </c>
+      <c r="B283" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>798</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G283" t="s">
+        <v>745</v>
+      </c>
+      <c r="H283" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283">
+        <v>50000</v>
+      </c>
+      <c r="J283" t="s">
+        <v>746</v>
+      </c>
+      <c r="K283">
+        <v>5</v>
+      </c>
+      <c r="M283" t="b">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
+        <v>752</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0</v>
+      </c>
+      <c r="S283" t="s">
+        <v>753</v>
+      </c>
+      <c r="T283">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="U283" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>295</v>
+      </c>
+      <c r="B284" t="s">
+        <v>799</v>
+      </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>800</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="H284" t="s">
+        <v>124</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>158</v>
+      </c>
+      <c r="K284">
+        <v>5</v>
+      </c>
+      <c r="M284" t="b">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
+        <v>43</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q284">
+        <v>1</v>
+      </c>
+      <c r="R284">
+        <v>18500</v>
+      </c>
+      <c r="S284" t="s">
+        <v>148</v>
+      </c>
+      <c r="T284">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="U284" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>296</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C285" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I285" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J285" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="K285" s="3">
+        <v>4</v>
+      </c>
+      <c r="M285" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O285" s="3">
+        <v>0</v>
+      </c>
+      <c r="P285" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q285" s="3">
+        <v>5</v>
+      </c>
+      <c r="R285" s="3">
+        <v>0</v>
+      </c>
+      <c r="S285" t="s">
+        <v>148</v>
+      </c>
+      <c r="T285">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="U285" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>297</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286" t="s">
+        <v>806</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G286" t="s">
+        <v>553</v>
+      </c>
+      <c r="H286" t="s">
+        <v>75</v>
+      </c>
+      <c r="I286">
+        <v>30000</v>
+      </c>
+      <c r="J286" t="s">
+        <v>75</v>
+      </c>
+      <c r="K286">
+        <v>4</v>
+      </c>
+      <c r="M286" t="b">
+        <v>1</v>
+      </c>
+      <c r="N286" t="s">
+        <v>43</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0</v>
+      </c>
+      <c r="S286" t="s">
+        <v>148</v>
+      </c>
+      <c r="T286">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="U286" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>298</v>
+      </c>
+      <c r="B287" t="s">
+        <v>809</v>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="s">
+        <v>813</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" t="s">
+        <v>16</v>
+      </c>
+      <c r="H287" t="s">
+        <v>31</v>
+      </c>
+      <c r="I287">
+        <v>10000</v>
+      </c>
+      <c r="J287" t="s">
+        <v>46</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+      <c r="M287" t="b">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
+        <v>43</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T287">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="U287" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>299</v>
+      </c>
+      <c r="B288" t="s">
+        <v>810</v>
+      </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>814</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" t="s">
+        <v>16</v>
+      </c>
+      <c r="H288" t="s">
+        <v>31</v>
+      </c>
+      <c r="I288">
+        <v>10000</v>
+      </c>
+      <c r="J288" t="s">
+        <v>46</v>
+      </c>
+      <c r="K288">
+        <v>5</v>
+      </c>
+      <c r="M288" t="b">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
+        <v>43</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T288">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="U288" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>300</v>
+      </c>
+      <c r="B289" t="s">
+        <v>811</v>
+      </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>815</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" t="s">
+        <v>16</v>
+      </c>
+      <c r="H289" t="s">
+        <v>31</v>
+      </c>
+      <c r="I289">
+        <v>10000</v>
+      </c>
+      <c r="J289" t="s">
+        <v>46</v>
+      </c>
+      <c r="K289">
+        <v>5</v>
+      </c>
+      <c r="M289" t="b">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
+        <v>43</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>0</v>
+      </c>
+      <c r="S289" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T289">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="U289" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>301</v>
+      </c>
+      <c r="B290" t="s">
+        <v>812</v>
+      </c>
+      <c r="C290" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" t="s">
+        <v>816</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" t="s">
+        <v>16</v>
+      </c>
+      <c r="H290" t="s">
+        <v>31</v>
+      </c>
+      <c r="I290">
+        <v>10000</v>
+      </c>
+      <c r="J290" t="s">
+        <v>46</v>
+      </c>
+      <c r="K290">
+        <v>5</v>
+      </c>
+      <c r="M290" t="b">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
+        <v>43</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>0</v>
+      </c>
+      <c r="S290" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T290">
+        <f t="shared" si="7"/>
+        <v>288</v>
+      </c>
+      <c r="U290" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB6C08E-1984-412A-A13E-8B49BD80C613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEACEEF6-A9FD-4E3A-82C7-C0A949FA43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="854">
   <si>
     <t>id</t>
   </si>
@@ -3521,6 +3521,73 @@
   </si>
   <si>
     <t>보름달 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meditationpass</t>
+  </si>
+  <si>
+    <t>meditationpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구리 환수 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 190-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000000,1600,6,150000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(78단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(79단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(80단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(81단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4047,11 +4114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U300"/>
+  <dimension ref="A1:U307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4070,6 +4137,7 @@
     <col min="13" max="13" width="13.375" customWidth="1"/>
     <col min="16" max="16" width="20.625" customWidth="1"/>
     <col min="17" max="17" width="13.75" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20437,7 +20505,7 @@
         <v>594</v>
       </c>
       <c r="T271">
-        <f t="shared" ref="T271:T300" si="7">ROW()-2</f>
+        <f t="shared" ref="T271:T307" si="7">ROW()-2</f>
         <v>269</v>
       </c>
       <c r="U271" s="15" t="s">
@@ -22184,6 +22252,426 @@
         <v>298</v>
       </c>
       <c r="U300" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>310</v>
+      </c>
+      <c r="B301" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" t="s">
+        <v>839</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G301" t="s">
+        <v>745</v>
+      </c>
+      <c r="H301" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301">
+        <v>30000</v>
+      </c>
+      <c r="J301" t="s">
+        <v>746</v>
+      </c>
+      <c r="K301">
+        <v>5</v>
+      </c>
+      <c r="M301" t="b">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
+        <v>752</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301" t="s">
+        <v>753</v>
+      </c>
+      <c r="T301">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="U301" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>311</v>
+      </c>
+      <c r="B302" t="s">
+        <v>840</v>
+      </c>
+      <c r="C302" t="b">
+        <v>0</v>
+      </c>
+      <c r="D302" t="s">
+        <v>842</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G302" t="s">
+        <v>745</v>
+      </c>
+      <c r="H302" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302">
+        <v>50000</v>
+      </c>
+      <c r="J302" t="s">
+        <v>746</v>
+      </c>
+      <c r="K302">
+        <v>5</v>
+      </c>
+      <c r="M302" t="b">
+        <v>0</v>
+      </c>
+      <c r="N302" t="s">
+        <v>752</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302" t="s">
+        <v>841</v>
+      </c>
+      <c r="T302">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="U302" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>312</v>
+      </c>
+      <c r="B303" t="s">
+        <v>843</v>
+      </c>
+      <c r="C303" t="b">
+        <v>0</v>
+      </c>
+      <c r="D303" t="s">
+        <v>844</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="H303" t="s">
+        <v>124</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303" t="s">
+        <v>158</v>
+      </c>
+      <c r="K303">
+        <v>5</v>
+      </c>
+      <c r="M303" t="b">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
+        <v>43</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q303">
+        <v>1</v>
+      </c>
+      <c r="R303">
+        <v>19000</v>
+      </c>
+      <c r="S303" t="s">
+        <v>148</v>
+      </c>
+      <c r="T303">
+        <f t="shared" si="7"/>
+        <v>301</v>
+      </c>
+      <c r="U303" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>313</v>
+      </c>
+      <c r="B304" t="s">
+        <v>846</v>
+      </c>
+      <c r="C304" t="b">
+        <v>0</v>
+      </c>
+      <c r="D304" t="s">
+        <v>850</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304" t="s">
+        <v>16</v>
+      </c>
+      <c r="H304" t="s">
+        <v>31</v>
+      </c>
+      <c r="I304">
+        <v>10000</v>
+      </c>
+      <c r="J304" t="s">
+        <v>46</v>
+      </c>
+      <c r="K304">
+        <v>5</v>
+      </c>
+      <c r="M304" t="b">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
+        <v>43</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0</v>
+      </c>
+      <c r="S304" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T304">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="U304" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>314</v>
+      </c>
+      <c r="B305" t="s">
+        <v>847</v>
+      </c>
+      <c r="C305" t="b">
+        <v>0</v>
+      </c>
+      <c r="D305" t="s">
+        <v>851</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" t="s">
+        <v>31</v>
+      </c>
+      <c r="I305">
+        <v>10000</v>
+      </c>
+      <c r="J305" t="s">
+        <v>46</v>
+      </c>
+      <c r="K305">
+        <v>5</v>
+      </c>
+      <c r="M305" t="b">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
+        <v>43</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>0</v>
+      </c>
+      <c r="S305" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T305">
+        <f t="shared" si="7"/>
+        <v>303</v>
+      </c>
+      <c r="U305" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>315</v>
+      </c>
+      <c r="B306" t="s">
+        <v>848</v>
+      </c>
+      <c r="C306" t="b">
+        <v>0</v>
+      </c>
+      <c r="D306" t="s">
+        <v>852</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" t="s">
+        <v>16</v>
+      </c>
+      <c r="H306" t="s">
+        <v>31</v>
+      </c>
+      <c r="I306">
+        <v>10000</v>
+      </c>
+      <c r="J306" t="s">
+        <v>46</v>
+      </c>
+      <c r="K306">
+        <v>5</v>
+      </c>
+      <c r="M306" t="b">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
+        <v>43</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>0</v>
+      </c>
+      <c r="S306" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T306">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+      <c r="U306" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>316</v>
+      </c>
+      <c r="B307" t="s">
+        <v>849</v>
+      </c>
+      <c r="C307" t="b">
+        <v>0</v>
+      </c>
+      <c r="D307" t="s">
+        <v>853</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G307" t="s">
+        <v>16</v>
+      </c>
+      <c r="H307" t="s">
+        <v>31</v>
+      </c>
+      <c r="I307">
+        <v>10000</v>
+      </c>
+      <c r="J307" t="s">
+        <v>46</v>
+      </c>
+      <c r="K307">
+        <v>5</v>
+      </c>
+      <c r="M307" t="b">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
+        <v>43</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T307">
+        <f t="shared" si="7"/>
+        <v>305</v>
+      </c>
+      <c r="U307" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEACEEF6-A9FD-4E3A-82C7-C0A949FA43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CBB55-7B3C-4D6B-800B-0AB6F3A769FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="28830" windowHeight="15585" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="871">
   <si>
     <t>id</t>
   </si>
@@ -3588,6 +3588,74 @@
   </si>
   <si>
     <t>레벨패스(81단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuseokpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fallpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 훈련 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(82단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(83단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요군 환수 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuseokpackage0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석맞이 소탕권 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass25ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간패스(10월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4114,11 +4182,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U307"/>
+  <dimension ref="A1:U315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20505,7 +20573,7 @@
         <v>594</v>
       </c>
       <c r="T271">
-        <f t="shared" ref="T271:T307" si="7">ROW()-2</f>
+        <f t="shared" ref="T271:T315" si="7">ROW()-2</f>
         <v>269</v>
       </c>
       <c r="U271" s="15" t="s">
@@ -22672,6 +22740,486 @@
         <v>305</v>
       </c>
       <c r="U307" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>317</v>
+      </c>
+      <c r="B308" t="s">
+        <v>854</v>
+      </c>
+      <c r="C308" t="b">
+        <v>0</v>
+      </c>
+      <c r="D308" t="s">
+        <v>863</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G308" t="s">
+        <v>745</v>
+      </c>
+      <c r="H308" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308">
+        <v>50000</v>
+      </c>
+      <c r="J308" t="s">
+        <v>746</v>
+      </c>
+      <c r="K308">
+        <v>5</v>
+      </c>
+      <c r="M308" t="b">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
+        <v>752</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308" t="s">
+        <v>841</v>
+      </c>
+      <c r="T308">
+        <f t="shared" si="7"/>
+        <v>306</v>
+      </c>
+      <c r="U308" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>318</v>
+      </c>
+      <c r="B309" t="s">
+        <v>855</v>
+      </c>
+      <c r="C309" t="b">
+        <v>0</v>
+      </c>
+      <c r="D309" t="s">
+        <v>856</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" t="s">
+        <v>16</v>
+      </c>
+      <c r="H309" t="s">
+        <v>31</v>
+      </c>
+      <c r="I309">
+        <v>30000</v>
+      </c>
+      <c r="J309" t="s">
+        <v>46</v>
+      </c>
+      <c r="K309">
+        <v>5</v>
+      </c>
+      <c r="M309" t="b">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
+        <v>43</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>0</v>
+      </c>
+      <c r="S309" t="s">
+        <v>148</v>
+      </c>
+      <c r="T309">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+      <c r="U309" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>319</v>
+      </c>
+      <c r="B310" t="s">
+        <v>857</v>
+      </c>
+      <c r="C310" t="b">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>858</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" t="s">
+        <v>16</v>
+      </c>
+      <c r="H310" t="s">
+        <v>31</v>
+      </c>
+      <c r="I310">
+        <v>30000</v>
+      </c>
+      <c r="J310" t="s">
+        <v>46</v>
+      </c>
+      <c r="K310">
+        <v>5</v>
+      </c>
+      <c r="M310" t="b">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
+        <v>43</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>0</v>
+      </c>
+      <c r="S310" t="s">
+        <v>148</v>
+      </c>
+      <c r="T310">
+        <f t="shared" si="7"/>
+        <v>308</v>
+      </c>
+      <c r="U310" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>320</v>
+      </c>
+      <c r="B311" t="s">
+        <v>859</v>
+      </c>
+      <c r="C311" t="b">
+        <v>0</v>
+      </c>
+      <c r="D311" t="s">
+        <v>861</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" t="s">
+        <v>16</v>
+      </c>
+      <c r="H311" t="s">
+        <v>31</v>
+      </c>
+      <c r="I311">
+        <v>10000</v>
+      </c>
+      <c r="J311" t="s">
+        <v>46</v>
+      </c>
+      <c r="K311">
+        <v>5</v>
+      </c>
+      <c r="M311" t="b">
+        <v>0</v>
+      </c>
+      <c r="N311" t="s">
+        <v>43</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>0</v>
+      </c>
+      <c r="S311" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T311">
+        <f t="shared" si="7"/>
+        <v>309</v>
+      </c>
+      <c r="U311" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>321</v>
+      </c>
+      <c r="B312" t="s">
+        <v>860</v>
+      </c>
+      <c r="C312" t="b">
+        <v>0</v>
+      </c>
+      <c r="D312" t="s">
+        <v>862</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G312" t="s">
+        <v>16</v>
+      </c>
+      <c r="H312" t="s">
+        <v>31</v>
+      </c>
+      <c r="I312">
+        <v>10000</v>
+      </c>
+      <c r="J312" t="s">
+        <v>46</v>
+      </c>
+      <c r="K312">
+        <v>5</v>
+      </c>
+      <c r="M312" t="b">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
+        <v>43</v>
+      </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
+      <c r="P312" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <v>0</v>
+      </c>
+      <c r="S312" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T312">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="U312" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>322</v>
+      </c>
+      <c r="B313" t="s">
+        <v>864</v>
+      </c>
+      <c r="C313" t="b">
+        <v>0</v>
+      </c>
+      <c r="D313" t="s">
+        <v>866</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G313" t="s">
+        <v>870</v>
+      </c>
+      <c r="H313" t="s">
+        <v>124</v>
+      </c>
+      <c r="I313">
+        <v>50000</v>
+      </c>
+      <c r="J313" t="s">
+        <v>147</v>
+      </c>
+      <c r="K313">
+        <v>5</v>
+      </c>
+      <c r="M313" t="b">
+        <v>1</v>
+      </c>
+      <c r="N313" t="s">
+        <v>43</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+      <c r="P313" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q313">
+        <v>5</v>
+      </c>
+      <c r="R313">
+        <v>0</v>
+      </c>
+      <c r="S313" t="s">
+        <v>148</v>
+      </c>
+      <c r="T313">
+        <f t="shared" si="7"/>
+        <v>311</v>
+      </c>
+      <c r="U313" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>323</v>
+      </c>
+      <c r="B314" t="s">
+        <v>867</v>
+      </c>
+      <c r="C314" t="b">
+        <v>0</v>
+      </c>
+      <c r="D314" t="s">
+        <v>869</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G314" t="s">
+        <v>16</v>
+      </c>
+      <c r="H314" t="s">
+        <v>31</v>
+      </c>
+      <c r="I314">
+        <v>30000</v>
+      </c>
+      <c r="J314" t="s">
+        <v>46</v>
+      </c>
+      <c r="K314">
+        <v>5</v>
+      </c>
+      <c r="M314" t="b">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
+        <v>43</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+      <c r="P314" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>0</v>
+      </c>
+      <c r="S314" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T314">
+        <f t="shared" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="U314" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>324</v>
+      </c>
+      <c r="B315" t="s">
+        <v>868</v>
+      </c>
+      <c r="C315" t="b">
+        <v>0</v>
+      </c>
+      <c r="D315" t="s">
+        <v>869</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G315" t="s">
+        <v>16</v>
+      </c>
+      <c r="H315" t="s">
+        <v>31</v>
+      </c>
+      <c r="I315">
+        <v>10000</v>
+      </c>
+      <c r="J315" t="s">
+        <v>46</v>
+      </c>
+      <c r="K315">
+        <v>5</v>
+      </c>
+      <c r="M315" t="b">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
+        <v>43</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>0</v>
+      </c>
+      <c r="S315" t="s">
+        <v>148</v>
+      </c>
+      <c r="T315">
+        <f t="shared" si="7"/>
+        <v>313</v>
+      </c>
+      <c r="U315" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CBB55-7B3C-4D6B-800B-0AB6F3A769FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66E96A-F0B0-497E-A3FB-E896305AD673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="28830" windowHeight="15585" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="872">
   <si>
     <t>id</t>
   </si>
@@ -3656,6 +3656,10 @@
   </si>
   <si>
     <t>30,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(해당 상품은 11월 01일까지 구매할 수 있습니다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4185,8 +4189,8 @@
   <dimension ref="A1:U315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D313" sqref="D313"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23056,6 +23060,9 @@
       <c r="D313" t="s">
         <v>866</v>
       </c>
+      <c r="E313" t="s">
+        <v>871</v>
+      </c>
       <c r="F313" s="1" t="s">
         <v>803</v>
       </c>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA66E96A-F0B0-497E-A3FB-E896305AD673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838CF3C-CE0B-4D8A-AB45-03CD4675827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="885">
   <si>
     <t>id</t>
   </si>
@@ -3660,6 +3660,57 @@
   </si>
   <si>
     <t>(해당 상품은 11월 01일까지 구매할 수 있습니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halloweenpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할로윈 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petpass2</t>
+  </si>
+  <si>
+    <t>petpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boripass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(84단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(85단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 195-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요미호 환수 패스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4186,11 +4237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U315"/>
+  <dimension ref="A1:U321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F313" sqref="F313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20577,7 +20628,7 @@
         <v>594</v>
       </c>
       <c r="T271">
-        <f t="shared" ref="T271:T315" si="7">ROW()-2</f>
+        <f t="shared" ref="T271:T321" si="7">ROW()-2</f>
         <v>269</v>
       </c>
       <c r="U271" s="15" t="s">
@@ -23227,6 +23278,366 @@
         <v>313</v>
       </c>
       <c r="U315" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>325</v>
+      </c>
+      <c r="B316" t="s">
+        <v>872</v>
+      </c>
+      <c r="C316" t="b">
+        <v>0</v>
+      </c>
+      <c r="D316" t="s">
+        <v>873</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G316" t="s">
+        <v>16</v>
+      </c>
+      <c r="H316" t="s">
+        <v>31</v>
+      </c>
+      <c r="I316">
+        <v>30000</v>
+      </c>
+      <c r="J316" t="s">
+        <v>46</v>
+      </c>
+      <c r="K316">
+        <v>5</v>
+      </c>
+      <c r="M316" t="b">
+        <v>0</v>
+      </c>
+      <c r="N316" t="s">
+        <v>43</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>0</v>
+      </c>
+      <c r="S316" t="s">
+        <v>148</v>
+      </c>
+      <c r="T316">
+        <f t="shared" si="7"/>
+        <v>314</v>
+      </c>
+      <c r="U316" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>326</v>
+      </c>
+      <c r="B317" t="s">
+        <v>875</v>
+      </c>
+      <c r="C317" t="b">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>884</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G317" t="s">
+        <v>745</v>
+      </c>
+      <c r="H317" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317">
+        <v>50000</v>
+      </c>
+      <c r="J317" t="s">
+        <v>746</v>
+      </c>
+      <c r="K317">
+        <v>5</v>
+      </c>
+      <c r="M317" t="b">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
+        <v>752</v>
+      </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
+      <c r="P317" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>0</v>
+      </c>
+      <c r="S317" t="s">
+        <v>841</v>
+      </c>
+      <c r="T317">
+        <f t="shared" si="7"/>
+        <v>315</v>
+      </c>
+      <c r="U317" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>327</v>
+      </c>
+      <c r="B318" t="s">
+        <v>876</v>
+      </c>
+      <c r="C318" t="b">
+        <v>0</v>
+      </c>
+      <c r="D318" t="s">
+        <v>877</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" t="s">
+        <v>16</v>
+      </c>
+      <c r="H318" t="s">
+        <v>31</v>
+      </c>
+      <c r="I318">
+        <v>30000</v>
+      </c>
+      <c r="J318" t="s">
+        <v>46</v>
+      </c>
+      <c r="K318">
+        <v>5</v>
+      </c>
+      <c r="M318" t="b">
+        <v>0</v>
+      </c>
+      <c r="N318" t="s">
+        <v>43</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318" t="s">
+        <v>148</v>
+      </c>
+      <c r="T318">
+        <f t="shared" si="7"/>
+        <v>316</v>
+      </c>
+      <c r="U318" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>328</v>
+      </c>
+      <c r="B319" t="s">
+        <v>878</v>
+      </c>
+      <c r="C319" t="b">
+        <v>0</v>
+      </c>
+      <c r="D319" t="s">
+        <v>880</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G319" t="s">
+        <v>16</v>
+      </c>
+      <c r="H319" t="s">
+        <v>31</v>
+      </c>
+      <c r="I319">
+        <v>10000</v>
+      </c>
+      <c r="J319" t="s">
+        <v>46</v>
+      </c>
+      <c r="K319">
+        <v>5</v>
+      </c>
+      <c r="M319" t="b">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
+        <v>43</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+      <c r="P319" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0</v>
+      </c>
+      <c r="S319" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="7"/>
+        <v>317</v>
+      </c>
+      <c r="U319" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>329</v>
+      </c>
+      <c r="B320" t="s">
+        <v>879</v>
+      </c>
+      <c r="C320" t="b">
+        <v>0</v>
+      </c>
+      <c r="D320" t="s">
+        <v>881</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" t="s">
+        <v>16</v>
+      </c>
+      <c r="H320" t="s">
+        <v>31</v>
+      </c>
+      <c r="I320">
+        <v>10000</v>
+      </c>
+      <c r="J320" t="s">
+        <v>46</v>
+      </c>
+      <c r="K320">
+        <v>5</v>
+      </c>
+      <c r="M320" t="b">
+        <v>0</v>
+      </c>
+      <c r="N320" t="s">
+        <v>43</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>0</v>
+      </c>
+      <c r="S320" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="7"/>
+        <v>318</v>
+      </c>
+      <c r="U320" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>330</v>
+      </c>
+      <c r="B321" t="s">
+        <v>882</v>
+      </c>
+      <c r="C321" t="b">
+        <v>0</v>
+      </c>
+      <c r="D321" t="s">
+        <v>883</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="H321" t="s">
+        <v>124</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321" t="s">
+        <v>158</v>
+      </c>
+      <c r="K321">
+        <v>5</v>
+      </c>
+      <c r="M321" t="b">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
+        <v>43</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q321">
+        <v>1</v>
+      </c>
+      <c r="R321">
+        <v>19500</v>
+      </c>
+      <c r="S321" t="s">
+        <v>148</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="7"/>
+        <v>319</v>
+      </c>
+      <c r="U321" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838CF3C-CE0B-4D8A-AB45-03CD4675827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83AA28-B197-4D63-BF9E-1686391148E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="899">
   <si>
     <t>id</t>
   </si>
@@ -3711,6 +3711,61 @@
   </si>
   <si>
     <t>요미호 환수 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taeguekpension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9050,9050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass26ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간패스(11월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sealswordevolutionpass</t>
+  </si>
+  <si>
+    <t>sealswordevolutionpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도각성 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(86단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(87단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4237,11 +4292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U321"/>
+  <dimension ref="A1:U327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F313" sqref="F313"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4382,7 +4437,7 @@
         <v>148</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:T268" si="0">ROW()-2</f>
+        <f t="shared" ref="T2:T270" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="U2" s="15" t="s">
@@ -20510,7 +20565,8 @@
         <v>753</v>
       </c>
       <c r="T269">
-        <v>263</v>
+        <f t="shared" si="0"/>
+        <v>267</v>
       </c>
       <c r="U269" s="15" t="s">
         <v>646</v>
@@ -20569,7 +20625,8 @@
         <v>753</v>
       </c>
       <c r="T270">
-        <v>264</v>
+        <f t="shared" si="0"/>
+        <v>268</v>
       </c>
       <c r="U270" s="15" t="s">
         <v>646</v>
@@ -20628,7 +20685,7 @@
         <v>594</v>
       </c>
       <c r="T271">
-        <f t="shared" ref="T271:T321" si="7">ROW()-2</f>
+        <f t="shared" ref="T271:T327" si="7">ROW()-2</f>
         <v>269</v>
       </c>
       <c r="U271" s="15" t="s">
@@ -23638,6 +23695,366 @@
         <v>319</v>
       </c>
       <c r="U321" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>331</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C322" t="b">
+        <v>0</v>
+      </c>
+      <c r="D322" t="s">
+        <v>886</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G322" t="s">
+        <v>898</v>
+      </c>
+      <c r="H322" t="s">
+        <v>75</v>
+      </c>
+      <c r="I322">
+        <v>30000</v>
+      </c>
+      <c r="J322" t="s">
+        <v>75</v>
+      </c>
+      <c r="K322">
+        <v>4</v>
+      </c>
+      <c r="M322" t="b">
+        <v>1</v>
+      </c>
+      <c r="N322" t="s">
+        <v>752</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>0</v>
+      </c>
+      <c r="S322" t="s">
+        <v>753</v>
+      </c>
+      <c r="T322">
+        <f t="shared" si="7"/>
+        <v>320</v>
+      </c>
+      <c r="U322" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>332</v>
+      </c>
+      <c r="B323" t="s">
+        <v>888</v>
+      </c>
+      <c r="C323" t="b">
+        <v>0</v>
+      </c>
+      <c r="D323" t="s">
+        <v>890</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" t="s">
+        <v>16</v>
+      </c>
+      <c r="H323" t="s">
+        <v>31</v>
+      </c>
+      <c r="I323">
+        <v>30000</v>
+      </c>
+      <c r="J323" t="s">
+        <v>46</v>
+      </c>
+      <c r="K323">
+        <v>5</v>
+      </c>
+      <c r="M323" t="b">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
+        <v>43</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T323">
+        <f t="shared" si="7"/>
+        <v>321</v>
+      </c>
+      <c r="U323" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>333</v>
+      </c>
+      <c r="B324" t="s">
+        <v>889</v>
+      </c>
+      <c r="C324" t="b">
+        <v>0</v>
+      </c>
+      <c r="D324" t="s">
+        <v>890</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G324" t="s">
+        <v>16</v>
+      </c>
+      <c r="H324" t="s">
+        <v>31</v>
+      </c>
+      <c r="I324">
+        <v>10000</v>
+      </c>
+      <c r="J324" t="s">
+        <v>46</v>
+      </c>
+      <c r="K324">
+        <v>5</v>
+      </c>
+      <c r="M324" t="b">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
+        <v>43</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324" t="s">
+        <v>148</v>
+      </c>
+      <c r="T324">
+        <f t="shared" si="7"/>
+        <v>322</v>
+      </c>
+      <c r="U324" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>334</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="C325" t="b">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>893</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G325" t="s">
+        <v>745</v>
+      </c>
+      <c r="H325" t="s">
+        <v>8</v>
+      </c>
+      <c r="I325">
+        <v>50000</v>
+      </c>
+      <c r="J325" t="s">
+        <v>746</v>
+      </c>
+      <c r="K325">
+        <v>5</v>
+      </c>
+      <c r="M325" t="b">
+        <v>0</v>
+      </c>
+      <c r="N325" t="s">
+        <v>752</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0</v>
+      </c>
+      <c r="S325" t="s">
+        <v>753</v>
+      </c>
+      <c r="T325">
+        <f t="shared" si="7"/>
+        <v>323</v>
+      </c>
+      <c r="U325" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>335</v>
+      </c>
+      <c r="B326" t="s">
+        <v>894</v>
+      </c>
+      <c r="C326" t="b">
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>896</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G326" t="s">
+        <v>16</v>
+      </c>
+      <c r="H326" t="s">
+        <v>31</v>
+      </c>
+      <c r="I326">
+        <v>10000</v>
+      </c>
+      <c r="J326" t="s">
+        <v>46</v>
+      </c>
+      <c r="K326">
+        <v>5</v>
+      </c>
+      <c r="M326" t="b">
+        <v>0</v>
+      </c>
+      <c r="N326" t="s">
+        <v>43</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>0</v>
+      </c>
+      <c r="S326" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T326">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="U326" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>336</v>
+      </c>
+      <c r="B327" t="s">
+        <v>895</v>
+      </c>
+      <c r="C327" t="b">
+        <v>0</v>
+      </c>
+      <c r="D327" t="s">
+        <v>897</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G327" t="s">
+        <v>16</v>
+      </c>
+      <c r="H327" t="s">
+        <v>31</v>
+      </c>
+      <c r="I327">
+        <v>10000</v>
+      </c>
+      <c r="J327" t="s">
+        <v>46</v>
+      </c>
+      <c r="K327">
+        <v>5</v>
+      </c>
+      <c r="M327" t="b">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
+        <v>43</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>0</v>
+      </c>
+      <c r="S327" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T327">
+        <f t="shared" si="7"/>
+        <v>325</v>
+      </c>
+      <c r="U327" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83AA28-B197-4D63-BF9E-1686391148E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DAB0B-19D4-4F52-A6C1-A5F9B5783C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="914">
   <si>
     <t>id</t>
   </si>
@@ -3766,6 +3766,65 @@
   </si>
   <si>
     <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass27ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간패스(12월)</t>
+  </si>
+  <si>
+    <t>월간패스(12월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blacksoulpension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 영혼 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9052,9052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yostonepass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(88단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(89단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 200-100 달성 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4292,11 +4351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U327"/>
+  <dimension ref="A1:U334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A323" sqref="A323"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20685,7 +20744,7 @@
         <v>594</v>
       </c>
       <c r="T271">
-        <f t="shared" ref="T271:T327" si="7">ROW()-2</f>
+        <f t="shared" ref="T271:T334" si="7">ROW()-2</f>
         <v>269</v>
       </c>
       <c r="U271" s="15" t="s">
@@ -24055,6 +24114,426 @@
         <v>325</v>
       </c>
       <c r="U327" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>337</v>
+      </c>
+      <c r="B328" t="s">
+        <v>899</v>
+      </c>
+      <c r="C328" t="b">
+        <v>0</v>
+      </c>
+      <c r="D328" t="s">
+        <v>902</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G328" t="s">
+        <v>16</v>
+      </c>
+      <c r="H328" t="s">
+        <v>31</v>
+      </c>
+      <c r="I328">
+        <v>30000</v>
+      </c>
+      <c r="J328" t="s">
+        <v>46</v>
+      </c>
+      <c r="K328">
+        <v>5</v>
+      </c>
+      <c r="M328" t="b">
+        <v>0</v>
+      </c>
+      <c r="N328" t="s">
+        <v>43</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>0</v>
+      </c>
+      <c r="S328" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T328">
+        <f t="shared" si="7"/>
+        <v>326</v>
+      </c>
+      <c r="U328" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>338</v>
+      </c>
+      <c r="B329" t="s">
+        <v>900</v>
+      </c>
+      <c r="C329" t="b">
+        <v>0</v>
+      </c>
+      <c r="D329" t="s">
+        <v>901</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" t="s">
+        <v>16</v>
+      </c>
+      <c r="H329" t="s">
+        <v>31</v>
+      </c>
+      <c r="I329">
+        <v>10000</v>
+      </c>
+      <c r="J329" t="s">
+        <v>46</v>
+      </c>
+      <c r="K329">
+        <v>5</v>
+      </c>
+      <c r="M329" t="b">
+        <v>0</v>
+      </c>
+      <c r="N329" t="s">
+        <v>43</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+      <c r="P329" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0</v>
+      </c>
+      <c r="S329" t="s">
+        <v>148</v>
+      </c>
+      <c r="T329">
+        <f t="shared" si="7"/>
+        <v>327</v>
+      </c>
+      <c r="U329" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>339</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C330" t="b">
+        <v>0</v>
+      </c>
+      <c r="D330" t="s">
+        <v>904</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="G330" t="s">
+        <v>553</v>
+      </c>
+      <c r="H330" t="s">
+        <v>75</v>
+      </c>
+      <c r="I330">
+        <v>30000</v>
+      </c>
+      <c r="J330" t="s">
+        <v>75</v>
+      </c>
+      <c r="K330">
+        <v>4</v>
+      </c>
+      <c r="M330" t="b">
+        <v>1</v>
+      </c>
+      <c r="N330" t="s">
+        <v>752</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+      <c r="P330" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>0</v>
+      </c>
+      <c r="S330" t="s">
+        <v>753</v>
+      </c>
+      <c r="T330">
+        <f t="shared" si="7"/>
+        <v>328</v>
+      </c>
+      <c r="U330" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>340</v>
+      </c>
+      <c r="B331" t="s">
+        <v>906</v>
+      </c>
+      <c r="C331" t="b">
+        <v>0</v>
+      </c>
+      <c r="D331" t="s">
+        <v>907</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G331" t="s">
+        <v>16</v>
+      </c>
+      <c r="H331" t="s">
+        <v>31</v>
+      </c>
+      <c r="I331">
+        <v>30000</v>
+      </c>
+      <c r="J331" t="s">
+        <v>46</v>
+      </c>
+      <c r="K331">
+        <v>5</v>
+      </c>
+      <c r="M331" t="b">
+        <v>0</v>
+      </c>
+      <c r="N331" t="s">
+        <v>43</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+      <c r="P331" t="s">
+        <v>906</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331" t="s">
+        <v>148</v>
+      </c>
+      <c r="T331">
+        <f t="shared" si="7"/>
+        <v>329</v>
+      </c>
+      <c r="U331" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>341</v>
+      </c>
+      <c r="B332" t="s">
+        <v>908</v>
+      </c>
+      <c r="C332" t="b">
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>910</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G332" t="s">
+        <v>16</v>
+      </c>
+      <c r="H332" t="s">
+        <v>31</v>
+      </c>
+      <c r="I332">
+        <v>10000</v>
+      </c>
+      <c r="J332" t="s">
+        <v>46</v>
+      </c>
+      <c r="K332">
+        <v>5</v>
+      </c>
+      <c r="M332" t="b">
+        <v>0</v>
+      </c>
+      <c r="N332" t="s">
+        <v>43</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0</v>
+      </c>
+      <c r="S332" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T332">
+        <f t="shared" si="7"/>
+        <v>330</v>
+      </c>
+      <c r="U332" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>342</v>
+      </c>
+      <c r="B333" t="s">
+        <v>909</v>
+      </c>
+      <c r="C333" t="b">
+        <v>0</v>
+      </c>
+      <c r="D333" t="s">
+        <v>911</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G333" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" t="s">
+        <v>31</v>
+      </c>
+      <c r="I333">
+        <v>10000</v>
+      </c>
+      <c r="J333" t="s">
+        <v>46</v>
+      </c>
+      <c r="K333">
+        <v>5</v>
+      </c>
+      <c r="M333" t="b">
+        <v>0</v>
+      </c>
+      <c r="N333" t="s">
+        <v>43</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+      <c r="P333" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>0</v>
+      </c>
+      <c r="S333" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T333">
+        <f t="shared" si="7"/>
+        <v>331</v>
+      </c>
+      <c r="U333" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>343</v>
+      </c>
+      <c r="B334" t="s">
+        <v>912</v>
+      </c>
+      <c r="C334" t="b">
+        <v>0</v>
+      </c>
+      <c r="D334" t="s">
+        <v>913</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G334" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="H334" t="s">
+        <v>124</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334" t="s">
+        <v>158</v>
+      </c>
+      <c r="K334">
+        <v>5</v>
+      </c>
+      <c r="M334" t="b">
+        <v>0</v>
+      </c>
+      <c r="N334" t="s">
+        <v>43</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q334">
+        <v>1</v>
+      </c>
+      <c r="R334">
+        <v>20000</v>
+      </c>
+      <c r="S334" t="s">
+        <v>148</v>
+      </c>
+      <c r="T334">
+        <f t="shared" si="7"/>
+        <v>332</v>
+      </c>
+      <c r="U334" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02DAB0B-19D4-4F52-A6C1-A5F9B5783C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A9826-AE31-4715-8595-EB980F4C5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="924">
   <si>
     <t>id</t>
   </si>
@@ -3825,6 +3825,46 @@
   </si>
   <si>
     <t>스테이지 200-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winterpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackfoxpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dosullevelpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호전 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 성장 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(90단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(91단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4351,11 +4391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U334"/>
+  <dimension ref="A1:U339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C334" sqref="C334"/>
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24537,6 +24577,306 @@
         <v>646</v>
       </c>
     </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>344</v>
+      </c>
+      <c r="B335" t="s">
+        <v>914</v>
+      </c>
+      <c r="C335" t="b">
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>915</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" t="s">
+        <v>16</v>
+      </c>
+      <c r="H335" t="s">
+        <v>31</v>
+      </c>
+      <c r="I335">
+        <v>30000</v>
+      </c>
+      <c r="J335" t="s">
+        <v>46</v>
+      </c>
+      <c r="K335">
+        <v>5</v>
+      </c>
+      <c r="M335" t="b">
+        <v>0</v>
+      </c>
+      <c r="N335" t="s">
+        <v>43</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+      <c r="P335" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>0</v>
+      </c>
+      <c r="S335" t="s">
+        <v>148</v>
+      </c>
+      <c r="T335">
+        <f t="shared" ref="T335:T339" si="8">ROW()-2</f>
+        <v>333</v>
+      </c>
+      <c r="U335" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>345</v>
+      </c>
+      <c r="B336" t="s">
+        <v>916</v>
+      </c>
+      <c r="C336" t="b">
+        <v>0</v>
+      </c>
+      <c r="D336" t="s">
+        <v>918</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G336" t="s">
+        <v>16</v>
+      </c>
+      <c r="H336" t="s">
+        <v>31</v>
+      </c>
+      <c r="I336">
+        <v>50000</v>
+      </c>
+      <c r="J336" t="s">
+        <v>46</v>
+      </c>
+      <c r="K336">
+        <v>5</v>
+      </c>
+      <c r="M336" t="b">
+        <v>0</v>
+      </c>
+      <c r="N336" t="s">
+        <v>43</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <v>0</v>
+      </c>
+      <c r="S336" t="s">
+        <v>148</v>
+      </c>
+      <c r="T336">
+        <f t="shared" si="8"/>
+        <v>334</v>
+      </c>
+      <c r="U336" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>346</v>
+      </c>
+      <c r="B337" t="s">
+        <v>917</v>
+      </c>
+      <c r="C337" t="b">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>919</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" t="s">
+        <v>16</v>
+      </c>
+      <c r="H337" t="s">
+        <v>31</v>
+      </c>
+      <c r="I337">
+        <v>30000</v>
+      </c>
+      <c r="J337" t="s">
+        <v>46</v>
+      </c>
+      <c r="K337">
+        <v>5</v>
+      </c>
+      <c r="M337" t="b">
+        <v>0</v>
+      </c>
+      <c r="N337" t="s">
+        <v>43</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337" t="s">
+        <v>148</v>
+      </c>
+      <c r="T337">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="U337" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>347</v>
+      </c>
+      <c r="B338" t="s">
+        <v>920</v>
+      </c>
+      <c r="C338" t="b">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>922</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" t="s">
+        <v>16</v>
+      </c>
+      <c r="H338" t="s">
+        <v>31</v>
+      </c>
+      <c r="I338">
+        <v>10000</v>
+      </c>
+      <c r="J338" t="s">
+        <v>46</v>
+      </c>
+      <c r="K338">
+        <v>5</v>
+      </c>
+      <c r="M338" t="b">
+        <v>0</v>
+      </c>
+      <c r="N338" t="s">
+        <v>43</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T338">
+        <f t="shared" si="8"/>
+        <v>336</v>
+      </c>
+      <c r="U338" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>348</v>
+      </c>
+      <c r="B339" t="s">
+        <v>921</v>
+      </c>
+      <c r="C339" t="b">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>923</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" t="s">
+        <v>16</v>
+      </c>
+      <c r="H339" t="s">
+        <v>31</v>
+      </c>
+      <c r="I339">
+        <v>10000</v>
+      </c>
+      <c r="J339" t="s">
+        <v>46</v>
+      </c>
+      <c r="K339">
+        <v>5</v>
+      </c>
+      <c r="M339" t="b">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
+        <v>43</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339" t="s">
+        <v>921</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T339">
+        <f t="shared" si="8"/>
+        <v>337</v>
+      </c>
+      <c r="U339" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A9826-AE31-4715-8595-EB980F4C5664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A93418-0A64-4B74-BD2F-AB5CAD42AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="927">
   <si>
     <t>id</t>
   </si>
@@ -3865,6 +3865,18 @@
   </si>
   <si>
     <t>레벨패스(91단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 205-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000000,1800,8,200000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4391,11 +4403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U339"/>
+  <dimension ref="A1:U340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24630,7 +24642,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T339" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T340" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -24874,6 +24886,66 @@
         <v>337</v>
       </c>
       <c r="U339" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>349</v>
+      </c>
+      <c r="B340" t="s">
+        <v>924</v>
+      </c>
+      <c r="C340" t="b">
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>925</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G340" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="H340" t="s">
+        <v>124</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>158</v>
+      </c>
+      <c r="K340">
+        <v>5</v>
+      </c>
+      <c r="M340" t="b">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
+        <v>43</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+      <c r="P340" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q340">
+        <v>1</v>
+      </c>
+      <c r="R340">
+        <v>20000</v>
+      </c>
+      <c r="S340" t="s">
+        <v>148</v>
+      </c>
+      <c r="T340">
+        <f t="shared" si="8"/>
+        <v>338</v>
+      </c>
+      <c r="U340" s="15" t="s">
         <v>646</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A93418-0A64-4B74-BD2F-AB5CAD42AE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59156E-C693-440A-ABF7-4936D7D8576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3436" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="951">
   <si>
     <t>id</t>
   </si>
@@ -3877,6 +3877,98 @@
   </si>
   <si>
     <t>600000000,1800,8,200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmaspackage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 스폐셜 세트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 스폐셜 세트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmaspass0</t>
+  </si>
+  <si>
+    <t>xmaspass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candypass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막대 사탕 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 200-100 달성 보상(추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass92</t>
+  </si>
+  <si>
+    <t>levelpass92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass93</t>
+  </si>
+  <si>
+    <t>levelpass93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass94</t>
+  </si>
+  <si>
+    <t>levelpass94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(92단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(93단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(94단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9055,9053,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,5,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>christmaspackage2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4093,7 +4185,57 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4403,11 +4545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U340"/>
+  <dimension ref="A1:U348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24642,7 +24784,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T340" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T348" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -24900,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="D340" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>578</v>
@@ -24949,9 +25091,503 @@
         <v>646</v>
       </c>
     </row>
+    <row r="341" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>350</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C341" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E341"/>
+      <c r="F341" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I341" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J341" t="s">
+        <v>46</v>
+      </c>
+      <c r="K341" s="3">
+        <v>4</v>
+      </c>
+      <c r="M341" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N341" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O341" s="3">
+        <v>0</v>
+      </c>
+      <c r="P341" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q341" s="3">
+        <v>5</v>
+      </c>
+      <c r="R341" s="3">
+        <v>0</v>
+      </c>
+      <c r="S341" t="s">
+        <v>148</v>
+      </c>
+      <c r="T341">
+        <f t="shared" si="8"/>
+        <v>339</v>
+      </c>
+      <c r="U341" s="15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>351</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C342" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I342" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J342" t="s">
+        <v>46</v>
+      </c>
+      <c r="K342" s="3">
+        <v>5</v>
+      </c>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N342" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O342" s="3">
+        <v>0</v>
+      </c>
+      <c r="P342" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="Q342" s="3">
+        <v>5</v>
+      </c>
+      <c r="R342" s="3">
+        <v>0</v>
+      </c>
+      <c r="S342" t="s">
+        <v>148</v>
+      </c>
+      <c r="T342">
+        <f t="shared" si="8"/>
+        <v>340</v>
+      </c>
+      <c r="U342" s="15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>352</v>
+      </c>
+      <c r="B343" t="s">
+        <v>932</v>
+      </c>
+      <c r="C343" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>933</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" t="s">
+        <v>31</v>
+      </c>
+      <c r="I343">
+        <v>30000</v>
+      </c>
+      <c r="J343" t="s">
+        <v>46</v>
+      </c>
+      <c r="K343">
+        <v>5</v>
+      </c>
+      <c r="M343" t="b">
+        <v>0</v>
+      </c>
+      <c r="N343" t="s">
+        <v>43</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+      <c r="P343" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343" t="s">
+        <v>148</v>
+      </c>
+      <c r="T343">
+        <f t="shared" si="8"/>
+        <v>341</v>
+      </c>
+      <c r="U343" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>353</v>
+      </c>
+      <c r="B344" t="s">
+        <v>934</v>
+      </c>
+      <c r="C344" t="b">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>935</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" t="s">
+        <v>31</v>
+      </c>
+      <c r="I344">
+        <v>30000</v>
+      </c>
+      <c r="J344" t="s">
+        <v>46</v>
+      </c>
+      <c r="K344">
+        <v>5</v>
+      </c>
+      <c r="M344" t="b">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
+        <v>43</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+      <c r="P344" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <v>0</v>
+      </c>
+      <c r="S344" t="s">
+        <v>148</v>
+      </c>
+      <c r="T344">
+        <f t="shared" si="8"/>
+        <v>342</v>
+      </c>
+      <c r="U344" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>354</v>
+      </c>
+      <c r="B345" t="s">
+        <v>936</v>
+      </c>
+      <c r="C345" t="b">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>925</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="H345" t="s">
+        <v>124</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>158</v>
+      </c>
+      <c r="K345">
+        <v>5</v>
+      </c>
+      <c r="M345" t="b">
+        <v>0</v>
+      </c>
+      <c r="N345" t="s">
+        <v>43</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345">
+        <v>20500</v>
+      </c>
+      <c r="S345" t="s">
+        <v>148</v>
+      </c>
+      <c r="T345">
+        <f t="shared" si="8"/>
+        <v>343</v>
+      </c>
+      <c r="U345" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>356</v>
+      </c>
+      <c r="B346" t="s">
+        <v>939</v>
+      </c>
+      <c r="C346" t="b">
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>944</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G346" t="s">
+        <v>16</v>
+      </c>
+      <c r="H346" t="s">
+        <v>31</v>
+      </c>
+      <c r="I346">
+        <v>10000</v>
+      </c>
+      <c r="J346" t="s">
+        <v>46</v>
+      </c>
+      <c r="K346">
+        <v>5</v>
+      </c>
+      <c r="M346" t="b">
+        <v>0</v>
+      </c>
+      <c r="N346" t="s">
+        <v>43</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+      <c r="P346" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+      <c r="R346">
+        <v>0</v>
+      </c>
+      <c r="S346" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T346">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="U346" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>357</v>
+      </c>
+      <c r="B347" t="s">
+        <v>941</v>
+      </c>
+      <c r="C347" t="b">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>945</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" t="s">
+        <v>16</v>
+      </c>
+      <c r="H347" t="s">
+        <v>31</v>
+      </c>
+      <c r="I347">
+        <v>10000</v>
+      </c>
+      <c r="J347" t="s">
+        <v>46</v>
+      </c>
+      <c r="K347">
+        <v>5</v>
+      </c>
+      <c r="M347" t="b">
+        <v>0</v>
+      </c>
+      <c r="N347" t="s">
+        <v>43</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T347">
+        <f t="shared" si="8"/>
+        <v>345</v>
+      </c>
+      <c r="U347" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>358</v>
+      </c>
+      <c r="B348" t="s">
+        <v>943</v>
+      </c>
+      <c r="C348" t="b">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>946</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" t="s">
+        <v>16</v>
+      </c>
+      <c r="H348" t="s">
+        <v>31</v>
+      </c>
+      <c r="I348">
+        <v>10000</v>
+      </c>
+      <c r="J348" t="s">
+        <v>46</v>
+      </c>
+      <c r="K348">
+        <v>5</v>
+      </c>
+      <c r="M348" t="b">
+        <v>0</v>
+      </c>
+      <c r="N348" t="s">
+        <v>43</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+      <c r="P348" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q348">
+        <v>0</v>
+      </c>
+      <c r="R348">
+        <v>0</v>
+      </c>
+      <c r="S348" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T348">
+        <f t="shared" si="8"/>
+        <v>346</v>
+      </c>
+      <c r="U348" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P341:P342">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C59156E-C693-440A-ABF7-4936D7D8576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19ED215-5598-45B5-814F-E80B87FCA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="966">
   <si>
     <t>id</t>
   </si>
@@ -3969,6 +3969,66 @@
   </si>
   <si>
     <t>christmaspackage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hottimepass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass28ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간패스(1월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신년 핫타임 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(95단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(96단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(97단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 210-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bimupass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회 패스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4185,7 +4245,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
     <dxf>
       <border>
         <left style="thin">
@@ -4218,6 +4278,70 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4545,11 +4669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U348"/>
+  <dimension ref="A1:U356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5631,7 +5755,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>43</v>
@@ -14081,7 +14205,7 @@
         <v>299</v>
       </c>
       <c r="Q157">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R157">
         <v>0</v>
@@ -24784,7 +24908,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T348" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T356" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -25570,6 +25694,486 @@
         <v>346</v>
       </c>
       <c r="U348" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>359</v>
+      </c>
+      <c r="B349" t="s">
+        <v>951</v>
+      </c>
+      <c r="C349" t="b">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>955</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G349" t="s">
+        <v>16</v>
+      </c>
+      <c r="H349" t="s">
+        <v>31</v>
+      </c>
+      <c r="I349">
+        <v>30000</v>
+      </c>
+      <c r="J349" t="s">
+        <v>46</v>
+      </c>
+      <c r="K349">
+        <v>5</v>
+      </c>
+      <c r="M349" t="b">
+        <v>0</v>
+      </c>
+      <c r="N349" t="s">
+        <v>43</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349" t="s">
+        <v>148</v>
+      </c>
+      <c r="T349">
+        <f t="shared" si="8"/>
+        <v>347</v>
+      </c>
+      <c r="U349" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>360</v>
+      </c>
+      <c r="B350" t="s">
+        <v>952</v>
+      </c>
+      <c r="C350" t="b">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>954</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G350" t="s">
+        <v>16</v>
+      </c>
+      <c r="H350" t="s">
+        <v>31</v>
+      </c>
+      <c r="I350">
+        <v>30000</v>
+      </c>
+      <c r="J350" t="s">
+        <v>46</v>
+      </c>
+      <c r="K350">
+        <v>5</v>
+      </c>
+      <c r="M350" t="b">
+        <v>0</v>
+      </c>
+      <c r="N350" t="s">
+        <v>43</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+      <c r="P350" t="s">
+        <v>952</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>0</v>
+      </c>
+      <c r="S350" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T350">
+        <f t="shared" si="8"/>
+        <v>348</v>
+      </c>
+      <c r="U350" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>361</v>
+      </c>
+      <c r="B351" t="s">
+        <v>953</v>
+      </c>
+      <c r="C351" t="b">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>954</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G351" t="s">
+        <v>16</v>
+      </c>
+      <c r="H351" t="s">
+        <v>31</v>
+      </c>
+      <c r="I351">
+        <v>10000</v>
+      </c>
+      <c r="J351" t="s">
+        <v>46</v>
+      </c>
+      <c r="K351">
+        <v>5</v>
+      </c>
+      <c r="M351" t="b">
+        <v>0</v>
+      </c>
+      <c r="N351" t="s">
+        <v>43</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+      <c r="P351" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>0</v>
+      </c>
+      <c r="S351" t="s">
+        <v>148</v>
+      </c>
+      <c r="T351">
+        <f t="shared" si="8"/>
+        <v>349</v>
+      </c>
+      <c r="U351" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>362</v>
+      </c>
+      <c r="B352" t="s">
+        <v>956</v>
+      </c>
+      <c r="C352" t="b">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>959</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" t="s">
+        <v>16</v>
+      </c>
+      <c r="H352" t="s">
+        <v>31</v>
+      </c>
+      <c r="I352">
+        <v>10000</v>
+      </c>
+      <c r="J352" t="s">
+        <v>46</v>
+      </c>
+      <c r="K352">
+        <v>5</v>
+      </c>
+      <c r="M352" t="b">
+        <v>0</v>
+      </c>
+      <c r="N352" t="s">
+        <v>43</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T352">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="U352" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>363</v>
+      </c>
+      <c r="B353" t="s">
+        <v>957</v>
+      </c>
+      <c r="C353" t="b">
+        <v>0</v>
+      </c>
+      <c r="D353" t="s">
+        <v>960</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" t="s">
+        <v>16</v>
+      </c>
+      <c r="H353" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353">
+        <v>10000</v>
+      </c>
+      <c r="J353" t="s">
+        <v>46</v>
+      </c>
+      <c r="K353">
+        <v>5</v>
+      </c>
+      <c r="M353" t="b">
+        <v>0</v>
+      </c>
+      <c r="N353" t="s">
+        <v>43</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <v>0</v>
+      </c>
+      <c r="S353" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T353">
+        <f t="shared" si="8"/>
+        <v>351</v>
+      </c>
+      <c r="U353" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>364</v>
+      </c>
+      <c r="B354" t="s">
+        <v>958</v>
+      </c>
+      <c r="C354" t="b">
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>961</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G354" t="s">
+        <v>16</v>
+      </c>
+      <c r="H354" t="s">
+        <v>31</v>
+      </c>
+      <c r="I354">
+        <v>10000</v>
+      </c>
+      <c r="J354" t="s">
+        <v>46</v>
+      </c>
+      <c r="K354">
+        <v>5</v>
+      </c>
+      <c r="M354" t="b">
+        <v>0</v>
+      </c>
+      <c r="N354" t="s">
+        <v>43</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>0</v>
+      </c>
+      <c r="S354" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="8"/>
+        <v>352</v>
+      </c>
+      <c r="U354" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>365</v>
+      </c>
+      <c r="B355" t="s">
+        <v>962</v>
+      </c>
+      <c r="C355" t="b">
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
+        <v>963</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G355" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="H355" t="s">
+        <v>124</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355" t="s">
+        <v>158</v>
+      </c>
+      <c r="K355">
+        <v>5</v>
+      </c>
+      <c r="M355" t="b">
+        <v>0</v>
+      </c>
+      <c r="N355" t="s">
+        <v>43</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+      <c r="P355" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q355">
+        <v>1</v>
+      </c>
+      <c r="R355">
+        <v>21000</v>
+      </c>
+      <c r="S355" t="s">
+        <v>148</v>
+      </c>
+      <c r="T355">
+        <f t="shared" si="8"/>
+        <v>353</v>
+      </c>
+      <c r="U355" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>366</v>
+      </c>
+      <c r="B356" t="s">
+        <v>964</v>
+      </c>
+      <c r="C356" t="b">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>965</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G356" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" t="s">
+        <v>31</v>
+      </c>
+      <c r="I356">
+        <v>30000</v>
+      </c>
+      <c r="J356" t="s">
+        <v>46</v>
+      </c>
+      <c r="K356">
+        <v>5</v>
+      </c>
+      <c r="M356" t="b">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
+        <v>43</v>
+      </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
+      <c r="P356" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>0</v>
+      </c>
+      <c r="S356" t="s">
+        <v>148</v>
+      </c>
+      <c r="T356">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="U356" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -25577,15 +26181,27 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P341:P342">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P349">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P350:P351">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P352:P354">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P341:P342">
+  <conditionalFormatting sqref="P356">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19ED215-5598-45B5-814F-E80B87FCA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E2302-8BEF-4D5C-B5BB-EF630FC270C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="987">
   <si>
     <t>id</t>
   </si>
@@ -3892,10 +3892,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-12-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xmaspass0</t>
   </si>
   <si>
@@ -4029,6 +4025,94 @@
   </si>
   <si>
     <t>비무대회 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새해맞이 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasinsupass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수의 힘 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(98단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(99단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(100단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-01-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4036,7 +4120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4245,7 +4329,24 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4263,21 +4364,52 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4669,14 +4801,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U356"/>
+  <dimension ref="A1:U361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U341" sqref="U341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -4696,7 +4828,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4893,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -4821,7 +4953,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -4881,7 +5013,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -4941,7 +5073,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5001,7 +5133,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5061,7 +5193,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5121,7 +5253,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>310</v>
       </c>
@@ -5181,7 +5313,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>286</v>
       </c>
@@ -5241,7 +5373,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>271</v>
       </c>
@@ -5301,7 +5433,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>247</v>
       </c>
@@ -5361,7 +5493,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>241</v>
       </c>
@@ -5421,7 +5553,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>235</v>
       </c>
@@ -5481,7 +5613,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>234</v>
       </c>
@@ -5541,7 +5673,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>226</v>
       </c>
@@ -5603,7 +5735,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="2" customFormat="1">
       <c r="A16" s="2">
         <v>218</v>
       </c>
@@ -5663,7 +5795,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5723,7 +5855,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>210</v>
       </c>
@@ -5783,7 +5915,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>205</v>
       </c>
@@ -5843,7 +5975,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5906,7 +6038,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>101</v>
       </c>
@@ -5966,7 +6098,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>102</v>
       </c>
@@ -6026,7 +6158,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>103</v>
       </c>
@@ -6086,7 +6218,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>8</v>
       </c>
@@ -6149,7 +6281,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>9</v>
       </c>
@@ -6212,7 +6344,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>10</v>
       </c>
@@ -6278,7 +6410,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>11</v>
       </c>
@@ -6344,7 +6476,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="3" customFormat="1">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -6407,7 +6539,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -6470,7 +6602,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>20</v>
       </c>
@@ -6533,7 +6665,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>14</v>
       </c>
@@ -6596,7 +6728,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="8" customFormat="1">
       <c r="A32" s="8">
         <v>15</v>
       </c>
@@ -6659,7 +6791,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>16</v>
       </c>
@@ -6722,7 +6854,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>17</v>
       </c>
@@ -6785,7 +6917,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>18</v>
       </c>
@@ -6845,7 +6977,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>19</v>
       </c>
@@ -6905,7 +7037,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>20</v>
       </c>
@@ -6965,7 +7097,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>21</v>
       </c>
@@ -7025,7 +7157,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>22</v>
       </c>
@@ -7085,7 +7217,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" s="3" customFormat="1">
       <c r="A40" s="3">
         <v>23</v>
       </c>
@@ -7145,7 +7277,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>24</v>
       </c>
@@ -7205,7 +7337,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>25</v>
       </c>
@@ -7265,7 +7397,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>27</v>
       </c>
@@ -7328,7 +7460,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>28</v>
       </c>
@@ -7391,7 +7523,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21">
       <c r="A45">
         <v>29</v>
       </c>
@@ -7451,7 +7583,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" s="3" customFormat="1">
       <c r="A46" s="3">
         <v>30</v>
       </c>
@@ -7514,7 +7646,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>31</v>
       </c>
@@ -7577,7 +7709,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>32</v>
       </c>
@@ -7640,7 +7772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>33</v>
       </c>
@@ -7703,7 +7835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>34</v>
       </c>
@@ -7766,7 +7898,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" s="3" customFormat="1">
       <c r="A51" s="3">
         <v>35</v>
       </c>
@@ -7826,7 +7958,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>36</v>
       </c>
@@ -7886,7 +8018,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>37</v>
       </c>
@@ -7946,7 +8078,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>38</v>
       </c>
@@ -8006,7 +8138,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="A55">
         <v>39</v>
       </c>
@@ -8066,7 +8198,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>41</v>
       </c>
@@ -8126,7 +8258,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>42</v>
       </c>
@@ -8186,7 +8318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" s="8" customFormat="1">
       <c r="A58" s="8">
         <v>44</v>
       </c>
@@ -8246,7 +8378,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="3" customFormat="1">
       <c r="A59" s="3">
         <v>45</v>
       </c>
@@ -8306,7 +8438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>46</v>
       </c>
@@ -8366,7 +8498,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>47</v>
       </c>
@@ -8426,7 +8558,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>48</v>
       </c>
@@ -8486,7 +8618,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>49</v>
       </c>
@@ -8546,7 +8678,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>51</v>
       </c>
@@ -8606,7 +8738,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>52</v>
       </c>
@@ -8666,7 +8798,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>53</v>
       </c>
@@ -8726,7 +8858,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>55</v>
       </c>
@@ -8786,7 +8918,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>56</v>
       </c>
@@ -8846,7 +8978,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>58</v>
       </c>
@@ -8906,7 +9038,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>59</v>
       </c>
@@ -8966,7 +9098,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>60</v>
       </c>
@@ -9026,7 +9158,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>61</v>
       </c>
@@ -9086,7 +9218,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>62</v>
       </c>
@@ -9146,7 +9278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>63</v>
       </c>
@@ -9206,7 +9338,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>67</v>
       </c>
@@ -9266,7 +9398,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>68</v>
       </c>
@@ -9326,7 +9458,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>69</v>
       </c>
@@ -9386,7 +9518,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>70</v>
       </c>
@@ -9446,7 +9578,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>71</v>
       </c>
@@ -9506,7 +9638,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>72</v>
       </c>
@@ -9566,7 +9698,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>73</v>
       </c>
@@ -9626,7 +9758,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>74</v>
       </c>
@@ -9686,7 +9818,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>75</v>
       </c>
@@ -9746,7 +9878,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>76</v>
       </c>
@@ -9806,7 +9938,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>77</v>
       </c>
@@ -9866,7 +9998,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>78</v>
       </c>
@@ -9926,7 +10058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>79</v>
       </c>
@@ -9986,7 +10118,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>80</v>
       </c>
@@ -10046,7 +10178,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>81</v>
       </c>
@@ -10106,7 +10238,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>82</v>
       </c>
@@ -10166,7 +10298,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>83</v>
       </c>
@@ -10226,7 +10358,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>84</v>
       </c>
@@ -10286,7 +10418,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>85</v>
       </c>
@@ -10346,7 +10478,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>88</v>
       </c>
@@ -10406,7 +10538,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>89</v>
       </c>
@@ -10466,7 +10598,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>90</v>
       </c>
@@ -10526,7 +10658,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>91</v>
       </c>
@@ -10586,7 +10718,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>94</v>
       </c>
@@ -10646,7 +10778,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>95</v>
       </c>
@@ -10706,7 +10838,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>96</v>
       </c>
@@ -10766,7 +10898,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>97</v>
       </c>
@@ -10826,7 +10958,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>98</v>
       </c>
@@ -10886,7 +11018,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>99</v>
       </c>
@@ -10946,7 +11078,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>100</v>
       </c>
@@ -11006,7 +11138,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>5</v>
       </c>
@@ -11069,7 +11201,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>6</v>
       </c>
@@ -11132,7 +11264,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>7</v>
       </c>
@@ -11195,7 +11327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>101</v>
       </c>
@@ -11255,7 +11387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>104</v>
       </c>
@@ -11315,7 +11447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>105</v>
       </c>
@@ -11375,7 +11507,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>106</v>
       </c>
@@ -11435,7 +11567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>107</v>
       </c>
@@ -11495,7 +11627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>108</v>
       </c>
@@ -11555,7 +11687,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>109</v>
       </c>
@@ -11615,7 +11747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>110</v>
       </c>
@@ -11675,7 +11807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>113</v>
       </c>
@@ -11735,7 +11867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>114</v>
       </c>
@@ -11795,7 +11927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>115</v>
       </c>
@@ -11855,7 +11987,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>116</v>
       </c>
@@ -11915,7 +12047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>117</v>
       </c>
@@ -11975,7 +12107,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>118</v>
       </c>
@@ -12035,7 +12167,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>119</v>
       </c>
@@ -12095,7 +12227,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>120</v>
       </c>
@@ -12155,7 +12287,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12215,7 +12347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>125</v>
       </c>
@@ -12275,7 +12407,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" ht="15.75" customHeight="1">
       <c r="A126">
         <v>126</v>
       </c>
@@ -12335,7 +12467,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127">
         <v>127</v>
       </c>
@@ -12395,7 +12527,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" s="3" customFormat="1">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -12458,7 +12590,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -12521,7 +12653,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -12584,7 +12716,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -12647,7 +12779,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -12710,7 +12842,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21">
       <c r="A133">
         <v>133</v>
       </c>
@@ -12770,7 +12902,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>134</v>
       </c>
@@ -12830,7 +12962,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>137</v>
       </c>
@@ -12890,7 +13022,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>138</v>
       </c>
@@ -12950,7 +13082,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" s="3" customFormat="1">
       <c r="A137" s="3">
         <v>141</v>
       </c>
@@ -13013,7 +13145,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21">
       <c r="A138">
         <v>142</v>
       </c>
@@ -13073,7 +13205,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>143</v>
       </c>
@@ -13133,7 +13265,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" s="2" customFormat="1">
       <c r="A140" s="2">
         <v>182</v>
       </c>
@@ -13193,7 +13325,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21">
       <c r="A141">
         <v>199</v>
       </c>
@@ -13255,7 +13387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>200</v>
       </c>
@@ -13317,7 +13449,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" s="2" customFormat="1">
       <c r="A143" s="2">
         <v>183</v>
       </c>
@@ -13377,7 +13509,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>184</v>
       </c>
@@ -13437,7 +13569,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>185</v>
       </c>
@@ -13497,7 +13629,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>186</v>
       </c>
@@ -13557,7 +13689,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" ht="22.5" customHeight="1">
       <c r="A147">
         <v>181</v>
       </c>
@@ -13617,7 +13749,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21">
       <c r="A148">
         <v>182</v>
       </c>
@@ -13677,7 +13809,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" s="3" customFormat="1">
       <c r="A149" s="3">
         <v>172</v>
       </c>
@@ -13737,7 +13869,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>173</v>
       </c>
@@ -13797,7 +13929,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="19.5" customHeight="1">
       <c r="A151" s="3">
         <v>160</v>
       </c>
@@ -13859,7 +13991,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21">
       <c r="A152" s="3">
         <v>161</v>
       </c>
@@ -13921,7 +14053,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153">
         <v>144</v>
       </c>
@@ -13981,7 +14113,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>145</v>
       </c>
@@ -14041,7 +14173,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>146</v>
       </c>
@@ -14101,7 +14233,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>147</v>
       </c>
@@ -14161,7 +14293,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>148</v>
       </c>
@@ -14221,7 +14353,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>149</v>
       </c>
@@ -14281,7 +14413,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>150</v>
       </c>
@@ -14341,7 +14473,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>153</v>
       </c>
@@ -14401,7 +14533,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>154</v>
       </c>
@@ -14461,7 +14593,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>155</v>
       </c>
@@ -14521,7 +14653,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>156</v>
       </c>
@@ -14581,7 +14713,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>157</v>
       </c>
@@ -14641,7 +14773,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>158</v>
       </c>
@@ -14701,7 +14833,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>159</v>
       </c>
@@ -14761,7 +14893,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" s="3" customFormat="1">
       <c r="A167">
         <v>162</v>
       </c>
@@ -14823,7 +14955,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>163</v>
       </c>
@@ -14885,7 +15017,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169" s="3">
         <v>164</v>
       </c>
@@ -14945,7 +15077,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21">
       <c r="A170" s="3">
         <v>165</v>
       </c>
@@ -15007,7 +15139,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>166</v>
       </c>
@@ -15069,7 +15201,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172">
         <v>167</v>
       </c>
@@ -15129,7 +15261,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>168</v>
       </c>
@@ -15189,7 +15321,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>169</v>
       </c>
@@ -15249,7 +15381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>170</v>
       </c>
@@ -15309,7 +15441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>171</v>
       </c>
@@ -15369,7 +15501,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>172</v>
       </c>
@@ -15429,7 +15561,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>173</v>
       </c>
@@ -15489,7 +15621,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>174</v>
       </c>
@@ -15549,7 +15681,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>175</v>
       </c>
@@ -15609,7 +15741,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>176</v>
       </c>
@@ -15669,7 +15801,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>177</v>
       </c>
@@ -15729,7 +15861,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>178</v>
       </c>
@@ -15789,7 +15921,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>179</v>
       </c>
@@ -15849,7 +15981,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>180</v>
       </c>
@@ -15909,7 +16041,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>181</v>
       </c>
@@ -15969,7 +16101,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>139</v>
       </c>
@@ -16029,7 +16161,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>140</v>
       </c>
@@ -16089,7 +16221,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>187</v>
       </c>
@@ -16149,7 +16281,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>188</v>
       </c>
@@ -16209,7 +16341,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>189</v>
       </c>
@@ -16269,7 +16401,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>190</v>
       </c>
@@ -16329,7 +16461,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>191</v>
       </c>
@@ -16389,7 +16521,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>192</v>
       </c>
@@ -16449,7 +16581,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>193</v>
       </c>
@@ -16509,7 +16641,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>194</v>
       </c>
@@ -16569,7 +16701,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>195</v>
       </c>
@@ -16629,7 +16761,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>196</v>
       </c>
@@ -16689,7 +16821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>197</v>
       </c>
@@ -16749,7 +16881,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>198</v>
       </c>
@@ -16809,7 +16941,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>199</v>
       </c>
@@ -16869,7 +17001,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>201</v>
       </c>
@@ -16929,7 +17061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>202</v>
       </c>
@@ -16989,7 +17121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17049,7 +17181,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17109,7 +17241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17169,7 +17301,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17229,7 +17361,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17289,7 +17421,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17349,7 +17481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17409,7 +17541,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17469,7 +17601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17529,7 +17661,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17589,7 +17721,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17649,7 +17781,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>215</v>
       </c>
@@ -17709,7 +17841,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>216</v>
       </c>
@@ -17769,7 +17901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>217</v>
       </c>
@@ -17829,7 +17961,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" s="3" customFormat="1">
       <c r="A218" s="3">
         <v>124</v>
       </c>
@@ -17889,7 +18021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21">
       <c r="A219">
         <v>220</v>
       </c>
@@ -17903,10 +18035,10 @@
         <v>572</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G219" t="s">
-        <v>16</v>
+        <v>971</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>972</v>
       </c>
       <c r="H219" t="s">
         <v>31</v>
@@ -17949,7 +18081,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>221</v>
       </c>
@@ -18009,7 +18141,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>222</v>
       </c>
@@ -18069,7 +18201,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>223</v>
       </c>
@@ -18129,7 +18261,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>224</v>
       </c>
@@ -18189,7 +18321,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>225</v>
       </c>
@@ -18249,7 +18381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>226</v>
       </c>
@@ -18309,7 +18441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>227</v>
       </c>
@@ -18369,7 +18501,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>228</v>
       </c>
@@ -18429,7 +18561,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>229</v>
       </c>
@@ -18489,7 +18621,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>230</v>
       </c>
@@ -18549,7 +18681,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>231</v>
       </c>
@@ -18609,7 +18741,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>232</v>
       </c>
@@ -18669,7 +18801,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>233</v>
       </c>
@@ -18729,7 +18861,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>234</v>
       </c>
@@ -18789,7 +18921,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>235</v>
       </c>
@@ -18849,7 +18981,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>236</v>
       </c>
@@ -18909,7 +19041,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>237</v>
       </c>
@@ -18969,7 +19101,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>238</v>
       </c>
@@ -19029,7 +19161,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>239</v>
       </c>
@@ -19089,7 +19221,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>240</v>
       </c>
@@ -19149,7 +19281,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>243</v>
       </c>
@@ -19163,10 +19295,10 @@
         <v>635</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G240" t="s">
-        <v>16</v>
+        <v>973</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>974</v>
       </c>
       <c r="H240" t="s">
         <v>31</v>
@@ -19209,7 +19341,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>244</v>
       </c>
@@ -19223,10 +19355,10 @@
         <v>636</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G241" t="s">
-        <v>16</v>
+        <v>976</v>
+      </c>
+      <c r="G241" s="7" t="s">
+        <v>975</v>
       </c>
       <c r="H241" t="s">
         <v>31</v>
@@ -19269,7 +19401,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>245</v>
       </c>
@@ -19329,7 +19461,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>246</v>
       </c>
@@ -19389,7 +19521,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>249</v>
       </c>
@@ -19449,7 +19581,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>250</v>
       </c>
@@ -19509,7 +19641,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>251</v>
       </c>
@@ -19569,7 +19701,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>252</v>
       </c>
@@ -19629,7 +19761,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>253</v>
       </c>
@@ -19689,7 +19821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" s="3" customFormat="1">
       <c r="A249">
         <v>254</v>
       </c>
@@ -19749,7 +19881,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21">
       <c r="A250">
         <v>255</v>
       </c>
@@ -19809,7 +19941,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>256</v>
       </c>
@@ -19869,7 +20001,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>257</v>
       </c>
@@ -19929,7 +20061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>258</v>
       </c>
@@ -19989,7 +20121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" s="3" customFormat="1">
       <c r="A254">
         <v>259</v>
       </c>
@@ -20049,7 +20181,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21">
       <c r="A255">
         <v>260</v>
       </c>
@@ -20109,7 +20241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>261</v>
       </c>
@@ -20169,7 +20301,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>262</v>
       </c>
@@ -20229,7 +20361,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>263</v>
       </c>
@@ -20289,7 +20421,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>264</v>
       </c>
@@ -20349,7 +20481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>265</v>
       </c>
@@ -20409,7 +20541,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>266</v>
       </c>
@@ -20469,7 +20601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>267</v>
       </c>
@@ -20529,7 +20661,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>268</v>
       </c>
@@ -20589,7 +20721,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>269</v>
       </c>
@@ -20649,7 +20781,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>270</v>
       </c>
@@ -20709,7 +20841,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>273</v>
       </c>
@@ -20769,7 +20901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>274</v>
       </c>
@@ -20829,7 +20961,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>275</v>
       </c>
@@ -20843,10 +20975,10 @@
         <v>744</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G268" t="s">
-        <v>16</v>
+        <v>979</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>977</v>
       </c>
       <c r="H268" t="s">
         <v>31</v>
@@ -20889,7 +21021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>276</v>
       </c>
@@ -20949,7 +21081,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>277</v>
       </c>
@@ -21009,7 +21141,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>278</v>
       </c>
@@ -21069,7 +21201,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>279</v>
       </c>
@@ -21129,7 +21261,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>280</v>
       </c>
@@ -21189,7 +21321,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>281</v>
       </c>
@@ -21249,7 +21381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>282</v>
       </c>
@@ -21309,7 +21441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>283</v>
       </c>
@@ -21369,7 +21501,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>284</v>
       </c>
@@ -21429,7 +21561,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>287</v>
       </c>
@@ -21489,7 +21621,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>288</v>
       </c>
@@ -21552,7 +21684,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>289</v>
       </c>
@@ -21612,7 +21744,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>290</v>
       </c>
@@ -21672,7 +21804,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>291</v>
       </c>
@@ -21732,7 +21864,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>292</v>
       </c>
@@ -21792,7 +21924,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>293</v>
       </c>
@@ -21852,7 +21984,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>294</v>
       </c>
@@ -21912,7 +22044,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>295</v>
       </c>
@@ -21972,7 +22104,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" s="3" customFormat="1">
       <c r="A287">
         <v>296</v>
       </c>
@@ -22032,7 +22164,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21">
       <c r="A288">
         <v>297</v>
       </c>
@@ -22092,7 +22224,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>298</v>
       </c>
@@ -22152,7 +22284,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>299</v>
       </c>
@@ -22212,7 +22344,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>300</v>
       </c>
@@ -22272,7 +22404,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>301</v>
       </c>
@@ -22332,7 +22464,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>302</v>
       </c>
@@ -22392,7 +22524,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>303</v>
       </c>
@@ -22452,7 +22584,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>304</v>
       </c>
@@ -22512,7 +22644,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>305</v>
       </c>
@@ -22572,7 +22704,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>306</v>
       </c>
@@ -22632,7 +22764,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>307</v>
       </c>
@@ -22692,7 +22824,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>308</v>
       </c>
@@ -22752,7 +22884,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>309</v>
       </c>
@@ -22812,7 +22944,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>310</v>
       </c>
@@ -22872,7 +23004,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>311</v>
       </c>
@@ -22886,10 +23018,10 @@
         <v>842</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G302" t="s">
-        <v>745</v>
+        <v>969</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>970</v>
       </c>
       <c r="H302" t="s">
         <v>8</v>
@@ -22932,7 +23064,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>312</v>
       </c>
@@ -22992,7 +23124,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>313</v>
       </c>
@@ -23052,7 +23184,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>314</v>
       </c>
@@ -23112,7 +23244,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>315</v>
       </c>
@@ -23172,7 +23304,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>316</v>
       </c>
@@ -23232,7 +23364,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>317</v>
       </c>
@@ -23246,10 +23378,10 @@
         <v>863</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G308" t="s">
-        <v>745</v>
+        <v>969</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>970</v>
       </c>
       <c r="H308" t="s">
         <v>8</v>
@@ -23292,7 +23424,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>318</v>
       </c>
@@ -23352,7 +23484,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>319</v>
       </c>
@@ -23412,7 +23544,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>320</v>
       </c>
@@ -23472,7 +23604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>321</v>
       </c>
@@ -23532,7 +23664,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>322</v>
       </c>
@@ -23595,7 +23727,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>323</v>
       </c>
@@ -23655,7 +23787,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>324</v>
       </c>
@@ -23715,7 +23847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>325</v>
       </c>
@@ -23775,7 +23907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>326</v>
       </c>
@@ -23789,10 +23921,10 @@
         <v>884</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G317" t="s">
-        <v>745</v>
+        <v>969</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>970</v>
       </c>
       <c r="H317" t="s">
         <v>8</v>
@@ -23835,7 +23967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>327</v>
       </c>
@@ -23895,7 +24027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>328</v>
       </c>
@@ -23955,7 +24087,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>329</v>
       </c>
@@ -24015,7 +24147,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>330</v>
       </c>
@@ -24075,7 +24207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>331</v>
       </c>
@@ -24135,7 +24267,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>332</v>
       </c>
@@ -24195,7 +24327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>333</v>
       </c>
@@ -24255,7 +24387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>334</v>
       </c>
@@ -24315,7 +24447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>335</v>
       </c>
@@ -24375,7 +24507,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>336</v>
       </c>
@@ -24435,7 +24567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>337</v>
       </c>
@@ -24495,7 +24627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>338</v>
       </c>
@@ -24555,7 +24687,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>339</v>
       </c>
@@ -24615,7 +24747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>340</v>
       </c>
@@ -24675,7 +24807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>341</v>
       </c>
@@ -24735,7 +24867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>342</v>
       </c>
@@ -24795,7 +24927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>343</v>
       </c>
@@ -24855,7 +24987,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>344</v>
       </c>
@@ -24908,14 +25040,14 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T356" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T361" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>345</v>
       </c>
@@ -24929,10 +25061,10 @@
         <v>918</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G336" t="s">
-        <v>16</v>
+        <v>969</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>970</v>
       </c>
       <c r="H336" t="s">
         <v>31</v>
@@ -24975,7 +25107,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>346</v>
       </c>
@@ -24989,10 +25121,10 @@
         <v>919</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G337" t="s">
-        <v>16</v>
+        <v>969</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>978</v>
       </c>
       <c r="H337" t="s">
         <v>31</v>
@@ -25035,7 +25167,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>347</v>
       </c>
@@ -25095,7 +25227,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>348</v>
       </c>
@@ -25155,7 +25287,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>349</v>
       </c>
@@ -25166,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="D340" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>578</v>
@@ -25215,7 +25347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" s="3" customFormat="1">
       <c r="A341">
         <v>350</v>
       </c>
@@ -25230,10 +25362,10 @@
       </c>
       <c r="E341"/>
       <c r="F341" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="G341" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="G341" s="3" t="s">
-        <v>948</v>
       </c>
       <c r="H341" s="3" t="s">
         <v>124</v>
@@ -25273,15 +25405,15 @@
         <v>339</v>
       </c>
       <c r="U341" s="15" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21">
       <c r="A342">
         <v>351</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C342" s="3" t="b">
         <v>0</v>
@@ -25290,10 +25422,10 @@
         <v>929</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>124</v>
@@ -25318,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="P342" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="Q342" s="3">
         <v>5</v>
@@ -25334,21 +25466,21 @@
         <v>340</v>
       </c>
       <c r="U342" s="15" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>352</v>
       </c>
       <c r="B343" t="s">
+        <v>931</v>
+      </c>
+      <c r="C343" t="b">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
         <v>932</v>
-      </c>
-      <c r="C343" t="b">
-        <v>0</v>
-      </c>
-      <c r="D343" t="s">
-        <v>933</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>16</v>
@@ -25378,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="P343" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q343">
         <v>0</v>
@@ -25397,18 +25529,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>353</v>
       </c>
       <c r="B344" t="s">
+        <v>933</v>
+      </c>
+      <c r="C344" t="b">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
         <v>934</v>
-      </c>
-      <c r="C344" t="b">
-        <v>0</v>
-      </c>
-      <c r="D344" t="s">
-        <v>935</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>16</v>
@@ -25438,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="P344" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q344">
         <v>0</v>
@@ -25457,12 +25589,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>354</v>
       </c>
       <c r="B345" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C345" t="b">
         <v>0</v>
@@ -25498,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="P345" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q345">
         <v>1</v>
@@ -25517,18 +25649,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>356</v>
       </c>
       <c r="B346" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C346" t="b">
         <v>0</v>
       </c>
       <c r="D346" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>16</v>
@@ -25558,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="P346" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q346">
         <v>0</v>
@@ -25577,18 +25709,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>357</v>
       </c>
       <c r="B347" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C347" t="b">
         <v>0</v>
       </c>
       <c r="D347" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>16</v>
@@ -25618,7 +25750,7 @@
         <v>0</v>
       </c>
       <c r="P347" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Q347">
         <v>0</v>
@@ -25637,18 +25769,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>358</v>
       </c>
       <c r="B348" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C348" t="b">
         <v>0</v>
       </c>
       <c r="D348" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>16</v>
@@ -25678,7 +25810,7 @@
         <v>0</v>
       </c>
       <c r="P348" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="Q348">
         <v>0</v>
@@ -25697,18 +25829,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>359</v>
       </c>
       <c r="B349" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C349" t="b">
         <v>0</v>
       </c>
       <c r="D349" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>16</v>
@@ -25738,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="P349" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="Q349">
         <v>0</v>
@@ -25757,18 +25889,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>360</v>
       </c>
       <c r="B350" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C350" t="b">
         <v>0</v>
       </c>
       <c r="D350" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>16</v>
@@ -25798,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="P350" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -25817,18 +25949,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>361</v>
       </c>
       <c r="B351" t="s">
+        <v>952</v>
+      </c>
+      <c r="C351" t="b">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
         <v>953</v>
-      </c>
-      <c r="C351" t="b">
-        <v>0</v>
-      </c>
-      <c r="D351" t="s">
-        <v>954</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>16</v>
@@ -25858,7 +25990,7 @@
         <v>0</v>
       </c>
       <c r="P351" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -25877,18 +26009,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>362</v>
       </c>
       <c r="B352" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C352" t="b">
         <v>0</v>
       </c>
       <c r="D352" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>16</v>
@@ -25918,7 +26050,7 @@
         <v>0</v>
       </c>
       <c r="P352" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -25937,18 +26069,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>363</v>
       </c>
       <c r="B353" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C353" t="b">
         <v>0</v>
       </c>
       <c r="D353" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>16</v>
@@ -25978,7 +26110,7 @@
         <v>0</v>
       </c>
       <c r="P353" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -25997,18 +26129,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>364</v>
       </c>
       <c r="B354" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C354" t="b">
         <v>0</v>
       </c>
       <c r="D354" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>16</v>
@@ -26038,7 +26170,7 @@
         <v>0</v>
       </c>
       <c r="P354" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="Q354">
         <v>0</v>
@@ -26057,18 +26189,18 @@
         <v>646</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>365</v>
       </c>
       <c r="B355" t="s">
+        <v>961</v>
+      </c>
+      <c r="C355" t="b">
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
         <v>962</v>
-      </c>
-      <c r="C355" t="b">
-        <v>0</v>
-      </c>
-      <c r="D355" t="s">
-        <v>963</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>578</v>
@@ -26098,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="P355" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="Q355">
         <v>1</v>
@@ -26117,24 +26249,24 @@
         <v>646</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>366</v>
       </c>
       <c r="B356" t="s">
+        <v>963</v>
+      </c>
+      <c r="C356" t="b">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
         <v>964</v>
       </c>
-      <c r="C356" t="b">
-        <v>0</v>
-      </c>
-      <c r="D356" t="s">
-        <v>965</v>
-      </c>
       <c r="F356" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G356" t="s">
-        <v>16</v>
+        <v>969</v>
+      </c>
+      <c r="G356" s="7" t="s">
+        <v>978</v>
       </c>
       <c r="H356" t="s">
         <v>31</v>
@@ -26158,7 +26290,7 @@
         <v>0</v>
       </c>
       <c r="P356" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Q356">
         <v>0</v>
@@ -26174,6 +26306,306 @@
         <v>354</v>
       </c>
       <c r="U356" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21">
+      <c r="A357">
+        <v>367</v>
+      </c>
+      <c r="B357" t="s">
+        <v>965</v>
+      </c>
+      <c r="C357" t="b">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>966</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G357" t="s">
+        <v>16</v>
+      </c>
+      <c r="H357" t="s">
+        <v>31</v>
+      </c>
+      <c r="I357">
+        <v>30000</v>
+      </c>
+      <c r="J357" t="s">
+        <v>46</v>
+      </c>
+      <c r="K357">
+        <v>5</v>
+      </c>
+      <c r="M357" t="b">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
+        <v>43</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+      <c r="P357" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357" t="s">
+        <v>148</v>
+      </c>
+      <c r="T357">
+        <f t="shared" si="8"/>
+        <v>355</v>
+      </c>
+      <c r="U357" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21">
+      <c r="A358">
+        <v>368</v>
+      </c>
+      <c r="B358" t="s">
+        <v>967</v>
+      </c>
+      <c r="C358" t="b">
+        <v>0</v>
+      </c>
+      <c r="D358" t="s">
+        <v>968</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G358" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="H358" t="s">
+        <v>31</v>
+      </c>
+      <c r="I358">
+        <v>50000</v>
+      </c>
+      <c r="J358" t="s">
+        <v>46</v>
+      </c>
+      <c r="K358">
+        <v>5</v>
+      </c>
+      <c r="M358" t="b">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
+        <v>43</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358" t="s">
+        <v>148</v>
+      </c>
+      <c r="T358">
+        <f t="shared" si="8"/>
+        <v>356</v>
+      </c>
+      <c r="U358" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21">
+      <c r="A359">
+        <v>369</v>
+      </c>
+      <c r="B359" t="s">
+        <v>980</v>
+      </c>
+      <c r="C359" t="b">
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>983</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" t="s">
+        <v>16</v>
+      </c>
+      <c r="H359" t="s">
+        <v>31</v>
+      </c>
+      <c r="I359">
+        <v>10000</v>
+      </c>
+      <c r="J359" t="s">
+        <v>46</v>
+      </c>
+      <c r="K359">
+        <v>5</v>
+      </c>
+      <c r="M359" t="b">
+        <v>0</v>
+      </c>
+      <c r="N359" t="s">
+        <v>43</v>
+      </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
+      <c r="P359" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T359">
+        <f t="shared" si="8"/>
+        <v>357</v>
+      </c>
+      <c r="U359" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21">
+      <c r="A360">
+        <v>370</v>
+      </c>
+      <c r="B360" t="s">
+        <v>981</v>
+      </c>
+      <c r="C360" t="b">
+        <v>0</v>
+      </c>
+      <c r="D360" t="s">
+        <v>984</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" t="s">
+        <v>16</v>
+      </c>
+      <c r="H360" t="s">
+        <v>31</v>
+      </c>
+      <c r="I360">
+        <v>10000</v>
+      </c>
+      <c r="J360" t="s">
+        <v>46</v>
+      </c>
+      <c r="K360">
+        <v>5</v>
+      </c>
+      <c r="M360" t="b">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
+        <v>43</v>
+      </c>
+      <c r="O360">
+        <v>0</v>
+      </c>
+      <c r="P360" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T360">
+        <f t="shared" si="8"/>
+        <v>358</v>
+      </c>
+      <c r="U360" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21">
+      <c r="A361">
+        <v>371</v>
+      </c>
+      <c r="B361" t="s">
+        <v>982</v>
+      </c>
+      <c r="C361" t="b">
+        <v>0</v>
+      </c>
+      <c r="D361" t="s">
+        <v>985</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" t="s">
+        <v>31</v>
+      </c>
+      <c r="I361">
+        <v>10000</v>
+      </c>
+      <c r="J361" t="s">
+        <v>46</v>
+      </c>
+      <c r="K361">
+        <v>5</v>
+      </c>
+      <c r="M361" t="b">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
+        <v>43</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+      <c r="P361" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T361">
+        <f t="shared" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="U361" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -26181,28 +26613,37 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341:P342">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P351">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P352:P354">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P356">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P357">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P358">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P359:P361">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P356">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -26218,7 +26659,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E2302-8BEF-4D5C-B5BB-EF630FC270C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47F2A5-E5AE-4085-BD89-3E914A94F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1003">
   <si>
     <t>id</t>
   </si>
@@ -4115,12 +4115,73 @@
     <t>2024-01-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>월간패스(2월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass29ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandupass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만두 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seolpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass101</t>
+  </si>
+  <si>
+    <t>levelpass101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass102</t>
+  </si>
+  <si>
+    <t>levelpass102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass103</t>
+  </si>
+  <si>
+    <t>levelpass103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(101단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(102단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(103단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4329,7 +4390,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4346,102 +4407,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -4801,14 +4766,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U361"/>
+  <dimension ref="A1:U368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U341" sqref="U341"/>
+      <selection pane="bottomLeft" activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -4828,7 +4793,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4858,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>309</v>
       </c>
@@ -4953,7 +4918,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5013,7 +4978,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1">
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5073,7 +5038,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1">
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5133,7 +5098,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1">
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5193,7 +5158,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5253,7 +5218,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>310</v>
       </c>
@@ -5313,7 +5278,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>286</v>
       </c>
@@ -5373,7 +5338,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>271</v>
       </c>
@@ -5433,7 +5398,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>247</v>
       </c>
@@ -5493,7 +5458,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1">
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>241</v>
       </c>
@@ -5553,7 +5518,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1">
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>235</v>
       </c>
@@ -5613,7 +5578,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>234</v>
       </c>
@@ -5673,7 +5638,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>226</v>
       </c>
@@ -5735,7 +5700,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1">
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>218</v>
       </c>
@@ -5795,7 +5760,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1">
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>214</v>
       </c>
@@ -5855,7 +5820,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>210</v>
       </c>
@@ -5915,7 +5880,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>205</v>
       </c>
@@ -5975,7 +5940,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -6038,7 +6003,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>101</v>
       </c>
@@ -6098,7 +6063,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>102</v>
       </c>
@@ -6158,7 +6123,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>103</v>
       </c>
@@ -6218,7 +6183,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -6281,7 +6246,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
@@ -6344,7 +6309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10</v>
       </c>
@@ -6410,7 +6375,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11</v>
       </c>
@@ -6476,7 +6441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="3" customFormat="1">
+    <row r="28" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>12</v>
       </c>
@@ -6539,7 +6504,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>13</v>
       </c>
@@ -6602,7 +6567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>20</v>
       </c>
@@ -6665,7 +6630,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -6728,7 +6693,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="8" customFormat="1">
+    <row r="32" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>15</v>
       </c>
@@ -6791,7 +6756,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1">
+    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>16</v>
       </c>
@@ -6854,7 +6819,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1">
+    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>17</v>
       </c>
@@ -6917,7 +6882,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1">
+    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>18</v>
       </c>
@@ -6977,7 +6942,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1">
+    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>19</v>
       </c>
@@ -7037,7 +7002,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20</v>
       </c>
@@ -7097,7 +7062,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>21</v>
       </c>
@@ -7157,7 +7122,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>22</v>
       </c>
@@ -7217,7 +7182,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="3" customFormat="1">
+    <row r="40" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>23</v>
       </c>
@@ -7277,7 +7242,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1">
+    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>24</v>
       </c>
@@ -7337,7 +7302,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1">
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>25</v>
       </c>
@@ -7397,7 +7362,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1">
+    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>27</v>
       </c>
@@ -7460,7 +7425,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1">
+    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>28</v>
       </c>
@@ -7523,7 +7488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>29</v>
       </c>
@@ -7583,7 +7548,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="3" customFormat="1">
+    <row r="46" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>30</v>
       </c>
@@ -7646,7 +7611,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1">
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>31</v>
       </c>
@@ -7709,7 +7674,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>32</v>
       </c>
@@ -7772,7 +7737,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>33</v>
       </c>
@@ -7835,7 +7800,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>34</v>
       </c>
@@ -7898,7 +7863,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="3" customFormat="1">
+    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>35</v>
       </c>
@@ -7958,7 +7923,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1">
+    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>36</v>
       </c>
@@ -8018,7 +7983,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1">
+    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>37</v>
       </c>
@@ -8078,7 +8043,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1">
+    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>38</v>
       </c>
@@ -8138,7 +8103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>39</v>
       </c>
@@ -8198,7 +8163,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>41</v>
       </c>
@@ -8258,7 +8223,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>42</v>
       </c>
@@ -8318,7 +8283,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="8" customFormat="1">
+    <row r="58" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>44</v>
       </c>
@@ -8378,7 +8343,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="3" customFormat="1">
+    <row r="59" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>45</v>
       </c>
@@ -8438,7 +8403,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1">
+    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>46</v>
       </c>
@@ -8498,7 +8463,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1">
+    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>47</v>
       </c>
@@ -8558,7 +8523,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>48</v>
       </c>
@@ -8618,7 +8583,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>49</v>
       </c>
@@ -8678,7 +8643,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>51</v>
       </c>
@@ -8738,7 +8703,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>52</v>
       </c>
@@ -8798,7 +8763,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>53</v>
       </c>
@@ -8858,7 +8823,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>55</v>
       </c>
@@ -8918,7 +8883,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>56</v>
       </c>
@@ -8978,7 +8943,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>58</v>
       </c>
@@ -9038,7 +9003,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>59</v>
       </c>
@@ -9098,7 +9063,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>60</v>
       </c>
@@ -9158,7 +9123,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>61</v>
       </c>
@@ -9218,7 +9183,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>62</v>
       </c>
@@ -9278,7 +9243,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>63</v>
       </c>
@@ -9338,7 +9303,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>67</v>
       </c>
@@ -9398,7 +9363,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>68</v>
       </c>
@@ -9458,7 +9423,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>69</v>
       </c>
@@ -9518,7 +9483,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>70</v>
       </c>
@@ -9578,7 +9543,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>71</v>
       </c>
@@ -9638,7 +9603,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>72</v>
       </c>
@@ -9698,7 +9663,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>73</v>
       </c>
@@ -9758,7 +9723,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>74</v>
       </c>
@@ -9818,7 +9783,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>75</v>
       </c>
@@ -9878,7 +9843,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>76</v>
       </c>
@@ -9938,7 +9903,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>77</v>
       </c>
@@ -9998,7 +9963,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>78</v>
       </c>
@@ -10058,7 +10023,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>79</v>
       </c>
@@ -10118,7 +10083,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>80</v>
       </c>
@@ -10178,7 +10143,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>81</v>
       </c>
@@ -10238,7 +10203,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>82</v>
       </c>
@@ -10298,7 +10263,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>83</v>
       </c>
@@ -10358,7 +10323,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>84</v>
       </c>
@@ -10418,7 +10383,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>85</v>
       </c>
@@ -10478,7 +10443,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>88</v>
       </c>
@@ -10538,7 +10503,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>89</v>
       </c>
@@ -10598,7 +10563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>90</v>
       </c>
@@ -10658,7 +10623,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>91</v>
       </c>
@@ -10718,7 +10683,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>94</v>
       </c>
@@ -10778,7 +10743,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>95</v>
       </c>
@@ -10838,7 +10803,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96</v>
       </c>
@@ -10898,7 +10863,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>97</v>
       </c>
@@ -10958,7 +10923,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>98</v>
       </c>
@@ -11018,7 +10983,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>99</v>
       </c>
@@ -11078,7 +11043,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>100</v>
       </c>
@@ -11138,7 +11103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>5</v>
       </c>
@@ -11201,7 +11166,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>6</v>
       </c>
@@ -11264,7 +11229,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>7</v>
       </c>
@@ -11327,7 +11292,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>101</v>
       </c>
@@ -11387,7 +11352,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>104</v>
       </c>
@@ -11447,7 +11412,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>105</v>
       </c>
@@ -11507,7 +11472,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>106</v>
       </c>
@@ -11567,7 +11532,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>107</v>
       </c>
@@ -11627,7 +11592,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>108</v>
       </c>
@@ -11687,7 +11652,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>109</v>
       </c>
@@ -11747,7 +11712,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>110</v>
       </c>
@@ -11807,7 +11772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -11867,7 +11832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -11927,7 +11892,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -11987,7 +11952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -12047,7 +12012,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -12107,7 +12072,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -12167,7 +12132,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -12227,7 +12192,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -12287,7 +12252,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12347,7 +12312,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -12407,7 +12372,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15.75" customHeight="1">
+    <row r="126" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -12467,7 +12432,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -12527,7 +12492,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="3" customFormat="1">
+    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -12590,7 +12555,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1">
+    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -12653,7 +12618,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1">
+    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -12716,7 +12681,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1">
+    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -12779,7 +12744,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1">
+    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -12842,7 +12807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -12902,7 +12867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -12962,7 +12927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>137</v>
       </c>
@@ -13022,7 +12987,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>138</v>
       </c>
@@ -13082,7 +13047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="3" customFormat="1">
+    <row r="137" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>141</v>
       </c>
@@ -13145,7 +13110,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>142</v>
       </c>
@@ -13205,7 +13170,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>143</v>
       </c>
@@ -13265,7 +13230,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="2" customFormat="1">
+    <row r="140" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>182</v>
       </c>
@@ -13325,7 +13290,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>199</v>
       </c>
@@ -13387,7 +13352,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>200</v>
       </c>
@@ -13449,7 +13414,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="2" customFormat="1">
+    <row r="143" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>183</v>
       </c>
@@ -13509,7 +13474,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1">
+    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>184</v>
       </c>
@@ -13569,7 +13534,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1">
+    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>185</v>
       </c>
@@ -13629,7 +13594,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1">
+    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>186</v>
       </c>
@@ -13689,7 +13654,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="22.5" customHeight="1">
+    <row r="147" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>181</v>
       </c>
@@ -13749,7 +13714,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>182</v>
       </c>
@@ -13809,7 +13774,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:21" s="3" customFormat="1">
+    <row r="149" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>172</v>
       </c>
@@ -13869,7 +13834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1">
+    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>173</v>
       </c>
@@ -13929,7 +13894,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="19.5" customHeight="1">
+    <row r="151" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>160</v>
       </c>
@@ -13991,7 +13956,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>161</v>
       </c>
@@ -14053,7 +14018,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>144</v>
       </c>
@@ -14113,7 +14078,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>145</v>
       </c>
@@ -14173,7 +14138,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>146</v>
       </c>
@@ -14233,7 +14198,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>147</v>
       </c>
@@ -14293,7 +14258,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>148</v>
       </c>
@@ -14353,7 +14318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>149</v>
       </c>
@@ -14413,7 +14378,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>150</v>
       </c>
@@ -14473,7 +14438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>153</v>
       </c>
@@ -14533,7 +14498,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>154</v>
       </c>
@@ -14593,7 +14558,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>155</v>
       </c>
@@ -14653,7 +14618,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>156</v>
       </c>
@@ -14713,7 +14678,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>157</v>
       </c>
@@ -14773,7 +14738,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>158</v>
       </c>
@@ -14833,7 +14798,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>159</v>
       </c>
@@ -14893,7 +14858,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:21" s="3" customFormat="1">
+    <row r="167" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>162</v>
       </c>
@@ -14955,7 +14920,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1">
+    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>163</v>
       </c>
@@ -15017,7 +14982,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1">
+    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>164</v>
       </c>
@@ -15077,7 +15042,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>165</v>
       </c>
@@ -15139,7 +15104,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>166</v>
       </c>
@@ -15201,7 +15166,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>167</v>
       </c>
@@ -15261,7 +15226,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>168</v>
       </c>
@@ -15321,7 +15286,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>169</v>
       </c>
@@ -15381,7 +15346,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>170</v>
       </c>
@@ -15441,7 +15406,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>171</v>
       </c>
@@ -15501,7 +15466,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>172</v>
       </c>
@@ -15561,7 +15526,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>173</v>
       </c>
@@ -15621,7 +15586,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>174</v>
       </c>
@@ -15681,7 +15646,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>175</v>
       </c>
@@ -15741,7 +15706,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>176</v>
       </c>
@@ -15801,7 +15766,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>177</v>
       </c>
@@ -15861,7 +15826,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>178</v>
       </c>
@@ -15921,7 +15886,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>179</v>
       </c>
@@ -15981,7 +15946,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>180</v>
       </c>
@@ -16041,7 +16006,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>181</v>
       </c>
@@ -16101,7 +16066,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>139</v>
       </c>
@@ -16161,7 +16126,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>140</v>
       </c>
@@ -16221,7 +16186,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -16281,7 +16246,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -16341,7 +16306,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -16401,7 +16366,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -16461,7 +16426,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -16521,7 +16486,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -16581,7 +16546,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -16641,7 +16606,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -16701,7 +16666,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -16761,7 +16726,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -16821,7 +16786,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -16881,7 +16846,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -16941,7 +16906,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -17001,7 +16966,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17061,7 +17026,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17121,7 +17086,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17181,7 +17146,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17241,7 +17206,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17301,7 +17266,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17361,7 +17326,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17421,7 +17386,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17481,7 +17446,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17541,7 +17506,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17601,7 +17566,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -17661,7 +17626,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -17721,7 +17686,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -17781,7 +17746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>215</v>
       </c>
@@ -17841,7 +17806,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>216</v>
       </c>
@@ -17901,7 +17866,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>217</v>
       </c>
@@ -17961,7 +17926,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="3" customFormat="1">
+    <row r="218" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>124</v>
       </c>
@@ -18021,7 +17986,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -18081,7 +18046,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -18141,7 +18106,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -18201,7 +18166,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -18261,7 +18226,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -18321,7 +18286,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -18381,7 +18346,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -18441,7 +18406,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -18501,7 +18466,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -18561,7 +18526,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -18621,7 +18586,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -18681,7 +18646,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -18741,7 +18706,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -18801,7 +18766,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -18861,7 +18826,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -18921,7 +18886,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -18981,7 +18946,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -19041,7 +19006,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -19101,7 +19066,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -19161,7 +19126,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -19221,7 +19186,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -19281,7 +19246,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>243</v>
       </c>
@@ -19341,7 +19306,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>244</v>
       </c>
@@ -19401,7 +19366,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>245</v>
       </c>
@@ -19461,7 +19426,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>246</v>
       </c>
@@ -19521,7 +19486,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>249</v>
       </c>
@@ -19581,7 +19546,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>250</v>
       </c>
@@ -19641,7 +19606,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>251</v>
       </c>
@@ -19701,7 +19666,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>252</v>
       </c>
@@ -19761,7 +19726,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>253</v>
       </c>
@@ -19821,7 +19786,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:21" s="3" customFormat="1">
+    <row r="249" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>254</v>
       </c>
@@ -19881,7 +19846,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>255</v>
       </c>
@@ -19941,7 +19906,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>256</v>
       </c>
@@ -20001,7 +19966,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>257</v>
       </c>
@@ -20061,7 +20026,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>258</v>
       </c>
@@ -20121,7 +20086,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:21" s="3" customFormat="1">
+    <row r="254" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>259</v>
       </c>
@@ -20181,7 +20146,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>260</v>
       </c>
@@ -20241,7 +20206,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>261</v>
       </c>
@@ -20301,7 +20266,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>262</v>
       </c>
@@ -20361,7 +20326,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>263</v>
       </c>
@@ -20421,7 +20386,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>264</v>
       </c>
@@ -20481,7 +20446,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>265</v>
       </c>
@@ -20541,7 +20506,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>266</v>
       </c>
@@ -20601,7 +20566,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>267</v>
       </c>
@@ -20661,7 +20626,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>268</v>
       </c>
@@ -20721,7 +20686,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>269</v>
       </c>
@@ -20781,7 +20746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>270</v>
       </c>
@@ -20841,7 +20806,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>273</v>
       </c>
@@ -20901,7 +20866,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>274</v>
       </c>
@@ -20961,7 +20926,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>275</v>
       </c>
@@ -21021,7 +20986,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>276</v>
       </c>
@@ -21081,7 +21046,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>277</v>
       </c>
@@ -21141,7 +21106,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>278</v>
       </c>
@@ -21201,7 +21166,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>279</v>
       </c>
@@ -21261,7 +21226,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>280</v>
       </c>
@@ -21321,7 +21286,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>281</v>
       </c>
@@ -21381,7 +21346,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>282</v>
       </c>
@@ -21441,7 +21406,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>283</v>
       </c>
@@ -21501,7 +21466,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>284</v>
       </c>
@@ -21561,7 +21526,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>287</v>
       </c>
@@ -21621,7 +21586,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>288</v>
       </c>
@@ -21684,7 +21649,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>289</v>
       </c>
@@ -21744,7 +21709,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>290</v>
       </c>
@@ -21804,7 +21769,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>291</v>
       </c>
@@ -21864,7 +21829,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>292</v>
       </c>
@@ -21924,7 +21889,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>293</v>
       </c>
@@ -21984,7 +21949,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>294</v>
       </c>
@@ -22044,7 +22009,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>295</v>
       </c>
@@ -22104,7 +22069,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:21" s="3" customFormat="1">
+    <row r="287" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>296</v>
       </c>
@@ -22164,7 +22129,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>297</v>
       </c>
@@ -22224,7 +22189,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>298</v>
       </c>
@@ -22284,7 +22249,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>299</v>
       </c>
@@ -22344,7 +22309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>300</v>
       </c>
@@ -22404,7 +22369,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>301</v>
       </c>
@@ -22464,7 +22429,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>302</v>
       </c>
@@ -22524,7 +22489,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>303</v>
       </c>
@@ -22584,7 +22549,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>304</v>
       </c>
@@ -22644,7 +22609,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>305</v>
       </c>
@@ -22704,7 +22669,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>306</v>
       </c>
@@ -22764,7 +22729,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>307</v>
       </c>
@@ -22824,7 +22789,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>308</v>
       </c>
@@ -22884,7 +22849,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>309</v>
       </c>
@@ -22944,7 +22909,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>310</v>
       </c>
@@ -23004,7 +22969,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>311</v>
       </c>
@@ -23064,7 +23029,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>312</v>
       </c>
@@ -23124,7 +23089,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>313</v>
       </c>
@@ -23184,7 +23149,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>314</v>
       </c>
@@ -23244,7 +23209,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>315</v>
       </c>
@@ -23304,7 +23269,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>316</v>
       </c>
@@ -23364,7 +23329,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>317</v>
       </c>
@@ -23424,7 +23389,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>318</v>
       </c>
@@ -23484,7 +23449,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>319</v>
       </c>
@@ -23544,7 +23509,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>320</v>
       </c>
@@ -23604,7 +23569,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>321</v>
       </c>
@@ -23664,7 +23629,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>322</v>
       </c>
@@ -23727,7 +23692,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>323</v>
       </c>
@@ -23787,7 +23752,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>324</v>
       </c>
@@ -23847,7 +23812,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>325</v>
       </c>
@@ -23907,7 +23872,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>326</v>
       </c>
@@ -23967,7 +23932,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>327</v>
       </c>
@@ -24027,7 +23992,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>328</v>
       </c>
@@ -24087,7 +24052,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>329</v>
       </c>
@@ -24147,7 +24112,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>330</v>
       </c>
@@ -24207,7 +24172,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>331</v>
       </c>
@@ -24267,7 +24232,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>332</v>
       </c>
@@ -24327,7 +24292,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>333</v>
       </c>
@@ -24387,7 +24352,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>334</v>
       </c>
@@ -24447,7 +24412,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>335</v>
       </c>
@@ -24507,7 +24472,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>336</v>
       </c>
@@ -24567,7 +24532,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>337</v>
       </c>
@@ -24627,7 +24592,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>338</v>
       </c>
@@ -24687,7 +24652,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>339</v>
       </c>
@@ -24747,7 +24712,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>340</v>
       </c>
@@ -24807,7 +24772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>341</v>
       </c>
@@ -24867,7 +24832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>342</v>
       </c>
@@ -24927,7 +24892,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>343</v>
       </c>
@@ -24987,7 +24952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>344</v>
       </c>
@@ -25040,14 +25005,14 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T361" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T368" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>345</v>
       </c>
@@ -25107,7 +25072,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>346</v>
       </c>
@@ -25167,7 +25132,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>347</v>
       </c>
@@ -25227,7 +25192,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>348</v>
       </c>
@@ -25287,7 +25252,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>349</v>
       </c>
@@ -25347,7 +25312,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:21" s="3" customFormat="1">
+    <row r="341" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>350</v>
       </c>
@@ -25408,7 +25373,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>351</v>
       </c>
@@ -25469,7 +25434,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>352</v>
       </c>
@@ -25529,7 +25494,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>353</v>
       </c>
@@ -25589,7 +25554,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>354</v>
       </c>
@@ -25649,7 +25614,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>356</v>
       </c>
@@ -25709,7 +25674,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>357</v>
       </c>
@@ -25769,7 +25734,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>358</v>
       </c>
@@ -25829,7 +25794,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>359</v>
       </c>
@@ -25869,8 +25834,9 @@
       <c r="O349">
         <v>0</v>
       </c>
-      <c r="P349" t="s">
-        <v>950</v>
+      <c r="P349" t="str">
+        <f t="shared" ref="P349:P361" si="9">B349</f>
+        <v>hottimepass2</v>
       </c>
       <c r="Q349">
         <v>0</v>
@@ -25889,7 +25855,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>360</v>
       </c>
@@ -25929,8 +25895,9 @@
       <c r="O350">
         <v>0</v>
       </c>
-      <c r="P350" t="s">
-        <v>951</v>
+      <c r="P350" t="str">
+        <f t="shared" si="9"/>
+        <v>monthpass28</v>
       </c>
       <c r="Q350">
         <v>0</v>
@@ -25949,7 +25916,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>361</v>
       </c>
@@ -25989,8 +25956,9 @@
       <c r="O351">
         <v>0</v>
       </c>
-      <c r="P351" t="s">
-        <v>952</v>
+      <c r="P351" t="str">
+        <f t="shared" si="9"/>
+        <v>monthpass28ins</v>
       </c>
       <c r="Q351">
         <v>0</v>
@@ -26009,7 +25977,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>362</v>
       </c>
@@ -26049,8 +26017,9 @@
       <c r="O352">
         <v>0</v>
       </c>
-      <c r="P352" t="s">
-        <v>955</v>
+      <c r="P352" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass95</v>
       </c>
       <c r="Q352">
         <v>0</v>
@@ -26069,7 +26038,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>363</v>
       </c>
@@ -26109,8 +26078,9 @@
       <c r="O353">
         <v>0</v>
       </c>
-      <c r="P353" t="s">
-        <v>956</v>
+      <c r="P353" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass96</v>
       </c>
       <c r="Q353">
         <v>0</v>
@@ -26129,7 +26099,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>364</v>
       </c>
@@ -26169,8 +26139,9 @@
       <c r="O354">
         <v>0</v>
       </c>
-      <c r="P354" t="s">
-        <v>957</v>
+      <c r="P354" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass97</v>
       </c>
       <c r="Q354">
         <v>0</v>
@@ -26189,7 +26160,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>365</v>
       </c>
@@ -26229,8 +26200,9 @@
       <c r="O355">
         <v>0</v>
       </c>
-      <c r="P355" t="s">
-        <v>935</v>
+      <c r="P355" t="str">
+        <f t="shared" si="9"/>
+        <v>levelup44</v>
       </c>
       <c r="Q355">
         <v>1</v>
@@ -26249,7 +26221,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>366</v>
       </c>
@@ -26289,8 +26261,9 @@
       <c r="O356">
         <v>0</v>
       </c>
-      <c r="P356" t="s">
-        <v>963</v>
+      <c r="P356" t="str">
+        <f t="shared" si="9"/>
+        <v>bimupass0</v>
       </c>
       <c r="Q356">
         <v>0</v>
@@ -26309,7 +26282,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>367</v>
       </c>
@@ -26349,8 +26322,9 @@
       <c r="O357">
         <v>0</v>
       </c>
-      <c r="P357" t="s">
-        <v>965</v>
+      <c r="P357" t="str">
+        <f t="shared" si="9"/>
+        <v>trainingpass0</v>
       </c>
       <c r="Q357">
         <v>0</v>
@@ -26369,7 +26343,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>368</v>
       </c>
@@ -26409,8 +26383,9 @@
       <c r="O358">
         <v>0</v>
       </c>
-      <c r="P358" t="s">
-        <v>967</v>
+      <c r="P358" t="str">
+        <f t="shared" si="9"/>
+        <v>sasinsupass0</v>
       </c>
       <c r="Q358">
         <v>0</v>
@@ -26429,7 +26404,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>369</v>
       </c>
@@ -26469,8 +26444,9 @@
       <c r="O359">
         <v>0</v>
       </c>
-      <c r="P359" t="s">
-        <v>980</v>
+      <c r="P359" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass98</v>
       </c>
       <c r="Q359">
         <v>0</v>
@@ -26489,7 +26465,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>370</v>
       </c>
@@ -26529,8 +26505,9 @@
       <c r="O360">
         <v>0</v>
       </c>
-      <c r="P360" t="s">
-        <v>981</v>
+      <c r="P360" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass99</v>
       </c>
       <c r="Q360">
         <v>0</v>
@@ -26549,7 +26526,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>371</v>
       </c>
@@ -26589,8 +26566,9 @@
       <c r="O361">
         <v>0</v>
       </c>
-      <c r="P361" t="s">
-        <v>982</v>
+      <c r="P361" t="str">
+        <f t="shared" si="9"/>
+        <v>levelpass100</v>
       </c>
       <c r="Q361">
         <v>0</v>
@@ -26606,6 +26584,430 @@
         <v>359</v>
       </c>
       <c r="U361" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>372</v>
+      </c>
+      <c r="B362" t="s">
+        <v>988</v>
+      </c>
+      <c r="C362" t="b">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>987</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G362" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" t="s">
+        <v>31</v>
+      </c>
+      <c r="I362">
+        <v>30000</v>
+      </c>
+      <c r="J362" t="s">
+        <v>46</v>
+      </c>
+      <c r="K362">
+        <v>5</v>
+      </c>
+      <c r="M362" t="b">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
+        <v>43</v>
+      </c>
+      <c r="O362">
+        <v>0</v>
+      </c>
+      <c r="P362" t="str">
+        <f>B362</f>
+        <v>monthpass29</v>
+      </c>
+      <c r="Q362">
+        <v>0</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T362">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="U362" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>373</v>
+      </c>
+      <c r="B363" t="s">
+        <v>989</v>
+      </c>
+      <c r="C363" t="b">
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>987</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G363" t="s">
+        <v>16</v>
+      </c>
+      <c r="H363" t="s">
+        <v>31</v>
+      </c>
+      <c r="I363">
+        <v>10000</v>
+      </c>
+      <c r="J363" t="s">
+        <v>46</v>
+      </c>
+      <c r="K363">
+        <v>5</v>
+      </c>
+      <c r="M363" t="b">
+        <v>0</v>
+      </c>
+      <c r="N363" t="s">
+        <v>43</v>
+      </c>
+      <c r="O363">
+        <v>0</v>
+      </c>
+      <c r="P363" t="str">
+        <f>B363</f>
+        <v>monthpass29ins</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363" t="s">
+        <v>148</v>
+      </c>
+      <c r="T363">
+        <f t="shared" si="8"/>
+        <v>361</v>
+      </c>
+      <c r="U363" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>374</v>
+      </c>
+      <c r="B364" t="s">
+        <v>990</v>
+      </c>
+      <c r="C364" t="b">
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>991</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G364" t="s">
+        <v>16</v>
+      </c>
+      <c r="H364" t="s">
+        <v>31</v>
+      </c>
+      <c r="I364">
+        <v>30000</v>
+      </c>
+      <c r="J364" t="s">
+        <v>46</v>
+      </c>
+      <c r="K364">
+        <v>5</v>
+      </c>
+      <c r="M364" t="b">
+        <v>0</v>
+      </c>
+      <c r="N364" t="s">
+        <v>43</v>
+      </c>
+      <c r="O364">
+        <v>0</v>
+      </c>
+      <c r="P364" t="str">
+        <f>B364</f>
+        <v>mandupass0</v>
+      </c>
+      <c r="Q364">
+        <v>0</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364" t="s">
+        <v>148</v>
+      </c>
+      <c r="T364">
+        <f t="shared" si="8"/>
+        <v>362</v>
+      </c>
+      <c r="U364" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>375</v>
+      </c>
+      <c r="B365" t="s">
+        <v>992</v>
+      </c>
+      <c r="C365" t="b">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>993</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G365" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" t="s">
+        <v>31</v>
+      </c>
+      <c r="I365">
+        <v>30000</v>
+      </c>
+      <c r="J365" t="s">
+        <v>46</v>
+      </c>
+      <c r="K365">
+        <v>5</v>
+      </c>
+      <c r="M365" t="b">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
+        <v>43</v>
+      </c>
+      <c r="O365">
+        <v>0</v>
+      </c>
+      <c r="P365" t="str">
+        <f>B365</f>
+        <v>seolpass0</v>
+      </c>
+      <c r="Q365">
+        <v>0</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365" t="s">
+        <v>148</v>
+      </c>
+      <c r="T365">
+        <f t="shared" si="8"/>
+        <v>363</v>
+      </c>
+      <c r="U365" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>376</v>
+      </c>
+      <c r="B366" t="s">
+        <v>995</v>
+      </c>
+      <c r="C366" t="b">
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" t="s">
+        <v>16</v>
+      </c>
+      <c r="H366" t="s">
+        <v>31</v>
+      </c>
+      <c r="I366">
+        <v>10000</v>
+      </c>
+      <c r="J366" t="s">
+        <v>46</v>
+      </c>
+      <c r="K366">
+        <v>5</v>
+      </c>
+      <c r="M366" t="b">
+        <v>0</v>
+      </c>
+      <c r="N366" t="s">
+        <v>43</v>
+      </c>
+      <c r="O366">
+        <v>0</v>
+      </c>
+      <c r="P366" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q366">
+        <v>0</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T366">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="U366" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>377</v>
+      </c>
+      <c r="B367" t="s">
+        <v>997</v>
+      </c>
+      <c r="C367" t="b">
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" t="s">
+        <v>16</v>
+      </c>
+      <c r="H367" t="s">
+        <v>31</v>
+      </c>
+      <c r="I367">
+        <v>10000</v>
+      </c>
+      <c r="J367" t="s">
+        <v>46</v>
+      </c>
+      <c r="K367">
+        <v>5</v>
+      </c>
+      <c r="M367" t="b">
+        <v>0</v>
+      </c>
+      <c r="N367" t="s">
+        <v>43</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
+      <c r="P367" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T367">
+        <f t="shared" si="8"/>
+        <v>365</v>
+      </c>
+      <c r="U367" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>378</v>
+      </c>
+      <c r="B368" t="s">
+        <v>999</v>
+      </c>
+      <c r="C368" t="b">
+        <v>0</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G368" t="s">
+        <v>16</v>
+      </c>
+      <c r="H368" t="s">
+        <v>31</v>
+      </c>
+      <c r="I368">
+        <v>10000</v>
+      </c>
+      <c r="J368" t="s">
+        <v>46</v>
+      </c>
+      <c r="K368">
+        <v>5</v>
+      </c>
+      <c r="M368" t="b">
+        <v>0</v>
+      </c>
+      <c r="N368" t="s">
+        <v>43</v>
+      </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
+      <c r="P368" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>0</v>
+      </c>
+      <c r="S368" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T368">
+        <f t="shared" si="8"/>
+        <v>366</v>
+      </c>
+      <c r="U368" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -26613,37 +27015,19 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341:P342">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P349">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P350:P351">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P352:P354">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P356">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P357">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P358">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P359:P361">
+  <conditionalFormatting sqref="P349:P368">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -26659,7 +27043,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF47F2A5-E5AE-4085-BD89-3E914A94F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EDBBF-BEEA-4CEB-AC12-1FFD788893B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="1027">
   <si>
     <t>id</t>
   </si>
@@ -4174,6 +4174,102 @@
   </si>
   <si>
     <t>레벨패스(103단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seolpackage0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seolpackage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seolpackage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 무료 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 스폐셜 세트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 스폐셜 세트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hottimepass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 핫타임 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 215-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 220-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700000000,2000,9,250000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(104단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(105단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(106단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9063,9053,9057,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,3,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,7,5,3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,15,10,5,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4390,7 +4486,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4407,6 +4503,70 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4766,11 +4926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U368"/>
+  <dimension ref="A1:U377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A366" sqref="A366"/>
+      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G369" sqref="G369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25005,7 +25165,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T368" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T377" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -27008,6 +27168,555 @@
         <v>366</v>
       </c>
       <c r="U368" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>379</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C369" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E369"/>
+      <c r="F369" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I369" s="3">
+        <v>0</v>
+      </c>
+      <c r="J369" t="s">
+        <v>46</v>
+      </c>
+      <c r="K369" s="3">
+        <v>4</v>
+      </c>
+      <c r="M369" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N369" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O369" s="3">
+        <v>0</v>
+      </c>
+      <c r="P369" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q369" s="3">
+        <v>1</v>
+      </c>
+      <c r="R369" s="3">
+        <v>0</v>
+      </c>
+      <c r="S369" t="s">
+        <v>148</v>
+      </c>
+      <c r="T369">
+        <f t="shared" si="8"/>
+        <v>367</v>
+      </c>
+      <c r="U369" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>380</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C370" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I370" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J370" t="s">
+        <v>46</v>
+      </c>
+      <c r="K370" s="3">
+        <v>5</v>
+      </c>
+      <c r="L370" s="3"/>
+      <c r="M370" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N370" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O370" s="3">
+        <v>0</v>
+      </c>
+      <c r="P370" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q370" s="3">
+        <v>5</v>
+      </c>
+      <c r="R370" s="3">
+        <v>0</v>
+      </c>
+      <c r="S370" t="s">
+        <v>148</v>
+      </c>
+      <c r="T370">
+        <f t="shared" si="8"/>
+        <v>368</v>
+      </c>
+      <c r="U370" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>381</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C371" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I371" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J371" t="s">
+        <v>46</v>
+      </c>
+      <c r="K371" s="3">
+        <v>5</v>
+      </c>
+      <c r="L371" s="3"/>
+      <c r="M371" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N371" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O371" s="3">
+        <v>0</v>
+      </c>
+      <c r="P371" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q371" s="3">
+        <v>5</v>
+      </c>
+      <c r="R371" s="3">
+        <v>0</v>
+      </c>
+      <c r="S371" t="s">
+        <v>148</v>
+      </c>
+      <c r="T371">
+        <f t="shared" si="8"/>
+        <v>369</v>
+      </c>
+      <c r="U371" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>382</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C372" t="b">
+        <v>0</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G372" t="s">
+        <v>16</v>
+      </c>
+      <c r="H372" t="s">
+        <v>31</v>
+      </c>
+      <c r="I372">
+        <v>30000</v>
+      </c>
+      <c r="J372" t="s">
+        <v>46</v>
+      </c>
+      <c r="K372">
+        <v>5</v>
+      </c>
+      <c r="M372" t="b">
+        <v>0</v>
+      </c>
+      <c r="N372" t="s">
+        <v>43</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="P372" t="str">
+        <f t="shared" ref="P372:P377" si="10">B372</f>
+        <v>hottimepass3</v>
+      </c>
+      <c r="Q372">
+        <v>0</v>
+      </c>
+      <c r="R372">
+        <v>0</v>
+      </c>
+      <c r="S372" t="s">
+        <v>148</v>
+      </c>
+      <c r="T372">
+        <f t="shared" si="8"/>
+        <v>370</v>
+      </c>
+      <c r="U372" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>383</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C373" t="b">
+        <v>0</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G373" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H373" t="s">
+        <v>124</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373" t="s">
+        <v>158</v>
+      </c>
+      <c r="K373">
+        <v>5</v>
+      </c>
+      <c r="M373" t="b">
+        <v>0</v>
+      </c>
+      <c r="N373" t="s">
+        <v>43</v>
+      </c>
+      <c r="O373">
+        <v>0</v>
+      </c>
+      <c r="P373" t="str">
+        <f t="shared" si="10"/>
+        <v>levelup45</v>
+      </c>
+      <c r="Q373">
+        <v>1</v>
+      </c>
+      <c r="R373">
+        <v>21500</v>
+      </c>
+      <c r="S373" t="s">
+        <v>148</v>
+      </c>
+      <c r="T373">
+        <f t="shared" si="8"/>
+        <v>371</v>
+      </c>
+      <c r="U373" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>384</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C374" t="b">
+        <v>0</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G374" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H374" t="s">
+        <v>124</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374" t="s">
+        <v>158</v>
+      </c>
+      <c r="K374">
+        <v>5</v>
+      </c>
+      <c r="M374" t="b">
+        <v>0</v>
+      </c>
+      <c r="N374" t="s">
+        <v>43</v>
+      </c>
+      <c r="O374">
+        <v>0</v>
+      </c>
+      <c r="P374" t="str">
+        <f t="shared" si="10"/>
+        <v>levelup46</v>
+      </c>
+      <c r="Q374">
+        <v>1</v>
+      </c>
+      <c r="R374">
+        <v>22000</v>
+      </c>
+      <c r="S374" t="s">
+        <v>148</v>
+      </c>
+      <c r="T374">
+        <f t="shared" si="8"/>
+        <v>372</v>
+      </c>
+      <c r="U374" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>385</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C375" t="b">
+        <v>0</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" t="s">
+        <v>16</v>
+      </c>
+      <c r="H375" t="s">
+        <v>31</v>
+      </c>
+      <c r="I375">
+        <v>10000</v>
+      </c>
+      <c r="J375" t="s">
+        <v>46</v>
+      </c>
+      <c r="K375">
+        <v>5</v>
+      </c>
+      <c r="M375" t="b">
+        <v>0</v>
+      </c>
+      <c r="N375" t="s">
+        <v>43</v>
+      </c>
+      <c r="O375">
+        <v>0</v>
+      </c>
+      <c r="P375" t="str">
+        <f t="shared" si="10"/>
+        <v>levelpass104</v>
+      </c>
+      <c r="Q375">
+        <v>0</v>
+      </c>
+      <c r="R375">
+        <v>0</v>
+      </c>
+      <c r="S375" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T375">
+        <f t="shared" si="8"/>
+        <v>373</v>
+      </c>
+      <c r="U375" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>386</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C376" t="b">
+        <v>0</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" t="s">
+        <v>16</v>
+      </c>
+      <c r="H376" t="s">
+        <v>31</v>
+      </c>
+      <c r="I376">
+        <v>10000</v>
+      </c>
+      <c r="J376" t="s">
+        <v>46</v>
+      </c>
+      <c r="K376">
+        <v>5</v>
+      </c>
+      <c r="M376" t="b">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
+        <v>43</v>
+      </c>
+      <c r="O376">
+        <v>0</v>
+      </c>
+      <c r="P376" t="str">
+        <f t="shared" si="10"/>
+        <v>levelpass105</v>
+      </c>
+      <c r="Q376">
+        <v>0</v>
+      </c>
+      <c r="R376">
+        <v>0</v>
+      </c>
+      <c r="S376" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T376">
+        <f t="shared" si="8"/>
+        <v>374</v>
+      </c>
+      <c r="U376" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>387</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C377" t="b">
+        <v>0</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" t="s">
+        <v>16</v>
+      </c>
+      <c r="H377" t="s">
+        <v>31</v>
+      </c>
+      <c r="I377">
+        <v>10000</v>
+      </c>
+      <c r="J377" t="s">
+        <v>46</v>
+      </c>
+      <c r="K377">
+        <v>5</v>
+      </c>
+      <c r="M377" t="b">
+        <v>0</v>
+      </c>
+      <c r="N377" t="s">
+        <v>43</v>
+      </c>
+      <c r="O377">
+        <v>0</v>
+      </c>
+      <c r="P377" t="str">
+        <f t="shared" si="10"/>
+        <v>levelpass106</v>
+      </c>
+      <c r="Q377">
+        <v>0</v>
+      </c>
+      <c r="R377">
+        <v>0</v>
+      </c>
+      <c r="S377" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T377">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="U377" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -27015,19 +27724,31 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341:P342">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349:P368">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P369:P371">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P372">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P373">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P374:P377">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EDBBF-BEEA-4CEB-AC12-1FFD788893B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42C8BD-D877-46E5-89F4-FC02B218BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="1041">
   <si>
     <t>id</t>
   </si>
@@ -4270,6 +4270,62 @@
   </si>
   <si>
     <t>20,15,10,5,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄맞이 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass30ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 225-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(107단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(108단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(109단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4486,7 +4542,23 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4503,6 +4575,70 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -4926,11 +5062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U377"/>
+  <dimension ref="A1:U385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G369" sqref="G369"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T385" sqref="T385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25165,7 +25301,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T377" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T385" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -27395,7 +27531,7 @@
         <v>0</v>
       </c>
       <c r="P372" t="str">
-        <f t="shared" ref="P372:P377" si="10">B372</f>
+        <f t="shared" ref="P372:P378" si="10">B372</f>
         <v>hottimepass3</v>
       </c>
       <c r="Q372">
@@ -27717,6 +27853,494 @@
         <v>375</v>
       </c>
       <c r="U377" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>388</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C378" t="b">
+        <v>0</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" t="s">
+        <v>16</v>
+      </c>
+      <c r="H378" t="s">
+        <v>31</v>
+      </c>
+      <c r="I378">
+        <v>30000</v>
+      </c>
+      <c r="J378" t="s">
+        <v>46</v>
+      </c>
+      <c r="K378">
+        <v>5</v>
+      </c>
+      <c r="M378" t="b">
+        <v>0</v>
+      </c>
+      <c r="N378" t="s">
+        <v>43</v>
+      </c>
+      <c r="O378">
+        <v>0</v>
+      </c>
+      <c r="P378" t="str">
+        <f t="shared" si="10"/>
+        <v>trainingpass1</v>
+      </c>
+      <c r="Q378">
+        <v>0</v>
+      </c>
+      <c r="R378">
+        <v>0</v>
+      </c>
+      <c r="S378" t="s">
+        <v>148</v>
+      </c>
+      <c r="T378">
+        <f t="shared" si="8"/>
+        <v>376</v>
+      </c>
+      <c r="U378" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>389</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C379" t="b">
+        <v>0</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="H379" t="s">
+        <v>31</v>
+      </c>
+      <c r="I379">
+        <v>30000</v>
+      </c>
+      <c r="J379" t="s">
+        <v>46</v>
+      </c>
+      <c r="K379">
+        <v>5</v>
+      </c>
+      <c r="M379" t="b">
+        <v>0</v>
+      </c>
+      <c r="N379" t="s">
+        <v>43</v>
+      </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
+      <c r="P379" t="str">
+        <f>B379</f>
+        <v>studentpass0</v>
+      </c>
+      <c r="Q379">
+        <v>0</v>
+      </c>
+      <c r="R379">
+        <v>0</v>
+      </c>
+      <c r="S379" t="s">
+        <v>148</v>
+      </c>
+      <c r="T379">
+        <f t="shared" si="8"/>
+        <v>377</v>
+      </c>
+      <c r="U379" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>390</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C380" t="b">
+        <v>0</v>
+      </c>
+      <c r="D380" t="s">
+        <v>520</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G380" t="s">
+        <v>16</v>
+      </c>
+      <c r="H380" t="s">
+        <v>31</v>
+      </c>
+      <c r="I380">
+        <v>30000</v>
+      </c>
+      <c r="J380" t="s">
+        <v>46</v>
+      </c>
+      <c r="K380">
+        <v>5</v>
+      </c>
+      <c r="M380" t="b">
+        <v>0</v>
+      </c>
+      <c r="N380" t="s">
+        <v>43</v>
+      </c>
+      <c r="O380">
+        <v>0</v>
+      </c>
+      <c r="P380" t="str">
+        <f>B380</f>
+        <v>monthpass30</v>
+      </c>
+      <c r="Q380">
+        <v>0</v>
+      </c>
+      <c r="R380">
+        <v>0</v>
+      </c>
+      <c r="S380" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T380">
+        <f t="shared" si="8"/>
+        <v>378</v>
+      </c>
+      <c r="U380" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>391</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C381" t="b">
+        <v>0</v>
+      </c>
+      <c r="D381" t="s">
+        <v>520</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G381" t="s">
+        <v>16</v>
+      </c>
+      <c r="H381" t="s">
+        <v>31</v>
+      </c>
+      <c r="I381">
+        <v>10000</v>
+      </c>
+      <c r="J381" t="s">
+        <v>46</v>
+      </c>
+      <c r="K381">
+        <v>5</v>
+      </c>
+      <c r="M381" t="b">
+        <v>0</v>
+      </c>
+      <c r="N381" t="s">
+        <v>43</v>
+      </c>
+      <c r="O381">
+        <v>0</v>
+      </c>
+      <c r="P381" t="str">
+        <f>B381</f>
+        <v>monthpass30ins</v>
+      </c>
+      <c r="Q381">
+        <v>0</v>
+      </c>
+      <c r="R381">
+        <v>0</v>
+      </c>
+      <c r="S381" t="s">
+        <v>148</v>
+      </c>
+      <c r="T381">
+        <f t="shared" si="8"/>
+        <v>379</v>
+      </c>
+      <c r="U381" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>392</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C382" t="b">
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H382" t="s">
+        <v>124</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382" t="s">
+        <v>158</v>
+      </c>
+      <c r="K382">
+        <v>5</v>
+      </c>
+      <c r="M382" t="b">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
+        <v>43</v>
+      </c>
+      <c r="O382">
+        <v>0</v>
+      </c>
+      <c r="P382" t="str">
+        <f t="shared" ref="P382:P385" si="11">B382</f>
+        <v>levelup47</v>
+      </c>
+      <c r="Q382">
+        <v>1</v>
+      </c>
+      <c r="R382">
+        <v>22500</v>
+      </c>
+      <c r="S382" t="s">
+        <v>148</v>
+      </c>
+      <c r="T382">
+        <f t="shared" si="8"/>
+        <v>380</v>
+      </c>
+      <c r="U382" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>393</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C383" t="b">
+        <v>0</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G383" t="s">
+        <v>16</v>
+      </c>
+      <c r="H383" t="s">
+        <v>31</v>
+      </c>
+      <c r="I383">
+        <v>10000</v>
+      </c>
+      <c r="J383" t="s">
+        <v>46</v>
+      </c>
+      <c r="K383">
+        <v>5</v>
+      </c>
+      <c r="M383" t="b">
+        <v>0</v>
+      </c>
+      <c r="N383" t="s">
+        <v>43</v>
+      </c>
+      <c r="O383">
+        <v>0</v>
+      </c>
+      <c r="P383" t="str">
+        <f t="shared" si="11"/>
+        <v>levelpass107</v>
+      </c>
+      <c r="Q383">
+        <v>0</v>
+      </c>
+      <c r="R383">
+        <v>0</v>
+      </c>
+      <c r="S383" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T383">
+        <f t="shared" si="8"/>
+        <v>381</v>
+      </c>
+      <c r="U383" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>394</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C384" t="b">
+        <v>0</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G384" t="s">
+        <v>16</v>
+      </c>
+      <c r="H384" t="s">
+        <v>31</v>
+      </c>
+      <c r="I384">
+        <v>10000</v>
+      </c>
+      <c r="J384" t="s">
+        <v>46</v>
+      </c>
+      <c r="K384">
+        <v>5</v>
+      </c>
+      <c r="M384" t="b">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
+        <v>43</v>
+      </c>
+      <c r="O384">
+        <v>0</v>
+      </c>
+      <c r="P384" t="str">
+        <f t="shared" si="11"/>
+        <v>levelpass108</v>
+      </c>
+      <c r="Q384">
+        <v>0</v>
+      </c>
+      <c r="R384">
+        <v>0</v>
+      </c>
+      <c r="S384" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T384">
+        <f t="shared" si="8"/>
+        <v>382</v>
+      </c>
+      <c r="U384" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>395</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C385" t="b">
+        <v>0</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G385" t="s">
+        <v>16</v>
+      </c>
+      <c r="H385" t="s">
+        <v>31</v>
+      </c>
+      <c r="I385">
+        <v>10000</v>
+      </c>
+      <c r="J385" t="s">
+        <v>46</v>
+      </c>
+      <c r="K385">
+        <v>5</v>
+      </c>
+      <c r="M385" t="b">
+        <v>0</v>
+      </c>
+      <c r="N385" t="s">
+        <v>43</v>
+      </c>
+      <c r="O385">
+        <v>0</v>
+      </c>
+      <c r="P385" t="str">
+        <f t="shared" si="11"/>
+        <v>levelpass109</v>
+      </c>
+      <c r="Q385">
+        <v>0</v>
+      </c>
+      <c r="R385">
+        <v>0</v>
+      </c>
+      <c r="S385" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T385">
+        <f t="shared" si="8"/>
+        <v>383</v>
+      </c>
+      <c r="U385" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -27724,31 +28348,46 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341:P342">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349:P368">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P369:P371">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P372">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P373">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P374:P377">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P378">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P380:P381">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P382">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P383:P385">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E42C8BD-D877-46E5-89F4-FC02B218BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C14957-3F35-4136-A900-A55E257A9322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="1051">
   <si>
     <t>id</t>
   </si>
@@ -4326,6 +4326,46 @@
   </si>
   <si>
     <t>레벨패스(109단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killeventpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉이 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄바람 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(110단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(111단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(112단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,7 +4582,24 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4560,21 +4617,20 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5062,11 +5118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U385"/>
+  <dimension ref="A1:U390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T385" sqref="T385"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25301,7 +25357,7 @@
         <v>148</v>
       </c>
       <c r="T335">
-        <f t="shared" ref="T335:T385" si="8">ROW()-2</f>
+        <f t="shared" ref="T335:T391" si="8">ROW()-2</f>
         <v>333</v>
       </c>
       <c r="U335" s="15" t="s">
@@ -28141,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="P382" t="str">
-        <f t="shared" ref="P382:P385" si="11">B382</f>
+        <f t="shared" ref="P382:P386" si="11">B382</f>
         <v>levelup47</v>
       </c>
       <c r="Q382">
@@ -28341,6 +28397,311 @@
         <v>383</v>
       </c>
       <c r="U385" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>396</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C386" t="b">
+        <v>0</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" t="s">
+        <v>16</v>
+      </c>
+      <c r="H386" t="s">
+        <v>31</v>
+      </c>
+      <c r="I386">
+        <v>30000</v>
+      </c>
+      <c r="J386" t="s">
+        <v>46</v>
+      </c>
+      <c r="K386">
+        <v>5</v>
+      </c>
+      <c r="M386" t="b">
+        <v>0</v>
+      </c>
+      <c r="N386" t="s">
+        <v>43</v>
+      </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
+      <c r="P386" t="str">
+        <f t="shared" si="11"/>
+        <v>killeventpass0</v>
+      </c>
+      <c r="Q386">
+        <v>0</v>
+      </c>
+      <c r="R386">
+        <v>0</v>
+      </c>
+      <c r="S386" t="s">
+        <v>148</v>
+      </c>
+      <c r="T386">
+        <f t="shared" si="8"/>
+        <v>384</v>
+      </c>
+      <c r="U386" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>397</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C387" t="b">
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" t="s">
+        <v>16</v>
+      </c>
+      <c r="H387" t="s">
+        <v>31</v>
+      </c>
+      <c r="I387">
+        <v>30000</v>
+      </c>
+      <c r="J387" t="s">
+        <v>46</v>
+      </c>
+      <c r="K387">
+        <v>5</v>
+      </c>
+      <c r="M387" t="b">
+        <v>0</v>
+      </c>
+      <c r="N387" t="s">
+        <v>43</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+      <c r="P387" t="str">
+        <f t="shared" ref="P387:P390" si="12">B387</f>
+        <v>shopeventpass0</v>
+      </c>
+      <c r="Q387">
+        <v>0</v>
+      </c>
+      <c r="R387">
+        <v>0</v>
+      </c>
+      <c r="S387" t="s">
+        <v>148</v>
+      </c>
+      <c r="T387">
+        <f t="shared" si="8"/>
+        <v>385</v>
+      </c>
+      <c r="U387" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>398</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C388" t="b">
+        <v>0</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G388" t="s">
+        <v>16</v>
+      </c>
+      <c r="H388" t="s">
+        <v>31</v>
+      </c>
+      <c r="I388">
+        <v>10000</v>
+      </c>
+      <c r="J388" t="s">
+        <v>46</v>
+      </c>
+      <c r="K388">
+        <v>5</v>
+      </c>
+      <c r="M388" t="b">
+        <v>0</v>
+      </c>
+      <c r="N388" t="s">
+        <v>43</v>
+      </c>
+      <c r="O388">
+        <v>0</v>
+      </c>
+      <c r="P388" t="str">
+        <f t="shared" si="12"/>
+        <v>levelpass110</v>
+      </c>
+      <c r="Q388">
+        <v>0</v>
+      </c>
+      <c r="R388">
+        <v>0</v>
+      </c>
+      <c r="S388" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T388">
+        <f t="shared" si="8"/>
+        <v>386</v>
+      </c>
+      <c r="U388" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>399</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C389" t="b">
+        <v>0</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G389" t="s">
+        <v>16</v>
+      </c>
+      <c r="H389" t="s">
+        <v>31</v>
+      </c>
+      <c r="I389">
+        <v>10000</v>
+      </c>
+      <c r="J389" t="s">
+        <v>46</v>
+      </c>
+      <c r="K389">
+        <v>5</v>
+      </c>
+      <c r="M389" t="b">
+        <v>0</v>
+      </c>
+      <c r="N389" t="s">
+        <v>43</v>
+      </c>
+      <c r="O389">
+        <v>0</v>
+      </c>
+      <c r="P389" t="str">
+        <f t="shared" si="12"/>
+        <v>levelpass111</v>
+      </c>
+      <c r="Q389">
+        <v>0</v>
+      </c>
+      <c r="R389">
+        <v>0</v>
+      </c>
+      <c r="S389" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T389">
+        <f t="shared" si="8"/>
+        <v>387</v>
+      </c>
+      <c r="U389" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>400</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C390" t="b">
+        <v>0</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" t="s">
+        <v>16</v>
+      </c>
+      <c r="H390" t="s">
+        <v>31</v>
+      </c>
+      <c r="I390">
+        <v>10000</v>
+      </c>
+      <c r="J390" t="s">
+        <v>46</v>
+      </c>
+      <c r="K390">
+        <v>5</v>
+      </c>
+      <c r="M390" t="b">
+        <v>0</v>
+      </c>
+      <c r="N390" t="s">
+        <v>43</v>
+      </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
+      <c r="P390" t="str">
+        <f t="shared" si="12"/>
+        <v>levelpass112</v>
+      </c>
+      <c r="Q390">
+        <v>0</v>
+      </c>
+      <c r="R390">
+        <v>0</v>
+      </c>
+      <c r="S390" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T390">
+        <f t="shared" si="8"/>
+        <v>388</v>
+      </c>
+      <c r="U390" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -28348,46 +28709,46 @@
   <autoFilter ref="A1:R226" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P341:P342">
-    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P349:P368">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P369:P371">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P372">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P373">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P374:P377">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P378">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P379">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P380:P381">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P382">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P383:P390">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P383:P385">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994AD7FD-F306-45A6-B3D6-2F7C7065C4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35C7AB-E931-43A3-AC4F-D2E1B44A4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="1082">
   <si>
     <t>id</t>
   </si>
@@ -4434,6 +4434,62 @@
   </si>
   <si>
     <t>9066,9066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃놀이 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentspotpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈자리 전수권 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass31ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 235-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(116단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(117단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(118단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4650,7 +4706,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4667,6 +4723,70 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5218,11 +5338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U397"/>
+  <dimension ref="A1:U405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q158" sqref="Q158"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25518,7 +25638,7 @@
         <v>148</v>
       </c>
       <c r="T336">
-        <f t="shared" ref="T336:T397" si="8">ROW()-2</f>
+        <f t="shared" ref="T336:T403" si="8">ROW()-2</f>
         <v>334</v>
       </c>
       <c r="U336" s="15" t="s">
@@ -29212,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="P397" t="str">
-        <f t="shared" ref="P397" si="14">B397</f>
+        <f t="shared" ref="P397:P398" si="14">B397</f>
         <v>studentspotpension</v>
       </c>
       <c r="Q397">
@@ -29229,6 +29349,494 @@
         <v>395</v>
       </c>
       <c r="U397" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>408</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C398" t="b">
+        <v>0</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G398" t="s">
+        <v>16</v>
+      </c>
+      <c r="H398" t="s">
+        <v>31</v>
+      </c>
+      <c r="I398">
+        <v>30000</v>
+      </c>
+      <c r="J398" t="s">
+        <v>46</v>
+      </c>
+      <c r="K398">
+        <v>5</v>
+      </c>
+      <c r="M398" t="b">
+        <v>0</v>
+      </c>
+      <c r="N398" t="s">
+        <v>43</v>
+      </c>
+      <c r="O398">
+        <v>0</v>
+      </c>
+      <c r="P398" t="str">
+        <f t="shared" si="14"/>
+        <v>trainingpass2</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+      <c r="R398">
+        <v>0</v>
+      </c>
+      <c r="S398" t="s">
+        <v>148</v>
+      </c>
+      <c r="T398">
+        <f t="shared" si="8"/>
+        <v>396</v>
+      </c>
+      <c r="U398" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>409</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C399" t="b">
+        <v>0</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G399" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="H399" t="s">
+        <v>31</v>
+      </c>
+      <c r="I399">
+        <v>30000</v>
+      </c>
+      <c r="J399" t="s">
+        <v>46</v>
+      </c>
+      <c r="K399">
+        <v>5</v>
+      </c>
+      <c r="M399" t="b">
+        <v>0</v>
+      </c>
+      <c r="N399" t="s">
+        <v>43</v>
+      </c>
+      <c r="O399">
+        <v>0</v>
+      </c>
+      <c r="P399" t="str">
+        <f t="shared" ref="P399" si="15">B399</f>
+        <v>studentspotpass0</v>
+      </c>
+      <c r="Q399">
+        <v>0</v>
+      </c>
+      <c r="R399">
+        <v>0</v>
+      </c>
+      <c r="S399" t="s">
+        <v>148</v>
+      </c>
+      <c r="T399">
+        <f t="shared" si="8"/>
+        <v>397</v>
+      </c>
+      <c r="U399" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>410</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C400" t="b">
+        <v>0</v>
+      </c>
+      <c r="D400" t="s">
+        <v>546</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G400" t="s">
+        <v>16</v>
+      </c>
+      <c r="H400" t="s">
+        <v>31</v>
+      </c>
+      <c r="I400">
+        <v>30000</v>
+      </c>
+      <c r="J400" t="s">
+        <v>46</v>
+      </c>
+      <c r="K400">
+        <v>5</v>
+      </c>
+      <c r="M400" t="b">
+        <v>0</v>
+      </c>
+      <c r="N400" t="s">
+        <v>43</v>
+      </c>
+      <c r="O400">
+        <v>0</v>
+      </c>
+      <c r="P400" t="str">
+        <f>B400</f>
+        <v>monthpass31</v>
+      </c>
+      <c r="Q400">
+        <v>0</v>
+      </c>
+      <c r="R400">
+        <v>0</v>
+      </c>
+      <c r="S400" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T400">
+        <f t="shared" si="8"/>
+        <v>398</v>
+      </c>
+      <c r="U400" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>411</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C401" t="b">
+        <v>0</v>
+      </c>
+      <c r="D401" t="s">
+        <v>546</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G401" t="s">
+        <v>16</v>
+      </c>
+      <c r="H401" t="s">
+        <v>31</v>
+      </c>
+      <c r="I401">
+        <v>10000</v>
+      </c>
+      <c r="J401" t="s">
+        <v>46</v>
+      </c>
+      <c r="K401">
+        <v>5</v>
+      </c>
+      <c r="M401" t="b">
+        <v>0</v>
+      </c>
+      <c r="N401" t="s">
+        <v>43</v>
+      </c>
+      <c r="O401">
+        <v>0</v>
+      </c>
+      <c r="P401" t="str">
+        <f>B401</f>
+        <v>monthpass31ins</v>
+      </c>
+      <c r="Q401">
+        <v>0</v>
+      </c>
+      <c r="R401">
+        <v>0</v>
+      </c>
+      <c r="S401" t="s">
+        <v>148</v>
+      </c>
+      <c r="T401">
+        <f t="shared" ref="T401" si="16">ROW()-2</f>
+        <v>399</v>
+      </c>
+      <c r="U401" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>412</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C402" t="b">
+        <v>0</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G402" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H402" t="s">
+        <v>124</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402" t="s">
+        <v>158</v>
+      </c>
+      <c r="K402">
+        <v>5</v>
+      </c>
+      <c r="M402" t="b">
+        <v>0</v>
+      </c>
+      <c r="N402" t="s">
+        <v>43</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+      <c r="P402" t="str">
+        <f t="shared" ref="P402:P405" si="17">B402</f>
+        <v>levelup49</v>
+      </c>
+      <c r="Q402">
+        <v>1</v>
+      </c>
+      <c r="R402">
+        <v>23500</v>
+      </c>
+      <c r="S402" t="s">
+        <v>148</v>
+      </c>
+      <c r="T402">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="U402" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>413</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C403" t="b">
+        <v>0</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" t="s">
+        <v>16</v>
+      </c>
+      <c r="H403" t="s">
+        <v>31</v>
+      </c>
+      <c r="I403">
+        <v>10000</v>
+      </c>
+      <c r="J403" t="s">
+        <v>46</v>
+      </c>
+      <c r="K403">
+        <v>5</v>
+      </c>
+      <c r="M403" t="b">
+        <v>0</v>
+      </c>
+      <c r="N403" t="s">
+        <v>43</v>
+      </c>
+      <c r="O403">
+        <v>0</v>
+      </c>
+      <c r="P403" t="str">
+        <f t="shared" si="17"/>
+        <v>levelpass116</v>
+      </c>
+      <c r="Q403">
+        <v>0</v>
+      </c>
+      <c r="R403">
+        <v>0</v>
+      </c>
+      <c r="S403" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T403">
+        <f t="shared" si="8"/>
+        <v>401</v>
+      </c>
+      <c r="U403" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>414</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C404" t="b">
+        <v>0</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" t="s">
+        <v>16</v>
+      </c>
+      <c r="H404" t="s">
+        <v>31</v>
+      </c>
+      <c r="I404">
+        <v>10000</v>
+      </c>
+      <c r="J404" t="s">
+        <v>46</v>
+      </c>
+      <c r="K404">
+        <v>5</v>
+      </c>
+      <c r="M404" t="b">
+        <v>0</v>
+      </c>
+      <c r="N404" t="s">
+        <v>43</v>
+      </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
+      <c r="P404" t="str">
+        <f t="shared" si="17"/>
+        <v>levelpass117</v>
+      </c>
+      <c r="Q404">
+        <v>0</v>
+      </c>
+      <c r="R404">
+        <v>0</v>
+      </c>
+      <c r="S404" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T404">
+        <f t="shared" ref="T404:T405" si="18">ROW()-2</f>
+        <v>402</v>
+      </c>
+      <c r="U404" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>415</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C405" t="b">
+        <v>0</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G405" t="s">
+        <v>16</v>
+      </c>
+      <c r="H405" t="s">
+        <v>31</v>
+      </c>
+      <c r="I405">
+        <v>10000</v>
+      </c>
+      <c r="J405" t="s">
+        <v>46</v>
+      </c>
+      <c r="K405">
+        <v>5</v>
+      </c>
+      <c r="M405" t="b">
+        <v>0</v>
+      </c>
+      <c r="N405" t="s">
+        <v>43</v>
+      </c>
+      <c r="O405">
+        <v>0</v>
+      </c>
+      <c r="P405" t="str">
+        <f t="shared" si="17"/>
+        <v>levelpass118</v>
+      </c>
+      <c r="Q405">
+        <v>0</v>
+      </c>
+      <c r="R405">
+        <v>0</v>
+      </c>
+      <c r="S405" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T405">
+        <f t="shared" si="18"/>
+        <v>403</v>
+      </c>
+      <c r="U405" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -29236,55 +29844,67 @@
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:P343">
-    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P369">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P370:P372">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P373">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P374">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P375:P378">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P380">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P381:P382">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P383">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P384:P391">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P380">
+  <conditionalFormatting sqref="P392">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P381:P382">
+  <conditionalFormatting sqref="P393:P395">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P383">
+  <conditionalFormatting sqref="P396:P397">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P384:P391">
+  <conditionalFormatting sqref="P398:P399">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P392">
+  <conditionalFormatting sqref="P400:P401">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P393:P395">
+  <conditionalFormatting sqref="P402">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P396:P397">
+  <conditionalFormatting sqref="P403:P405">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35C7AB-E931-43A3-AC4F-D2E1B44A4A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C72076-ECA1-4C0A-94EB-99AB9B4AA518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1086">
   <si>
     <t>id</t>
   </si>
@@ -4492,12 +4492,28 @@
     <t>레벨패스(118단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>killeventpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌꿀 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄소풍 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4706,7 +4722,23 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4723,6 +4755,22 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5338,14 +5386,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U405"/>
+  <dimension ref="A1:U407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A374" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5365,7 +5413,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5478,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5490,7 +5538,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5550,7 +5598,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5610,7 +5658,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5670,7 +5718,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5730,7 +5778,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5790,7 +5838,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>401</v>
       </c>
@@ -5851,7 +5899,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>310</v>
       </c>
@@ -5911,7 +5959,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>286</v>
       </c>
@@ -5971,7 +6019,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6031,7 +6079,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6091,7 +6139,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6151,7 +6199,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6211,7 +6259,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6271,7 +6319,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6333,7 +6381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6393,7 +6441,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6453,7 +6501,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6513,7 +6561,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6573,7 +6621,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6636,7 +6684,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>101</v>
       </c>
@@ -6696,7 +6744,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>102</v>
       </c>
@@ -6756,7 +6804,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>103</v>
       </c>
@@ -6816,7 +6864,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6879,7 +6927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>9</v>
       </c>
@@ -6942,7 +6990,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7008,7 +7056,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7074,7 +7122,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7137,7 +7185,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7200,7 +7248,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7263,7 +7311,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7326,7 +7374,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7389,7 +7437,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7452,7 +7500,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7515,7 +7563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7575,7 +7623,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="8" customFormat="1">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -7635,7 +7683,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>20</v>
       </c>
@@ -7695,7 +7743,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>21</v>
       </c>
@@ -7755,7 +7803,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>22</v>
       </c>
@@ -7815,7 +7863,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -7875,7 +7923,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -7935,7 +7983,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -7995,7 +8043,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8058,7 +8106,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8121,7 +8169,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8181,7 +8229,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8244,7 +8292,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8307,7 +8355,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8370,7 +8418,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8433,7 +8481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8496,7 +8544,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8556,7 +8604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -8616,7 +8664,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -8676,7 +8724,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -8736,7 +8784,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>39</v>
       </c>
@@ -8796,7 +8844,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>41</v>
       </c>
@@ -8856,7 +8904,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>42</v>
       </c>
@@ -8916,7 +8964,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="8" customFormat="1">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -8976,7 +9024,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9036,7 +9084,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9096,7 +9144,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9156,7 +9204,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9216,7 +9264,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9276,7 +9324,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9336,7 +9384,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9396,7 +9444,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9456,7 +9504,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9516,7 +9564,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9576,7 +9624,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>58</v>
       </c>
@@ -9636,7 +9684,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>59</v>
       </c>
@@ -9696,7 +9744,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>60</v>
       </c>
@@ -9756,7 +9804,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>61</v>
       </c>
@@ -9816,7 +9864,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>62</v>
       </c>
@@ -9876,7 +9924,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>63</v>
       </c>
@@ -9936,7 +9984,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>67</v>
       </c>
@@ -9996,7 +10044,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10056,7 +10104,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10116,7 +10164,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10176,7 +10224,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10236,7 +10284,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10296,7 +10344,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10356,7 +10404,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10416,7 +10464,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10476,7 +10524,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10536,7 +10584,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>77</v>
       </c>
@@ -10596,7 +10644,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>78</v>
       </c>
@@ -10656,7 +10704,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>79</v>
       </c>
@@ -10716,7 +10764,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>80</v>
       </c>
@@ -10776,7 +10824,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>81</v>
       </c>
@@ -10836,7 +10884,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>82</v>
       </c>
@@ -10896,7 +10944,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -10956,7 +11004,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11016,7 +11064,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11076,7 +11124,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11136,7 +11184,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11196,7 +11244,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11256,7 +11304,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11316,7 +11364,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11376,7 +11424,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11436,7 +11484,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11496,7 +11544,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11556,7 +11604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -11616,7 +11664,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -11676,7 +11724,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -11736,7 +11784,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>5</v>
       </c>
@@ -11799,7 +11847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>6</v>
       </c>
@@ -11862,7 +11910,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>7</v>
       </c>
@@ -11925,7 +11973,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>101</v>
       </c>
@@ -11985,7 +12033,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12045,7 +12093,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12105,7 +12153,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12165,7 +12213,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12225,7 +12273,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12285,7 +12333,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12345,7 +12393,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12405,7 +12453,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12465,7 +12513,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12525,7 +12573,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>115</v>
       </c>
@@ -12585,7 +12633,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>116</v>
       </c>
@@ -12645,7 +12693,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>117</v>
       </c>
@@ -12705,7 +12753,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>118</v>
       </c>
@@ -12765,7 +12813,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>119</v>
       </c>
@@ -12825,7 +12873,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>120</v>
       </c>
@@ -12885,7 +12933,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12945,7 +12993,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13005,7 +13053,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13065,7 +13113,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13125,7 +13173,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13188,7 +13236,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13251,7 +13299,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13314,7 +13362,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13377,7 +13425,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13440,7 +13488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13500,7 +13548,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13560,7 +13608,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>137</v>
       </c>
@@ -13620,7 +13668,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>138</v>
       </c>
@@ -13680,7 +13728,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -13743,7 +13791,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>142</v>
       </c>
@@ -13803,7 +13851,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>143</v>
       </c>
@@ -13863,7 +13911,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -13923,7 +13971,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>199</v>
       </c>
@@ -13985,7 +14033,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14047,7 +14095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14107,7 +14155,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14167,7 +14215,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14227,7 +14275,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="2" customFormat="1">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14287,7 +14335,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14347,7 +14395,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14407,7 +14455,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14467,7 +14515,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14527,7 +14575,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -14589,7 +14637,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -14651,7 +14699,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>144</v>
       </c>
@@ -14711,7 +14759,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>145</v>
       </c>
@@ -14771,7 +14819,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>146</v>
       </c>
@@ -14831,7 +14879,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>147</v>
       </c>
@@ -14891,7 +14939,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>148</v>
       </c>
@@ -14951,7 +14999,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15011,7 +15059,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15071,7 +15119,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15131,7 +15179,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15191,7 +15239,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15251,7 +15299,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15311,7 +15359,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15371,7 +15419,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15431,7 +15479,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15491,7 +15539,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15553,7 +15601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169">
         <v>163</v>
       </c>
@@ -15615,7 +15663,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="3" customFormat="1">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -15675,7 +15723,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -15737,7 +15785,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -15799,7 +15847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>167</v>
       </c>
@@ -15859,7 +15907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>168</v>
       </c>
@@ -15919,7 +15967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>169</v>
       </c>
@@ -15979,7 +16027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16039,7 +16087,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16099,7 +16147,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16159,7 +16207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16219,7 +16267,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16279,7 +16327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16339,7 +16387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16399,7 +16447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16459,7 +16507,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16519,7 +16567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>179</v>
       </c>
@@ -16579,7 +16627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>180</v>
       </c>
@@ -16639,7 +16687,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>181</v>
       </c>
@@ -16699,7 +16747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>139</v>
       </c>
@@ -16759,7 +16807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>140</v>
       </c>
@@ -16819,7 +16867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>187</v>
       </c>
@@ -16879,7 +16927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>188</v>
       </c>
@@ -16939,7 +16987,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>189</v>
       </c>
@@ -16999,7 +17047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17059,7 +17107,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17119,7 +17167,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17179,7 +17227,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17239,7 +17287,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17299,7 +17347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17359,7 +17407,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17419,7 +17467,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17479,7 +17527,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>198</v>
       </c>
@@ -17539,7 +17587,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>199</v>
       </c>
@@ -17599,7 +17647,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>201</v>
       </c>
@@ -17659,7 +17707,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>202</v>
       </c>
@@ -17719,7 +17767,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>203</v>
       </c>
@@ -17779,7 +17827,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>204</v>
       </c>
@@ -17839,7 +17887,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>205</v>
       </c>
@@ -17899,7 +17947,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>206</v>
       </c>
@@ -17959,7 +18007,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18019,7 +18067,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18079,7 +18127,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18139,7 +18187,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18199,7 +18247,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18259,7 +18307,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18319,7 +18367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18379,7 +18427,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18439,7 +18487,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18499,7 +18547,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18559,7 +18607,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" s="3" customFormat="1">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -18619,7 +18667,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>220</v>
       </c>
@@ -18679,7 +18727,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>221</v>
       </c>
@@ -18739,7 +18787,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>222</v>
       </c>
@@ -18799,7 +18847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>223</v>
       </c>
@@ -18859,7 +18907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>224</v>
       </c>
@@ -18919,7 +18967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>225</v>
       </c>
@@ -18979,7 +19027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19039,7 +19087,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19099,7 +19147,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19159,7 +19207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19219,7 +19267,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19279,7 +19327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19339,7 +19387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19399,7 +19447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19459,7 +19507,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19519,7 +19567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19579,7 +19627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>236</v>
       </c>
@@ -19639,7 +19687,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>237</v>
       </c>
@@ -19699,7 +19747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>238</v>
       </c>
@@ -19759,7 +19807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>239</v>
       </c>
@@ -19819,7 +19867,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>240</v>
       </c>
@@ -19879,7 +19927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>243</v>
       </c>
@@ -19939,7 +19987,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>244</v>
       </c>
@@ -19999,7 +20047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20059,7 +20107,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20119,7 +20167,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20179,7 +20227,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20239,7 +20287,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20299,7 +20347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20359,7 +20407,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20419,7 +20467,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" s="3" customFormat="1">
       <c r="A250">
         <v>254</v>
       </c>
@@ -20479,7 +20527,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>255</v>
       </c>
@@ -20539,7 +20587,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>256</v>
       </c>
@@ -20599,7 +20647,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>257</v>
       </c>
@@ -20659,7 +20707,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>258</v>
       </c>
@@ -20719,7 +20767,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" s="3" customFormat="1">
       <c r="A255">
         <v>259</v>
       </c>
@@ -20779,7 +20827,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>260</v>
       </c>
@@ -20839,7 +20887,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>261</v>
       </c>
@@ -20899,7 +20947,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>262</v>
       </c>
@@ -20959,7 +21007,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21019,7 +21067,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21079,7 +21127,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21139,7 +21187,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21199,7 +21247,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21259,7 +21307,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21319,7 +21367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21379,7 +21427,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21439,7 +21487,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>273</v>
       </c>
@@ -21499,7 +21547,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>274</v>
       </c>
@@ -21559,7 +21607,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>275</v>
       </c>
@@ -21619,7 +21667,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>276</v>
       </c>
@@ -21679,7 +21727,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>277</v>
       </c>
@@ -21739,7 +21787,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>278</v>
       </c>
@@ -21799,7 +21847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>279</v>
       </c>
@@ -21859,7 +21907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>280</v>
       </c>
@@ -21919,7 +21967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>281</v>
       </c>
@@ -21979,7 +22027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22039,7 +22087,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22099,7 +22147,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22159,7 +22207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22219,7 +22267,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22282,7 +22330,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22342,7 +22390,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22402,7 +22450,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>291</v>
       </c>
@@ -22462,7 +22510,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>292</v>
       </c>
@@ -22522,7 +22570,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>293</v>
       </c>
@@ -22582,7 +22630,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>294</v>
       </c>
@@ -22642,7 +22690,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21">
       <c r="A287">
         <v>295</v>
       </c>
@@ -22702,7 +22750,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" s="3" customFormat="1">
       <c r="A288">
         <v>296</v>
       </c>
@@ -22762,7 +22810,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>297</v>
       </c>
@@ -22822,7 +22870,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>298</v>
       </c>
@@ -22882,7 +22930,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>299</v>
       </c>
@@ -22942,7 +22990,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23002,7 +23050,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23062,7 +23110,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23122,7 +23170,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23182,7 +23230,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23242,7 +23290,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23302,7 +23350,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23362,7 +23410,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23422,7 +23470,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>308</v>
       </c>
@@ -23482,7 +23530,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>309</v>
       </c>
@@ -23542,7 +23590,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>310</v>
       </c>
@@ -23602,7 +23650,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>311</v>
       </c>
@@ -23662,7 +23710,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>312</v>
       </c>
@@ -23722,7 +23770,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>313</v>
       </c>
@@ -23782,7 +23830,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>314</v>
       </c>
@@ -23842,7 +23890,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>315</v>
       </c>
@@ -23902,7 +23950,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>316</v>
       </c>
@@ -23962,7 +24010,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24022,7 +24070,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24082,7 +24130,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24142,7 +24190,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24202,7 +24250,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24262,7 +24310,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24325,7 +24373,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24385,7 +24433,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>324</v>
       </c>
@@ -24445,7 +24493,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>325</v>
       </c>
@@ -24505,7 +24553,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>326</v>
       </c>
@@ -24565,7 +24613,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>327</v>
       </c>
@@ -24625,7 +24673,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>328</v>
       </c>
@@ -24685,7 +24733,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>329</v>
       </c>
@@ -24745,7 +24793,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>330</v>
       </c>
@@ -24805,7 +24853,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>331</v>
       </c>
@@ -24865,7 +24913,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>332</v>
       </c>
@@ -24925,7 +24973,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>333</v>
       </c>
@@ -24985,7 +25033,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25045,7 +25093,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25105,7 +25153,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25165,7 +25213,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25225,7 +25273,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25285,7 +25333,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25345,7 +25393,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>340</v>
       </c>
@@ -25405,7 +25453,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>341</v>
       </c>
@@ -25465,7 +25513,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>342</v>
       </c>
@@ -25525,7 +25573,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>343</v>
       </c>
@@ -25585,7 +25633,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>344</v>
       </c>
@@ -25645,7 +25693,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>345</v>
       </c>
@@ -25705,7 +25753,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>346</v>
       </c>
@@ -25765,7 +25813,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>347</v>
       </c>
@@ -25825,7 +25873,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>348</v>
       </c>
@@ -25885,7 +25933,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21">
       <c r="A341">
         <v>349</v>
       </c>
@@ -25945,7 +25993,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" s="3" customFormat="1">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26006,7 +26054,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26067,7 +26115,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26127,7 +26175,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26187,7 +26235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26247,7 +26295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26307,7 +26355,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26367,7 +26415,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>358</v>
       </c>
@@ -26427,7 +26475,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>359</v>
       </c>
@@ -26488,7 +26536,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>360</v>
       </c>
@@ -26549,7 +26597,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>361</v>
       </c>
@@ -26610,7 +26658,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>362</v>
       </c>
@@ -26671,7 +26719,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>363</v>
       </c>
@@ -26732,7 +26780,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>364</v>
       </c>
@@ -26793,7 +26841,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>365</v>
       </c>
@@ -26854,7 +26902,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21">
       <c r="A357">
         <v>366</v>
       </c>
@@ -26915,7 +26963,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21">
       <c r="A358">
         <v>367</v>
       </c>
@@ -26976,7 +27024,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27037,7 +27085,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27098,7 +27146,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27159,7 +27207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27220,7 +27268,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27281,7 +27329,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27342,7 +27390,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21">
       <c r="A365">
         <v>374</v>
       </c>
@@ -27403,7 +27451,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21">
       <c r="A366">
         <v>375</v>
       </c>
@@ -27464,7 +27512,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21">
       <c r="A367">
         <v>376</v>
       </c>
@@ -27524,7 +27572,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21">
       <c r="A368">
         <v>377</v>
       </c>
@@ -27584,7 +27632,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21">
       <c r="A369">
         <v>378</v>
       </c>
@@ -27644,7 +27692,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1">
       <c r="A370">
         <v>379</v>
       </c>
@@ -27705,7 +27753,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21">
       <c r="A371">
         <v>380</v>
       </c>
@@ -27766,7 +27814,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21">
       <c r="A372">
         <v>381</v>
       </c>
@@ -27827,7 +27875,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21">
       <c r="A373">
         <v>382</v>
       </c>
@@ -27888,7 +27936,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21">
       <c r="A374">
         <v>383</v>
       </c>
@@ -27949,7 +27997,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28010,7 +28058,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28071,7 +28119,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28132,7 +28180,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28193,7 +28241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28254,7 +28302,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28315,7 +28363,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21">
       <c r="A381">
         <v>390</v>
       </c>
@@ -28376,7 +28424,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21">
       <c r="A382">
         <v>391</v>
       </c>
@@ -28437,7 +28485,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21">
       <c r="A383">
         <v>392</v>
       </c>
@@ -28498,7 +28546,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21">
       <c r="A384">
         <v>393</v>
       </c>
@@ -28559,7 +28607,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21">
       <c r="A385">
         <v>394</v>
       </c>
@@ -28620,7 +28668,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21">
       <c r="A386">
         <v>395</v>
       </c>
@@ -28681,7 +28729,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21">
       <c r="A387">
         <v>396</v>
       </c>
@@ -28742,7 +28790,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21">
       <c r="A388">
         <v>397</v>
       </c>
@@ -28803,7 +28851,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21">
       <c r="A389">
         <v>398</v>
       </c>
@@ -28864,7 +28912,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21">
       <c r="A390">
         <v>399</v>
       </c>
@@ -28925,7 +28973,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21">
       <c r="A391">
         <v>400</v>
       </c>
@@ -28986,7 +29034,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29047,7 +29095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29108,7 +29156,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29169,7 +29217,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29230,7 +29278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29291,7 +29339,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29352,7 +29400,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21">
       <c r="A398">
         <v>408</v>
       </c>
@@ -29413,7 +29461,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21">
       <c r="A399">
         <v>409</v>
       </c>
@@ -29474,7 +29522,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>410</v>
       </c>
@@ -29535,7 +29583,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>411</v>
       </c>
@@ -29596,7 +29644,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>412</v>
       </c>
@@ -29637,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="P402" t="str">
-        <f t="shared" ref="P402:P405" si="17">B402</f>
+        <f t="shared" ref="P402:P407" si="17">B402</f>
         <v>levelup49</v>
       </c>
       <c r="Q402">
@@ -29657,7 +29705,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21">
       <c r="A403">
         <v>413</v>
       </c>
@@ -29718,7 +29766,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21">
       <c r="A404">
         <v>414</v>
       </c>
@@ -29772,14 +29820,14 @@
         <v>594</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T405" si="18">ROW()-2</f>
+        <f t="shared" ref="T404:T407" si="18">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21">
       <c r="A405">
         <v>415</v>
       </c>
@@ -29837,6 +29885,128 @@
         <v>403</v>
       </c>
       <c r="U405" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21">
+      <c r="A406">
+        <v>416</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C406" t="b">
+        <v>0</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G406" t="s">
+        <v>16</v>
+      </c>
+      <c r="H406" t="s">
+        <v>31</v>
+      </c>
+      <c r="I406">
+        <v>30000</v>
+      </c>
+      <c r="J406" t="s">
+        <v>46</v>
+      </c>
+      <c r="K406">
+        <v>5</v>
+      </c>
+      <c r="M406" t="b">
+        <v>0</v>
+      </c>
+      <c r="N406" t="s">
+        <v>43</v>
+      </c>
+      <c r="O406">
+        <v>0</v>
+      </c>
+      <c r="P406" t="str">
+        <f t="shared" si="17"/>
+        <v>killeventpass1</v>
+      </c>
+      <c r="Q406">
+        <v>0</v>
+      </c>
+      <c r="R406">
+        <v>0</v>
+      </c>
+      <c r="S406" t="s">
+        <v>148</v>
+      </c>
+      <c r="T406">
+        <f t="shared" si="18"/>
+        <v>404</v>
+      </c>
+      <c r="U406" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21">
+      <c r="A407">
+        <v>397</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C407" t="b">
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G407" t="s">
+        <v>16</v>
+      </c>
+      <c r="H407" t="s">
+        <v>31</v>
+      </c>
+      <c r="I407">
+        <v>30000</v>
+      </c>
+      <c r="J407" t="s">
+        <v>46</v>
+      </c>
+      <c r="K407">
+        <v>5</v>
+      </c>
+      <c r="M407" t="b">
+        <v>0</v>
+      </c>
+      <c r="N407" t="s">
+        <v>43</v>
+      </c>
+      <c r="O407">
+        <v>0</v>
+      </c>
+      <c r="P407" t="str">
+        <f t="shared" si="17"/>
+        <v>shopeventpass1</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407">
+        <v>0</v>
+      </c>
+      <c r="S407" t="s">
+        <v>148</v>
+      </c>
+      <c r="T407">
+        <f t="shared" si="18"/>
+        <v>405</v>
+      </c>
+      <c r="U407" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -29844,67 +30014,73 @@
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:P343">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P369">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P370:P372">
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P373">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P374">
     <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P373">
+  <conditionalFormatting sqref="P375:P378">
     <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P374">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P375:P378">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  <conditionalFormatting sqref="P380">
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P379">
+  <conditionalFormatting sqref="P381:P382">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P380">
+  <conditionalFormatting sqref="P383">
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P381:P382">
+  <conditionalFormatting sqref="P384:P391">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P383">
+  <conditionalFormatting sqref="P392">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P384:P391">
+  <conditionalFormatting sqref="P393:P395">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P392">
+  <conditionalFormatting sqref="P396:P397">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P393:P395">
+  <conditionalFormatting sqref="P398:P399">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P396:P397">
+  <conditionalFormatting sqref="P400:P401">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P398:P399">
+  <conditionalFormatting sqref="P402">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P400:P401">
+  <conditionalFormatting sqref="P403:P405">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P402">
+  <conditionalFormatting sqref="P406">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P403:P405">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P407">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -29920,7 +30096,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C72076-ECA1-4C0A-94EB-99AB9B4AA518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C795FE-9ACA-4048-939B-9D51F21DE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="1096">
   <si>
     <t>id</t>
   </si>
@@ -4508,12 +4508,52 @@
     <t>봄소풍 패스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>levelpass119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(119단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(120단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass32ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haetalpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해탈 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4722,7 +4762,24 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -4740,21 +4797,52 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5386,14 +5474,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F412" sqref="F412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5413,7 +5501,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5478,7 +5566,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5538,7 +5626,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5598,7 +5686,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1">
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5658,7 +5746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1">
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5718,7 +5806,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1">
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5778,7 +5866,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5838,7 +5926,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>401</v>
       </c>
@@ -5899,7 +5987,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>310</v>
       </c>
@@ -5959,7 +6047,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>286</v>
       </c>
@@ -6019,7 +6107,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6079,7 +6167,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1">
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6139,7 +6227,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1">
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6199,7 +6287,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6259,7 +6347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1">
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6319,7 +6407,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6381,7 +6469,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1">
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6441,7 +6529,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6501,7 +6589,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1">
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6561,7 +6649,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6621,7 +6709,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6684,7 +6772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>101</v>
       </c>
@@ -6744,7 +6832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>102</v>
       </c>
@@ -6804,7 +6892,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>103</v>
       </c>
@@ -6864,7 +6952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6927,7 +7015,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -6990,7 +7078,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7056,7 +7144,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7122,7 +7210,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7185,7 +7273,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7248,7 +7336,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7311,7 +7399,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7374,7 +7462,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1">
+    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7437,7 +7525,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1">
+    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7500,7 +7588,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1">
+    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7563,7 +7651,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1">
+    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7623,7 +7711,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1">
+    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -7683,7 +7771,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -7743,7 +7831,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>21</v>
       </c>
@@ -7803,7 +7891,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -7863,7 +7951,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1">
+    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -7923,7 +8011,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1">
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -7983,7 +8071,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1">
+    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -8043,7 +8131,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1">
+    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8106,7 +8194,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1">
+    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8169,7 +8257,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8229,7 +8317,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1">
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8292,7 +8380,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1">
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8355,7 +8443,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8418,7 +8506,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8481,7 +8569,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8544,7 +8632,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1">
+    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8604,7 +8692,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1">
+    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -8664,7 +8752,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1">
+    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -8724,7 +8812,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1">
+    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -8784,7 +8872,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>39</v>
       </c>
@@ -8844,7 +8932,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>41</v>
       </c>
@@ -8904,7 +8992,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>42</v>
       </c>
@@ -8964,7 +9052,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1">
+    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -9024,7 +9112,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1">
+    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9084,7 +9172,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1">
+    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9144,7 +9232,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1">
+    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9204,7 +9292,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9264,7 +9352,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9324,7 +9412,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9384,7 +9472,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9444,7 +9532,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9504,7 +9592,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9564,7 +9652,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9624,7 +9712,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>58</v>
       </c>
@@ -9684,7 +9772,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>59</v>
       </c>
@@ -9744,7 +9832,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>60</v>
       </c>
@@ -9804,7 +9892,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>61</v>
       </c>
@@ -9864,7 +9952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>62</v>
       </c>
@@ -9924,7 +10012,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>63</v>
       </c>
@@ -9984,7 +10072,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10044,7 +10132,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10104,7 +10192,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10164,7 +10252,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10224,7 +10312,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10284,7 +10372,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10344,7 +10432,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10404,7 +10492,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10464,7 +10552,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10524,7 +10612,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10584,7 +10672,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>77</v>
       </c>
@@ -10644,7 +10732,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>78</v>
       </c>
@@ -10704,7 +10792,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>79</v>
       </c>
@@ -10764,7 +10852,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>80</v>
       </c>
@@ -10824,7 +10912,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>81</v>
       </c>
@@ -10884,7 +10972,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>82</v>
       </c>
@@ -10944,7 +11032,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>83</v>
       </c>
@@ -11004,7 +11092,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11064,7 +11152,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11124,7 +11212,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11184,7 +11272,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11244,7 +11332,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11304,7 +11392,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11364,7 +11452,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11424,7 +11512,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11484,7 +11572,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11544,7 +11632,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11604,7 +11692,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>98</v>
       </c>
@@ -11664,7 +11752,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>99</v>
       </c>
@@ -11724,7 +11812,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>100</v>
       </c>
@@ -11784,7 +11872,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -11847,7 +11935,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -11910,7 +11998,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>7</v>
       </c>
@@ -11973,7 +12061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12033,7 +12121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12093,7 +12181,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12153,7 +12241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12213,7 +12301,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12273,7 +12361,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12333,7 +12421,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12393,7 +12481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12453,7 +12541,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12513,7 +12601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12573,7 +12661,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>115</v>
       </c>
@@ -12633,7 +12721,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>116</v>
       </c>
@@ -12693,7 +12781,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>117</v>
       </c>
@@ -12753,7 +12841,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>118</v>
       </c>
@@ -12813,7 +12901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>119</v>
       </c>
@@ -12873,7 +12961,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>120</v>
       </c>
@@ -12933,7 +13021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12993,7 +13081,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13053,7 +13141,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13113,7 +13201,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13173,7 +13261,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1">
+    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13236,7 +13324,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1">
+    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13299,7 +13387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1">
+    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13362,7 +13450,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1">
+    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13425,7 +13513,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1">
+    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13488,7 +13576,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13548,7 +13636,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13608,7 +13696,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>137</v>
       </c>
@@ -13668,7 +13756,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>138</v>
       </c>
@@ -13728,7 +13816,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1">
+    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -13791,7 +13879,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -13851,7 +13939,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -13911,7 +13999,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1">
+    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -13971,7 +14059,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14033,7 +14121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14095,7 +14183,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1">
+    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14155,7 +14243,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1">
+    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14215,7 +14303,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1">
+    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14275,7 +14363,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1">
+    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14335,7 +14423,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14395,7 +14483,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14455,7 +14543,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1">
+    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14515,7 +14603,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1">
+    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14575,7 +14663,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -14637,7 +14725,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -14699,7 +14787,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>144</v>
       </c>
@@ -14759,7 +14847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>145</v>
       </c>
@@ -14819,7 +14907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>146</v>
       </c>
@@ -14879,7 +14967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>147</v>
       </c>
@@ -14939,7 +15027,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>148</v>
       </c>
@@ -14959,7 +15047,7 @@
         <v>373</v>
       </c>
       <c r="H158" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="I158">
         <v>30000</v>
@@ -14999,7 +15087,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15059,7 +15147,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15119,7 +15207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15179,7 +15267,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15239,7 +15327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15299,7 +15387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15359,7 +15447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15419,7 +15507,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15479,7 +15567,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15539,7 +15627,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1">
+    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15601,7 +15689,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1">
+    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>163</v>
       </c>
@@ -15663,7 +15751,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1">
+    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -15723,7 +15811,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -15785,7 +15873,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -15847,7 +15935,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>167</v>
       </c>
@@ -15907,7 +15995,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>168</v>
       </c>
@@ -15967,7 +16055,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16027,7 +16115,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16087,7 +16175,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16147,7 +16235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16207,7 +16295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16267,7 +16355,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16327,7 +16415,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16387,7 +16475,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16447,7 +16535,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16507,7 +16595,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16567,7 +16655,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>179</v>
       </c>
@@ -16627,7 +16715,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>180</v>
       </c>
@@ -16687,7 +16775,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>181</v>
       </c>
@@ -16747,7 +16835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>139</v>
       </c>
@@ -16807,7 +16895,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>140</v>
       </c>
@@ -16867,7 +16955,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -16927,7 +17015,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
@@ -16987,7 +17075,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17047,7 +17135,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17107,7 +17195,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17167,7 +17255,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17227,7 +17315,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17287,7 +17375,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17347,7 +17435,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17407,7 +17495,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17467,7 +17555,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17527,7 +17615,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>198</v>
       </c>
@@ -17587,7 +17675,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>199</v>
       </c>
@@ -17647,7 +17735,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -17707,7 +17795,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -17767,7 +17855,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -17827,7 +17915,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -17887,7 +17975,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -17947,7 +18035,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18007,7 +18095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18067,7 +18155,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18127,7 +18215,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18187,7 +18275,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18247,7 +18335,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18307,7 +18395,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18367,7 +18455,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18427,7 +18515,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18487,7 +18575,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18547,7 +18635,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18607,7 +18695,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1">
+    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -18667,7 +18755,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -18727,7 +18815,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -18787,7 +18875,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -18847,7 +18935,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -18907,7 +18995,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -18967,7 +19055,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19027,7 +19115,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19087,7 +19175,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19147,7 +19235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19207,7 +19295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19267,7 +19355,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19327,7 +19415,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19387,7 +19475,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19447,7 +19535,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19507,7 +19595,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19567,7 +19655,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19627,7 +19715,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -19687,7 +19775,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -19747,7 +19835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -19807,7 +19895,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -19867,7 +19955,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -19927,7 +20015,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>243</v>
       </c>
@@ -19987,7 +20075,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20047,7 +20135,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20107,7 +20195,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20167,7 +20255,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20227,7 +20315,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20287,7 +20375,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20347,7 +20435,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20407,7 +20495,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20467,7 +20555,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1">
+    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>254</v>
       </c>
@@ -20527,7 +20615,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>255</v>
       </c>
@@ -20587,7 +20675,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>256</v>
       </c>
@@ -20647,7 +20735,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>257</v>
       </c>
@@ -20707,7 +20795,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>258</v>
       </c>
@@ -20767,7 +20855,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1">
+    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>259</v>
       </c>
@@ -20827,7 +20915,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>260</v>
       </c>
@@ -20887,7 +20975,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>261</v>
       </c>
@@ -20947,7 +21035,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21007,7 +21095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21067,7 +21155,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21127,7 +21215,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21187,7 +21275,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21247,7 +21335,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21307,7 +21395,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21367,7 +21455,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21427,7 +21515,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21487,7 +21575,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>273</v>
       </c>
@@ -21547,7 +21635,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>274</v>
       </c>
@@ -21607,7 +21695,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>275</v>
       </c>
@@ -21667,7 +21755,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>276</v>
       </c>
@@ -21727,7 +21815,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>277</v>
       </c>
@@ -21787,7 +21875,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>278</v>
       </c>
@@ -21847,7 +21935,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>279</v>
       </c>
@@ -21907,7 +21995,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>280</v>
       </c>
@@ -21967,7 +22055,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22027,7 +22115,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22087,7 +22175,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22147,7 +22235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22207,7 +22295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22267,7 +22355,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22330,7 +22418,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22390,7 +22478,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22450,7 +22538,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>291</v>
       </c>
@@ -22510,7 +22598,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>292</v>
       </c>
@@ -22570,7 +22658,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>293</v>
       </c>
@@ -22630,7 +22718,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>294</v>
       </c>
@@ -22690,7 +22778,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>295</v>
       </c>
@@ -22750,7 +22838,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1">
+    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>296</v>
       </c>
@@ -22810,7 +22898,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>297</v>
       </c>
@@ -22870,7 +22958,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>298</v>
       </c>
@@ -22930,7 +23018,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>299</v>
       </c>
@@ -22990,7 +23078,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23050,7 +23138,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23110,7 +23198,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23170,7 +23258,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23230,7 +23318,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23290,7 +23378,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23350,7 +23438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23410,7 +23498,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23470,7 +23558,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>308</v>
       </c>
@@ -23530,7 +23618,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>309</v>
       </c>
@@ -23590,7 +23678,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>310</v>
       </c>
@@ -23650,7 +23738,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>311</v>
       </c>
@@ -23710,7 +23798,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>312</v>
       </c>
@@ -23770,7 +23858,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>313</v>
       </c>
@@ -23830,7 +23918,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>314</v>
       </c>
@@ -23890,7 +23978,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>315</v>
       </c>
@@ -23950,7 +24038,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24010,7 +24098,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24070,7 +24158,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24130,7 +24218,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24190,7 +24278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24250,7 +24338,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24310,7 +24398,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24373,7 +24461,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24433,7 +24521,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>324</v>
       </c>
@@ -24493,7 +24581,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>325</v>
       </c>
@@ -24553,7 +24641,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>326</v>
       </c>
@@ -24613,7 +24701,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>327</v>
       </c>
@@ -24673,7 +24761,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>328</v>
       </c>
@@ -24733,7 +24821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>329</v>
       </c>
@@ -24793,7 +24881,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>330</v>
       </c>
@@ -24853,7 +24941,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>331</v>
       </c>
@@ -24913,7 +25001,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>332</v>
       </c>
@@ -24973,7 +25061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25033,7 +25121,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25093,7 +25181,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25153,7 +25241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25213,7 +25301,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25273,7 +25361,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25333,7 +25421,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25393,7 +25481,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>340</v>
       </c>
@@ -25453,7 +25541,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>341</v>
       </c>
@@ -25513,7 +25601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>342</v>
       </c>
@@ -25573,7 +25661,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>343</v>
       </c>
@@ -25633,7 +25721,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>344</v>
       </c>
@@ -25693,7 +25781,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>345</v>
       </c>
@@ -25753,7 +25841,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>346</v>
       </c>
@@ -25813,7 +25901,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>347</v>
       </c>
@@ -25873,7 +25961,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>348</v>
       </c>
@@ -25933,7 +26021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>349</v>
       </c>
@@ -25993,7 +26081,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1">
+    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26054,7 +26142,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26115,7 +26203,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26175,7 +26263,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26235,7 +26323,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26295,7 +26383,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26355,7 +26443,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26415,7 +26503,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>358</v>
       </c>
@@ -26475,7 +26563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>359</v>
       </c>
@@ -26536,7 +26624,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>360</v>
       </c>
@@ -26597,7 +26685,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>361</v>
       </c>
@@ -26658,7 +26746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>362</v>
       </c>
@@ -26719,7 +26807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>363</v>
       </c>
@@ -26780,7 +26868,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>364</v>
       </c>
@@ -26841,7 +26929,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>365</v>
       </c>
@@ -26902,7 +26990,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>366</v>
       </c>
@@ -26963,7 +27051,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27024,7 +27112,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27085,7 +27173,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27146,7 +27234,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27207,7 +27295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27268,7 +27356,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27329,7 +27417,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27390,7 +27478,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>374</v>
       </c>
@@ -27451,7 +27539,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>375</v>
       </c>
@@ -27512,7 +27600,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>376</v>
       </c>
@@ -27572,7 +27660,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>377</v>
       </c>
@@ -27632,7 +27720,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>378</v>
       </c>
@@ -27692,7 +27780,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1">
+    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>379</v>
       </c>
@@ -27753,7 +27841,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>380</v>
       </c>
@@ -27814,7 +27902,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>381</v>
       </c>
@@ -27875,7 +27963,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>382</v>
       </c>
@@ -27936,7 +28024,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>383</v>
       </c>
@@ -27997,7 +28085,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28058,7 +28146,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28119,7 +28207,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28180,7 +28268,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28241,7 +28329,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28302,7 +28390,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28363,7 +28451,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>390</v>
       </c>
@@ -28424,7 +28512,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>391</v>
       </c>
@@ -28485,7 +28573,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>392</v>
       </c>
@@ -28546,7 +28634,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>393</v>
       </c>
@@ -28607,7 +28695,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>394</v>
       </c>
@@ -28668,7 +28756,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>395</v>
       </c>
@@ -28729,7 +28817,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>396</v>
       </c>
@@ -28790,7 +28878,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>397</v>
       </c>
@@ -28851,7 +28939,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>398</v>
       </c>
@@ -28912,7 +29000,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>399</v>
       </c>
@@ -28973,7 +29061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29034,7 +29122,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29095,7 +29183,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29156,7 +29244,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29217,7 +29305,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29278,7 +29366,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29339,7 +29427,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29400,7 +29488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>408</v>
       </c>
@@ -29461,7 +29549,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>409</v>
       </c>
@@ -29522,7 +29610,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>410</v>
       </c>
@@ -29583,7 +29671,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>411</v>
       </c>
@@ -29644,7 +29732,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>412</v>
       </c>
@@ -29705,7 +29793,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>413</v>
       </c>
@@ -29766,7 +29854,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>414</v>
       </c>
@@ -29820,14 +29908,14 @@
         <v>594</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T407" si="18">ROW()-2</f>
+        <f t="shared" ref="T404:T412" si="18">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>415</v>
       </c>
@@ -29888,7 +29976,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>416</v>
       </c>
@@ -29949,9 +30037,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B407" t="s">
         <v>1084</v>
@@ -30007,6 +30095,311 @@
         <v>405</v>
       </c>
       <c r="U407" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>418</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C408" t="b">
+        <v>0</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" t="s">
+        <v>16</v>
+      </c>
+      <c r="H408" t="s">
+        <v>31</v>
+      </c>
+      <c r="I408">
+        <v>10000</v>
+      </c>
+      <c r="J408" t="s">
+        <v>46</v>
+      </c>
+      <c r="K408">
+        <v>5</v>
+      </c>
+      <c r="M408" t="b">
+        <v>0</v>
+      </c>
+      <c r="N408" t="s">
+        <v>43</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="P408" t="str">
+        <f t="shared" ref="P408:P409" si="19">B408</f>
+        <v>levelpass119</v>
+      </c>
+      <c r="Q408">
+        <v>0</v>
+      </c>
+      <c r="R408">
+        <v>0</v>
+      </c>
+      <c r="S408" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T408">
+        <f t="shared" si="18"/>
+        <v>406</v>
+      </c>
+      <c r="U408" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>419</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C409" t="b">
+        <v>0</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" t="s">
+        <v>16</v>
+      </c>
+      <c r="H409" t="s">
+        <v>31</v>
+      </c>
+      <c r="I409">
+        <v>10000</v>
+      </c>
+      <c r="J409" t="s">
+        <v>46</v>
+      </c>
+      <c r="K409">
+        <v>5</v>
+      </c>
+      <c r="M409" t="b">
+        <v>0</v>
+      </c>
+      <c r="N409" t="s">
+        <v>43</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="P409" t="str">
+        <f t="shared" si="19"/>
+        <v>levelpass120</v>
+      </c>
+      <c r="Q409">
+        <v>0</v>
+      </c>
+      <c r="R409">
+        <v>0</v>
+      </c>
+      <c r="S409" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T409">
+        <f t="shared" si="18"/>
+        <v>407</v>
+      </c>
+      <c r="U409" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>420</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C410" t="b">
+        <v>0</v>
+      </c>
+      <c r="D410" t="s">
+        <v>583</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" t="s">
+        <v>16</v>
+      </c>
+      <c r="H410" t="s">
+        <v>31</v>
+      </c>
+      <c r="I410">
+        <v>30000</v>
+      </c>
+      <c r="J410" t="s">
+        <v>46</v>
+      </c>
+      <c r="K410">
+        <v>5</v>
+      </c>
+      <c r="M410" t="b">
+        <v>0</v>
+      </c>
+      <c r="N410" t="s">
+        <v>43</v>
+      </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
+      <c r="P410" t="str">
+        <f>B410</f>
+        <v>monthpass32</v>
+      </c>
+      <c r="Q410">
+        <v>0</v>
+      </c>
+      <c r="R410">
+        <v>0</v>
+      </c>
+      <c r="S410" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="T410">
+        <f t="shared" si="18"/>
+        <v>408</v>
+      </c>
+      <c r="U410" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>421</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C411" t="b">
+        <v>0</v>
+      </c>
+      <c r="D411" t="s">
+        <v>583</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G411" t="s">
+        <v>16</v>
+      </c>
+      <c r="H411" t="s">
+        <v>31</v>
+      </c>
+      <c r="I411">
+        <v>10000</v>
+      </c>
+      <c r="J411" t="s">
+        <v>46</v>
+      </c>
+      <c r="K411">
+        <v>5</v>
+      </c>
+      <c r="M411" t="b">
+        <v>0</v>
+      </c>
+      <c r="N411" t="s">
+        <v>43</v>
+      </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
+      <c r="P411" t="str">
+        <f>B411</f>
+        <v>monthpass32ins</v>
+      </c>
+      <c r="Q411">
+        <v>0</v>
+      </c>
+      <c r="R411">
+        <v>0</v>
+      </c>
+      <c r="S411" t="s">
+        <v>148</v>
+      </c>
+      <c r="T411">
+        <f t="shared" si="18"/>
+        <v>409</v>
+      </c>
+      <c r="U411" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>422</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C412" t="b">
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G412" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H412" t="s">
+        <v>31</v>
+      </c>
+      <c r="I412">
+        <v>30000</v>
+      </c>
+      <c r="J412" t="s">
+        <v>46</v>
+      </c>
+      <c r="K412">
+        <v>5</v>
+      </c>
+      <c r="M412" t="b">
+        <v>0</v>
+      </c>
+      <c r="N412" t="s">
+        <v>43</v>
+      </c>
+      <c r="O412">
+        <v>0</v>
+      </c>
+      <c r="P412" t="str">
+        <f t="shared" ref="P412" si="20">B412</f>
+        <v>haetalpass0</v>
+      </c>
+      <c r="Q412">
+        <v>0</v>
+      </c>
+      <c r="R412">
+        <v>0</v>
+      </c>
+      <c r="S412" t="s">
+        <v>148</v>
+      </c>
+      <c r="T412">
+        <f t="shared" si="18"/>
+        <v>410</v>
+      </c>
+      <c r="U412" s="15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -30014,73 +30407,82 @@
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:P343">
-    <cfRule type="duplicateValues" dxfId="21" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P369">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P370:P372">
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P373">
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P374">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P375:P378">
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P373">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P374">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  <conditionalFormatting sqref="P380">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P375:P378">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  <conditionalFormatting sqref="P381:P382">
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P379">
+  <conditionalFormatting sqref="P383">
     <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P380">
+  <conditionalFormatting sqref="P384:P391">
     <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P381:P382">
+  <conditionalFormatting sqref="P392">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P383">
+  <conditionalFormatting sqref="P393:P395">
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P384:P391">
+  <conditionalFormatting sqref="P396:P397">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P392">
+  <conditionalFormatting sqref="P398:P399">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P393:P395">
+  <conditionalFormatting sqref="P400:P401">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P396:P397">
+  <conditionalFormatting sqref="P402">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P398:P399">
+  <conditionalFormatting sqref="P403:P405">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P400:P401">
+  <conditionalFormatting sqref="P406">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P402">
+  <conditionalFormatting sqref="P407">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P403:P405">
+  <conditionalFormatting sqref="P408:P409">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P406">
+  <conditionalFormatting sqref="P410:P411">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P412">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P407">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30096,7 +30498,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C795FE-9ACA-4048-939B-9D51F21DE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA77C2C1-90FF-4E64-9041-EE4C403A931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="1140">
   <si>
     <t>id</t>
   </si>
@@ -4546,6 +4546,164 @@
   </si>
   <si>
     <t>3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childpackage0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childpackage2</t>
+  </si>
+  <si>
+    <t>어린이날 무료 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 스폐셜 세트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 스폐셜 세트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hottimepass5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 핫타임 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요린이 요도 패스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요린이 요도 패스2</t>
+  </si>
+  <si>
+    <t>요린이 요도 패스3</t>
+  </si>
+  <si>
+    <t>요린이 요도 패스4</t>
+  </si>
+  <si>
+    <t>요린이 요도 패스5</t>
+  </si>
+  <si>
+    <t>요린이 영혼 반지 패스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요린이 영혼 반지 패스2</t>
+  </si>
+  <si>
+    <t>요린이 영혼 반지 패스3</t>
+  </si>
+  <si>
+    <t>요린이 영혼 반지 패스4</t>
+  </si>
+  <si>
+    <t>요린이 영혼 반지 패스5</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YorinPass</t>
+  </si>
+  <si>
+    <t>yorinsealswordpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yorinsealswordpass1</t>
+  </si>
+  <si>
+    <t>yorinsealswordpass2</t>
+  </si>
+  <si>
+    <t>yorinsealswordpass3</t>
+  </si>
+  <si>
+    <t>yorinsealswordpass4</t>
+  </si>
+  <si>
+    <t>yorinringpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yorinringpass1</t>
+  </si>
+  <si>
+    <t>yorinringpass2</t>
+  </si>
+  <si>
+    <t>yorinringpass3</t>
+  </si>
+  <si>
+    <t>yorinringpass4</t>
+  </si>
+  <si>
+    <t>초월의 유적 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9068,9068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(121단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(122단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 240-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9064,9066,9044,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100000,10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,300000,30,50,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,150000,15,25,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>childpackage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transjeweltpension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4762,7 +4920,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4779,6 +4937,128 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5474,11 +5754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U412"/>
+  <dimension ref="A1:U430"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F412" sqref="F412"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29908,7 +30188,7 @@
         <v>594</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T412" si="18">ROW()-2</f>
+        <f t="shared" ref="T404:T430" si="18">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -30403,86 +30683,1210 @@
         <v>646</v>
       </c>
     </row>
+    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>423</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C413" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E413"/>
+      <c r="F413" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I413" s="3">
+        <v>0</v>
+      </c>
+      <c r="J413" t="s">
+        <v>46</v>
+      </c>
+      <c r="K413" s="3">
+        <v>4</v>
+      </c>
+      <c r="M413" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N413" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O413" s="3">
+        <v>0</v>
+      </c>
+      <c r="P413" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q413" s="3">
+        <v>1</v>
+      </c>
+      <c r="R413" s="3">
+        <v>0</v>
+      </c>
+      <c r="S413" t="s">
+        <v>148</v>
+      </c>
+      <c r="T413">
+        <f t="shared" si="18"/>
+        <v>411</v>
+      </c>
+      <c r="U413" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>424</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C414" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F414" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I414" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J414" t="s">
+        <v>46</v>
+      </c>
+      <c r="K414" s="3">
+        <v>5</v>
+      </c>
+      <c r="L414" s="3"/>
+      <c r="M414" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N414" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O414" s="3">
+        <v>0</v>
+      </c>
+      <c r="P414" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q414" s="3">
+        <v>5</v>
+      </c>
+      <c r="R414" s="3">
+        <v>0</v>
+      </c>
+      <c r="S414" t="s">
+        <v>148</v>
+      </c>
+      <c r="T414">
+        <f t="shared" si="18"/>
+        <v>412</v>
+      </c>
+      <c r="U414" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>425</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C415" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F415" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I415" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J415" t="s">
+        <v>46</v>
+      </c>
+      <c r="K415" s="3">
+        <v>5</v>
+      </c>
+      <c r="L415" s="3"/>
+      <c r="M415" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O415" s="3">
+        <v>0</v>
+      </c>
+      <c r="P415" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q415" s="3">
+        <v>5</v>
+      </c>
+      <c r="R415" s="3">
+        <v>0</v>
+      </c>
+      <c r="S415" t="s">
+        <v>148</v>
+      </c>
+      <c r="T415">
+        <f t="shared" si="18"/>
+        <v>413</v>
+      </c>
+      <c r="U415" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>426</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C416" t="b">
+        <v>0</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" t="s">
+        <v>16</v>
+      </c>
+      <c r="H416" t="s">
+        <v>31</v>
+      </c>
+      <c r="I416">
+        <v>30000</v>
+      </c>
+      <c r="J416" t="s">
+        <v>46</v>
+      </c>
+      <c r="K416">
+        <v>5</v>
+      </c>
+      <c r="M416" t="b">
+        <v>0</v>
+      </c>
+      <c r="N416" t="s">
+        <v>43</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416" t="str">
+        <f t="shared" ref="P416:P430" si="21">B416</f>
+        <v>hottimepass5</v>
+      </c>
+      <c r="Q416">
+        <v>0</v>
+      </c>
+      <c r="R416">
+        <v>0</v>
+      </c>
+      <c r="S416" t="s">
+        <v>148</v>
+      </c>
+      <c r="T416">
+        <f t="shared" si="18"/>
+        <v>414</v>
+      </c>
+      <c r="U416" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>427</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C417" t="b">
+        <v>0</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G417" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H417" t="s">
+        <v>31</v>
+      </c>
+      <c r="I417">
+        <v>10000</v>
+      </c>
+      <c r="J417" t="s">
+        <v>46</v>
+      </c>
+      <c r="K417">
+        <v>5</v>
+      </c>
+      <c r="M417" t="b">
+        <v>0</v>
+      </c>
+      <c r="N417" t="s">
+        <v>43</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="P417" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinsealswordpass0</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
+      </c>
+      <c r="R417">
+        <v>0</v>
+      </c>
+      <c r="S417" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T417">
+        <f t="shared" si="18"/>
+        <v>415</v>
+      </c>
+      <c r="U417" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>428</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C418" t="b">
+        <v>0</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G418" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H418" t="s">
+        <v>31</v>
+      </c>
+      <c r="I418">
+        <v>10000</v>
+      </c>
+      <c r="J418" t="s">
+        <v>46</v>
+      </c>
+      <c r="K418">
+        <v>5</v>
+      </c>
+      <c r="M418" t="b">
+        <v>0</v>
+      </c>
+      <c r="N418" t="s">
+        <v>43</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinsealswordpass1</v>
+      </c>
+      <c r="Q418">
+        <v>0</v>
+      </c>
+      <c r="R418">
+        <v>0</v>
+      </c>
+      <c r="S418" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T418">
+        <f t="shared" si="18"/>
+        <v>416</v>
+      </c>
+      <c r="U418" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>429</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C419" t="b">
+        <v>0</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G419" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H419" t="s">
+        <v>31</v>
+      </c>
+      <c r="I419">
+        <v>10000</v>
+      </c>
+      <c r="J419" t="s">
+        <v>46</v>
+      </c>
+      <c r="K419">
+        <v>5</v>
+      </c>
+      <c r="M419" t="b">
+        <v>0</v>
+      </c>
+      <c r="N419" t="s">
+        <v>43</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinsealswordpass2</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
+      <c r="S419" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T419">
+        <f t="shared" si="18"/>
+        <v>417</v>
+      </c>
+      <c r="U419" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>430</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C420" t="b">
+        <v>0</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H420" t="s">
+        <v>31</v>
+      </c>
+      <c r="I420">
+        <v>10000</v>
+      </c>
+      <c r="J420" t="s">
+        <v>46</v>
+      </c>
+      <c r="K420">
+        <v>5</v>
+      </c>
+      <c r="M420" t="b">
+        <v>0</v>
+      </c>
+      <c r="N420" t="s">
+        <v>43</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="P420" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinsealswordpass3</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>0</v>
+      </c>
+      <c r="S420" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T420">
+        <f t="shared" si="18"/>
+        <v>418</v>
+      </c>
+      <c r="U420" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>431</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C421" t="b">
+        <v>0</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H421" t="s">
+        <v>31</v>
+      </c>
+      <c r="I421">
+        <v>10000</v>
+      </c>
+      <c r="J421" t="s">
+        <v>46</v>
+      </c>
+      <c r="K421">
+        <v>5</v>
+      </c>
+      <c r="M421" t="b">
+        <v>0</v>
+      </c>
+      <c r="N421" t="s">
+        <v>43</v>
+      </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
+      <c r="P421" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinsealswordpass4</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>0</v>
+      </c>
+      <c r="S421" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T421">
+        <f t="shared" si="18"/>
+        <v>419</v>
+      </c>
+      <c r="U421" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>432</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C422" t="b">
+        <v>0</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G422" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H422" t="s">
+        <v>31</v>
+      </c>
+      <c r="I422">
+        <v>10000</v>
+      </c>
+      <c r="J422" t="s">
+        <v>46</v>
+      </c>
+      <c r="K422">
+        <v>5</v>
+      </c>
+      <c r="M422" t="b">
+        <v>0</v>
+      </c>
+      <c r="N422" t="s">
+        <v>43</v>
+      </c>
+      <c r="O422">
+        <v>0</v>
+      </c>
+      <c r="P422" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinringpass0</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>0</v>
+      </c>
+      <c r="S422" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T422">
+        <f t="shared" si="18"/>
+        <v>420</v>
+      </c>
+      <c r="U422" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>433</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C423" t="b">
+        <v>0</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H423" t="s">
+        <v>31</v>
+      </c>
+      <c r="I423">
+        <v>10000</v>
+      </c>
+      <c r="J423" t="s">
+        <v>46</v>
+      </c>
+      <c r="K423">
+        <v>5</v>
+      </c>
+      <c r="M423" t="b">
+        <v>0</v>
+      </c>
+      <c r="N423" t="s">
+        <v>43</v>
+      </c>
+      <c r="O423">
+        <v>0</v>
+      </c>
+      <c r="P423" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinringpass1</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>0</v>
+      </c>
+      <c r="S423" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T423">
+        <f t="shared" si="18"/>
+        <v>421</v>
+      </c>
+      <c r="U423" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>434</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C424" t="b">
+        <v>0</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H424" t="s">
+        <v>31</v>
+      </c>
+      <c r="I424">
+        <v>10000</v>
+      </c>
+      <c r="J424" t="s">
+        <v>46</v>
+      </c>
+      <c r="K424">
+        <v>5</v>
+      </c>
+      <c r="M424" t="b">
+        <v>0</v>
+      </c>
+      <c r="N424" t="s">
+        <v>43</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinringpass2</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+      <c r="R424">
+        <v>0</v>
+      </c>
+      <c r="S424" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T424">
+        <f t="shared" si="18"/>
+        <v>422</v>
+      </c>
+      <c r="U424" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>435</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C425" t="b">
+        <v>0</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H425" t="s">
+        <v>31</v>
+      </c>
+      <c r="I425">
+        <v>10000</v>
+      </c>
+      <c r="J425" t="s">
+        <v>46</v>
+      </c>
+      <c r="K425">
+        <v>5</v>
+      </c>
+      <c r="M425" t="b">
+        <v>0</v>
+      </c>
+      <c r="N425" t="s">
+        <v>43</v>
+      </c>
+      <c r="O425">
+        <v>0</v>
+      </c>
+      <c r="P425" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinringpass3</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>0</v>
+      </c>
+      <c r="S425" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T425">
+        <f t="shared" si="18"/>
+        <v>423</v>
+      </c>
+      <c r="U425" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>436</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C426" t="b">
+        <v>0</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H426" t="s">
+        <v>31</v>
+      </c>
+      <c r="I426">
+        <v>10000</v>
+      </c>
+      <c r="J426" t="s">
+        <v>46</v>
+      </c>
+      <c r="K426">
+        <v>5</v>
+      </c>
+      <c r="M426" t="b">
+        <v>0</v>
+      </c>
+      <c r="N426" t="s">
+        <v>43</v>
+      </c>
+      <c r="O426">
+        <v>0</v>
+      </c>
+      <c r="P426" t="str">
+        <f t="shared" si="21"/>
+        <v>yorinringpass4</v>
+      </c>
+      <c r="Q426">
+        <v>0</v>
+      </c>
+      <c r="R426">
+        <v>0</v>
+      </c>
+      <c r="S426" s="13" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T426">
+        <f t="shared" si="18"/>
+        <v>424</v>
+      </c>
+      <c r="U426" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>437</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C427" t="b">
+        <v>0</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G427" t="s">
+        <v>553</v>
+      </c>
+      <c r="H427" t="s">
+        <v>75</v>
+      </c>
+      <c r="I427">
+        <v>30000</v>
+      </c>
+      <c r="J427" t="s">
+        <v>75</v>
+      </c>
+      <c r="K427">
+        <v>4</v>
+      </c>
+      <c r="M427" t="b">
+        <v>1</v>
+      </c>
+      <c r="N427" t="s">
+        <v>752</v>
+      </c>
+      <c r="O427">
+        <v>0</v>
+      </c>
+      <c r="P427" t="str">
+        <f t="shared" si="21"/>
+        <v>transjeweltpension</v>
+      </c>
+      <c r="Q427">
+        <v>1</v>
+      </c>
+      <c r="R427">
+        <v>0</v>
+      </c>
+      <c r="S427" t="s">
+        <v>148</v>
+      </c>
+      <c r="T427">
+        <f t="shared" si="18"/>
+        <v>425</v>
+      </c>
+      <c r="U427" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>438</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C428" t="b">
+        <v>0</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" t="s">
+        <v>16</v>
+      </c>
+      <c r="H428" t="s">
+        <v>31</v>
+      </c>
+      <c r="I428">
+        <v>10000</v>
+      </c>
+      <c r="J428" t="s">
+        <v>46</v>
+      </c>
+      <c r="K428">
+        <v>5</v>
+      </c>
+      <c r="M428" t="b">
+        <v>0</v>
+      </c>
+      <c r="N428" t="s">
+        <v>43</v>
+      </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
+      <c r="P428" t="str">
+        <f t="shared" si="21"/>
+        <v>levelpass121</v>
+      </c>
+      <c r="Q428">
+        <v>0</v>
+      </c>
+      <c r="R428">
+        <v>0</v>
+      </c>
+      <c r="S428" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T428">
+        <f t="shared" si="18"/>
+        <v>426</v>
+      </c>
+      <c r="U428" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>439</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C429" t="b">
+        <v>0</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G429" t="s">
+        <v>16</v>
+      </c>
+      <c r="H429" t="s">
+        <v>31</v>
+      </c>
+      <c r="I429">
+        <v>10000</v>
+      </c>
+      <c r="J429" t="s">
+        <v>46</v>
+      </c>
+      <c r="K429">
+        <v>5</v>
+      </c>
+      <c r="M429" t="b">
+        <v>0</v>
+      </c>
+      <c r="N429" t="s">
+        <v>43</v>
+      </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
+      <c r="P429" t="str">
+        <f t="shared" si="21"/>
+        <v>levelpass122</v>
+      </c>
+      <c r="Q429">
+        <v>0</v>
+      </c>
+      <c r="R429">
+        <v>0</v>
+      </c>
+      <c r="S429" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="T429">
+        <f t="shared" si="18"/>
+        <v>427</v>
+      </c>
+      <c r="U429" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>440</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C430" t="b">
+        <v>0</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H430" t="s">
+        <v>124</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430" t="s">
+        <v>158</v>
+      </c>
+      <c r="K430">
+        <v>5</v>
+      </c>
+      <c r="M430" t="b">
+        <v>0</v>
+      </c>
+      <c r="N430" t="s">
+        <v>43</v>
+      </c>
+      <c r="O430">
+        <v>0</v>
+      </c>
+      <c r="P430" t="str">
+        <f t="shared" si="21"/>
+        <v>levelup50</v>
+      </c>
+      <c r="Q430">
+        <v>1</v>
+      </c>
+      <c r="R430">
+        <v>24000</v>
+      </c>
+      <c r="S430" t="s">
+        <v>148</v>
+      </c>
+      <c r="T430">
+        <f t="shared" si="18"/>
+        <v>428</v>
+      </c>
+      <c r="U430" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="34"/>
+  <conditionalFormatting sqref="B1:B415 B417:B1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B416">
+    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:P343">
-    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P369">
+    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P370:P372">
+    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P373">
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P374">
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P375:P378">
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P380">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P381:P382">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P370:P372">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P373">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P374">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P375:P378">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P379">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P380">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P381:P382">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P383">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P384:P391">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P392">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P393:P395">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P396:P397">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P398:P399">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P400:P401">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P402">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P403:P405">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P406">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P407">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P408:P409">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P410:P411">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P412">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P413:P415">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P416">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P417:P426">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P427">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P428:P429">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P430">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R415 R417:R1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R416">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30494,9 +31898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FC3BB2-8C81-4B84-A08E-48BFD427C186}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A501"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA77C2C1-90FF-4E64-9041-EE4C403A931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F75613-6E80-4C5C-A78B-67336F6947CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8820" yWindow="2115" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -4711,7 +4711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4920,7 +4920,23 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="35">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5756,12 +5772,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:U430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B427" sqref="B427"/>
+      <selection pane="bottomLeft" activeCell="P413" sqref="P413:P415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5781,7 +5797,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +5862,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5906,7 +5922,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5966,7 +5982,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -6026,7 +6042,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -6086,7 +6102,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -6146,7 +6162,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -6206,7 +6222,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>401</v>
       </c>
@@ -6267,7 +6283,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>310</v>
       </c>
@@ -6327,7 +6343,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>286</v>
       </c>
@@ -6387,7 +6403,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6447,7 +6463,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6507,7 +6523,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6567,7 +6583,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6627,7 +6643,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6687,7 +6703,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6749,7 +6765,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6809,7 +6825,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6869,7 +6885,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6929,7 +6945,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6989,7 +7005,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -7052,7 +7068,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>101</v>
       </c>
@@ -7112,7 +7128,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>102</v>
       </c>
@@ -7172,7 +7188,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>103</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>8</v>
       </c>
@@ -7295,7 +7311,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>9</v>
       </c>
@@ -7358,7 +7374,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7424,7 +7440,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7490,7 +7506,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7553,7 +7569,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7616,7 +7632,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7679,7 +7695,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7742,7 +7758,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7805,7 +7821,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7868,7 +7884,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7931,7 +7947,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7991,7 +8007,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="8" customFormat="1">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -8051,7 +8067,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>20</v>
       </c>
@@ -8111,7 +8127,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>21</v>
       </c>
@@ -8171,7 +8187,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>22</v>
       </c>
@@ -8231,7 +8247,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -8291,7 +8307,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -8351,7 +8367,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -8411,7 +8427,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8474,7 +8490,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8537,7 +8553,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8660,7 +8676,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8723,7 +8739,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8786,7 +8802,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8849,7 +8865,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8912,7 +8928,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8972,7 +8988,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -9032,7 +9048,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -9092,7 +9108,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -9152,7 +9168,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>39</v>
       </c>
@@ -9212,7 +9228,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>41</v>
       </c>
@@ -9272,7 +9288,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>42</v>
       </c>
@@ -9332,7 +9348,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="8" customFormat="1">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -9392,7 +9408,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9452,7 +9468,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9512,7 +9528,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9572,7 +9588,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9632,7 +9648,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9692,7 +9708,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9752,7 +9768,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9812,7 +9828,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9872,7 +9888,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9932,7 +9948,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9992,7 +10008,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>58</v>
       </c>
@@ -10052,7 +10068,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>59</v>
       </c>
@@ -10112,7 +10128,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>60</v>
       </c>
@@ -10172,7 +10188,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>61</v>
       </c>
@@ -10232,7 +10248,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>62</v>
       </c>
@@ -10292,7 +10308,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>63</v>
       </c>
@@ -10352,7 +10368,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10412,7 +10428,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10472,7 +10488,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10532,7 +10548,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10592,7 +10608,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10652,7 +10668,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10712,7 +10728,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10772,7 +10788,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10832,7 +10848,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10892,7 +10908,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10952,7 +10968,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>77</v>
       </c>
@@ -11012,7 +11028,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>78</v>
       </c>
@@ -11072,7 +11088,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>79</v>
       </c>
@@ -11132,7 +11148,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>80</v>
       </c>
@@ -11192,7 +11208,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>81</v>
       </c>
@@ -11252,7 +11268,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>82</v>
       </c>
@@ -11312,7 +11328,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -11372,7 +11388,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11432,7 +11448,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11492,7 +11508,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11552,7 +11568,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11612,7 +11628,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11672,7 +11688,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11732,7 +11748,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11792,7 +11808,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11852,7 +11868,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11912,7 +11928,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11972,7 +11988,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -12032,7 +12048,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -12092,7 +12108,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -12152,7 +12168,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>5</v>
       </c>
@@ -12215,7 +12231,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>6</v>
       </c>
@@ -12278,7 +12294,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>7</v>
       </c>
@@ -12341,7 +12357,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12401,7 +12417,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12461,7 +12477,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12521,7 +12537,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12581,7 +12597,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12641,7 +12657,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12701,7 +12717,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12761,7 +12777,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12821,7 +12837,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12881,7 +12897,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12941,7 +12957,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>115</v>
       </c>
@@ -13001,7 +13017,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>116</v>
       </c>
@@ -13061,7 +13077,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>117</v>
       </c>
@@ -13121,7 +13137,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>118</v>
       </c>
@@ -13181,7 +13197,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>119</v>
       </c>
@@ -13241,7 +13257,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>120</v>
       </c>
@@ -13301,7 +13317,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13361,7 +13377,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13421,7 +13437,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13481,7 +13497,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13541,7 +13557,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13604,7 +13620,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13667,7 +13683,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13730,7 +13746,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13793,7 +13809,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13856,7 +13872,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13916,7 +13932,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13976,7 +13992,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>137</v>
       </c>
@@ -14036,7 +14052,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>138</v>
       </c>
@@ -14096,7 +14112,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -14159,7 +14175,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>142</v>
       </c>
@@ -14219,7 +14235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>143</v>
       </c>
@@ -14279,7 +14295,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -14339,7 +14355,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14401,7 +14417,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14463,7 +14479,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14523,7 +14539,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14583,7 +14599,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14643,7 +14659,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="2" customFormat="1">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14703,7 +14719,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14763,7 +14779,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14823,7 +14839,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14883,7 +14899,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14943,7 +14959,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -15005,7 +15021,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -15067,7 +15083,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>144</v>
       </c>
@@ -15127,7 +15143,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>145</v>
       </c>
@@ -15187,7 +15203,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>146</v>
       </c>
@@ -15247,7 +15263,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>147</v>
       </c>
@@ -15307,7 +15323,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>148</v>
       </c>
@@ -15367,7 +15383,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15427,7 +15443,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15487,7 +15503,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15547,7 +15563,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15607,7 +15623,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15667,7 +15683,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15727,7 +15743,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15787,7 +15803,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15847,7 +15863,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15907,7 +15923,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15969,7 +15985,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169">
         <v>163</v>
       </c>
@@ -16031,7 +16047,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="3" customFormat="1">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -16091,7 +16107,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -16153,7 +16169,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -16215,7 +16231,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>167</v>
       </c>
@@ -16275,7 +16291,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>168</v>
       </c>
@@ -16335,7 +16351,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16395,7 +16411,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16455,7 +16471,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16515,7 +16531,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16575,7 +16591,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16635,7 +16651,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16695,7 +16711,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16755,7 +16771,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16815,7 +16831,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16875,7 +16891,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16935,7 +16951,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>179</v>
       </c>
@@ -16995,7 +17011,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>180</v>
       </c>
@@ -17055,7 +17071,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>181</v>
       </c>
@@ -17115,7 +17131,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>139</v>
       </c>
@@ -17175,7 +17191,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>140</v>
       </c>
@@ -17235,7 +17251,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>187</v>
       </c>
@@ -17295,7 +17311,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>188</v>
       </c>
@@ -17355,7 +17371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17415,7 +17431,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17475,7 +17491,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17535,7 +17551,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17595,7 +17611,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17655,7 +17671,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17715,7 +17731,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17775,7 +17791,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17835,7 +17851,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17895,7 +17911,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>198</v>
       </c>
@@ -17955,7 +17971,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>199</v>
       </c>
@@ -18015,7 +18031,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>201</v>
       </c>
@@ -18075,7 +18091,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>202</v>
       </c>
@@ -18135,7 +18151,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>203</v>
       </c>
@@ -18195,7 +18211,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>204</v>
       </c>
@@ -18255,7 +18271,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18315,7 +18331,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18375,7 +18391,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18435,7 +18451,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18495,7 +18511,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18555,7 +18571,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18615,7 +18631,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18675,7 +18691,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18735,7 +18751,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18795,7 +18811,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18855,7 +18871,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18915,7 +18931,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18975,7 +18991,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" s="3" customFormat="1">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -19035,7 +19051,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>220</v>
       </c>
@@ -19095,7 +19111,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>221</v>
       </c>
@@ -19155,7 +19171,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>222</v>
       </c>
@@ -19215,7 +19231,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19275,7 +19291,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19335,7 +19351,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19395,7 +19411,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19455,7 +19471,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19515,7 +19531,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19575,7 +19591,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19635,7 +19651,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19695,7 +19711,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19755,7 +19771,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19815,7 +19831,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19875,7 +19891,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19935,7 +19951,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19995,7 +20011,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>236</v>
       </c>
@@ -20055,7 +20071,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>237</v>
       </c>
@@ -20115,7 +20131,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>238</v>
       </c>
@@ -20175,7 +20191,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>239</v>
       </c>
@@ -20235,7 +20251,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>240</v>
       </c>
@@ -20295,7 +20311,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>243</v>
       </c>
@@ -20355,7 +20371,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20415,7 +20431,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20475,7 +20491,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20535,7 +20551,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20595,7 +20611,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20655,7 +20671,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20715,7 +20731,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20775,7 +20791,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20835,7 +20851,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" s="3" customFormat="1">
       <c r="A250">
         <v>254</v>
       </c>
@@ -20895,7 +20911,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>255</v>
       </c>
@@ -20955,7 +20971,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>256</v>
       </c>
@@ -21015,7 +21031,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>257</v>
       </c>
@@ -21075,7 +21091,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>258</v>
       </c>
@@ -21135,7 +21151,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" s="3" customFormat="1">
       <c r="A255">
         <v>259</v>
       </c>
@@ -21195,7 +21211,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>260</v>
       </c>
@@ -21255,7 +21271,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>261</v>
       </c>
@@ -21315,7 +21331,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21375,7 +21391,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21435,7 +21451,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21495,7 +21511,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21555,7 +21571,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21615,7 +21631,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21675,7 +21691,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21735,7 +21751,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21795,7 +21811,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21855,7 +21871,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>273</v>
       </c>
@@ -21915,7 +21931,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>274</v>
       </c>
@@ -21975,7 +21991,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>275</v>
       </c>
@@ -22035,7 +22051,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>276</v>
       </c>
@@ -22095,7 +22111,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>277</v>
       </c>
@@ -22155,7 +22171,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>278</v>
       </c>
@@ -22215,7 +22231,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>279</v>
       </c>
@@ -22275,7 +22291,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>280</v>
       </c>
@@ -22335,7 +22351,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22395,7 +22411,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22455,7 +22471,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22515,7 +22531,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22575,7 +22591,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22635,7 +22651,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22698,7 +22714,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22758,7 +22774,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22818,7 +22834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>291</v>
       </c>
@@ -22878,7 +22894,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>292</v>
       </c>
@@ -22938,7 +22954,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>293</v>
       </c>
@@ -22998,7 +23014,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>294</v>
       </c>
@@ -23058,7 +23074,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21">
       <c r="A287">
         <v>295</v>
       </c>
@@ -23118,7 +23134,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" s="3" customFormat="1">
       <c r="A288">
         <v>296</v>
       </c>
@@ -23178,7 +23194,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>297</v>
       </c>
@@ -23238,7 +23254,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>298</v>
       </c>
@@ -23298,7 +23314,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>299</v>
       </c>
@@ -23358,7 +23374,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23418,7 +23434,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23478,7 +23494,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23538,7 +23554,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23598,7 +23614,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23658,7 +23674,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23718,7 +23734,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23778,7 +23794,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23838,7 +23854,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>308</v>
       </c>
@@ -23898,7 +23914,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>309</v>
       </c>
@@ -23958,7 +23974,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>310</v>
       </c>
@@ -24018,7 +24034,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>311</v>
       </c>
@@ -24078,7 +24094,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>312</v>
       </c>
@@ -24138,7 +24154,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>313</v>
       </c>
@@ -24198,7 +24214,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>314</v>
       </c>
@@ -24258,7 +24274,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>315</v>
       </c>
@@ -24318,7 +24334,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24378,7 +24394,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24438,7 +24454,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24498,7 +24514,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24558,7 +24574,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24618,7 +24634,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24678,7 +24694,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24741,7 +24757,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24801,7 +24817,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>324</v>
       </c>
@@ -24861,7 +24877,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>325</v>
       </c>
@@ -24921,7 +24937,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>326</v>
       </c>
@@ -24981,7 +24997,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>327</v>
       </c>
@@ -25041,7 +25057,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>328</v>
       </c>
@@ -25101,7 +25117,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>329</v>
       </c>
@@ -25161,7 +25177,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>330</v>
       </c>
@@ -25221,7 +25237,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>331</v>
       </c>
@@ -25281,7 +25297,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>332</v>
       </c>
@@ -25341,7 +25357,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25401,7 +25417,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25461,7 +25477,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25521,7 +25537,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25581,7 +25597,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25641,7 +25657,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25701,7 +25717,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25761,7 +25777,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>340</v>
       </c>
@@ -25821,7 +25837,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>341</v>
       </c>
@@ -25881,7 +25897,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>342</v>
       </c>
@@ -25941,7 +25957,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>343</v>
       </c>
@@ -26001,7 +26017,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>344</v>
       </c>
@@ -26061,7 +26077,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>345</v>
       </c>
@@ -26121,7 +26137,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>346</v>
       </c>
@@ -26181,7 +26197,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>347</v>
       </c>
@@ -26241,7 +26257,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>348</v>
       </c>
@@ -26301,7 +26317,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21">
       <c r="A341">
         <v>349</v>
       </c>
@@ -26361,7 +26377,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" s="3" customFormat="1">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26422,7 +26438,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26483,7 +26499,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26543,7 +26559,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26603,7 +26619,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26663,7 +26679,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26723,7 +26739,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26783,7 +26799,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>358</v>
       </c>
@@ -26843,7 +26859,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>359</v>
       </c>
@@ -26904,7 +26920,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>360</v>
       </c>
@@ -26965,7 +26981,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>361</v>
       </c>
@@ -27026,7 +27042,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>362</v>
       </c>
@@ -27087,7 +27103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>363</v>
       </c>
@@ -27148,7 +27164,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>364</v>
       </c>
@@ -27209,7 +27225,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>365</v>
       </c>
@@ -27270,7 +27286,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21">
       <c r="A357">
         <v>366</v>
       </c>
@@ -27331,7 +27347,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27392,7 +27408,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27453,7 +27469,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27514,7 +27530,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27575,7 +27591,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27636,7 +27652,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27697,7 +27713,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27758,7 +27774,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21">
       <c r="A365">
         <v>374</v>
       </c>
@@ -27819,7 +27835,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21">
       <c r="A366">
         <v>375</v>
       </c>
@@ -27880,7 +27896,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21">
       <c r="A367">
         <v>376</v>
       </c>
@@ -27940,7 +27956,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21">
       <c r="A368">
         <v>377</v>
       </c>
@@ -28000,7 +28016,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21">
       <c r="A369">
         <v>378</v>
       </c>
@@ -28060,7 +28076,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1">
       <c r="A370">
         <v>379</v>
       </c>
@@ -28121,7 +28137,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21">
       <c r="A371">
         <v>380</v>
       </c>
@@ -28182,7 +28198,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21">
       <c r="A372">
         <v>381</v>
       </c>
@@ -28243,7 +28259,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21">
       <c r="A373">
         <v>382</v>
       </c>
@@ -28304,7 +28320,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21">
       <c r="A374">
         <v>383</v>
       </c>
@@ -28365,7 +28381,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28426,7 +28442,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28487,7 +28503,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28548,7 +28564,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28609,7 +28625,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28670,7 +28686,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28731,7 +28747,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21">
       <c r="A381">
         <v>390</v>
       </c>
@@ -28792,7 +28808,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21">
       <c r="A382">
         <v>391</v>
       </c>
@@ -28853,7 +28869,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21">
       <c r="A383">
         <v>392</v>
       </c>
@@ -28914,7 +28930,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21">
       <c r="A384">
         <v>393</v>
       </c>
@@ -28975,7 +28991,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21">
       <c r="A385">
         <v>394</v>
       </c>
@@ -29036,7 +29052,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21">
       <c r="A386">
         <v>395</v>
       </c>
@@ -29097,7 +29113,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21">
       <c r="A387">
         <v>396</v>
       </c>
@@ -29158,7 +29174,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21">
       <c r="A388">
         <v>397</v>
       </c>
@@ -29219,7 +29235,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21">
       <c r="A389">
         <v>398</v>
       </c>
@@ -29280,7 +29296,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21">
       <c r="A390">
         <v>399</v>
       </c>
@@ -29341,7 +29357,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29402,7 +29418,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29463,7 +29479,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29524,7 +29540,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29585,7 +29601,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29646,7 +29662,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29707,7 +29723,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29768,7 +29784,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21">
       <c r="A398">
         <v>408</v>
       </c>
@@ -29829,7 +29845,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21">
       <c r="A399">
         <v>409</v>
       </c>
@@ -29890,7 +29906,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>410</v>
       </c>
@@ -29951,7 +29967,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>411</v>
       </c>
@@ -30012,7 +30028,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>412</v>
       </c>
@@ -30073,7 +30089,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21">
       <c r="A403">
         <v>413</v>
       </c>
@@ -30134,7 +30150,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21">
       <c r="A404">
         <v>414</v>
       </c>
@@ -30195,7 +30211,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21">
       <c r="A405">
         <v>415</v>
       </c>
@@ -30256,7 +30272,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21">
       <c r="A406">
         <v>416</v>
       </c>
@@ -30317,7 +30333,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21">
       <c r="A407">
         <v>417</v>
       </c>
@@ -30378,7 +30394,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21">
       <c r="A408">
         <v>418</v>
       </c>
@@ -30439,7 +30455,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21">
       <c r="A409">
         <v>419</v>
       </c>
@@ -30500,7 +30516,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21">
       <c r="A410">
         <v>420</v>
       </c>
@@ -30561,7 +30577,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21">
       <c r="A411">
         <v>421</v>
       </c>
@@ -30622,7 +30638,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21">
       <c r="A412">
         <v>422</v>
       </c>
@@ -30683,7 +30699,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="3" customFormat="1">
       <c r="A413">
         <v>423</v>
       </c>
@@ -30725,7 +30741,7 @@
         <v>0</v>
       </c>
       <c r="P413" s="3" t="s">
-        <v>1003</v>
+        <v>1096</v>
       </c>
       <c r="Q413" s="3">
         <v>1</v>
@@ -30744,7 +30760,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21">
       <c r="A414">
         <v>424</v>
       </c>
@@ -30786,7 +30802,7 @@
         <v>0</v>
       </c>
       <c r="P414" s="3" t="s">
-        <v>1004</v>
+        <v>1138</v>
       </c>
       <c r="Q414" s="3">
         <v>5</v>
@@ -30805,7 +30821,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21">
       <c r="A415">
         <v>425</v>
       </c>
@@ -30847,7 +30863,7 @@
         <v>0</v>
       </c>
       <c r="P415" s="3" t="s">
-        <v>1005</v>
+        <v>1097</v>
       </c>
       <c r="Q415" s="3">
         <v>5</v>
@@ -30866,7 +30882,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21">
       <c r="A416">
         <v>426</v>
       </c>
@@ -30927,7 +30943,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21">
       <c r="A417">
         <v>427</v>
       </c>
@@ -30988,7 +31004,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21">
       <c r="A418">
         <v>428</v>
       </c>
@@ -31049,7 +31065,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21">
       <c r="A419">
         <v>429</v>
       </c>
@@ -31110,7 +31126,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21">
       <c r="A420">
         <v>430</v>
       </c>
@@ -31171,7 +31187,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21">
       <c r="A421">
         <v>431</v>
       </c>
@@ -31232,7 +31248,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21">
       <c r="A422">
         <v>432</v>
       </c>
@@ -31293,7 +31309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21">
       <c r="A423">
         <v>433</v>
       </c>
@@ -31354,7 +31370,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21">
       <c r="A424">
         <v>434</v>
       </c>
@@ -31415,7 +31431,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21">
       <c r="A425">
         <v>435</v>
       </c>
@@ -31476,7 +31492,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21">
       <c r="A426">
         <v>436</v>
       </c>
@@ -31537,7 +31553,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21">
       <c r="A427">
         <v>437</v>
       </c>
@@ -31598,7 +31614,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21">
       <c r="A428">
         <v>438</v>
       </c>
@@ -31659,7 +31675,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21">
       <c r="A429">
         <v>439</v>
       </c>
@@ -31720,7 +31736,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21">
       <c r="A430">
         <v>440</v>
       </c>
@@ -31785,108 +31801,108 @@
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B415 B417:B1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B416">
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P342:P343">
-    <cfRule type="duplicateValues" dxfId="31" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P350:P369">
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P370:P372">
+    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P373">
     <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P373">
+  <conditionalFormatting sqref="P374">
     <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P374">
+  <conditionalFormatting sqref="P375:P378">
     <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P375:P378">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+  <conditionalFormatting sqref="P379">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P379">
+  <conditionalFormatting sqref="P380">
     <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P380">
+  <conditionalFormatting sqref="P381:P382">
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P381:P382">
+  <conditionalFormatting sqref="P383">
     <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P383">
+  <conditionalFormatting sqref="P384:P391">
     <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P384:P391">
+  <conditionalFormatting sqref="P392">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P392">
+  <conditionalFormatting sqref="P393:P395">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P393:P395">
+  <conditionalFormatting sqref="P396:P397">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P396:P397">
+  <conditionalFormatting sqref="P398:P399">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P398:P399">
+  <conditionalFormatting sqref="P400:P401">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P400:P401">
+  <conditionalFormatting sqref="P402">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P402">
+  <conditionalFormatting sqref="P403:P405">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P403:P405">
+  <conditionalFormatting sqref="P406">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P406">
+  <conditionalFormatting sqref="P407">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P407">
+  <conditionalFormatting sqref="P408:P409">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P408:P409">
+  <conditionalFormatting sqref="P410:P411">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P410:P411">
+  <conditionalFormatting sqref="P412">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P412">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="P416">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P413:P415">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P416">
+  <conditionalFormatting sqref="P417:P426">
     <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P417:P426">
+  <conditionalFormatting sqref="P427">
     <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P427">
+  <conditionalFormatting sqref="P428:P429">
     <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P428:P429">
+  <conditionalFormatting sqref="P430">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P430">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R415 R417:R1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R416">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P413:P415">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31900,7 +31916,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9560A2-B78C-47E5-A4DF-D4A9525B8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31ACFA8-B08C-4216-A643-48183B7C67CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1130">
   <si>
     <t>id</t>
   </si>
@@ -4634,12 +4634,67 @@
     <t>transjeweltpension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>dimensionpass0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DimensionPass</t>
+  </si>
+  <si>
+    <t>15002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름대비 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(123단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(124단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4848,7 +4903,7 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4875,470 +4930,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -5682,14 +5273,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U430"/>
+  <dimension ref="A1:U436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P429" sqref="P429"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I437" sqref="I437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5709,7 +5300,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5365,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5835,7 +5426,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5896,7 +5487,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5957,7 +5548,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -6018,7 +5609,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -6079,7 +5670,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -6140,7 +5731,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>401</v>
       </c>
@@ -6201,7 +5792,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>310</v>
       </c>
@@ -6262,7 +5853,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>286</v>
       </c>
@@ -6323,7 +5914,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6384,7 +5975,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6445,7 +6036,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6506,7 +6097,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6567,7 +6158,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6628,7 +6219,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6691,7 +6282,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6752,7 +6343,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6813,7 +6404,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6874,7 +6465,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6935,7 +6526,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6998,7 +6589,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>101</v>
       </c>
@@ -7059,7 +6650,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>102</v>
       </c>
@@ -7120,7 +6711,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>103</v>
       </c>
@@ -7181,7 +6772,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>8</v>
       </c>
@@ -7245,7 +6836,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>9</v>
       </c>
@@ -7309,7 +6900,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7376,7 +6967,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7443,7 +7034,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7507,7 +7098,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7571,7 +7162,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7635,7 +7226,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7699,7 +7290,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7763,7 +7354,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7827,7 +7418,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7891,7 +7482,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7952,7 +7543,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="8" customFormat="1">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -8013,7 +7604,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>20</v>
       </c>
@@ -8074,7 +7665,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>21</v>
       </c>
@@ -8135,7 +7726,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>22</v>
       </c>
@@ -8196,7 +7787,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -8257,7 +7848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -8318,7 +7909,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -8379,7 +7970,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8443,7 +8034,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8507,7 +8098,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8568,7 +8159,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8632,7 +8223,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8696,7 +8287,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8760,7 +8351,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8824,7 +8415,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8888,7 +8479,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8949,7 +8540,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -9010,7 +8601,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -9071,7 +8662,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -9132,7 +8723,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>39</v>
       </c>
@@ -9193,7 +8784,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>41</v>
       </c>
@@ -9254,7 +8845,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>42</v>
       </c>
@@ -9315,7 +8906,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="8" customFormat="1">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -9376,7 +8967,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9437,7 +9028,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9498,7 +9089,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9559,7 +9150,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9620,7 +9211,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9681,7 +9272,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9742,7 +9333,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9803,7 +9394,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9864,7 +9455,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9925,7 +9516,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9986,7 +9577,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>58</v>
       </c>
@@ -10047,7 +9638,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>59</v>
       </c>
@@ -10108,7 +9699,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>60</v>
       </c>
@@ -10169,7 +9760,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>61</v>
       </c>
@@ -10230,7 +9821,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>62</v>
       </c>
@@ -10291,7 +9882,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>63</v>
       </c>
@@ -10352,7 +9943,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10413,7 +10004,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10474,7 +10065,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10535,7 +10126,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10596,7 +10187,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10657,7 +10248,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10718,7 +10309,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10779,7 +10370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10840,7 +10431,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10901,7 +10492,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10962,7 +10553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>77</v>
       </c>
@@ -11023,7 +10614,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>78</v>
       </c>
@@ -11084,7 +10675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>79</v>
       </c>
@@ -11145,7 +10736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>80</v>
       </c>
@@ -11206,7 +10797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>81</v>
       </c>
@@ -11267,7 +10858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>82</v>
       </c>
@@ -11328,7 +10919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -11389,7 +10980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11450,7 +11041,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11511,7 +11102,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11572,7 +11163,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11633,7 +11224,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11694,7 +11285,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11755,7 +11346,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11816,7 +11407,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11877,7 +11468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11938,7 +11529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11999,7 +11590,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -12060,7 +11651,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -12121,7 +11712,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -12182,7 +11773,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>5</v>
       </c>
@@ -12246,7 +11837,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>6</v>
       </c>
@@ -12310,7 +11901,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>7</v>
       </c>
@@ -12374,7 +11965,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12435,7 +12026,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12496,7 +12087,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12557,7 +12148,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12618,7 +12209,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12679,7 +12270,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12740,7 +12331,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12801,7 +12392,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12862,7 +12453,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12923,7 +12514,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12984,7 +12575,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>115</v>
       </c>
@@ -13045,7 +12636,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>116</v>
       </c>
@@ -13106,7 +12697,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>117</v>
       </c>
@@ -13167,7 +12758,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>118</v>
       </c>
@@ -13228,7 +12819,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>119</v>
       </c>
@@ -13289,7 +12880,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>120</v>
       </c>
@@ -13350,7 +12941,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13411,7 +13002,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13472,7 +13063,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13533,7 +13124,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13594,7 +13185,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13658,7 +13249,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13722,7 +13313,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13786,7 +13377,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13850,7 +13441,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13914,7 +13505,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13975,7 +13566,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14036,7 +13627,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>137</v>
       </c>
@@ -14097,7 +13688,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>138</v>
       </c>
@@ -14158,7 +13749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -14222,7 +13813,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>142</v>
       </c>
@@ -14283,7 +13874,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>143</v>
       </c>
@@ -14344,7 +13935,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -14405,7 +13996,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14468,7 +14059,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14531,7 +14122,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14592,7 +14183,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14653,7 +14244,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14714,7 +14305,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="2" customFormat="1">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14775,7 +14366,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14836,7 +14427,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14897,7 +14488,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14958,7 +14549,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -15019,7 +14610,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -15082,7 +14673,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -15145,7 +14736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>144</v>
       </c>
@@ -15206,7 +14797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>145</v>
       </c>
@@ -15267,7 +14858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>146</v>
       </c>
@@ -15328,7 +14919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>147</v>
       </c>
@@ -15389,7 +14980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>148</v>
       </c>
@@ -15450,7 +15041,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15511,7 +15102,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15572,7 +15163,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15633,7 +15224,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15694,7 +15285,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15755,7 +15346,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15816,7 +15407,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15877,7 +15468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15938,7 +15529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15999,7 +15590,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>162</v>
       </c>
@@ -16062,7 +15653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169">
         <v>163</v>
       </c>
@@ -16125,7 +15716,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="3" customFormat="1">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -16186,7 +15777,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -16249,7 +15840,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -16312,7 +15903,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>167</v>
       </c>
@@ -16373,7 +15964,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>168</v>
       </c>
@@ -16434,7 +16025,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16495,7 +16086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16556,7 +16147,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16617,7 +16208,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16678,7 +16269,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16739,7 +16330,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16800,7 +16391,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16861,7 +16452,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16922,7 +16513,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16983,7 +16574,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>178</v>
       </c>
@@ -17044,7 +16635,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>179</v>
       </c>
@@ -17105,7 +16696,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>180</v>
       </c>
@@ -17166,7 +16757,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>181</v>
       </c>
@@ -17227,7 +16818,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>139</v>
       </c>
@@ -17288,7 +16879,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>140</v>
       </c>
@@ -17349,7 +16940,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>187</v>
       </c>
@@ -17410,7 +17001,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>188</v>
       </c>
@@ -17471,7 +17062,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17532,7 +17123,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17593,7 +17184,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17654,7 +17245,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17715,7 +17306,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17776,7 +17367,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17837,7 +17428,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17898,7 +17489,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17959,7 +17550,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>197</v>
       </c>
@@ -18020,7 +17611,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>198</v>
       </c>
@@ -18081,7 +17672,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>199</v>
       </c>
@@ -18142,7 +17733,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>201</v>
       </c>
@@ -18203,7 +17794,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>202</v>
       </c>
@@ -18264,7 +17855,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>203</v>
       </c>
@@ -18325,7 +17916,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>204</v>
       </c>
@@ -18386,7 +17977,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18447,7 +18038,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18508,7 +18099,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18569,7 +18160,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18630,7 +18221,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18691,7 +18282,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18752,7 +18343,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18813,7 +18404,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18874,7 +18465,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18935,7 +18526,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18996,7 +18587,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19057,7 +18648,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19118,7 +18709,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" s="3" customFormat="1">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -19179,7 +18770,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>220</v>
       </c>
@@ -19240,7 +18831,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>221</v>
       </c>
@@ -19301,7 +18892,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>222</v>
       </c>
@@ -19362,7 +18953,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19423,7 +19014,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19484,7 +19075,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19545,7 +19136,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19606,7 +19197,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19667,7 +19258,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19728,7 +19319,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19789,7 +19380,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19850,7 +19441,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19911,7 +19502,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19972,7 +19563,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>233</v>
       </c>
@@ -20033,7 +19624,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>234</v>
       </c>
@@ -20094,7 +19685,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>235</v>
       </c>
@@ -20155,7 +19746,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>236</v>
       </c>
@@ -20216,7 +19807,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>237</v>
       </c>
@@ -20277,7 +19868,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>238</v>
       </c>
@@ -20338,7 +19929,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>239</v>
       </c>
@@ -20399,7 +19990,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>240</v>
       </c>
@@ -20460,7 +20051,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>243</v>
       </c>
@@ -20521,7 +20112,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20582,7 +20173,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20643,7 +20234,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20704,7 +20295,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20765,7 +20356,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20826,7 +20417,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20887,7 +20478,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20948,7 +20539,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>253</v>
       </c>
@@ -21009,7 +20600,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" s="3" customFormat="1">
       <c r="A250">
         <v>254</v>
       </c>
@@ -21070,7 +20661,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>255</v>
       </c>
@@ -21131,7 +20722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>256</v>
       </c>
@@ -21192,7 +20783,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>257</v>
       </c>
@@ -21253,7 +20844,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>258</v>
       </c>
@@ -21314,7 +20905,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" s="3" customFormat="1">
       <c r="A255">
         <v>259</v>
       </c>
@@ -21375,7 +20966,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>260</v>
       </c>
@@ -21436,7 +21027,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>261</v>
       </c>
@@ -21497,7 +21088,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21558,7 +21149,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21619,7 +21210,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21680,7 +21271,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21741,7 +21332,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21802,7 +21393,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21863,7 +21454,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21924,7 +21515,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21985,7 +21576,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>270</v>
       </c>
@@ -22046,7 +21637,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>273</v>
       </c>
@@ -22107,7 +21698,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>274</v>
       </c>
@@ -22168,7 +21759,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>275</v>
       </c>
@@ -22229,7 +21820,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>276</v>
       </c>
@@ -22290,7 +21881,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>277</v>
       </c>
@@ -22351,7 +21942,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>278</v>
       </c>
@@ -22412,7 +22003,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>279</v>
       </c>
@@ -22473,7 +22064,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>280</v>
       </c>
@@ -22534,7 +22125,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22595,7 +22186,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22656,7 +22247,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22717,7 +22308,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22778,7 +22369,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22839,7 +22430,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22903,7 +22494,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22964,7 +22555,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>290</v>
       </c>
@@ -23025,7 +22616,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>291</v>
       </c>
@@ -23086,7 +22677,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>292</v>
       </c>
@@ -23147,7 +22738,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>293</v>
       </c>
@@ -23208,7 +22799,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>294</v>
       </c>
@@ -23269,7 +22860,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21">
       <c r="A287">
         <v>295</v>
       </c>
@@ -23330,7 +22921,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" s="3" customFormat="1">
       <c r="A288">
         <v>296</v>
       </c>
@@ -23391,7 +22982,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>297</v>
       </c>
@@ -23452,7 +23043,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>298</v>
       </c>
@@ -23513,7 +23104,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>299</v>
       </c>
@@ -23574,7 +23165,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23635,7 +23226,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23696,7 +23287,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23757,7 +23348,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23818,7 +23409,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23879,7 +23470,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23940,7 +23531,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>306</v>
       </c>
@@ -24001,7 +23592,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>307</v>
       </c>
@@ -24062,7 +23653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>308</v>
       </c>
@@ -24123,7 +23714,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>309</v>
       </c>
@@ -24184,7 +23775,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>310</v>
       </c>
@@ -24245,7 +23836,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>311</v>
       </c>
@@ -24306,7 +23897,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>312</v>
       </c>
@@ -24367,7 +23958,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>313</v>
       </c>
@@ -24428,7 +24019,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>314</v>
       </c>
@@ -24489,7 +24080,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>315</v>
       </c>
@@ -24550,7 +24141,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24611,7 +24202,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24672,7 +24263,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24733,7 +24324,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24794,7 +24385,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24855,7 +24446,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24916,7 +24507,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24980,7 +24571,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>323</v>
       </c>
@@ -25041,7 +24632,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>324</v>
       </c>
@@ -25102,7 +24693,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>325</v>
       </c>
@@ -25163,7 +24754,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>326</v>
       </c>
@@ -25224,7 +24815,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>327</v>
       </c>
@@ -25285,7 +24876,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>328</v>
       </c>
@@ -25346,7 +24937,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>329</v>
       </c>
@@ -25407,7 +24998,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>330</v>
       </c>
@@ -25468,7 +25059,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>331</v>
       </c>
@@ -25529,7 +25120,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>332</v>
       </c>
@@ -25590,7 +25181,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25651,7 +25242,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25712,7 +25303,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25773,7 +25364,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25834,7 +25425,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25895,7 +25486,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25956,7 +25547,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>339</v>
       </c>
@@ -26017,7 +25608,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>340</v>
       </c>
@@ -26078,7 +25669,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>341</v>
       </c>
@@ -26139,7 +25730,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>342</v>
       </c>
@@ -26200,7 +25791,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>343</v>
       </c>
@@ -26261,7 +25852,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>344</v>
       </c>
@@ -26322,7 +25913,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>345</v>
       </c>
@@ -26383,7 +25974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>346</v>
       </c>
@@ -26444,7 +26035,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>347</v>
       </c>
@@ -26505,7 +26096,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>348</v>
       </c>
@@ -26566,7 +26157,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21">
       <c r="A341">
         <v>349</v>
       </c>
@@ -26627,7 +26218,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" s="3" customFormat="1">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26689,7 +26280,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26751,7 +26342,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26812,7 +26403,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26873,7 +26464,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26934,7 +26525,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26995,7 +26586,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>357</v>
       </c>
@@ -27056,7 +26647,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>358</v>
       </c>
@@ -27117,7 +26708,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>359</v>
       </c>
@@ -27178,7 +26769,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>360</v>
       </c>
@@ -27239,7 +26830,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>361</v>
       </c>
@@ -27300,7 +26891,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>362</v>
       </c>
@@ -27361,7 +26952,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>363</v>
       </c>
@@ -27422,7 +27013,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>364</v>
       </c>
@@ -27483,7 +27074,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>365</v>
       </c>
@@ -27544,7 +27135,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21">
       <c r="A357">
         <v>366</v>
       </c>
@@ -27605,7 +27196,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27666,7 +27257,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27727,7 +27318,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27788,7 +27379,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27849,7 +27440,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27910,7 +27501,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27971,7 +27562,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21">
       <c r="A364">
         <v>373</v>
       </c>
@@ -28032,7 +27623,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21">
       <c r="A365">
         <v>374</v>
       </c>
@@ -28093,7 +27684,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21">
       <c r="A366">
         <v>375</v>
       </c>
@@ -28154,7 +27745,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21">
       <c r="A367">
         <v>376</v>
       </c>
@@ -28215,7 +27806,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21">
       <c r="A368">
         <v>377</v>
       </c>
@@ -28276,7 +27867,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21">
       <c r="A369">
         <v>378</v>
       </c>
@@ -28337,7 +27928,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1">
       <c r="A370">
         <v>379</v>
       </c>
@@ -28399,7 +27990,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21">
       <c r="A371">
         <v>380</v>
       </c>
@@ -28461,7 +28052,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21">
       <c r="A372">
         <v>381</v>
       </c>
@@ -28523,7 +28114,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21">
       <c r="A373">
         <v>382</v>
       </c>
@@ -28584,7 +28175,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21">
       <c r="A374">
         <v>383</v>
       </c>
@@ -28645,7 +28236,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28706,7 +28297,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28767,7 +28358,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28828,7 +28419,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28889,7 +28480,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28950,7 +28541,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21">
       <c r="A380">
         <v>389</v>
       </c>
@@ -29011,7 +28602,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21">
       <c r="A381">
         <v>390</v>
       </c>
@@ -29072,7 +28663,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21">
       <c r="A382">
         <v>391</v>
       </c>
@@ -29133,7 +28724,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21">
       <c r="A383">
         <v>392</v>
       </c>
@@ -29194,7 +28785,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21">
       <c r="A384">
         <v>393</v>
       </c>
@@ -29255,7 +28846,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21">
       <c r="A385">
         <v>394</v>
       </c>
@@ -29316,7 +28907,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21">
       <c r="A386">
         <v>395</v>
       </c>
@@ -29377,7 +28968,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21">
       <c r="A387">
         <v>396</v>
       </c>
@@ -29438,7 +29029,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21">
       <c r="A388">
         <v>397</v>
       </c>
@@ -29499,7 +29090,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21">
       <c r="A389">
         <v>398</v>
       </c>
@@ -29560,7 +29151,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21">
       <c r="A390">
         <v>399</v>
       </c>
@@ -29621,7 +29212,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29682,7 +29273,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29743,7 +29334,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29804,7 +29395,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29865,7 +29456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29926,7 +29517,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29987,7 +29578,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21">
       <c r="A397">
         <v>407</v>
       </c>
@@ -30048,7 +29639,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21">
       <c r="A398">
         <v>408</v>
       </c>
@@ -30109,7 +29700,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21">
       <c r="A399">
         <v>409</v>
       </c>
@@ -30170,7 +29761,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>410</v>
       </c>
@@ -30231,7 +29822,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>411</v>
       </c>
@@ -30292,7 +29883,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>412</v>
       </c>
@@ -30353,7 +29944,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21">
       <c r="A403">
         <v>413</v>
       </c>
@@ -30414,7 +30005,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21">
       <c r="A404">
         <v>414</v>
       </c>
@@ -30468,14 +30059,14 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T430" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T436" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21">
       <c r="A405">
         <v>415</v>
       </c>
@@ -30536,7 +30127,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21">
       <c r="A406">
         <v>416</v>
       </c>
@@ -30597,7 +30188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21">
       <c r="A407">
         <v>417</v>
       </c>
@@ -30658,7 +30249,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21">
       <c r="A408">
         <v>418</v>
       </c>
@@ -30719,7 +30310,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21">
       <c r="A409">
         <v>419</v>
       </c>
@@ -30780,7 +30371,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21">
       <c r="A410">
         <v>420</v>
       </c>
@@ -30841,7 +30432,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21">
       <c r="A411">
         <v>421</v>
       </c>
@@ -30902,7 +30493,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21">
       <c r="A412">
         <v>422</v>
       </c>
@@ -30963,7 +30554,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="3" customFormat="1">
       <c r="A413">
         <v>423</v>
       </c>
@@ -31025,7 +30616,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21">
       <c r="A414">
         <v>424</v>
       </c>
@@ -31087,7 +30678,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21">
       <c r="A415">
         <v>425</v>
       </c>
@@ -31149,7 +30740,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21">
       <c r="A416">
         <v>426</v>
       </c>
@@ -31210,7 +30801,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21">
       <c r="A417">
         <v>427</v>
       </c>
@@ -31271,7 +30862,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21">
       <c r="A418">
         <v>428</v>
       </c>
@@ -31332,7 +30923,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21">
       <c r="A419">
         <v>429</v>
       </c>
@@ -31393,7 +30984,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21">
       <c r="A420">
         <v>430</v>
       </c>
@@ -31454,7 +31045,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21">
       <c r="A421">
         <v>431</v>
       </c>
@@ -31515,7 +31106,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21">
       <c r="A422">
         <v>432</v>
       </c>
@@ -31576,7 +31167,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21">
       <c r="A423">
         <v>433</v>
       </c>
@@ -31637,7 +31228,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21">
       <c r="A424">
         <v>434</v>
       </c>
@@ -31698,7 +31289,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21">
       <c r="A425">
         <v>435</v>
       </c>
@@ -31759,7 +31350,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21">
       <c r="A426">
         <v>436</v>
       </c>
@@ -31820,7 +31411,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21">
       <c r="A427">
         <v>437</v>
       </c>
@@ -31881,7 +31472,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21">
       <c r="A428">
         <v>438</v>
       </c>
@@ -31942,7 +31533,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21">
       <c r="A429">
         <v>439</v>
       </c>
@@ -32003,7 +31594,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21">
       <c r="A430">
         <v>440</v>
       </c>
@@ -32061,6 +31652,372 @@
         <v>428</v>
       </c>
       <c r="U430" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21">
+      <c r="A431">
+        <v>441</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C431" t="b">
+        <v>0</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G431" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H431" t="s">
+        <v>31</v>
+      </c>
+      <c r="I431">
+        <v>10000</v>
+      </c>
+      <c r="J431" t="s">
+        <v>46</v>
+      </c>
+      <c r="K431">
+        <v>5</v>
+      </c>
+      <c r="M431" t="b">
+        <v>0</v>
+      </c>
+      <c r="N431" t="s">
+        <v>43</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431" t="str">
+        <f t="shared" ref="P431" si="18">B431</f>
+        <v>dimensionpass0</v>
+      </c>
+      <c r="Q431">
+        <v>0</v>
+      </c>
+      <c r="R431">
+        <v>0</v>
+      </c>
+      <c r="S431" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T431">
+        <f t="shared" si="17"/>
+        <v>429</v>
+      </c>
+      <c r="U431" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21">
+      <c r="A432">
+        <v>442</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C432" t="b">
+        <v>0</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H432" t="s">
+        <v>31</v>
+      </c>
+      <c r="I432">
+        <v>10000</v>
+      </c>
+      <c r="J432" t="s">
+        <v>46</v>
+      </c>
+      <c r="K432">
+        <v>5</v>
+      </c>
+      <c r="M432" t="b">
+        <v>0</v>
+      </c>
+      <c r="N432" t="s">
+        <v>43</v>
+      </c>
+      <c r="O432">
+        <v>0</v>
+      </c>
+      <c r="P432" t="str">
+        <f t="shared" ref="P432:P435" si="19">B432</f>
+        <v>dimensionpass1</v>
+      </c>
+      <c r="Q432">
+        <v>0</v>
+      </c>
+      <c r="R432">
+        <v>0</v>
+      </c>
+      <c r="S432" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T432">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="U432" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21">
+      <c r="A433">
+        <v>443</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C433" t="b">
+        <v>0</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G433" t="s">
+        <v>16</v>
+      </c>
+      <c r="H433" t="s">
+        <v>31</v>
+      </c>
+      <c r="I433">
+        <v>30000</v>
+      </c>
+      <c r="J433" t="s">
+        <v>46</v>
+      </c>
+      <c r="K433">
+        <v>5</v>
+      </c>
+      <c r="M433" t="b">
+        <v>0</v>
+      </c>
+      <c r="N433" t="s">
+        <v>43</v>
+      </c>
+      <c r="O433">
+        <v>0</v>
+      </c>
+      <c r="P433" t="str">
+        <f t="shared" si="19"/>
+        <v>trainingpass3</v>
+      </c>
+      <c r="Q433">
+        <v>0</v>
+      </c>
+      <c r="R433">
+        <v>0</v>
+      </c>
+      <c r="S433" t="s">
+        <v>148</v>
+      </c>
+      <c r="T433">
+        <f t="shared" si="17"/>
+        <v>431</v>
+      </c>
+      <c r="U433" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21">
+      <c r="A434">
+        <v>444</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C434" t="b">
+        <v>0</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G434" t="s">
+        <v>16</v>
+      </c>
+      <c r="H434" t="s">
+        <v>31</v>
+      </c>
+      <c r="I434">
+        <v>10000</v>
+      </c>
+      <c r="J434" t="s">
+        <v>46</v>
+      </c>
+      <c r="K434">
+        <v>5</v>
+      </c>
+      <c r="M434" t="b">
+        <v>0</v>
+      </c>
+      <c r="N434" t="s">
+        <v>43</v>
+      </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
+      <c r="P434" t="str">
+        <f t="shared" si="19"/>
+        <v>levelpass123</v>
+      </c>
+      <c r="Q434">
+        <v>0</v>
+      </c>
+      <c r="R434">
+        <v>0</v>
+      </c>
+      <c r="S434" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T434">
+        <f t="shared" si="17"/>
+        <v>432</v>
+      </c>
+      <c r="U434" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21">
+      <c r="A435">
+        <v>445</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C435" t="b">
+        <v>0</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G435" t="s">
+        <v>16</v>
+      </c>
+      <c r="H435" t="s">
+        <v>31</v>
+      </c>
+      <c r="I435">
+        <v>10000</v>
+      </c>
+      <c r="J435" t="s">
+        <v>46</v>
+      </c>
+      <c r="K435">
+        <v>5</v>
+      </c>
+      <c r="M435" t="b">
+        <v>0</v>
+      </c>
+      <c r="N435" t="s">
+        <v>43</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435" t="str">
+        <f t="shared" si="19"/>
+        <v>levelpass124</v>
+      </c>
+      <c r="Q435">
+        <v>0</v>
+      </c>
+      <c r="R435">
+        <v>0</v>
+      </c>
+      <c r="S435" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T435">
+        <f t="shared" si="17"/>
+        <v>433</v>
+      </c>
+      <c r="U435" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21">
+      <c r="A436">
+        <v>446</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C436" t="b">
+        <v>0</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G436" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H436" t="s">
+        <v>31</v>
+      </c>
+      <c r="I436">
+        <v>10000</v>
+      </c>
+      <c r="J436" t="s">
+        <v>46</v>
+      </c>
+      <c r="K436">
+        <v>5</v>
+      </c>
+      <c r="M436" t="b">
+        <v>0</v>
+      </c>
+      <c r="N436" t="s">
+        <v>43</v>
+      </c>
+      <c r="O436">
+        <v>0</v>
+      </c>
+      <c r="P436" t="str">
+        <f t="shared" ref="P436" si="20">B436</f>
+        <v>dimensionpass2</v>
+      </c>
+      <c r="Q436">
+        <v>0</v>
+      </c>
+      <c r="R436">
+        <v>0</v>
+      </c>
+      <c r="S436" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T436">
+        <f t="shared" si="17"/>
+        <v>434</v>
+      </c>
+      <c r="U436" s="15" t="s">
         <v>632</v>
       </c>
     </row>
@@ -32068,10 +32025,10 @@
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B415 B417:B1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B416">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R415 R417:R1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="46"/>
@@ -32096,7 +32053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31ACFA8-B08C-4216-A643-48183B7C67CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0A9953-771E-4494-963F-EC235EB361E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="1143">
   <si>
     <t>id</t>
   </si>
@@ -4689,12 +4689,64 @@
     <t>차원패스2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>killeventpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜브 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass33ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 245-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900000000,2400,11,350000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(125단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(126단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5273,14 +5325,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U436"/>
+  <dimension ref="A1:U443"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I437" sqref="I437"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U441" sqref="U441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5300,7 +5352,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5365,7 +5417,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5426,7 +5478,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5487,7 +5539,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1">
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5548,7 +5600,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1">
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5609,7 +5661,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1">
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5670,7 +5722,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5731,7 +5783,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>401</v>
       </c>
@@ -5792,7 +5844,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>310</v>
       </c>
@@ -5853,7 +5905,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>286</v>
       </c>
@@ -5914,7 +5966,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>271</v>
       </c>
@@ -5975,7 +6027,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1">
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6036,7 +6088,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1">
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6097,7 +6149,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6158,7 +6210,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1">
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6219,7 +6271,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6282,7 +6334,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1">
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6343,7 +6395,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6404,7 +6456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1">
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6465,7 +6517,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6526,7 +6578,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6589,7 +6641,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>101</v>
       </c>
@@ -6650,7 +6702,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>102</v>
       </c>
@@ -6711,7 +6763,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>103</v>
       </c>
@@ -6772,7 +6824,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6836,7 +6888,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -6900,7 +6952,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -6967,7 +7019,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7034,7 +7086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1">
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7098,7 +7150,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1">
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7162,7 +7214,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7226,7 +7278,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7290,7 +7342,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1">
+    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7354,7 +7406,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1">
+    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7418,7 +7470,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1">
+    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7482,7 +7534,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1">
+    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7543,7 +7595,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1">
+    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -7604,7 +7656,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20</v>
       </c>
@@ -7665,7 +7717,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>21</v>
       </c>
@@ -7726,7 +7778,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>22</v>
       </c>
@@ -7787,7 +7839,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1">
+    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -7848,7 +7900,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1">
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -7909,7 +7961,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1">
+    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -7970,7 +8022,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1">
+    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8034,7 +8086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1">
+    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8098,7 +8150,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8159,7 +8211,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1">
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8223,7 +8275,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1">
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8287,7 +8339,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8351,7 +8403,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8415,7 +8467,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8479,7 +8531,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1">
+    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8540,7 +8592,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1">
+    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -8601,7 +8653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1">
+    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -8662,7 +8714,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1">
+    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -8723,7 +8775,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>39</v>
       </c>
@@ -8784,7 +8836,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>41</v>
       </c>
@@ -8845,7 +8897,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>42</v>
       </c>
@@ -8906,7 +8958,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1">
+    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -8967,7 +9019,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1">
+    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9028,7 +9080,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1">
+    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9089,7 +9141,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1">
+    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9150,7 +9202,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9211,7 +9263,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9272,7 +9324,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9333,7 +9385,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9394,7 +9446,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9455,7 +9507,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9516,7 +9568,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9577,7 +9629,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>58</v>
       </c>
@@ -9638,7 +9690,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>59</v>
       </c>
@@ -9699,7 +9751,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>60</v>
       </c>
@@ -9760,7 +9812,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>61</v>
       </c>
@@ -9821,7 +9873,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>62</v>
       </c>
@@ -9882,7 +9934,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>63</v>
       </c>
@@ -9943,7 +9995,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10004,7 +10056,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10065,7 +10117,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10126,7 +10178,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10187,7 +10239,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10248,7 +10300,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10309,7 +10361,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10370,7 +10422,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10431,7 +10483,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10492,7 +10544,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10553,7 +10605,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>77</v>
       </c>
@@ -10614,7 +10666,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>78</v>
       </c>
@@ -10675,7 +10727,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>79</v>
       </c>
@@ -10736,7 +10788,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>80</v>
       </c>
@@ -10797,7 +10849,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>81</v>
       </c>
@@ -10858,7 +10910,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>82</v>
       </c>
@@ -10919,7 +10971,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>83</v>
       </c>
@@ -10980,7 +11032,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11041,7 +11093,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11102,7 +11154,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11163,7 +11215,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11224,7 +11276,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11285,7 +11337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11346,7 +11398,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11407,7 +11459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11468,7 +11520,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11529,7 +11581,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11590,7 +11642,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>98</v>
       </c>
@@ -11651,7 +11703,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>99</v>
       </c>
@@ -11712,7 +11764,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>100</v>
       </c>
@@ -11773,7 +11825,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>5</v>
       </c>
@@ -11837,7 +11889,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6</v>
       </c>
@@ -11901,7 +11953,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>7</v>
       </c>
@@ -11965,7 +12017,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12026,7 +12078,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12087,7 +12139,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12148,7 +12200,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12209,7 +12261,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12270,7 +12322,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12331,7 +12383,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12392,7 +12444,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12453,7 +12505,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12514,7 +12566,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12575,7 +12627,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>115</v>
       </c>
@@ -12636,7 +12688,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>116</v>
       </c>
@@ -12697,7 +12749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>117</v>
       </c>
@@ -12758,7 +12810,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>118</v>
       </c>
@@ -12819,7 +12871,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>119</v>
       </c>
@@ -12880,7 +12932,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>120</v>
       </c>
@@ -12941,7 +12993,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13002,7 +13054,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13063,7 +13115,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13124,7 +13176,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13185,7 +13237,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1">
+    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13249,7 +13301,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1">
+    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13313,7 +13365,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1">
+    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13377,7 +13429,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1">
+    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13441,7 +13493,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1">
+    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13505,7 +13557,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13566,7 +13618,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13627,7 +13679,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>137</v>
       </c>
@@ -13688,7 +13740,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>138</v>
       </c>
@@ -13749,7 +13801,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1">
+    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -13813,7 +13865,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
@@ -13874,7 +13926,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
@@ -13935,7 +13987,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1">
+    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -13996,7 +14048,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14059,7 +14111,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14122,7 +14174,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1">
+    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14183,7 +14235,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1">
+    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14244,7 +14296,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1">
+    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14305,7 +14357,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1">
+    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14366,7 +14418,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14427,7 +14479,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14488,7 +14540,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1">
+    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14549,7 +14601,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1">
+    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14610,7 +14662,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -14673,7 +14725,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -14736,7 +14788,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>144</v>
       </c>
@@ -14797,7 +14849,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>145</v>
       </c>
@@ -14858,7 +14910,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>146</v>
       </c>
@@ -14919,7 +14971,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>147</v>
       </c>
@@ -14980,7 +15032,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>148</v>
       </c>
@@ -15041,7 +15093,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15102,7 +15154,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15163,7 +15215,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15224,7 +15276,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15285,7 +15337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15346,7 +15398,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15407,7 +15459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15468,7 +15520,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15529,7 +15581,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15590,7 +15642,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1">
+    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15653,7 +15705,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1">
+    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>163</v>
       </c>
@@ -15716,7 +15768,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1">
+    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -15777,7 +15829,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -15840,7 +15892,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -15903,7 +15955,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>167</v>
       </c>
@@ -15964,7 +16016,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>168</v>
       </c>
@@ -16025,7 +16077,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16086,7 +16138,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16147,7 +16199,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16208,7 +16260,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16269,7 +16321,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16330,7 +16382,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16391,7 +16443,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16452,7 +16504,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16513,7 +16565,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16574,7 +16626,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16635,7 +16687,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>179</v>
       </c>
@@ -16696,7 +16748,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>180</v>
       </c>
@@ -16757,7 +16809,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>181</v>
       </c>
@@ -16818,7 +16870,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>139</v>
       </c>
@@ -16879,7 +16931,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>140</v>
       </c>
@@ -16940,7 +16992,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -17001,7 +17053,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
@@ -17062,7 +17114,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17123,7 +17175,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17184,7 +17236,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17245,7 +17297,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17306,7 +17358,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17367,7 +17419,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17428,7 +17480,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17489,7 +17541,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17550,7 +17602,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17611,7 +17663,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>198</v>
       </c>
@@ -17672,7 +17724,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>199</v>
       </c>
@@ -17733,7 +17785,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -17794,7 +17846,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -17855,7 +17907,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -17916,7 +17968,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -17977,7 +18029,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18038,7 +18090,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18099,7 +18151,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18160,7 +18212,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18221,7 +18273,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18282,7 +18334,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18343,7 +18395,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18404,7 +18456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18465,7 +18517,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18526,7 +18578,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18587,7 +18639,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18648,7 +18700,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18709,7 +18761,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1">
+    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -18770,7 +18822,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -18831,7 +18883,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -18892,7 +18944,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -18953,7 +19005,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19014,7 +19066,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19075,7 +19127,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19136,7 +19188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19197,7 +19249,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19258,7 +19310,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19319,7 +19371,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19380,7 +19432,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19441,7 +19493,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19502,7 +19554,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19563,7 +19615,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19624,7 +19676,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19685,7 +19737,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19746,7 +19798,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -19807,7 +19859,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -19868,7 +19920,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -19929,7 +19981,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -19990,7 +20042,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -20051,7 +20103,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>243</v>
       </c>
@@ -20112,7 +20164,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20173,7 +20225,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20234,7 +20286,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20295,7 +20347,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20356,7 +20408,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20417,7 +20469,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20478,7 +20530,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20539,7 +20591,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20600,7 +20652,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1">
+    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>254</v>
       </c>
@@ -20661,7 +20713,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>255</v>
       </c>
@@ -20722,7 +20774,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>256</v>
       </c>
@@ -20783,7 +20835,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>257</v>
       </c>
@@ -20844,7 +20896,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>258</v>
       </c>
@@ -20905,7 +20957,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1">
+    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>259</v>
       </c>
@@ -20966,7 +21018,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>260</v>
       </c>
@@ -21027,7 +21079,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="257" spans="1:21">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>261</v>
       </c>
@@ -21088,7 +21140,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="258" spans="1:21">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21149,7 +21201,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="1:21">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21210,7 +21262,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="1:21">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21271,7 +21323,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="261" spans="1:21">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21332,7 +21384,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="262" spans="1:21">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21393,7 +21445,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="263" spans="1:21">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21454,7 +21506,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="1:21">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21515,7 +21567,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:21">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21576,7 +21628,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:21">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21637,7 +21689,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="1:21">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>273</v>
       </c>
@@ -21698,7 +21750,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>274</v>
       </c>
@@ -21759,7 +21811,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>275</v>
       </c>
@@ -21820,7 +21872,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>276</v>
       </c>
@@ -21881,7 +21933,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>277</v>
       </c>
@@ -21942,7 +21994,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>278</v>
       </c>
@@ -22003,7 +22055,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>279</v>
       </c>
@@ -22064,7 +22116,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>280</v>
       </c>
@@ -22125,7 +22177,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22186,7 +22238,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22247,7 +22299,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22308,7 +22360,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22369,7 +22421,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22430,7 +22482,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22494,7 +22546,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22555,7 +22607,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22616,7 +22668,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>291</v>
       </c>
@@ -22677,7 +22729,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>292</v>
       </c>
@@ -22738,7 +22790,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>293</v>
       </c>
@@ -22799,7 +22851,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>294</v>
       </c>
@@ -22860,7 +22912,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>295</v>
       </c>
@@ -22921,7 +22973,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1">
+    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>296</v>
       </c>
@@ -22982,7 +23034,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>297</v>
       </c>
@@ -23043,7 +23095,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>298</v>
       </c>
@@ -23104,7 +23156,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>299</v>
       </c>
@@ -23165,7 +23217,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23226,7 +23278,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23287,7 +23339,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23348,7 +23400,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23409,7 +23461,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23470,7 +23522,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23531,7 +23583,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23592,7 +23644,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23653,7 +23705,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>308</v>
       </c>
@@ -23714,7 +23766,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>309</v>
       </c>
@@ -23775,7 +23827,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>310</v>
       </c>
@@ -23836,7 +23888,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>311</v>
       </c>
@@ -23897,7 +23949,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>312</v>
       </c>
@@ -23958,7 +24010,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>313</v>
       </c>
@@ -24019,7 +24071,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>314</v>
       </c>
@@ -24080,7 +24132,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>315</v>
       </c>
@@ -24141,7 +24193,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24202,7 +24254,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24263,7 +24315,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24324,7 +24376,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24385,7 +24437,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24446,7 +24498,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24507,7 +24559,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24571,7 +24623,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24632,7 +24684,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>324</v>
       </c>
@@ -24693,7 +24745,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>325</v>
       </c>
@@ -24754,7 +24806,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>326</v>
       </c>
@@ -24815,7 +24867,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>327</v>
       </c>
@@ -24876,7 +24928,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>328</v>
       </c>
@@ -24937,7 +24989,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>329</v>
       </c>
@@ -24998,7 +25050,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>330</v>
       </c>
@@ -25059,7 +25111,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>331</v>
       </c>
@@ -25120,7 +25172,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>332</v>
       </c>
@@ -25181,7 +25233,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25242,7 +25294,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25303,7 +25355,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25364,7 +25416,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25425,7 +25477,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25486,7 +25538,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25547,7 +25599,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25608,7 +25660,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>340</v>
       </c>
@@ -25669,7 +25721,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>341</v>
       </c>
@@ -25730,7 +25782,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>342</v>
       </c>
@@ -25791,7 +25843,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>343</v>
       </c>
@@ -25852,7 +25904,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>344</v>
       </c>
@@ -25913,7 +25965,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>345</v>
       </c>
@@ -25974,7 +26026,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>346</v>
       </c>
@@ -26035,7 +26087,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>347</v>
       </c>
@@ -26096,7 +26148,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>348</v>
       </c>
@@ -26157,7 +26209,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>349</v>
       </c>
@@ -26218,7 +26270,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1">
+    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26280,7 +26332,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26342,7 +26394,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26403,7 +26455,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26464,7 +26516,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26525,7 +26577,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26586,7 +26638,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26647,7 +26699,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>358</v>
       </c>
@@ -26708,7 +26760,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>359</v>
       </c>
@@ -26769,7 +26821,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>360</v>
       </c>
@@ -26830,7 +26882,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>361</v>
       </c>
@@ -26891,7 +26943,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>362</v>
       </c>
@@ -26952,7 +27004,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>363</v>
       </c>
@@ -27013,7 +27065,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>364</v>
       </c>
@@ -27074,7 +27126,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>365</v>
       </c>
@@ -27135,7 +27187,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>366</v>
       </c>
@@ -27196,7 +27248,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27257,7 +27309,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27318,7 +27370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27379,7 +27431,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27440,7 +27492,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27501,7 +27553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27562,7 +27614,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27623,7 +27675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>374</v>
       </c>
@@ -27684,7 +27736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>375</v>
       </c>
@@ -27745,7 +27797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>376</v>
       </c>
@@ -27806,7 +27858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>377</v>
       </c>
@@ -27867,7 +27919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>378</v>
       </c>
@@ -27928,7 +27980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1">
+    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>379</v>
       </c>
@@ -27990,7 +28042,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>380</v>
       </c>
@@ -28052,7 +28104,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>381</v>
       </c>
@@ -28114,7 +28166,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>382</v>
       </c>
@@ -28175,7 +28227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>383</v>
       </c>
@@ -28236,7 +28288,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28297,7 +28349,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28358,7 +28410,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28419,7 +28471,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28480,7 +28532,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28541,7 +28593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28602,7 +28654,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>390</v>
       </c>
@@ -28663,7 +28715,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>391</v>
       </c>
@@ -28724,7 +28776,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>392</v>
       </c>
@@ -28785,7 +28837,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>393</v>
       </c>
@@ -28846,7 +28898,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>394</v>
       </c>
@@ -28907,7 +28959,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>395</v>
       </c>
@@ -28968,7 +29020,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>396</v>
       </c>
@@ -29029,7 +29081,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>397</v>
       </c>
@@ -29090,7 +29142,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>398</v>
       </c>
@@ -29151,7 +29203,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>399</v>
       </c>
@@ -29212,7 +29264,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29273,7 +29325,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29334,7 +29386,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29395,7 +29447,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29456,7 +29508,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29517,7 +29569,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29578,7 +29630,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29639,7 +29691,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>408</v>
       </c>
@@ -29700,7 +29752,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>409</v>
       </c>
@@ -29761,7 +29813,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>410</v>
       </c>
@@ -29822,7 +29874,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>411</v>
       </c>
@@ -29883,7 +29935,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>412</v>
       </c>
@@ -29944,7 +29996,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>413</v>
       </c>
@@ -30005,7 +30057,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>414</v>
       </c>
@@ -30059,14 +30111,14 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T436" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T443" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>415</v>
       </c>
@@ -30127,7 +30179,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>416</v>
       </c>
@@ -30188,7 +30240,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>417</v>
       </c>
@@ -30249,7 +30301,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>418</v>
       </c>
@@ -30310,7 +30362,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>419</v>
       </c>
@@ -30371,7 +30423,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>420</v>
       </c>
@@ -30432,7 +30484,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>421</v>
       </c>
@@ -30493,7 +30545,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>422</v>
       </c>
@@ -30554,7 +30606,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1">
+    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>423</v>
       </c>
@@ -30616,7 +30668,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>424</v>
       </c>
@@ -30678,7 +30730,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>425</v>
       </c>
@@ -30740,7 +30792,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>426</v>
       </c>
@@ -30801,7 +30853,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>427</v>
       </c>
@@ -30862,7 +30914,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>428</v>
       </c>
@@ -30923,7 +30975,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>429</v>
       </c>
@@ -30984,7 +31036,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>430</v>
       </c>
@@ -31045,7 +31097,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>431</v>
       </c>
@@ -31106,7 +31158,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>432</v>
       </c>
@@ -31167,7 +31219,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>433</v>
       </c>
@@ -31228,7 +31280,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>434</v>
       </c>
@@ -31289,7 +31341,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>435</v>
       </c>
@@ -31350,7 +31402,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>436</v>
       </c>
@@ -31411,7 +31463,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>437</v>
       </c>
@@ -31472,7 +31524,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>438</v>
       </c>
@@ -31533,7 +31585,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>439</v>
       </c>
@@ -31594,7 +31646,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>440</v>
       </c>
@@ -31655,7 +31707,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>441</v>
       </c>
@@ -31716,7 +31768,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>442</v>
       </c>
@@ -31777,7 +31829,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>443</v>
       </c>
@@ -31838,7 +31890,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>444</v>
       </c>
@@ -31899,7 +31951,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>445</v>
       </c>
@@ -31960,7 +32012,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>446</v>
       </c>
@@ -32001,7 +32053,7 @@
         <v>0</v>
       </c>
       <c r="P436" t="str">
-        <f t="shared" ref="P436" si="20">B436</f>
+        <f t="shared" ref="P436:P443" si="20">B436</f>
         <v>dimensionpass2</v>
       </c>
       <c r="Q436">
@@ -32018,6 +32070,433 @@
         <v>434</v>
       </c>
       <c r="U436" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>447</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C437" t="b">
+        <v>0</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G437" t="s">
+        <v>16</v>
+      </c>
+      <c r="H437" t="s">
+        <v>31</v>
+      </c>
+      <c r="I437">
+        <v>30000</v>
+      </c>
+      <c r="J437" t="s">
+        <v>46</v>
+      </c>
+      <c r="K437">
+        <v>5</v>
+      </c>
+      <c r="M437" t="b">
+        <v>0</v>
+      </c>
+      <c r="N437" t="s">
+        <v>43</v>
+      </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
+      <c r="P437" t="str">
+        <f t="shared" si="20"/>
+        <v>killeventpass2</v>
+      </c>
+      <c r="Q437">
+        <v>0</v>
+      </c>
+      <c r="R437">
+        <v>0</v>
+      </c>
+      <c r="S437" t="s">
+        <v>148</v>
+      </c>
+      <c r="T437">
+        <f t="shared" si="17"/>
+        <v>435</v>
+      </c>
+      <c r="U437" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>448</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C438" t="b">
+        <v>0</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G438" t="s">
+        <v>16</v>
+      </c>
+      <c r="H438" t="s">
+        <v>31</v>
+      </c>
+      <c r="I438">
+        <v>30000</v>
+      </c>
+      <c r="J438" t="s">
+        <v>46</v>
+      </c>
+      <c r="K438">
+        <v>5</v>
+      </c>
+      <c r="M438" t="b">
+        <v>0</v>
+      </c>
+      <c r="N438" t="s">
+        <v>43</v>
+      </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
+      <c r="P438" t="str">
+        <f t="shared" si="20"/>
+        <v>shopeventpass2</v>
+      </c>
+      <c r="Q438">
+        <v>0</v>
+      </c>
+      <c r="R438">
+        <v>0</v>
+      </c>
+      <c r="S438" t="s">
+        <v>148</v>
+      </c>
+      <c r="T438">
+        <f t="shared" si="17"/>
+        <v>436</v>
+      </c>
+      <c r="U438" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>449</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C439" t="b">
+        <v>0</v>
+      </c>
+      <c r="D439" t="s">
+        <v>625</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G439" t="s">
+        <v>16</v>
+      </c>
+      <c r="H439" t="s">
+        <v>31</v>
+      </c>
+      <c r="I439">
+        <v>30000</v>
+      </c>
+      <c r="J439" t="s">
+        <v>46</v>
+      </c>
+      <c r="K439">
+        <v>5</v>
+      </c>
+      <c r="M439" t="b">
+        <v>0</v>
+      </c>
+      <c r="N439" t="s">
+        <v>43</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439" t="str">
+        <f t="shared" si="20"/>
+        <v>monthpass33</v>
+      </c>
+      <c r="Q439">
+        <v>0</v>
+      </c>
+      <c r="R439">
+        <v>0</v>
+      </c>
+      <c r="S439" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T439">
+        <f t="shared" si="17"/>
+        <v>437</v>
+      </c>
+      <c r="U439" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>450</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C440" t="b">
+        <v>0</v>
+      </c>
+      <c r="D440" t="s">
+        <v>625</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" t="s">
+        <v>16</v>
+      </c>
+      <c r="H440" t="s">
+        <v>31</v>
+      </c>
+      <c r="I440">
+        <v>10000</v>
+      </c>
+      <c r="J440" t="s">
+        <v>46</v>
+      </c>
+      <c r="K440">
+        <v>5</v>
+      </c>
+      <c r="M440" t="b">
+        <v>0</v>
+      </c>
+      <c r="N440" t="s">
+        <v>43</v>
+      </c>
+      <c r="O440">
+        <v>0</v>
+      </c>
+      <c r="P440" t="str">
+        <f t="shared" si="20"/>
+        <v>monthpass33ins</v>
+      </c>
+      <c r="Q440">
+        <v>0</v>
+      </c>
+      <c r="R440">
+        <v>0</v>
+      </c>
+      <c r="S440" t="s">
+        <v>148</v>
+      </c>
+      <c r="T440">
+        <f t="shared" si="17"/>
+        <v>438</v>
+      </c>
+      <c r="U440" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>451</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C441" t="b">
+        <v>0</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G441" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H441" t="s">
+        <v>124</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441" t="s">
+        <v>157</v>
+      </c>
+      <c r="K441">
+        <v>5</v>
+      </c>
+      <c r="M441" t="b">
+        <v>0</v>
+      </c>
+      <c r="N441" t="s">
+        <v>43</v>
+      </c>
+      <c r="O441">
+        <v>0</v>
+      </c>
+      <c r="P441" t="str">
+        <f t="shared" si="20"/>
+        <v>levelup51</v>
+      </c>
+      <c r="Q441">
+        <v>1</v>
+      </c>
+      <c r="R441">
+        <v>24500</v>
+      </c>
+      <c r="S441" t="s">
+        <v>148</v>
+      </c>
+      <c r="T441">
+        <f t="shared" si="17"/>
+        <v>439</v>
+      </c>
+      <c r="U441" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>452</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C442" t="b">
+        <v>0</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" t="s">
+        <v>16</v>
+      </c>
+      <c r="H442" t="s">
+        <v>31</v>
+      </c>
+      <c r="I442">
+        <v>10000</v>
+      </c>
+      <c r="J442" t="s">
+        <v>46</v>
+      </c>
+      <c r="K442">
+        <v>5</v>
+      </c>
+      <c r="M442" t="b">
+        <v>0</v>
+      </c>
+      <c r="N442" t="s">
+        <v>43</v>
+      </c>
+      <c r="O442">
+        <v>0</v>
+      </c>
+      <c r="P442" t="str">
+        <f t="shared" si="20"/>
+        <v>levelpass125</v>
+      </c>
+      <c r="Q442">
+        <v>0</v>
+      </c>
+      <c r="R442">
+        <v>0</v>
+      </c>
+      <c r="S442" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T442">
+        <f t="shared" si="17"/>
+        <v>440</v>
+      </c>
+      <c r="U442" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>453</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C443" t="b">
+        <v>0</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G443" t="s">
+        <v>16</v>
+      </c>
+      <c r="H443" t="s">
+        <v>31</v>
+      </c>
+      <c r="I443">
+        <v>10000</v>
+      </c>
+      <c r="J443" t="s">
+        <v>46</v>
+      </c>
+      <c r="K443">
+        <v>5</v>
+      </c>
+      <c r="M443" t="b">
+        <v>0</v>
+      </c>
+      <c r="N443" t="s">
+        <v>43</v>
+      </c>
+      <c r="O443">
+        <v>0</v>
+      </c>
+      <c r="P443" t="str">
+        <f t="shared" si="20"/>
+        <v>levelpass126</v>
+      </c>
+      <c r="Q443">
+        <v>0</v>
+      </c>
+      <c r="R443">
+        <v>0</v>
+      </c>
+      <c r="S443" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T443">
+        <f t="shared" si="17"/>
+        <v>441</v>
+      </c>
+      <c r="U443" s="15" t="s">
         <v>632</v>
       </c>
     </row>
@@ -32053,7 +32532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0A9953-771E-4494-963F-EC235EB361E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6751C31A-943A-4A50-8CA5-86E853A44102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1149">
   <si>
     <t>id</t>
   </si>
@@ -4739,6 +4739,30 @@
   </si>
   <si>
     <t>레벨패스(126단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hottimepass6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 핫타임 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(127단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(128단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4955,7 +4979,17 @@
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4982,6 +5016,22 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5325,11 +5375,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U443"/>
+  <dimension ref="A1:U446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U441" sqref="U441"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30111,7 +30161,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T443" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T446" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -32053,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="P436" t="str">
-        <f t="shared" ref="P436:P443" si="20">B436</f>
+        <f t="shared" ref="P436:P444" si="20">B436</f>
         <v>dimensionpass2</v>
       </c>
       <c r="Q436">
@@ -32500,25 +32550,214 @@
         <v>632</v>
       </c>
     </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>454</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C444" t="b">
+        <v>0</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G444" t="s">
+        <v>16</v>
+      </c>
+      <c r="H444" t="s">
+        <v>31</v>
+      </c>
+      <c r="I444">
+        <v>30000</v>
+      </c>
+      <c r="J444" t="s">
+        <v>46</v>
+      </c>
+      <c r="K444">
+        <v>5</v>
+      </c>
+      <c r="M444" t="b">
+        <v>0</v>
+      </c>
+      <c r="N444" t="s">
+        <v>43</v>
+      </c>
+      <c r="O444">
+        <v>0</v>
+      </c>
+      <c r="P444" t="str">
+        <f t="shared" si="20"/>
+        <v>hottimepass6</v>
+      </c>
+      <c r="Q444">
+        <v>0</v>
+      </c>
+      <c r="R444">
+        <v>0</v>
+      </c>
+      <c r="S444" t="s">
+        <v>148</v>
+      </c>
+      <c r="T444">
+        <f t="shared" si="17"/>
+        <v>442</v>
+      </c>
+      <c r="U444" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>455</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C445" t="b">
+        <v>0</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" t="s">
+        <v>16</v>
+      </c>
+      <c r="H445" t="s">
+        <v>31</v>
+      </c>
+      <c r="I445">
+        <v>10000</v>
+      </c>
+      <c r="J445" t="s">
+        <v>46</v>
+      </c>
+      <c r="K445">
+        <v>5</v>
+      </c>
+      <c r="M445" t="b">
+        <v>0</v>
+      </c>
+      <c r="N445" t="s">
+        <v>43</v>
+      </c>
+      <c r="O445">
+        <v>0</v>
+      </c>
+      <c r="P445" t="str">
+        <f t="shared" ref="P445" si="21">B445</f>
+        <v>levelpass127</v>
+      </c>
+      <c r="Q445">
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <v>0</v>
+      </c>
+      <c r="S445" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T445">
+        <f t="shared" si="17"/>
+        <v>443</v>
+      </c>
+      <c r="U445" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>456</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C446" t="b">
+        <v>0</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G446" t="s">
+        <v>16</v>
+      </c>
+      <c r="H446" t="s">
+        <v>31</v>
+      </c>
+      <c r="I446">
+        <v>10000</v>
+      </c>
+      <c r="J446" t="s">
+        <v>46</v>
+      </c>
+      <c r="K446">
+        <v>5</v>
+      </c>
+      <c r="M446" t="b">
+        <v>0</v>
+      </c>
+      <c r="N446" t="s">
+        <v>43</v>
+      </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
+      <c r="P446" t="str">
+        <f t="shared" ref="P446" si="22">B446</f>
+        <v>levelpass128</v>
+      </c>
+      <c r="Q446">
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <v>0</v>
+      </c>
+      <c r="S446" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T446">
+        <f t="shared" si="17"/>
+        <v>444</v>
+      </c>
+      <c r="U446" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R227" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B415 B417:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
+  <conditionalFormatting sqref="B1:B415 B417:B443 B445:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B416">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R415 R417:R1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="46"/>
+  <conditionalFormatting sqref="B444">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R415 R417:R443 R445:R1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R416">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R444">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6751C31A-943A-4A50-8CA5-86E853A44102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0A0EAB-0586-4364-B21F-B160D74CEC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4052" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1169">
   <si>
     <t>id</t>
   </si>
@@ -4765,12 +4765,90 @@
     <t>레벨패스(128단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>trainingpass4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 햇살 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass34ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirdpackage0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirdpackage1</t>
+  </si>
+  <si>
+    <t>thirdpackage2</t>
+  </si>
+  <si>
+    <t>3주년 무료 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 스폐셜 세트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 스폐셜 세트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9068,9053,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 250-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(129단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(130단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30,30,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50,50,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4918,7 +4996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4971,6 +5049,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5375,14 +5459,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U446"/>
+  <dimension ref="A1:U455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A445" sqref="A445"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F451" sqref="F451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5402,7 +5486,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5467,7 +5551,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5528,7 +5612,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5589,7 +5673,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5650,7 +5734,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5711,7 +5795,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -5772,7 +5856,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -5833,7 +5917,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>401</v>
       </c>
@@ -5894,7 +5978,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>310</v>
       </c>
@@ -5955,7 +6039,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>286</v>
       </c>
@@ -6016,7 +6100,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6077,7 +6161,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6138,7 +6222,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6199,7 +6283,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6260,7 +6344,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6321,7 +6405,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6384,7 +6468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6445,7 +6529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6506,7 +6590,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6567,7 +6651,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6628,7 +6712,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6691,7 +6775,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>101</v>
       </c>
@@ -6752,7 +6836,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>102</v>
       </c>
@@ -6813,7 +6897,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>103</v>
       </c>
@@ -6874,7 +6958,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>8</v>
       </c>
@@ -6938,7 +7022,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>9</v>
       </c>
@@ -7002,7 +7086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7069,7 +7153,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7136,7 +7220,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7200,7 +7284,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7264,7 +7348,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7328,7 +7412,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7392,7 +7476,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7456,7 +7540,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7520,7 +7604,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7584,7 +7668,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7645,7 +7729,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="8" customFormat="1">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -7706,7 +7790,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>20</v>
       </c>
@@ -7767,7 +7851,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>21</v>
       </c>
@@ -7828,7 +7912,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>22</v>
       </c>
@@ -7889,7 +7973,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -7950,7 +8034,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -8011,7 +8095,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -8072,7 +8156,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8136,7 +8220,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8200,7 +8284,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8261,7 +8345,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8325,7 +8409,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8389,7 +8473,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8453,7 +8537,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8517,7 +8601,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8581,7 +8665,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8642,7 +8726,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -8703,7 +8787,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -8764,7 +8848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -8825,7 +8909,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>39</v>
       </c>
@@ -8886,7 +8970,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>41</v>
       </c>
@@ -8947,7 +9031,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>42</v>
       </c>
@@ -9008,7 +9092,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="8" customFormat="1">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -9069,7 +9153,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9130,7 +9214,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9191,7 +9275,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9252,7 +9336,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9313,7 +9397,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9374,7 +9458,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9435,7 +9519,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9496,7 +9580,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9557,7 +9641,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9618,7 +9702,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9679,7 +9763,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>58</v>
       </c>
@@ -9740,7 +9824,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>59</v>
       </c>
@@ -9801,7 +9885,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>60</v>
       </c>
@@ -9862,7 +9946,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>61</v>
       </c>
@@ -9923,7 +10007,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>62</v>
       </c>
@@ -9984,7 +10068,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>63</v>
       </c>
@@ -10045,7 +10129,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10106,7 +10190,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10167,7 +10251,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10228,7 +10312,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10289,7 +10373,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10350,7 +10434,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10411,7 +10495,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10472,7 +10556,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10533,7 +10617,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10594,7 +10678,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10655,7 +10739,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>77</v>
       </c>
@@ -10716,7 +10800,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>78</v>
       </c>
@@ -10777,7 +10861,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>79</v>
       </c>
@@ -10838,7 +10922,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>80</v>
       </c>
@@ -10899,7 +10983,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>81</v>
       </c>
@@ -10960,7 +11044,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>82</v>
       </c>
@@ -11021,7 +11105,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -11082,7 +11166,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11143,7 +11227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11204,7 +11288,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11265,7 +11349,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11326,7 +11410,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11387,7 +11471,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11448,7 +11532,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11509,7 +11593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11570,7 +11654,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11631,7 +11715,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11692,7 +11776,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -11753,7 +11837,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -11814,7 +11898,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -11875,7 +11959,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>5</v>
       </c>
@@ -11939,7 +12023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>6</v>
       </c>
@@ -12003,7 +12087,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>7</v>
       </c>
@@ -12067,7 +12151,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12128,7 +12212,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12189,7 +12273,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12250,7 +12334,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12311,7 +12395,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12372,7 +12456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12433,7 +12517,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12494,7 +12578,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12555,7 +12639,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12616,7 +12700,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12677,7 +12761,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>115</v>
       </c>
@@ -12738,7 +12822,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>116</v>
       </c>
@@ -12799,7 +12883,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>117</v>
       </c>
@@ -12860,7 +12944,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>118</v>
       </c>
@@ -12921,7 +13005,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>119</v>
       </c>
@@ -12982,7 +13066,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>120</v>
       </c>
@@ -13043,7 +13127,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13104,7 +13188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13165,7 +13249,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13226,7 +13310,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13287,7 +13371,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13351,7 +13435,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13415,7 +13499,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13479,7 +13563,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13543,7 +13627,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13607,7 +13691,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13668,7 +13752,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13729,7 +13813,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>137</v>
       </c>
@@ -13790,7 +13874,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>138</v>
       </c>
@@ -13851,7 +13935,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -13915,7 +13999,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>142</v>
       </c>
@@ -13976,7 +14060,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>143</v>
       </c>
@@ -14037,7 +14121,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -14098,7 +14182,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14161,7 +14245,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14224,7 +14308,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14285,7 +14369,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14346,7 +14430,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14407,7 +14491,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="2" customFormat="1">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14468,7 +14552,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14529,7 +14613,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14590,7 +14674,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14651,7 +14735,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14712,7 +14796,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -14775,7 +14859,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -14838,7 +14922,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>144</v>
       </c>
@@ -14899,7 +14983,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>145</v>
       </c>
@@ -14960,7 +15044,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>146</v>
       </c>
@@ -15021,7 +15105,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>147</v>
       </c>
@@ -15082,7 +15166,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>148</v>
       </c>
@@ -15143,7 +15227,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15204,7 +15288,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15265,7 +15349,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15326,7 +15410,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15387,7 +15471,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15448,7 +15532,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15509,7 +15593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15570,7 +15654,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15631,7 +15715,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15692,7 +15776,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15755,7 +15839,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169">
         <v>163</v>
       </c>
@@ -15818,7 +15902,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="3" customFormat="1">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -15879,7 +15963,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -15942,7 +16026,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -16005,7 +16089,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>167</v>
       </c>
@@ -16066,7 +16150,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>168</v>
       </c>
@@ -16127,7 +16211,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16188,7 +16272,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16249,7 +16333,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16310,7 +16394,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16371,7 +16455,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16432,7 +16516,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16493,7 +16577,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16554,7 +16638,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16615,7 +16699,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16676,7 +16760,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16737,7 +16821,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>179</v>
       </c>
@@ -16798,7 +16882,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>180</v>
       </c>
@@ -16859,7 +16943,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>181</v>
       </c>
@@ -16920,7 +17004,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>139</v>
       </c>
@@ -16981,7 +17065,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>140</v>
       </c>
@@ -17042,7 +17126,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>187</v>
       </c>
@@ -17103,7 +17187,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>188</v>
       </c>
@@ -17164,7 +17248,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17225,7 +17309,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17286,7 +17370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17347,7 +17431,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17408,7 +17492,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17469,7 +17553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17530,7 +17614,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17591,7 +17675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17652,7 +17736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17713,7 +17797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>198</v>
       </c>
@@ -17774,7 +17858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>199</v>
       </c>
@@ -17835,7 +17919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>201</v>
       </c>
@@ -17896,7 +17980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>202</v>
       </c>
@@ -17957,7 +18041,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>203</v>
       </c>
@@ -18018,7 +18102,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>204</v>
       </c>
@@ -18079,7 +18163,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18140,7 +18224,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18201,7 +18285,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18262,7 +18346,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18323,7 +18407,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18384,7 +18468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18445,7 +18529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18506,7 +18590,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18567,7 +18651,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18628,7 +18712,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18689,7 +18773,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18750,7 +18834,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18811,7 +18895,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" s="3" customFormat="1">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -18872,7 +18956,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>220</v>
       </c>
@@ -18933,7 +19017,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>221</v>
       </c>
@@ -18994,7 +19078,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>222</v>
       </c>
@@ -19055,7 +19139,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19116,7 +19200,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19177,7 +19261,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19238,7 +19322,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19299,7 +19383,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19360,7 +19444,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19421,7 +19505,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19482,7 +19566,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19543,7 +19627,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19604,7 +19688,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19665,7 +19749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19726,7 +19810,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19787,7 +19871,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19848,7 +19932,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>236</v>
       </c>
@@ -19909,7 +19993,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>237</v>
       </c>
@@ -19970,7 +20054,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>238</v>
       </c>
@@ -20031,7 +20115,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>239</v>
       </c>
@@ -20092,7 +20176,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>240</v>
       </c>
@@ -20153,7 +20237,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>243</v>
       </c>
@@ -20214,7 +20298,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20275,7 +20359,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20336,7 +20420,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20397,7 +20481,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20458,7 +20542,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20519,7 +20603,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20580,7 +20664,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20641,7 +20725,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20702,7 +20786,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" s="3" customFormat="1">
       <c r="A250">
         <v>254</v>
       </c>
@@ -20763,7 +20847,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>255</v>
       </c>
@@ -20824,7 +20908,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>256</v>
       </c>
@@ -20885,7 +20969,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>257</v>
       </c>
@@ -20946,7 +21030,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>258</v>
       </c>
@@ -21007,7 +21091,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" s="3" customFormat="1">
       <c r="A255">
         <v>259</v>
       </c>
@@ -21068,7 +21152,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>260</v>
       </c>
@@ -21129,7 +21213,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>261</v>
       </c>
@@ -21190,7 +21274,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21251,7 +21335,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21312,7 +21396,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21373,7 +21457,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21434,7 +21518,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21495,7 +21579,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21556,7 +21640,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21617,7 +21701,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21678,7 +21762,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21739,7 +21823,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>273</v>
       </c>
@@ -21800,7 +21884,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>274</v>
       </c>
@@ -21861,7 +21945,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>275</v>
       </c>
@@ -21922,7 +22006,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>276</v>
       </c>
@@ -21983,7 +22067,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>277</v>
       </c>
@@ -22044,7 +22128,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>278</v>
       </c>
@@ -22105,7 +22189,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>279</v>
       </c>
@@ -22166,7 +22250,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>280</v>
       </c>
@@ -22227,7 +22311,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22288,7 +22372,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22349,7 +22433,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22410,7 +22494,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22471,7 +22555,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22532,7 +22616,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22596,7 +22680,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22657,7 +22741,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22718,7 +22802,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>291</v>
       </c>
@@ -22779,7 +22863,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>292</v>
       </c>
@@ -22840,7 +22924,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>293</v>
       </c>
@@ -22901,7 +22985,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>294</v>
       </c>
@@ -22962,7 +23046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21">
       <c r="A287">
         <v>295</v>
       </c>
@@ -23023,7 +23107,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" s="3" customFormat="1">
       <c r="A288">
         <v>296</v>
       </c>
@@ -23084,7 +23168,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>297</v>
       </c>
@@ -23145,7 +23229,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>298</v>
       </c>
@@ -23206,7 +23290,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>299</v>
       </c>
@@ -23267,7 +23351,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23328,7 +23412,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23389,7 +23473,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23450,7 +23534,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23511,7 +23595,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23572,7 +23656,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23633,7 +23717,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23694,7 +23778,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23755,7 +23839,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>308</v>
       </c>
@@ -23816,7 +23900,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>309</v>
       </c>
@@ -23877,7 +23961,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>310</v>
       </c>
@@ -23938,7 +24022,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>311</v>
       </c>
@@ -23999,7 +24083,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>312</v>
       </c>
@@ -24060,7 +24144,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>313</v>
       </c>
@@ -24121,7 +24205,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>314</v>
       </c>
@@ -24182,7 +24266,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>315</v>
       </c>
@@ -24243,7 +24327,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24304,7 +24388,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24365,7 +24449,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24426,7 +24510,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24487,7 +24571,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24548,7 +24632,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24609,7 +24693,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24673,7 +24757,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24734,7 +24818,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>324</v>
       </c>
@@ -24795,7 +24879,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>325</v>
       </c>
@@ -24856,7 +24940,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>326</v>
       </c>
@@ -24917,7 +25001,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>327</v>
       </c>
@@ -24978,7 +25062,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>328</v>
       </c>
@@ -25039,7 +25123,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>329</v>
       </c>
@@ -25100,7 +25184,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>330</v>
       </c>
@@ -25161,7 +25245,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>331</v>
       </c>
@@ -25222,7 +25306,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>332</v>
       </c>
@@ -25283,7 +25367,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25344,7 +25428,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25405,7 +25489,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25466,7 +25550,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25527,7 +25611,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25588,7 +25672,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25649,7 +25733,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25710,7 +25794,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>340</v>
       </c>
@@ -25771,7 +25855,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>341</v>
       </c>
@@ -25832,7 +25916,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>342</v>
       </c>
@@ -25893,7 +25977,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>343</v>
       </c>
@@ -25954,7 +26038,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>344</v>
       </c>
@@ -26015,7 +26099,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>345</v>
       </c>
@@ -26076,7 +26160,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>346</v>
       </c>
@@ -26137,7 +26221,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>347</v>
       </c>
@@ -26198,7 +26282,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>348</v>
       </c>
@@ -26259,7 +26343,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21">
       <c r="A341">
         <v>349</v>
       </c>
@@ -26320,7 +26404,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" s="3" customFormat="1">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26382,7 +26466,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26444,7 +26528,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26505,7 +26589,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26566,7 +26650,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26627,7 +26711,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26688,7 +26772,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26749,7 +26833,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>358</v>
       </c>
@@ -26810,7 +26894,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>359</v>
       </c>
@@ -26871,7 +26955,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>360</v>
       </c>
@@ -26932,7 +27016,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>361</v>
       </c>
@@ -26993,7 +27077,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>362</v>
       </c>
@@ -27054,7 +27138,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>363</v>
       </c>
@@ -27115,7 +27199,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>364</v>
       </c>
@@ -27176,7 +27260,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>365</v>
       </c>
@@ -27237,7 +27321,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21">
       <c r="A357">
         <v>366</v>
       </c>
@@ -27298,7 +27382,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27359,7 +27443,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27420,7 +27504,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27481,7 +27565,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27542,7 +27626,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27603,7 +27687,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27664,7 +27748,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27725,7 +27809,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21">
       <c r="A365">
         <v>374</v>
       </c>
@@ -27786,7 +27870,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21">
       <c r="A366">
         <v>375</v>
       </c>
@@ -27847,7 +27931,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21">
       <c r="A367">
         <v>376</v>
       </c>
@@ -27908,7 +27992,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21">
       <c r="A368">
         <v>377</v>
       </c>
@@ -27969,7 +28053,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21">
       <c r="A369">
         <v>378</v>
       </c>
@@ -28030,7 +28114,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1">
       <c r="A370">
         <v>379</v>
       </c>
@@ -28092,7 +28176,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21">
       <c r="A371">
         <v>380</v>
       </c>
@@ -28154,7 +28238,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21">
       <c r="A372">
         <v>381</v>
       </c>
@@ -28216,7 +28300,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21">
       <c r="A373">
         <v>382</v>
       </c>
@@ -28277,7 +28361,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21">
       <c r="A374">
         <v>383</v>
       </c>
@@ -28338,7 +28422,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28399,7 +28483,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28460,7 +28544,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28521,7 +28605,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28582,7 +28666,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28643,7 +28727,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28704,7 +28788,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21">
       <c r="A381">
         <v>390</v>
       </c>
@@ -28765,7 +28849,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21">
       <c r="A382">
         <v>391</v>
       </c>
@@ -28826,7 +28910,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21">
       <c r="A383">
         <v>392</v>
       </c>
@@ -28887,7 +28971,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21">
       <c r="A384">
         <v>393</v>
       </c>
@@ -28948,7 +29032,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21">
       <c r="A385">
         <v>394</v>
       </c>
@@ -29009,7 +29093,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21">
       <c r="A386">
         <v>395</v>
       </c>
@@ -29070,7 +29154,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21">
       <c r="A387">
         <v>396</v>
       </c>
@@ -29131,7 +29215,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21">
       <c r="A388">
         <v>397</v>
       </c>
@@ -29192,7 +29276,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21">
       <c r="A389">
         <v>398</v>
       </c>
@@ -29253,7 +29337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21">
       <c r="A390">
         <v>399</v>
       </c>
@@ -29314,7 +29398,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29375,7 +29459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29436,7 +29520,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29497,7 +29581,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29558,7 +29642,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29619,7 +29703,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29680,7 +29764,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29741,7 +29825,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21">
       <c r="A398">
         <v>408</v>
       </c>
@@ -29802,7 +29886,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21">
       <c r="A399">
         <v>409</v>
       </c>
@@ -29863,7 +29947,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>410</v>
       </c>
@@ -29924,7 +30008,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>411</v>
       </c>
@@ -29985,7 +30069,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>412</v>
       </c>
@@ -30046,7 +30130,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21">
       <c r="A403">
         <v>413</v>
       </c>
@@ -30107,7 +30191,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21">
       <c r="A404">
         <v>414</v>
       </c>
@@ -30161,14 +30245,14 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T446" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T455" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21">
       <c r="A405">
         <v>415</v>
       </c>
@@ -30229,7 +30313,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21">
       <c r="A406">
         <v>416</v>
       </c>
@@ -30290,7 +30374,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21">
       <c r="A407">
         <v>417</v>
       </c>
@@ -30351,7 +30435,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21">
       <c r="A408">
         <v>418</v>
       </c>
@@ -30412,7 +30496,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21">
       <c r="A409">
         <v>419</v>
       </c>
@@ -30473,7 +30557,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21">
       <c r="A410">
         <v>420</v>
       </c>
@@ -30534,7 +30618,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21">
       <c r="A411">
         <v>421</v>
       </c>
@@ -30595,7 +30679,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21">
       <c r="A412">
         <v>422</v>
       </c>
@@ -30656,7 +30740,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="3" customFormat="1">
       <c r="A413">
         <v>423</v>
       </c>
@@ -30718,7 +30802,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21">
       <c r="A414">
         <v>424</v>
       </c>
@@ -30780,7 +30864,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21">
       <c r="A415">
         <v>425</v>
       </c>
@@ -30842,7 +30926,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21">
       <c r="A416">
         <v>426</v>
       </c>
@@ -30903,7 +30987,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21">
       <c r="A417">
         <v>427</v>
       </c>
@@ -30964,7 +31048,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21">
       <c r="A418">
         <v>428</v>
       </c>
@@ -31025,7 +31109,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21">
       <c r="A419">
         <v>429</v>
       </c>
@@ -31086,7 +31170,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21">
       <c r="A420">
         <v>430</v>
       </c>
@@ -31147,7 +31231,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21">
       <c r="A421">
         <v>431</v>
       </c>
@@ -31208,7 +31292,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21">
       <c r="A422">
         <v>432</v>
       </c>
@@ -31269,7 +31353,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21">
       <c r="A423">
         <v>433</v>
       </c>
@@ -31330,7 +31414,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21">
       <c r="A424">
         <v>434</v>
       </c>
@@ -31391,7 +31475,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21">
       <c r="A425">
         <v>435</v>
       </c>
@@ -31452,7 +31536,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21">
       <c r="A426">
         <v>436</v>
       </c>
@@ -31513,7 +31597,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21">
       <c r="A427">
         <v>437</v>
       </c>
@@ -31574,7 +31658,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21">
       <c r="A428">
         <v>438</v>
       </c>
@@ -31635,7 +31719,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21">
       <c r="A429">
         <v>439</v>
       </c>
@@ -31696,7 +31780,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21">
       <c r="A430">
         <v>440</v>
       </c>
@@ -31757,7 +31841,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21">
       <c r="A431">
         <v>441</v>
       </c>
@@ -31818,7 +31902,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21">
       <c r="A432">
         <v>442</v>
       </c>
@@ -31879,7 +31963,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21">
       <c r="A433">
         <v>443</v>
       </c>
@@ -31940,7 +32024,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21">
       <c r="A434">
         <v>444</v>
       </c>
@@ -32001,7 +32085,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21">
       <c r="A435">
         <v>445</v>
       </c>
@@ -32062,7 +32146,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21">
       <c r="A436">
         <v>446</v>
       </c>
@@ -32123,7 +32207,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21">
       <c r="A437">
         <v>447</v>
       </c>
@@ -32184,7 +32268,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21">
       <c r="A438">
         <v>448</v>
       </c>
@@ -32245,7 +32329,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21">
       <c r="A439">
         <v>449</v>
       </c>
@@ -32306,7 +32390,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21">
       <c r="A440">
         <v>450</v>
       </c>
@@ -32367,7 +32451,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21">
       <c r="A441">
         <v>451</v>
       </c>
@@ -32428,7 +32512,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21">
       <c r="A442">
         <v>452</v>
       </c>
@@ -32489,7 +32573,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21">
       <c r="A443">
         <v>453</v>
       </c>
@@ -32550,7 +32634,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21">
       <c r="A444">
         <v>454</v>
       </c>
@@ -32611,7 +32695,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21">
       <c r="A445">
         <v>455</v>
       </c>
@@ -32672,7 +32756,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21">
       <c r="A446">
         <v>456</v>
       </c>
@@ -32713,7 +32797,7 @@
         <v>0</v>
       </c>
       <c r="P446" t="str">
-        <f t="shared" ref="P446" si="22">B446</f>
+        <f t="shared" ref="P446:P454" si="22">B446</f>
         <v>levelpass128</v>
       </c>
       <c r="Q446">
@@ -32730,6 +32814,558 @@
         <v>444</v>
       </c>
       <c r="U446" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="447" spans="1:21">
+      <c r="A447">
+        <v>457</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C447" t="b">
+        <v>0</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" t="s">
+        <v>16</v>
+      </c>
+      <c r="H447" t="s">
+        <v>31</v>
+      </c>
+      <c r="I447">
+        <v>30000</v>
+      </c>
+      <c r="J447" t="s">
+        <v>46</v>
+      </c>
+      <c r="K447">
+        <v>5</v>
+      </c>
+      <c r="M447" t="b">
+        <v>0</v>
+      </c>
+      <c r="N447" t="s">
+        <v>43</v>
+      </c>
+      <c r="O447">
+        <v>0</v>
+      </c>
+      <c r="P447" t="str">
+        <f t="shared" si="22"/>
+        <v>trainingpass4</v>
+      </c>
+      <c r="Q447">
+        <v>0</v>
+      </c>
+      <c r="R447">
+        <v>0</v>
+      </c>
+      <c r="S447" t="s">
+        <v>148</v>
+      </c>
+      <c r="T447">
+        <f t="shared" si="17"/>
+        <v>445</v>
+      </c>
+      <c r="U447" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="448" spans="1:21">
+      <c r="A448">
+        <v>458</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C448" t="b">
+        <v>0</v>
+      </c>
+      <c r="D448" t="s">
+        <v>650</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G448" t="s">
+        <v>16</v>
+      </c>
+      <c r="H448" t="s">
+        <v>31</v>
+      </c>
+      <c r="I448">
+        <v>30000</v>
+      </c>
+      <c r="J448" t="s">
+        <v>46</v>
+      </c>
+      <c r="K448">
+        <v>5</v>
+      </c>
+      <c r="M448" t="b">
+        <v>0</v>
+      </c>
+      <c r="N448" t="s">
+        <v>43</v>
+      </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
+      <c r="P448" t="str">
+        <f t="shared" si="22"/>
+        <v>monthpass34</v>
+      </c>
+      <c r="Q448">
+        <v>0</v>
+      </c>
+      <c r="R448">
+        <v>0</v>
+      </c>
+      <c r="S448" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T448">
+        <f t="shared" si="17"/>
+        <v>446</v>
+      </c>
+      <c r="U448" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21">
+      <c r="A449">
+        <v>459</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C449" t="b">
+        <v>0</v>
+      </c>
+      <c r="D449" t="s">
+        <v>650</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G449" t="s">
+        <v>16</v>
+      </c>
+      <c r="H449" t="s">
+        <v>31</v>
+      </c>
+      <c r="I449">
+        <v>10000</v>
+      </c>
+      <c r="J449" t="s">
+        <v>46</v>
+      </c>
+      <c r="K449">
+        <v>5</v>
+      </c>
+      <c r="M449" t="b">
+        <v>0</v>
+      </c>
+      <c r="N449" t="s">
+        <v>43</v>
+      </c>
+      <c r="O449">
+        <v>0</v>
+      </c>
+      <c r="P449" t="str">
+        <f t="shared" si="22"/>
+        <v>monthpass34ins</v>
+      </c>
+      <c r="Q449">
+        <v>0</v>
+      </c>
+      <c r="R449">
+        <v>0</v>
+      </c>
+      <c r="S449" t="s">
+        <v>148</v>
+      </c>
+      <c r="T449">
+        <f t="shared" si="17"/>
+        <v>447</v>
+      </c>
+      <c r="U449" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="450" spans="1:21">
+      <c r="A450">
+        <v>460</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C450" t="b">
+        <v>0</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F450" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G450" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I450" s="3">
+        <v>0</v>
+      </c>
+      <c r="J450" t="s">
+        <v>46</v>
+      </c>
+      <c r="K450" s="3">
+        <v>4</v>
+      </c>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N450" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O450" s="3">
+        <v>0</v>
+      </c>
+      <c r="P450" t="str">
+        <f t="shared" si="22"/>
+        <v>thirdpackage0</v>
+      </c>
+      <c r="Q450" s="3">
+        <v>1</v>
+      </c>
+      <c r="R450" s="3">
+        <v>0</v>
+      </c>
+      <c r="S450" t="s">
+        <v>148</v>
+      </c>
+      <c r="T450">
+        <f t="shared" si="17"/>
+        <v>448</v>
+      </c>
+      <c r="U450" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="451" spans="1:21">
+      <c r="A451">
+        <v>461</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C451" t="b">
+        <v>0</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F451" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G451" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I451" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J451" t="s">
+        <v>46</v>
+      </c>
+      <c r="K451" s="3">
+        <v>5</v>
+      </c>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O451" s="3">
+        <v>0</v>
+      </c>
+      <c r="P451" t="str">
+        <f t="shared" si="22"/>
+        <v>thirdpackage1</v>
+      </c>
+      <c r="Q451" s="3">
+        <v>5</v>
+      </c>
+      <c r="R451" s="3">
+        <v>0</v>
+      </c>
+      <c r="S451" t="s">
+        <v>148</v>
+      </c>
+      <c r="T451">
+        <f t="shared" si="17"/>
+        <v>449</v>
+      </c>
+      <c r="U451" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="452" spans="1:21">
+      <c r="A452">
+        <v>462</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C452" t="b">
+        <v>0</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F452" s="18" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G452" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I452" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J452" t="s">
+        <v>46</v>
+      </c>
+      <c r="K452" s="3">
+        <v>5</v>
+      </c>
+      <c r="L452" s="3"/>
+      <c r="M452" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N452" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O452" s="3">
+        <v>0</v>
+      </c>
+      <c r="P452" t="str">
+        <f t="shared" si="22"/>
+        <v>thirdpackage2</v>
+      </c>
+      <c r="Q452" s="3">
+        <v>5</v>
+      </c>
+      <c r="R452" s="3">
+        <v>0</v>
+      </c>
+      <c r="S452" t="s">
+        <v>148</v>
+      </c>
+      <c r="T452">
+        <f t="shared" si="17"/>
+        <v>450</v>
+      </c>
+      <c r="U452" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="453" spans="1:21">
+      <c r="A453">
+        <v>463</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C453" t="b">
+        <v>0</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G453" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H453" t="s">
+        <v>124</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453" t="s">
+        <v>157</v>
+      </c>
+      <c r="K453">
+        <v>5</v>
+      </c>
+      <c r="M453" t="b">
+        <v>0</v>
+      </c>
+      <c r="N453" t="s">
+        <v>43</v>
+      </c>
+      <c r="O453">
+        <v>0</v>
+      </c>
+      <c r="P453" t="str">
+        <f t="shared" si="22"/>
+        <v>levelup52</v>
+      </c>
+      <c r="Q453">
+        <v>1</v>
+      </c>
+      <c r="R453">
+        <v>25000</v>
+      </c>
+      <c r="S453" t="s">
+        <v>148</v>
+      </c>
+      <c r="T453">
+        <f t="shared" si="17"/>
+        <v>451</v>
+      </c>
+      <c r="U453" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="454" spans="1:21">
+      <c r="A454">
+        <v>464</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C454" t="b">
+        <v>0</v>
+      </c>
+      <c r="D454" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G454" t="s">
+        <v>16</v>
+      </c>
+      <c r="H454" t="s">
+        <v>31</v>
+      </c>
+      <c r="I454">
+        <v>10000</v>
+      </c>
+      <c r="J454" t="s">
+        <v>46</v>
+      </c>
+      <c r="K454">
+        <v>5</v>
+      </c>
+      <c r="M454" t="b">
+        <v>0</v>
+      </c>
+      <c r="N454" t="s">
+        <v>43</v>
+      </c>
+      <c r="O454">
+        <v>0</v>
+      </c>
+      <c r="P454" t="str">
+        <f t="shared" si="22"/>
+        <v>levelpass129</v>
+      </c>
+      <c r="Q454">
+        <v>0</v>
+      </c>
+      <c r="R454">
+        <v>0</v>
+      </c>
+      <c r="S454" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T454">
+        <f t="shared" si="17"/>
+        <v>452</v>
+      </c>
+      <c r="U454" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="455" spans="1:21">
+      <c r="A455">
+        <v>465</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C455" t="b">
+        <v>0</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G455" t="s">
+        <v>16</v>
+      </c>
+      <c r="H455" t="s">
+        <v>31</v>
+      </c>
+      <c r="I455">
+        <v>10000</v>
+      </c>
+      <c r="J455" t="s">
+        <v>46</v>
+      </c>
+      <c r="K455">
+        <v>5</v>
+      </c>
+      <c r="M455" t="b">
+        <v>0</v>
+      </c>
+      <c r="N455" t="s">
+        <v>43</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455" t="str">
+        <f t="shared" ref="P455" si="23">B455</f>
+        <v>levelpass130</v>
+      </c>
+      <c r="Q455">
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <v>0</v>
+      </c>
+      <c r="S455" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T455">
+        <f t="shared" si="17"/>
+        <v>453</v>
+      </c>
+      <c r="U455" s="15" t="s">
         <v>632</v>
       </c>
     </row>
@@ -32771,7 +33407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0A0EAB-0586-4364-B21F-B160D74CEC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8417323-1BE2-4A3C-8EB7-F95A01FDFA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="1184">
   <si>
     <t>id</t>
   </si>
@@ -4841,6 +4841,66 @@
   </si>
   <si>
     <t>50,50,50,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterpension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만능소탕권 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9039,9039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래성 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(131단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(132단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killeventpass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 화채 패스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5459,11 +5519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U455"/>
+  <dimension ref="A1:U462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F451" sqref="F451"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30245,7 +30305,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T455" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T462" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -33349,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="P455" t="str">
-        <f t="shared" ref="P455" si="23">B455</f>
+        <f t="shared" ref="P455:P460" si="23">B455</f>
         <v>levelpass130</v>
       </c>
       <c r="Q455">
@@ -33366,6 +33426,433 @@
         <v>453</v>
       </c>
       <c r="U455" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21">
+      <c r="A456">
+        <v>466</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C456" t="b">
+        <v>0</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G456" t="s">
+        <v>616</v>
+      </c>
+      <c r="H456" t="s">
+        <v>75</v>
+      </c>
+      <c r="I456">
+        <v>30000</v>
+      </c>
+      <c r="J456" t="s">
+        <v>75</v>
+      </c>
+      <c r="K456">
+        <v>4</v>
+      </c>
+      <c r="M456" t="b">
+        <v>1</v>
+      </c>
+      <c r="N456" t="s">
+        <v>738</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456" t="str">
+        <f t="shared" si="23"/>
+        <v>masterpension</v>
+      </c>
+      <c r="Q456">
+        <v>1</v>
+      </c>
+      <c r="R456">
+        <v>0</v>
+      </c>
+      <c r="S456" t="s">
+        <v>148</v>
+      </c>
+      <c r="T456">
+        <f t="shared" si="17"/>
+        <v>454</v>
+      </c>
+      <c r="U456" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21">
+      <c r="A457">
+        <v>467</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C457" t="b">
+        <v>0</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G457" t="s">
+        <v>16</v>
+      </c>
+      <c r="H457" t="s">
+        <v>31</v>
+      </c>
+      <c r="I457">
+        <v>30000</v>
+      </c>
+      <c r="J457" t="s">
+        <v>46</v>
+      </c>
+      <c r="K457">
+        <v>5</v>
+      </c>
+      <c r="M457" t="b">
+        <v>0</v>
+      </c>
+      <c r="N457" t="s">
+        <v>43</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457" t="str">
+        <f t="shared" si="23"/>
+        <v>shopeventpass3</v>
+      </c>
+      <c r="Q457">
+        <v>0</v>
+      </c>
+      <c r="R457">
+        <v>0</v>
+      </c>
+      <c r="S457" t="s">
+        <v>148</v>
+      </c>
+      <c r="T457">
+        <f t="shared" si="17"/>
+        <v>455</v>
+      </c>
+      <c r="U457" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21">
+      <c r="A458">
+        <v>468</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C458" t="b">
+        <v>0</v>
+      </c>
+      <c r="D458" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G458" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H458" t="s">
+        <v>31</v>
+      </c>
+      <c r="I458">
+        <v>10000</v>
+      </c>
+      <c r="J458" t="s">
+        <v>46</v>
+      </c>
+      <c r="K458">
+        <v>5</v>
+      </c>
+      <c r="M458" t="b">
+        <v>0</v>
+      </c>
+      <c r="N458" t="s">
+        <v>43</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458" t="str">
+        <f t="shared" si="23"/>
+        <v>dimensionpass3</v>
+      </c>
+      <c r="Q458">
+        <v>0</v>
+      </c>
+      <c r="R458">
+        <v>0</v>
+      </c>
+      <c r="S458" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T458">
+        <f t="shared" si="17"/>
+        <v>456</v>
+      </c>
+      <c r="U458" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21">
+      <c r="A459">
+        <v>469</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C459" t="b">
+        <v>0</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G459" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H459" t="s">
+        <v>31</v>
+      </c>
+      <c r="I459">
+        <v>10000</v>
+      </c>
+      <c r="J459" t="s">
+        <v>46</v>
+      </c>
+      <c r="K459">
+        <v>5</v>
+      </c>
+      <c r="M459" t="b">
+        <v>0</v>
+      </c>
+      <c r="N459" t="s">
+        <v>43</v>
+      </c>
+      <c r="O459">
+        <v>0</v>
+      </c>
+      <c r="P459" t="str">
+        <f t="shared" si="23"/>
+        <v>dimensionpass4</v>
+      </c>
+      <c r="Q459">
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <v>0</v>
+      </c>
+      <c r="S459" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T459">
+        <f t="shared" si="17"/>
+        <v>457</v>
+      </c>
+      <c r="U459" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21">
+      <c r="A460">
+        <v>470</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C460" t="b">
+        <v>0</v>
+      </c>
+      <c r="D460" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G460" t="s">
+        <v>16</v>
+      </c>
+      <c r="H460" t="s">
+        <v>31</v>
+      </c>
+      <c r="I460">
+        <v>10000</v>
+      </c>
+      <c r="J460" t="s">
+        <v>46</v>
+      </c>
+      <c r="K460">
+        <v>5</v>
+      </c>
+      <c r="M460" t="b">
+        <v>0</v>
+      </c>
+      <c r="N460" t="s">
+        <v>43</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460" t="str">
+        <f t="shared" si="23"/>
+        <v>levelpass131</v>
+      </c>
+      <c r="Q460">
+        <v>0</v>
+      </c>
+      <c r="R460">
+        <v>0</v>
+      </c>
+      <c r="S460" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T460">
+        <f t="shared" si="17"/>
+        <v>458</v>
+      </c>
+      <c r="U460" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21">
+      <c r="A461">
+        <v>471</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C461" t="b">
+        <v>0</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" t="s">
+        <v>16</v>
+      </c>
+      <c r="H461" t="s">
+        <v>31</v>
+      </c>
+      <c r="I461">
+        <v>10000</v>
+      </c>
+      <c r="J461" t="s">
+        <v>46</v>
+      </c>
+      <c r="K461">
+        <v>5</v>
+      </c>
+      <c r="M461" t="b">
+        <v>0</v>
+      </c>
+      <c r="N461" t="s">
+        <v>43</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461" t="str">
+        <f t="shared" ref="P461:P462" si="24">B461</f>
+        <v>levelpass132</v>
+      </c>
+      <c r="Q461">
+        <v>0</v>
+      </c>
+      <c r="R461">
+        <v>0</v>
+      </c>
+      <c r="S461" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T461">
+        <f t="shared" si="17"/>
+        <v>459</v>
+      </c>
+      <c r="U461" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21">
+      <c r="A462">
+        <v>472</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C462" t="b">
+        <v>0</v>
+      </c>
+      <c r="D462" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G462" t="s">
+        <v>16</v>
+      </c>
+      <c r="H462" t="s">
+        <v>31</v>
+      </c>
+      <c r="I462">
+        <v>30000</v>
+      </c>
+      <c r="J462" t="s">
+        <v>46</v>
+      </c>
+      <c r="K462">
+        <v>5</v>
+      </c>
+      <c r="M462" t="b">
+        <v>0</v>
+      </c>
+      <c r="N462" t="s">
+        <v>43</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462" t="str">
+        <f t="shared" si="24"/>
+        <v>killeventpass3</v>
+      </c>
+      <c r="Q462">
+        <v>0</v>
+      </c>
+      <c r="R462">
+        <v>0</v>
+      </c>
+      <c r="S462" t="s">
+        <v>148</v>
+      </c>
+      <c r="T462">
+        <f t="shared" si="17"/>
+        <v>460</v>
+      </c>
+      <c r="U462" s="15" t="s">
         <v>632</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791B1C5-E70A-4687-ACB8-C1D34E0BA76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8289C3-756B-402F-99E8-9FE096E83DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1201">
   <si>
     <t>id</t>
   </si>
@@ -4977,6 +4977,22 @@
   </si>
   <si>
     <t>스테이지 255-100 달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(135단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(136단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5603,11 +5619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U469"/>
+  <dimension ref="A1:U471"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A469" sqref="A469"/>
+      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30389,7 +30405,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T469" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T470" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -34364,6 +34380,128 @@
         <v>467</v>
       </c>
       <c r="U469" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>480</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C470" t="b">
+        <v>0</v>
+      </c>
+      <c r="D470" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G470" t="s">
+        <v>16</v>
+      </c>
+      <c r="H470" t="s">
+        <v>31</v>
+      </c>
+      <c r="I470">
+        <v>10000</v>
+      </c>
+      <c r="J470" t="s">
+        <v>46</v>
+      </c>
+      <c r="K470">
+        <v>5</v>
+      </c>
+      <c r="M470" t="b">
+        <v>0</v>
+      </c>
+      <c r="N470" t="s">
+        <v>43</v>
+      </c>
+      <c r="O470">
+        <v>0</v>
+      </c>
+      <c r="P470" t="str">
+        <f t="shared" ref="P470:P471" si="28">B470</f>
+        <v>levelpass135</v>
+      </c>
+      <c r="Q470">
+        <v>0</v>
+      </c>
+      <c r="R470">
+        <v>0</v>
+      </c>
+      <c r="S470" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T470">
+        <f t="shared" si="17"/>
+        <v>468</v>
+      </c>
+      <c r="U470" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>481</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C471" t="b">
+        <v>0</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G471" t="s">
+        <v>16</v>
+      </c>
+      <c r="H471" t="s">
+        <v>31</v>
+      </c>
+      <c r="I471">
+        <v>10000</v>
+      </c>
+      <c r="J471" t="s">
+        <v>46</v>
+      </c>
+      <c r="K471">
+        <v>5</v>
+      </c>
+      <c r="M471" t="b">
+        <v>0</v>
+      </c>
+      <c r="N471" t="s">
+        <v>43</v>
+      </c>
+      <c r="O471">
+        <v>0</v>
+      </c>
+      <c r="P471" t="str">
+        <f t="shared" si="28"/>
+        <v>levelpass136</v>
+      </c>
+      <c r="Q471">
+        <v>0</v>
+      </c>
+      <c r="R471">
+        <v>0</v>
+      </c>
+      <c r="S471" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="T471">
+        <f t="shared" ref="T471" si="29">ROW()-2</f>
+        <v>469</v>
+      </c>
+      <c r="U471" s="15" t="s">
         <v>632</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8289C3-756B-402F-99E8-9FE096E83DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA9C59A-98CB-4246-B6C9-8128146880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="1207">
   <si>
     <t>id</t>
   </si>
@@ -4995,12 +4995,36 @@
     <t>레벨패스(136단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>monthpass36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass36ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killeventpass4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킬 이벤트 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5619,14 +5643,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U471"/>
+  <dimension ref="A1:U475"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -5646,7 +5670,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5711,7 +5735,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1">
       <c r="A2">
         <v>309</v>
       </c>
@@ -5772,7 +5796,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="3" customFormat="1">
       <c r="A3">
         <v>285</v>
       </c>
@@ -5833,7 +5857,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="3" customFormat="1">
       <c r="A4">
         <v>272</v>
       </c>
@@ -5894,7 +5918,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="3" customFormat="1">
       <c r="A5">
         <v>248</v>
       </c>
@@ -5955,7 +5979,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="3" customFormat="1">
       <c r="A6">
         <v>242</v>
       </c>
@@ -6016,7 +6040,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>219</v>
       </c>
@@ -6077,7 +6101,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>401</v>
       </c>
@@ -6138,7 +6162,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>310</v>
       </c>
@@ -6199,7 +6223,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1">
       <c r="A10">
         <v>286</v>
       </c>
@@ -6260,7 +6284,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1">
       <c r="A11">
         <v>271</v>
       </c>
@@ -6321,7 +6345,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1">
       <c r="A12">
         <v>247</v>
       </c>
@@ -6382,7 +6406,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1">
       <c r="A13">
         <v>241</v>
       </c>
@@ -6443,7 +6467,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1">
       <c r="A14">
         <v>235</v>
       </c>
@@ -6504,7 +6528,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1">
       <c r="A15">
         <v>234</v>
       </c>
@@ -6565,7 +6589,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>226</v>
       </c>
@@ -6628,7 +6652,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1">
       <c r="A17" s="2">
         <v>218</v>
       </c>
@@ -6689,7 +6713,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1">
       <c r="A18">
         <v>214</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1">
       <c r="A19">
         <v>210</v>
       </c>
@@ -6811,7 +6835,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>205</v>
       </c>
@@ -6872,7 +6896,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6935,7 +6959,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>101</v>
       </c>
@@ -6996,7 +7020,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>102</v>
       </c>
@@ -7057,7 +7081,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>103</v>
       </c>
@@ -7118,7 +7142,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>8</v>
       </c>
@@ -7182,7 +7206,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>9</v>
       </c>
@@ -7246,7 +7270,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>10</v>
       </c>
@@ -7313,7 +7337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>11</v>
       </c>
@@ -7380,7 +7404,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="3" customFormat="1">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -7444,7 +7468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>13</v>
       </c>
@@ -7508,7 +7532,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -7572,7 +7596,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7636,7 +7660,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="8" customFormat="1">
       <c r="A33" s="8">
         <v>15</v>
       </c>
@@ -7700,7 +7724,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="8" customFormat="1">
       <c r="A34" s="8">
         <v>16</v>
       </c>
@@ -7764,7 +7788,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="8" customFormat="1">
       <c r="A35" s="8">
         <v>17</v>
       </c>
@@ -7828,7 +7852,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="8" customFormat="1">
       <c r="A36" s="8">
         <v>18</v>
       </c>
@@ -7889,7 +7913,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="8" customFormat="1">
       <c r="A37" s="8">
         <v>19</v>
       </c>
@@ -7950,7 +7974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>20</v>
       </c>
@@ -8011,7 +8035,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>21</v>
       </c>
@@ -8072,7 +8096,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>22</v>
       </c>
@@ -8133,7 +8157,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -8194,7 +8218,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -8255,7 +8279,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -8316,7 +8340,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>27</v>
       </c>
@@ -8380,7 +8404,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>28</v>
       </c>
@@ -8444,7 +8468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>29</v>
       </c>
@@ -8505,7 +8529,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="3" customFormat="1">
       <c r="A47" s="3">
         <v>30</v>
       </c>
@@ -8569,7 +8593,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="3" customFormat="1">
       <c r="A48" s="3">
         <v>31</v>
       </c>
@@ -8633,7 +8657,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>32</v>
       </c>
@@ -8697,7 +8721,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>33</v>
       </c>
@@ -8761,7 +8785,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51">
         <v>34</v>
       </c>
@@ -8825,7 +8849,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>35</v>
       </c>
@@ -8886,7 +8910,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="3" customFormat="1">
       <c r="A53" s="3">
         <v>36</v>
       </c>
@@ -8947,7 +8971,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="3" customFormat="1">
       <c r="A54" s="3">
         <v>37</v>
       </c>
@@ -9008,7 +9032,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="3" customFormat="1">
       <c r="A55" s="3">
         <v>38</v>
       </c>
@@ -9069,7 +9093,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>39</v>
       </c>
@@ -9130,7 +9154,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>41</v>
       </c>
@@ -9191,7 +9215,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>42</v>
       </c>
@@ -9252,7 +9276,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="8" customFormat="1">
       <c r="A59" s="8">
         <v>44</v>
       </c>
@@ -9313,7 +9337,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="3" customFormat="1">
       <c r="A60" s="3">
         <v>45</v>
       </c>
@@ -9374,7 +9398,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="3" customFormat="1">
       <c r="A61" s="3">
         <v>46</v>
       </c>
@@ -9435,7 +9459,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="3" customFormat="1">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -9496,7 +9520,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>48</v>
       </c>
@@ -9557,7 +9581,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>49</v>
       </c>
@@ -9618,7 +9642,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>51</v>
       </c>
@@ -9679,7 +9703,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>52</v>
       </c>
@@ -9740,7 +9764,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>53</v>
       </c>
@@ -9801,7 +9825,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>55</v>
       </c>
@@ -9862,7 +9886,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>56</v>
       </c>
@@ -9923,7 +9947,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>58</v>
       </c>
@@ -9984,7 +10008,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>59</v>
       </c>
@@ -10045,7 +10069,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>60</v>
       </c>
@@ -10106,7 +10130,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>61</v>
       </c>
@@ -10167,7 +10191,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>62</v>
       </c>
@@ -10228,7 +10252,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>63</v>
       </c>
@@ -10289,7 +10313,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>67</v>
       </c>
@@ -10350,7 +10374,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>68</v>
       </c>
@@ -10411,7 +10435,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>69</v>
       </c>
@@ -10472,7 +10496,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>70</v>
       </c>
@@ -10533,7 +10557,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>71</v>
       </c>
@@ -10594,7 +10618,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>72</v>
       </c>
@@ -10655,7 +10679,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>73</v>
       </c>
@@ -10716,7 +10740,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>74</v>
       </c>
@@ -10777,7 +10801,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>75</v>
       </c>
@@ -10838,7 +10862,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>76</v>
       </c>
@@ -10899,7 +10923,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>77</v>
       </c>
@@ -10960,7 +10984,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>78</v>
       </c>
@@ -11021,7 +11045,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>79</v>
       </c>
@@ -11082,7 +11106,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>80</v>
       </c>
@@ -11143,7 +11167,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>81</v>
       </c>
@@ -11204,7 +11228,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>82</v>
       </c>
@@ -11265,7 +11289,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>83</v>
       </c>
@@ -11326,7 +11350,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>84</v>
       </c>
@@ -11387,7 +11411,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>85</v>
       </c>
@@ -11448,7 +11472,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>88</v>
       </c>
@@ -11509,7 +11533,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>89</v>
       </c>
@@ -11570,7 +11594,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>90</v>
       </c>
@@ -11631,7 +11655,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>91</v>
       </c>
@@ -11692,7 +11716,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>94</v>
       </c>
@@ -11753,7 +11777,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>95</v>
       </c>
@@ -11814,7 +11838,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>96</v>
       </c>
@@ -11875,7 +11899,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>97</v>
       </c>
@@ -11936,7 +11960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>98</v>
       </c>
@@ -11997,7 +12021,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>99</v>
       </c>
@@ -12058,7 +12082,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>100</v>
       </c>
@@ -12119,7 +12143,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>5</v>
       </c>
@@ -12183,7 +12207,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>6</v>
       </c>
@@ -12247,7 +12271,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>7</v>
       </c>
@@ -12311,7 +12335,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>101</v>
       </c>
@@ -12372,7 +12396,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>104</v>
       </c>
@@ -12433,7 +12457,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>105</v>
       </c>
@@ -12494,7 +12518,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>106</v>
       </c>
@@ -12555,7 +12579,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>107</v>
       </c>
@@ -12616,7 +12640,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>108</v>
       </c>
@@ -12677,7 +12701,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>109</v>
       </c>
@@ -12738,7 +12762,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>110</v>
       </c>
@@ -12799,7 +12823,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>113</v>
       </c>
@@ -12860,7 +12884,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>114</v>
       </c>
@@ -12921,7 +12945,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>115</v>
       </c>
@@ -12982,7 +13006,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>116</v>
       </c>
@@ -13043,7 +13067,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>117</v>
       </c>
@@ -13104,7 +13128,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>118</v>
       </c>
@@ -13165,7 +13189,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>119</v>
       </c>
@@ -13226,7 +13250,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>120</v>
       </c>
@@ -13287,7 +13311,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>123</v>
       </c>
@@ -13348,7 +13372,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13409,7 +13433,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13470,7 +13494,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13531,7 +13555,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" s="3" customFormat="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -13595,7 +13619,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" s="3" customFormat="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -13659,7 +13683,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" s="3" customFormat="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -13723,7 +13747,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" s="3" customFormat="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -13787,7 +13811,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" s="3" customFormat="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -13851,7 +13875,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13912,7 +13936,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13973,7 +13997,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>137</v>
       </c>
@@ -14034,7 +14058,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>138</v>
       </c>
@@ -14095,7 +14119,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" s="3" customFormat="1">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -14159,7 +14183,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>142</v>
       </c>
@@ -14220,7 +14244,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>143</v>
       </c>
@@ -14281,7 +14305,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" s="2" customFormat="1">
       <c r="A141" s="2">
         <v>182</v>
       </c>
@@ -14342,7 +14366,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>199</v>
       </c>
@@ -14405,7 +14429,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>200</v>
       </c>
@@ -14468,7 +14492,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" s="2" customFormat="1">
       <c r="A144" s="2">
         <v>183</v>
       </c>
@@ -14529,7 +14553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="145" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" s="2" customFormat="1">
       <c r="A145" s="2">
         <v>184</v>
       </c>
@@ -14590,7 +14614,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" s="2" customFormat="1">
       <c r="A146" s="2">
         <v>185</v>
       </c>
@@ -14651,7 +14675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="2" customFormat="1">
       <c r="A147" s="2">
         <v>186</v>
       </c>
@@ -14712,7 +14736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="22.5" customHeight="1">
       <c r="A148">
         <v>181</v>
       </c>
@@ -14773,7 +14797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>182</v>
       </c>
@@ -14834,7 +14858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="3" customFormat="1">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -14895,7 +14919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="151" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="3" customFormat="1">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -14956,7 +14980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="19.5" customHeight="1">
       <c r="A152" s="3">
         <v>160</v>
       </c>
@@ -15019,7 +15043,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="3">
         <v>161</v>
       </c>
@@ -15082,7 +15106,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>144</v>
       </c>
@@ -15143,7 +15167,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>145</v>
       </c>
@@ -15204,7 +15228,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>146</v>
       </c>
@@ -15265,7 +15289,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>147</v>
       </c>
@@ -15326,7 +15350,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>148</v>
       </c>
@@ -15387,7 +15411,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>149</v>
       </c>
@@ -15448,7 +15472,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>150</v>
       </c>
@@ -15509,7 +15533,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>153</v>
       </c>
@@ -15570,7 +15594,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>154</v>
       </c>
@@ -15631,7 +15655,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>155</v>
       </c>
@@ -15692,7 +15716,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>156</v>
       </c>
@@ -15753,7 +15777,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>157</v>
       </c>
@@ -15814,7 +15838,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>158</v>
       </c>
@@ -15875,7 +15899,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>159</v>
       </c>
@@ -15936,7 +15960,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" s="3" customFormat="1">
       <c r="A168">
         <v>162</v>
       </c>
@@ -15999,7 +16023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="169" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" s="3" customFormat="1">
       <c r="A169">
         <v>163</v>
       </c>
@@ -16062,7 +16086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="170" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" s="3" customFormat="1">
       <c r="A170" s="3">
         <v>164</v>
       </c>
@@ -16123,7 +16147,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -16186,7 +16210,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21">
       <c r="A172" s="3">
         <v>166</v>
       </c>
@@ -16249,7 +16273,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>167</v>
       </c>
@@ -16310,7 +16334,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>168</v>
       </c>
@@ -16371,7 +16395,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>169</v>
       </c>
@@ -16432,7 +16456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>170</v>
       </c>
@@ -16493,7 +16517,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>171</v>
       </c>
@@ -16554,7 +16578,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>172</v>
       </c>
@@ -16615,7 +16639,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>173</v>
       </c>
@@ -16676,7 +16700,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>174</v>
       </c>
@@ -16737,7 +16761,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>175</v>
       </c>
@@ -16798,7 +16822,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>176</v>
       </c>
@@ -16859,7 +16883,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>177</v>
       </c>
@@ -16920,7 +16944,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>178</v>
       </c>
@@ -16981,7 +17005,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>179</v>
       </c>
@@ -17042,7 +17066,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>180</v>
       </c>
@@ -17103,7 +17127,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>181</v>
       </c>
@@ -17164,7 +17188,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>139</v>
       </c>
@@ -17225,7 +17249,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>140</v>
       </c>
@@ -17286,7 +17310,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>187</v>
       </c>
@@ -17347,7 +17371,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>188</v>
       </c>
@@ -17408,7 +17432,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>189</v>
       </c>
@@ -17469,7 +17493,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>190</v>
       </c>
@@ -17530,7 +17554,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>191</v>
       </c>
@@ -17591,7 +17615,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>192</v>
       </c>
@@ -17652,7 +17676,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>193</v>
       </c>
@@ -17713,7 +17737,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>194</v>
       </c>
@@ -17774,7 +17798,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>195</v>
       </c>
@@ -17835,7 +17859,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>196</v>
       </c>
@@ -17896,7 +17920,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>197</v>
       </c>
@@ -17957,7 +17981,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>198</v>
       </c>
@@ -18018,7 +18042,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>199</v>
       </c>
@@ -18079,7 +18103,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>201</v>
       </c>
@@ -18140,7 +18164,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>202</v>
       </c>
@@ -18201,7 +18225,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>203</v>
       </c>
@@ -18262,7 +18286,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>204</v>
       </c>
@@ -18323,7 +18347,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>205</v>
       </c>
@@ -18384,7 +18408,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>206</v>
       </c>
@@ -18445,7 +18469,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>207</v>
       </c>
@@ -18506,7 +18530,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>208</v>
       </c>
@@ -18567,7 +18591,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>209</v>
       </c>
@@ -18628,7 +18652,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>210</v>
       </c>
@@ -18689,7 +18713,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>211</v>
       </c>
@@ -18750,7 +18774,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>212</v>
       </c>
@@ -18811,7 +18835,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>213</v>
       </c>
@@ -18872,7 +18896,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18933,7 +18957,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18994,7 +19018,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19055,7 +19079,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="219" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" s="3" customFormat="1">
       <c r="A219" s="3">
         <v>124</v>
       </c>
@@ -19116,7 +19140,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>220</v>
       </c>
@@ -19177,7 +19201,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>221</v>
       </c>
@@ -19238,7 +19262,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>222</v>
       </c>
@@ -19299,7 +19323,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19360,7 +19384,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19421,7 +19445,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19482,7 +19506,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19543,7 +19567,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19604,7 +19628,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19665,7 +19689,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19726,7 +19750,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19787,7 +19811,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19848,7 +19872,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19909,7 +19933,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19970,7 +19994,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>234</v>
       </c>
@@ -20031,7 +20055,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>235</v>
       </c>
@@ -20092,7 +20116,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>236</v>
       </c>
@@ -20153,7 +20177,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>237</v>
       </c>
@@ -20214,7 +20238,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>238</v>
       </c>
@@ -20275,7 +20299,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>239</v>
       </c>
@@ -20336,7 +20360,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>240</v>
       </c>
@@ -20397,7 +20421,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>243</v>
       </c>
@@ -20458,7 +20482,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>244</v>
       </c>
@@ -20519,7 +20543,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>245</v>
       </c>
@@ -20580,7 +20604,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>246</v>
       </c>
@@ -20641,7 +20665,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>249</v>
       </c>
@@ -20702,7 +20726,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>250</v>
       </c>
@@ -20763,7 +20787,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20824,7 +20848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>252</v>
       </c>
@@ -20885,7 +20909,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>253</v>
       </c>
@@ -20946,7 +20970,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="250" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" s="3" customFormat="1">
       <c r="A250">
         <v>254</v>
       </c>
@@ -21007,7 +21031,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>255</v>
       </c>
@@ -21068,7 +21092,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>256</v>
       </c>
@@ -21129,7 +21153,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>257</v>
       </c>
@@ -21190,7 +21214,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>258</v>
       </c>
@@ -21251,7 +21275,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" s="3" customFormat="1">
       <c r="A255">
         <v>259</v>
       </c>
@@ -21312,7 +21336,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>260</v>
       </c>
@@ -21373,7 +21397,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21">
       <c r="A257">
         <v>261</v>
       </c>
@@ -21434,7 +21458,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21">
       <c r="A258">
         <v>262</v>
       </c>
@@ -21495,7 +21519,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21">
       <c r="A259">
         <v>263</v>
       </c>
@@ -21556,7 +21580,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21">
       <c r="A260">
         <v>264</v>
       </c>
@@ -21617,7 +21641,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21">
       <c r="A261">
         <v>265</v>
       </c>
@@ -21678,7 +21702,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21">
       <c r="A262">
         <v>266</v>
       </c>
@@ -21739,7 +21763,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21">
       <c r="A263">
         <v>267</v>
       </c>
@@ -21800,7 +21824,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21">
       <c r="A264">
         <v>268</v>
       </c>
@@ -21861,7 +21885,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21">
       <c r="A265">
         <v>269</v>
       </c>
@@ -21922,7 +21946,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21">
       <c r="A266">
         <v>270</v>
       </c>
@@ -21983,7 +22007,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21">
       <c r="A267">
         <v>273</v>
       </c>
@@ -22044,7 +22068,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21">
       <c r="A268">
         <v>274</v>
       </c>
@@ -22105,7 +22129,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21">
       <c r="A269">
         <v>275</v>
       </c>
@@ -22166,7 +22190,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21">
       <c r="A270">
         <v>276</v>
       </c>
@@ -22227,7 +22251,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21">
       <c r="A271">
         <v>277</v>
       </c>
@@ -22288,7 +22312,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21">
       <c r="A272">
         <v>278</v>
       </c>
@@ -22349,7 +22373,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21">
       <c r="A273">
         <v>279</v>
       </c>
@@ -22410,7 +22434,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21">
       <c r="A274">
         <v>280</v>
       </c>
@@ -22471,7 +22495,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21">
       <c r="A275">
         <v>281</v>
       </c>
@@ -22532,7 +22556,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21">
       <c r="A276">
         <v>282</v>
       </c>
@@ -22593,7 +22617,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21">
       <c r="A277">
         <v>283</v>
       </c>
@@ -22654,7 +22678,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21">
       <c r="A278">
         <v>284</v>
       </c>
@@ -22715,7 +22739,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21">
       <c r="A279">
         <v>287</v>
       </c>
@@ -22776,7 +22800,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21">
       <c r="A280">
         <v>288</v>
       </c>
@@ -22840,7 +22864,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21">
       <c r="A281">
         <v>289</v>
       </c>
@@ -22901,7 +22925,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21">
       <c r="A282">
         <v>290</v>
       </c>
@@ -22962,7 +22986,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21">
       <c r="A283">
         <v>291</v>
       </c>
@@ -23023,7 +23047,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21">
       <c r="A284">
         <v>292</v>
       </c>
@@ -23084,7 +23108,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21">
       <c r="A285">
         <v>293</v>
       </c>
@@ -23145,7 +23169,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21">
       <c r="A286">
         <v>294</v>
       </c>
@@ -23206,7 +23230,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21">
       <c r="A287">
         <v>295</v>
       </c>
@@ -23267,7 +23291,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" s="3" customFormat="1">
       <c r="A288">
         <v>296</v>
       </c>
@@ -23328,7 +23352,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21">
       <c r="A289">
         <v>297</v>
       </c>
@@ -23389,7 +23413,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21">
       <c r="A290">
         <v>298</v>
       </c>
@@ -23450,7 +23474,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21">
       <c r="A291">
         <v>299</v>
       </c>
@@ -23511,7 +23535,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21">
       <c r="A292">
         <v>300</v>
       </c>
@@ -23572,7 +23596,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21">
       <c r="A293">
         <v>301</v>
       </c>
@@ -23633,7 +23657,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21">
       <c r="A294">
         <v>302</v>
       </c>
@@ -23694,7 +23718,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21">
       <c r="A295">
         <v>303</v>
       </c>
@@ -23755,7 +23779,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21">
       <c r="A296">
         <v>304</v>
       </c>
@@ -23816,7 +23840,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21">
       <c r="A297">
         <v>305</v>
       </c>
@@ -23877,7 +23901,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21">
       <c r="A298">
         <v>306</v>
       </c>
@@ -23938,7 +23962,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21">
       <c r="A299">
         <v>307</v>
       </c>
@@ -23999,7 +24023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21">
       <c r="A300">
         <v>308</v>
       </c>
@@ -24060,7 +24084,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21">
       <c r="A301">
         <v>309</v>
       </c>
@@ -24121,7 +24145,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21">
       <c r="A302">
         <v>310</v>
       </c>
@@ -24182,7 +24206,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21">
       <c r="A303">
         <v>311</v>
       </c>
@@ -24243,7 +24267,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21">
       <c r="A304">
         <v>312</v>
       </c>
@@ -24304,7 +24328,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21">
       <c r="A305">
         <v>313</v>
       </c>
@@ -24365,7 +24389,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21">
       <c r="A306">
         <v>314</v>
       </c>
@@ -24426,7 +24450,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21">
       <c r="A307">
         <v>315</v>
       </c>
@@ -24487,7 +24511,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21">
       <c r="A308">
         <v>316</v>
       </c>
@@ -24548,7 +24572,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21">
       <c r="A309">
         <v>317</v>
       </c>
@@ -24609,7 +24633,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21">
       <c r="A310">
         <v>318</v>
       </c>
@@ -24670,7 +24694,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21">
       <c r="A311">
         <v>319</v>
       </c>
@@ -24731,7 +24755,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21">
       <c r="A312">
         <v>320</v>
       </c>
@@ -24792,7 +24816,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21">
       <c r="A313">
         <v>321</v>
       </c>
@@ -24853,7 +24877,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21">
       <c r="A314">
         <v>322</v>
       </c>
@@ -24917,7 +24941,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21">
       <c r="A315">
         <v>323</v>
       </c>
@@ -24978,7 +25002,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21">
       <c r="A316">
         <v>324</v>
       </c>
@@ -25039,7 +25063,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21">
       <c r="A317">
         <v>325</v>
       </c>
@@ -25100,7 +25124,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21">
       <c r="A318">
         <v>326</v>
       </c>
@@ -25161,7 +25185,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21">
       <c r="A319">
         <v>327</v>
       </c>
@@ -25222,7 +25246,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21">
       <c r="A320">
         <v>328</v>
       </c>
@@ -25283,7 +25307,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21">
       <c r="A321">
         <v>329</v>
       </c>
@@ -25344,7 +25368,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21">
       <c r="A322">
         <v>330</v>
       </c>
@@ -25405,7 +25429,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21">
       <c r="A323">
         <v>331</v>
       </c>
@@ -25466,7 +25490,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21">
       <c r="A324">
         <v>332</v>
       </c>
@@ -25527,7 +25551,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21">
       <c r="A325">
         <v>333</v>
       </c>
@@ -25588,7 +25612,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21">
       <c r="A326">
         <v>334</v>
       </c>
@@ -25649,7 +25673,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21">
       <c r="A327">
         <v>335</v>
       </c>
@@ -25710,7 +25734,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21">
       <c r="A328">
         <v>336</v>
       </c>
@@ -25771,7 +25795,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21">
       <c r="A329">
         <v>337</v>
       </c>
@@ -25832,7 +25856,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21">
       <c r="A330">
         <v>338</v>
       </c>
@@ -25893,7 +25917,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21">
       <c r="A331">
         <v>339</v>
       </c>
@@ -25954,7 +25978,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21">
       <c r="A332">
         <v>340</v>
       </c>
@@ -26015,7 +26039,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21">
       <c r="A333">
         <v>341</v>
       </c>
@@ -26076,7 +26100,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21">
       <c r="A334">
         <v>342</v>
       </c>
@@ -26137,7 +26161,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21">
       <c r="A335">
         <v>343</v>
       </c>
@@ -26198,7 +26222,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21">
       <c r="A336">
         <v>344</v>
       </c>
@@ -26259,7 +26283,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21">
       <c r="A337">
         <v>345</v>
       </c>
@@ -26320,7 +26344,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21">
       <c r="A338">
         <v>346</v>
       </c>
@@ -26381,7 +26405,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21">
       <c r="A339">
         <v>347</v>
       </c>
@@ -26442,7 +26466,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21">
       <c r="A340">
         <v>348</v>
       </c>
@@ -26503,7 +26527,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21">
       <c r="A341">
         <v>349</v>
       </c>
@@ -26564,7 +26588,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" s="3" customFormat="1">
       <c r="A342">
         <v>350</v>
       </c>
@@ -26626,7 +26650,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21">
       <c r="A343">
         <v>351</v>
       </c>
@@ -26688,7 +26712,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21">
       <c r="A344">
         <v>352</v>
       </c>
@@ -26749,7 +26773,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21">
       <c r="A345">
         <v>353</v>
       </c>
@@ -26810,7 +26834,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21">
       <c r="A346">
         <v>354</v>
       </c>
@@ -26871,7 +26895,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21">
       <c r="A347">
         <v>356</v>
       </c>
@@ -26932,7 +26956,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21">
       <c r="A348">
         <v>357</v>
       </c>
@@ -26993,7 +27017,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21">
       <c r="A349">
         <v>358</v>
       </c>
@@ -27054,7 +27078,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21">
       <c r="A350">
         <v>359</v>
       </c>
@@ -27115,7 +27139,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21">
       <c r="A351">
         <v>360</v>
       </c>
@@ -27176,7 +27200,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21">
       <c r="A352">
         <v>361</v>
       </c>
@@ -27237,7 +27261,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21">
       <c r="A353">
         <v>362</v>
       </c>
@@ -27298,7 +27322,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21">
       <c r="A354">
         <v>363</v>
       </c>
@@ -27359,7 +27383,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21">
       <c r="A355">
         <v>364</v>
       </c>
@@ -27420,7 +27444,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21">
       <c r="A356">
         <v>365</v>
       </c>
@@ -27481,7 +27505,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21">
       <c r="A357">
         <v>366</v>
       </c>
@@ -27542,7 +27566,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21">
       <c r="A358">
         <v>367</v>
       </c>
@@ -27603,7 +27627,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21">
       <c r="A359">
         <v>368</v>
       </c>
@@ -27664,7 +27688,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21">
       <c r="A360">
         <v>369</v>
       </c>
@@ -27725,7 +27749,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21">
       <c r="A361">
         <v>370</v>
       </c>
@@ -27786,7 +27810,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21">
       <c r="A362">
         <v>371</v>
       </c>
@@ -27847,7 +27871,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21">
       <c r="A363">
         <v>372</v>
       </c>
@@ -27908,7 +27932,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21">
       <c r="A364">
         <v>373</v>
       </c>
@@ -27969,7 +27993,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21">
       <c r="A365">
         <v>374</v>
       </c>
@@ -28030,7 +28054,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21">
       <c r="A366">
         <v>375</v>
       </c>
@@ -28091,7 +28115,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21">
       <c r="A367">
         <v>376</v>
       </c>
@@ -28152,7 +28176,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21">
       <c r="A368">
         <v>377</v>
       </c>
@@ -28213,7 +28237,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21">
       <c r="A369">
         <v>378</v>
       </c>
@@ -28274,7 +28298,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1">
       <c r="A370">
         <v>379</v>
       </c>
@@ -28336,7 +28360,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21">
       <c r="A371">
         <v>380</v>
       </c>
@@ -28398,7 +28422,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21">
       <c r="A372">
         <v>381</v>
       </c>
@@ -28460,7 +28484,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21">
       <c r="A373">
         <v>382</v>
       </c>
@@ -28521,7 +28545,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21">
       <c r="A374">
         <v>383</v>
       </c>
@@ -28582,7 +28606,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21">
       <c r="A375">
         <v>384</v>
       </c>
@@ -28643,7 +28667,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21">
       <c r="A376">
         <v>385</v>
       </c>
@@ -28704,7 +28728,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21">
       <c r="A377">
         <v>386</v>
       </c>
@@ -28765,7 +28789,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21">
       <c r="A378">
         <v>387</v>
       </c>
@@ -28826,7 +28850,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21">
       <c r="A379">
         <v>388</v>
       </c>
@@ -28887,7 +28911,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21">
       <c r="A380">
         <v>389</v>
       </c>
@@ -28948,7 +28972,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21">
       <c r="A381">
         <v>390</v>
       </c>
@@ -29009,7 +29033,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21">
       <c r="A382">
         <v>391</v>
       </c>
@@ -29070,7 +29094,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21">
       <c r="A383">
         <v>392</v>
       </c>
@@ -29131,7 +29155,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21">
       <c r="A384">
         <v>393</v>
       </c>
@@ -29192,7 +29216,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21">
       <c r="A385">
         <v>394</v>
       </c>
@@ -29253,7 +29277,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21">
       <c r="A386">
         <v>395</v>
       </c>
@@ -29314,7 +29338,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21">
       <c r="A387">
         <v>396</v>
       </c>
@@ -29375,7 +29399,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21">
       <c r="A388">
         <v>397</v>
       </c>
@@ -29436,7 +29460,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21">
       <c r="A389">
         <v>398</v>
       </c>
@@ -29497,7 +29521,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21">
       <c r="A390">
         <v>399</v>
       </c>
@@ -29558,7 +29582,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21">
       <c r="A391">
         <v>400</v>
       </c>
@@ -29619,7 +29643,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21">
       <c r="A392">
         <v>402</v>
       </c>
@@ -29680,7 +29704,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21">
       <c r="A393">
         <v>403</v>
       </c>
@@ -29741,7 +29765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21">
       <c r="A394">
         <v>404</v>
       </c>
@@ -29802,7 +29826,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21">
       <c r="A395">
         <v>405</v>
       </c>
@@ -29863,7 +29887,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21">
       <c r="A396">
         <v>406</v>
       </c>
@@ -29924,7 +29948,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21">
       <c r="A397">
         <v>407</v>
       </c>
@@ -29985,7 +30009,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21">
       <c r="A398">
         <v>408</v>
       </c>
@@ -30046,7 +30070,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21">
       <c r="A399">
         <v>409</v>
       </c>
@@ -30107,7 +30131,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>410</v>
       </c>
@@ -30168,7 +30192,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>411</v>
       </c>
@@ -30229,7 +30253,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>412</v>
       </c>
@@ -30290,7 +30314,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21">
       <c r="A403">
         <v>413</v>
       </c>
@@ -30351,7 +30375,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21">
       <c r="A404">
         <v>414</v>
       </c>
@@ -30405,14 +30429,14 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T470" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T475" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21">
       <c r="A405">
         <v>415</v>
       </c>
@@ -30473,7 +30497,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21">
       <c r="A406">
         <v>416</v>
       </c>
@@ -30534,7 +30558,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21">
       <c r="A407">
         <v>417</v>
       </c>
@@ -30595,7 +30619,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21">
       <c r="A408">
         <v>418</v>
       </c>
@@ -30656,7 +30680,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21">
       <c r="A409">
         <v>419</v>
       </c>
@@ -30717,7 +30741,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21">
       <c r="A410">
         <v>420</v>
       </c>
@@ -30778,7 +30802,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21">
       <c r="A411">
         <v>421</v>
       </c>
@@ -30839,7 +30863,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21">
       <c r="A412">
         <v>422</v>
       </c>
@@ -30900,7 +30924,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="3" customFormat="1">
       <c r="A413">
         <v>423</v>
       </c>
@@ -30962,7 +30986,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21">
       <c r="A414">
         <v>424</v>
       </c>
@@ -31024,7 +31048,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21">
       <c r="A415">
         <v>425</v>
       </c>
@@ -31086,7 +31110,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21">
       <c r="A416">
         <v>426</v>
       </c>
@@ -31147,7 +31171,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21">
       <c r="A417">
         <v>427</v>
       </c>
@@ -31208,7 +31232,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21">
       <c r="A418">
         <v>428</v>
       </c>
@@ -31269,7 +31293,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21">
       <c r="A419">
         <v>429</v>
       </c>
@@ -31330,7 +31354,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21">
       <c r="A420">
         <v>430</v>
       </c>
@@ -31391,7 +31415,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21">
       <c r="A421">
         <v>431</v>
       </c>
@@ -31452,7 +31476,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21">
       <c r="A422">
         <v>432</v>
       </c>
@@ -31513,7 +31537,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21">
       <c r="A423">
         <v>433</v>
       </c>
@@ -31574,7 +31598,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21">
       <c r="A424">
         <v>434</v>
       </c>
@@ -31635,7 +31659,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21">
       <c r="A425">
         <v>435</v>
       </c>
@@ -31696,7 +31720,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21">
       <c r="A426">
         <v>436</v>
       </c>
@@ -31757,7 +31781,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21">
       <c r="A427">
         <v>437</v>
       </c>
@@ -31818,7 +31842,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21">
       <c r="A428">
         <v>438</v>
       </c>
@@ -31879,7 +31903,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21">
       <c r="A429">
         <v>439</v>
       </c>
@@ -31940,7 +31964,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21">
       <c r="A430">
         <v>440</v>
       </c>
@@ -32001,7 +32025,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21">
       <c r="A431">
         <v>441</v>
       </c>
@@ -32062,7 +32086,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21">
       <c r="A432">
         <v>442</v>
       </c>
@@ -32123,7 +32147,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21">
       <c r="A433">
         <v>443</v>
       </c>
@@ -32184,7 +32208,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21">
       <c r="A434">
         <v>444</v>
       </c>
@@ -32245,7 +32269,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21">
       <c r="A435">
         <v>445</v>
       </c>
@@ -32306,7 +32330,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21">
       <c r="A436">
         <v>446</v>
       </c>
@@ -32367,7 +32391,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21">
       <c r="A437">
         <v>447</v>
       </c>
@@ -32428,7 +32452,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21">
       <c r="A438">
         <v>448</v>
       </c>
@@ -32489,7 +32513,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21">
       <c r="A439">
         <v>449</v>
       </c>
@@ -32550,7 +32574,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21">
       <c r="A440">
         <v>450</v>
       </c>
@@ -32611,7 +32635,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21">
       <c r="A441">
         <v>451</v>
       </c>
@@ -32672,7 +32696,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21">
       <c r="A442">
         <v>452</v>
       </c>
@@ -32733,7 +32757,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21">
       <c r="A443">
         <v>453</v>
       </c>
@@ -32794,7 +32818,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21">
       <c r="A444">
         <v>454</v>
       </c>
@@ -32855,7 +32879,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21">
       <c r="A445">
         <v>455</v>
       </c>
@@ -32916,7 +32940,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21">
       <c r="A446">
         <v>456</v>
       </c>
@@ -32977,7 +33001,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21">
       <c r="A447">
         <v>457</v>
       </c>
@@ -33038,7 +33062,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21">
       <c r="A448">
         <v>458</v>
       </c>
@@ -33099,7 +33123,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21">
       <c r="A449">
         <v>459</v>
       </c>
@@ -33160,7 +33184,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21">
       <c r="A450">
         <v>460</v>
       </c>
@@ -33222,7 +33246,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21">
       <c r="A451">
         <v>461</v>
       </c>
@@ -33284,7 +33308,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21">
       <c r="A452">
         <v>462</v>
       </c>
@@ -33346,7 +33370,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21">
       <c r="A453">
         <v>463</v>
       </c>
@@ -33407,7 +33431,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21">
       <c r="A454">
         <v>464</v>
       </c>
@@ -33468,7 +33492,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21">
       <c r="A455">
         <v>465</v>
       </c>
@@ -33529,7 +33553,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21">
       <c r="A456">
         <v>466</v>
       </c>
@@ -33590,7 +33614,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21">
       <c r="A457">
         <v>467</v>
       </c>
@@ -33651,7 +33675,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21">
       <c r="A458">
         <v>468</v>
       </c>
@@ -33712,7 +33736,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21">
       <c r="A459">
         <v>469</v>
       </c>
@@ -33773,7 +33797,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21">
       <c r="A460">
         <v>470</v>
       </c>
@@ -33834,7 +33858,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21">
       <c r="A461">
         <v>471</v>
       </c>
@@ -33895,7 +33919,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21">
       <c r="A462">
         <v>472</v>
       </c>
@@ -33956,7 +33980,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21">
       <c r="A463">
         <v>473</v>
       </c>
@@ -34017,7 +34041,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21">
       <c r="A464">
         <v>474</v>
       </c>
@@ -34078,7 +34102,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21">
       <c r="A465">
         <v>475</v>
       </c>
@@ -34139,7 +34163,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:21">
       <c r="A466">
         <v>476</v>
       </c>
@@ -34200,7 +34224,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21">
       <c r="A467">
         <v>477</v>
       </c>
@@ -34261,7 +34285,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21">
       <c r="A468">
         <v>478</v>
       </c>
@@ -34322,7 +34346,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21">
       <c r="A469">
         <v>479</v>
       </c>
@@ -34383,7 +34407,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21">
       <c r="A470">
         <v>480</v>
       </c>
@@ -34424,7 +34448,7 @@
         <v>0</v>
       </c>
       <c r="P470" t="str">
-        <f t="shared" ref="P470:P471" si="28">B470</f>
+        <f t="shared" ref="P470:P475" si="28">B470</f>
         <v>levelpass135</v>
       </c>
       <c r="Q470">
@@ -34444,7 +34468,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21">
       <c r="A471">
         <v>481</v>
       </c>
@@ -34502,6 +34526,250 @@
         <v>469</v>
       </c>
       <c r="U471" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="472" spans="1:21">
+      <c r="A472">
+        <v>482</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C472" t="b">
+        <v>0</v>
+      </c>
+      <c r="D472" t="s">
+        <v>807</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G472" t="s">
+        <v>16</v>
+      </c>
+      <c r="H472" t="s">
+        <v>31</v>
+      </c>
+      <c r="I472">
+        <v>30000</v>
+      </c>
+      <c r="J472" t="s">
+        <v>46</v>
+      </c>
+      <c r="K472">
+        <v>5</v>
+      </c>
+      <c r="M472" t="b">
+        <v>0</v>
+      </c>
+      <c r="N472" t="s">
+        <v>43</v>
+      </c>
+      <c r="O472">
+        <v>0</v>
+      </c>
+      <c r="P472" t="str">
+        <f t="shared" si="28"/>
+        <v>monthpass36</v>
+      </c>
+      <c r="Q472">
+        <v>0</v>
+      </c>
+      <c r="R472">
+        <v>0</v>
+      </c>
+      <c r="S472" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T472">
+        <f t="shared" si="17"/>
+        <v>470</v>
+      </c>
+      <c r="U472" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21">
+      <c r="A473">
+        <v>483</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C473" t="b">
+        <v>0</v>
+      </c>
+      <c r="D473" t="s">
+        <v>807</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G473" t="s">
+        <v>16</v>
+      </c>
+      <c r="H473" t="s">
+        <v>31</v>
+      </c>
+      <c r="I473">
+        <v>10000</v>
+      </c>
+      <c r="J473" t="s">
+        <v>46</v>
+      </c>
+      <c r="K473">
+        <v>5</v>
+      </c>
+      <c r="M473" t="b">
+        <v>0</v>
+      </c>
+      <c r="N473" t="s">
+        <v>43</v>
+      </c>
+      <c r="O473">
+        <v>0</v>
+      </c>
+      <c r="P473" t="str">
+        <f t="shared" si="28"/>
+        <v>monthpass36ins</v>
+      </c>
+      <c r="Q473">
+        <v>0</v>
+      </c>
+      <c r="R473">
+        <v>0</v>
+      </c>
+      <c r="S473" t="s">
+        <v>148</v>
+      </c>
+      <c r="T473">
+        <f t="shared" ref="T473" si="30">ROW()-2</f>
+        <v>471</v>
+      </c>
+      <c r="U473" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21">
+      <c r="A474">
+        <v>484</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C474" t="b">
+        <v>0</v>
+      </c>
+      <c r="D474" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G474" t="s">
+        <v>16</v>
+      </c>
+      <c r="H474" t="s">
+        <v>31</v>
+      </c>
+      <c r="I474">
+        <v>30000</v>
+      </c>
+      <c r="J474" t="s">
+        <v>46</v>
+      </c>
+      <c r="K474">
+        <v>5</v>
+      </c>
+      <c r="M474" t="b">
+        <v>0</v>
+      </c>
+      <c r="N474" t="s">
+        <v>43</v>
+      </c>
+      <c r="O474">
+        <v>0</v>
+      </c>
+      <c r="P474" t="str">
+        <f t="shared" si="28"/>
+        <v>killeventpass4</v>
+      </c>
+      <c r="Q474">
+        <v>0</v>
+      </c>
+      <c r="R474">
+        <v>0</v>
+      </c>
+      <c r="S474" t="s">
+        <v>148</v>
+      </c>
+      <c r="T474">
+        <f t="shared" si="17"/>
+        <v>472</v>
+      </c>
+      <c r="U474" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="475" spans="1:21">
+      <c r="A475">
+        <v>485</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C475" t="b">
+        <v>0</v>
+      </c>
+      <c r="D475" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" t="s">
+        <v>16</v>
+      </c>
+      <c r="H475" t="s">
+        <v>31</v>
+      </c>
+      <c r="I475">
+        <v>30000</v>
+      </c>
+      <c r="J475" t="s">
+        <v>46</v>
+      </c>
+      <c r="K475">
+        <v>5</v>
+      </c>
+      <c r="M475" t="b">
+        <v>0</v>
+      </c>
+      <c r="N475" t="s">
+        <v>43</v>
+      </c>
+      <c r="O475">
+        <v>0</v>
+      </c>
+      <c r="P475" t="str">
+        <f t="shared" si="28"/>
+        <v>shopeventpass4</v>
+      </c>
+      <c r="Q475">
+        <v>0</v>
+      </c>
+      <c r="R475">
+        <v>0</v>
+      </c>
+      <c r="S475" t="s">
+        <v>148</v>
+      </c>
+      <c r="T475">
+        <f t="shared" si="17"/>
+        <v>473</v>
+      </c>
+      <c r="U475" s="15" t="s">
         <v>632</v>
       </c>
     </row>
@@ -34543,7 +34811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA9C59A-98CB-4246-B6C9-8128146880C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5086CCC2-B3A3-41BC-B176-442B1CD5C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4313" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="1213">
   <si>
     <t>id</t>
   </si>
@@ -5017,6 +5017,30 @@
   </si>
   <si>
     <t>수집 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass37ins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5643,11 +5667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U475"/>
+  <dimension ref="A1:U479"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30429,7 +30453,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T475" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T478" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -34448,7 +34472,7 @@
         <v>0</v>
       </c>
       <c r="P470" t="str">
-        <f t="shared" ref="P470:P475" si="28">B470</f>
+        <f t="shared" ref="P470:P477" si="28">B470</f>
         <v>levelpass135</v>
       </c>
       <c r="Q470">
@@ -34770,6 +34794,250 @@
         <v>473</v>
       </c>
       <c r="U475" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="476" spans="1:21">
+      <c r="A476">
+        <v>486</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C476" t="b">
+        <v>0</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G476" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H476" t="s">
+        <v>31</v>
+      </c>
+      <c r="I476">
+        <v>10000</v>
+      </c>
+      <c r="J476" t="s">
+        <v>46</v>
+      </c>
+      <c r="K476">
+        <v>5</v>
+      </c>
+      <c r="M476" t="b">
+        <v>0</v>
+      </c>
+      <c r="N476" t="s">
+        <v>43</v>
+      </c>
+      <c r="O476">
+        <v>0</v>
+      </c>
+      <c r="P476" t="str">
+        <f t="shared" si="28"/>
+        <v>dimensionpass5</v>
+      </c>
+      <c r="Q476">
+        <v>0</v>
+      </c>
+      <c r="R476">
+        <v>0</v>
+      </c>
+      <c r="S476" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T476">
+        <f t="shared" si="17"/>
+        <v>474</v>
+      </c>
+      <c r="U476" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="477" spans="1:21">
+      <c r="A477">
+        <v>487</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C477" t="b">
+        <v>0</v>
+      </c>
+      <c r="D477" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H477" t="s">
+        <v>31</v>
+      </c>
+      <c r="I477">
+        <v>10000</v>
+      </c>
+      <c r="J477" t="s">
+        <v>46</v>
+      </c>
+      <c r="K477">
+        <v>5</v>
+      </c>
+      <c r="M477" t="b">
+        <v>0</v>
+      </c>
+      <c r="N477" t="s">
+        <v>43</v>
+      </c>
+      <c r="O477">
+        <v>0</v>
+      </c>
+      <c r="P477" t="str">
+        <f t="shared" si="28"/>
+        <v>dimensionpass6</v>
+      </c>
+      <c r="Q477">
+        <v>0</v>
+      </c>
+      <c r="R477">
+        <v>0</v>
+      </c>
+      <c r="S477" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T477">
+        <f t="shared" si="17"/>
+        <v>475</v>
+      </c>
+      <c r="U477" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="478" spans="1:21">
+      <c r="A478">
+        <v>488</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C478" t="b">
+        <v>0</v>
+      </c>
+      <c r="D478" t="s">
+        <v>854</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G478" t="s">
+        <v>16</v>
+      </c>
+      <c r="H478" t="s">
+        <v>31</v>
+      </c>
+      <c r="I478">
+        <v>30000</v>
+      </c>
+      <c r="J478" t="s">
+        <v>46</v>
+      </c>
+      <c r="K478">
+        <v>5</v>
+      </c>
+      <c r="M478" t="b">
+        <v>0</v>
+      </c>
+      <c r="N478" t="s">
+        <v>43</v>
+      </c>
+      <c r="O478">
+        <v>0</v>
+      </c>
+      <c r="P478" t="str">
+        <f t="shared" ref="P478:P479" si="31">B478</f>
+        <v>monthpass37</v>
+      </c>
+      <c r="Q478">
+        <v>0</v>
+      </c>
+      <c r="R478">
+        <v>0</v>
+      </c>
+      <c r="S478" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T478">
+        <f t="shared" si="17"/>
+        <v>476</v>
+      </c>
+      <c r="U478" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="479" spans="1:21">
+      <c r="A479">
+        <v>489</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C479" t="b">
+        <v>0</v>
+      </c>
+      <c r="D479" t="s">
+        <v>854</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G479" t="s">
+        <v>16</v>
+      </c>
+      <c r="H479" t="s">
+        <v>31</v>
+      </c>
+      <c r="I479">
+        <v>10000</v>
+      </c>
+      <c r="J479" t="s">
+        <v>46</v>
+      </c>
+      <c r="K479">
+        <v>5</v>
+      </c>
+      <c r="M479" t="b">
+        <v>0</v>
+      </c>
+      <c r="N479" t="s">
+        <v>43</v>
+      </c>
+      <c r="O479">
+        <v>0</v>
+      </c>
+      <c r="P479" t="str">
+        <f t="shared" si="31"/>
+        <v>monthpass37ins</v>
+      </c>
+      <c r="Q479">
+        <v>0</v>
+      </c>
+      <c r="R479">
+        <v>0</v>
+      </c>
+      <c r="S479" t="s">
+        <v>148</v>
+      </c>
+      <c r="T479">
+        <f t="shared" ref="T479" si="32">ROW()-2</f>
+        <v>477</v>
+      </c>
+      <c r="U479" s="15" t="s">
         <v>632</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5086CCC2-B3A3-41BC-B176-442B1CD5C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE38D5-9187-45EE-B74B-64E5856067A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1219">
   <si>
     <t>id</t>
   </si>
@@ -5041,6 +5041,30 @@
   </si>
   <si>
     <t>monthpass37ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass38ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>killeventpass5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopeventpass5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5667,11 +5691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U479"/>
+  <dimension ref="A1:U484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B478" sqref="B478"/>
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C487" sqref="C486:C487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30453,7 +30477,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T478" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T484" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -35034,10 +35058,315 @@
         <v>148</v>
       </c>
       <c r="T479">
-        <f t="shared" ref="T479" si="32">ROW()-2</f>
+        <f t="shared" ref="T479:T481" si="32">ROW()-2</f>
         <v>477</v>
       </c>
       <c r="U479" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="480" spans="1:21">
+      <c r="A480">
+        <v>490</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C480" t="b">
+        <v>0</v>
+      </c>
+      <c r="D480" t="s">
+        <v>874</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G480" t="s">
+        <v>16</v>
+      </c>
+      <c r="H480" t="s">
+        <v>31</v>
+      </c>
+      <c r="I480">
+        <v>30000</v>
+      </c>
+      <c r="J480" t="s">
+        <v>46</v>
+      </c>
+      <c r="K480">
+        <v>5</v>
+      </c>
+      <c r="M480" t="b">
+        <v>0</v>
+      </c>
+      <c r="N480" t="s">
+        <v>43</v>
+      </c>
+      <c r="O480">
+        <v>0</v>
+      </c>
+      <c r="P480" t="str">
+        <f t="shared" ref="P480:P484" si="33">B480</f>
+        <v>monthpass38</v>
+      </c>
+      <c r="Q480">
+        <v>0</v>
+      </c>
+      <c r="R480">
+        <v>0</v>
+      </c>
+      <c r="S480" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T480">
+        <f t="shared" si="17"/>
+        <v>478</v>
+      </c>
+      <c r="U480" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="481" spans="1:21">
+      <c r="A481">
+        <v>491</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C481" t="b">
+        <v>0</v>
+      </c>
+      <c r="D481" t="s">
+        <v>874</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G481" t="s">
+        <v>16</v>
+      </c>
+      <c r="H481" t="s">
+        <v>31</v>
+      </c>
+      <c r="I481">
+        <v>10000</v>
+      </c>
+      <c r="J481" t="s">
+        <v>46</v>
+      </c>
+      <c r="K481">
+        <v>5</v>
+      </c>
+      <c r="M481" t="b">
+        <v>0</v>
+      </c>
+      <c r="N481" t="s">
+        <v>43</v>
+      </c>
+      <c r="O481">
+        <v>0</v>
+      </c>
+      <c r="P481" t="str">
+        <f t="shared" si="33"/>
+        <v>monthpass38ins</v>
+      </c>
+      <c r="Q481">
+        <v>0</v>
+      </c>
+      <c r="R481">
+        <v>0</v>
+      </c>
+      <c r="S481" t="s">
+        <v>148</v>
+      </c>
+      <c r="T481">
+        <f t="shared" si="32"/>
+        <v>479</v>
+      </c>
+      <c r="U481" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="482" spans="1:21">
+      <c r="A482">
+        <v>492</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C482" t="b">
+        <v>0</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G482" t="s">
+        <v>16</v>
+      </c>
+      <c r="H482" t="s">
+        <v>31</v>
+      </c>
+      <c r="I482">
+        <v>30000</v>
+      </c>
+      <c r="J482" t="s">
+        <v>46</v>
+      </c>
+      <c r="K482">
+        <v>5</v>
+      </c>
+      <c r="M482" t="b">
+        <v>0</v>
+      </c>
+      <c r="N482" t="s">
+        <v>43</v>
+      </c>
+      <c r="O482">
+        <v>0</v>
+      </c>
+      <c r="P482" t="str">
+        <f t="shared" si="33"/>
+        <v>killeventpass5</v>
+      </c>
+      <c r="Q482">
+        <v>0</v>
+      </c>
+      <c r="R482">
+        <v>0</v>
+      </c>
+      <c r="S482" t="s">
+        <v>148</v>
+      </c>
+      <c r="T482">
+        <f t="shared" si="17"/>
+        <v>480</v>
+      </c>
+      <c r="U482" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="483" spans="1:21">
+      <c r="A483">
+        <v>493</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C483" t="b">
+        <v>0</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" t="s">
+        <v>16</v>
+      </c>
+      <c r="H483" t="s">
+        <v>31</v>
+      </c>
+      <c r="I483">
+        <v>30000</v>
+      </c>
+      <c r="J483" t="s">
+        <v>46</v>
+      </c>
+      <c r="K483">
+        <v>5</v>
+      </c>
+      <c r="M483" t="b">
+        <v>0</v>
+      </c>
+      <c r="N483" t="s">
+        <v>43</v>
+      </c>
+      <c r="O483">
+        <v>0</v>
+      </c>
+      <c r="P483" t="str">
+        <f t="shared" si="33"/>
+        <v>shopeventpass5</v>
+      </c>
+      <c r="Q483">
+        <v>0</v>
+      </c>
+      <c r="R483">
+        <v>0</v>
+      </c>
+      <c r="S483" t="s">
+        <v>148</v>
+      </c>
+      <c r="T483">
+        <f t="shared" ref="T483" si="34">ROW()-2</f>
+        <v>481</v>
+      </c>
+      <c r="U483" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="484" spans="1:21">
+      <c r="A484">
+        <v>494</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C484" t="b">
+        <v>0</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H484" t="s">
+        <v>31</v>
+      </c>
+      <c r="I484">
+        <v>10000</v>
+      </c>
+      <c r="J484" t="s">
+        <v>46</v>
+      </c>
+      <c r="K484">
+        <v>5</v>
+      </c>
+      <c r="M484" t="b">
+        <v>0</v>
+      </c>
+      <c r="N484" t="s">
+        <v>43</v>
+      </c>
+      <c r="O484">
+        <v>0</v>
+      </c>
+      <c r="P484" t="str">
+        <f t="shared" si="33"/>
+        <v>dimensionpass7</v>
+      </c>
+      <c r="Q484">
+        <v>0</v>
+      </c>
+      <c r="R484">
+        <v>0</v>
+      </c>
+      <c r="S484" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T484">
+        <f t="shared" si="17"/>
+        <v>482</v>
+      </c>
+      <c r="U484" s="15" t="s">
         <v>632</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE38D5-9187-45EE-B74B-64E5856067A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9ED9E5-7E56-4BED-951A-99FFCEAC0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1225">
   <si>
     <t>id</t>
   </si>
@@ -5065,6 +5065,30 @@
   </si>
   <si>
     <t>차원패스7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass39ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5691,11 +5715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U484"/>
+  <dimension ref="A1:U488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C487" sqref="C486:C487"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30477,7 +30501,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T484" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T488" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -35367,6 +35391,250 @@
         <v>482</v>
       </c>
       <c r="U484" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="485" spans="1:21">
+      <c r="A485">
+        <v>495</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C485" t="b">
+        <v>0</v>
+      </c>
+      <c r="D485" t="s">
+        <v>885</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" t="s">
+        <v>16</v>
+      </c>
+      <c r="H485" t="s">
+        <v>31</v>
+      </c>
+      <c r="I485">
+        <v>30000</v>
+      </c>
+      <c r="J485" t="s">
+        <v>46</v>
+      </c>
+      <c r="K485">
+        <v>5</v>
+      </c>
+      <c r="M485" t="b">
+        <v>0</v>
+      </c>
+      <c r="N485" t="s">
+        <v>43</v>
+      </c>
+      <c r="O485">
+        <v>0</v>
+      </c>
+      <c r="P485" t="str">
+        <f t="shared" ref="P485:P488" si="35">B485</f>
+        <v>monthpass39</v>
+      </c>
+      <c r="Q485">
+        <v>0</v>
+      </c>
+      <c r="R485">
+        <v>0</v>
+      </c>
+      <c r="S485" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T485">
+        <f t="shared" si="17"/>
+        <v>483</v>
+      </c>
+      <c r="U485" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="486" spans="1:21">
+      <c r="A486">
+        <v>496</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C486" t="b">
+        <v>0</v>
+      </c>
+      <c r="D486" t="s">
+        <v>885</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" t="s">
+        <v>16</v>
+      </c>
+      <c r="H486" t="s">
+        <v>31</v>
+      </c>
+      <c r="I486">
+        <v>10000</v>
+      </c>
+      <c r="J486" t="s">
+        <v>46</v>
+      </c>
+      <c r="K486">
+        <v>5</v>
+      </c>
+      <c r="M486" t="b">
+        <v>0</v>
+      </c>
+      <c r="N486" t="s">
+        <v>43</v>
+      </c>
+      <c r="O486">
+        <v>0</v>
+      </c>
+      <c r="P486" t="str">
+        <f t="shared" si="35"/>
+        <v>monthpass39ins</v>
+      </c>
+      <c r="Q486">
+        <v>0</v>
+      </c>
+      <c r="R486">
+        <v>0</v>
+      </c>
+      <c r="S486" t="s">
+        <v>148</v>
+      </c>
+      <c r="T486">
+        <f t="shared" ref="T486" si="36">ROW()-2</f>
+        <v>484</v>
+      </c>
+      <c r="U486" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="487" spans="1:21">
+      <c r="A487">
+        <v>497</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C487" t="b">
+        <v>0</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H487" t="s">
+        <v>31</v>
+      </c>
+      <c r="I487">
+        <v>10000</v>
+      </c>
+      <c r="J487" t="s">
+        <v>46</v>
+      </c>
+      <c r="K487">
+        <v>5</v>
+      </c>
+      <c r="M487" t="b">
+        <v>0</v>
+      </c>
+      <c r="N487" t="s">
+        <v>43</v>
+      </c>
+      <c r="O487">
+        <v>0</v>
+      </c>
+      <c r="P487" t="str">
+        <f t="shared" si="35"/>
+        <v>dimensionpass8</v>
+      </c>
+      <c r="Q487">
+        <v>0</v>
+      </c>
+      <c r="R487">
+        <v>0</v>
+      </c>
+      <c r="S487" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T487">
+        <f t="shared" si="17"/>
+        <v>485</v>
+      </c>
+      <c r="U487" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="488" spans="1:21">
+      <c r="A488">
+        <v>498</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C488" t="b">
+        <v>0</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H488" t="s">
+        <v>31</v>
+      </c>
+      <c r="I488">
+        <v>10000</v>
+      </c>
+      <c r="J488" t="s">
+        <v>46</v>
+      </c>
+      <c r="K488">
+        <v>5</v>
+      </c>
+      <c r="M488" t="b">
+        <v>0</v>
+      </c>
+      <c r="N488" t="s">
+        <v>43</v>
+      </c>
+      <c r="O488">
+        <v>0</v>
+      </c>
+      <c r="P488" t="str">
+        <f t="shared" si="35"/>
+        <v>dimensionpass9</v>
+      </c>
+      <c r="Q488">
+        <v>0</v>
+      </c>
+      <c r="R488">
+        <v>0</v>
+      </c>
+      <c r="S488" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T488">
+        <f t="shared" si="17"/>
+        <v>486</v>
+      </c>
+      <c r="U488" s="15" t="s">
         <v>632</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9ED9E5-7E56-4BED-951A-99FFCEAC0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97D2BE6-CCE1-43FB-8BFB-BDB00309D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="1319">
   <si>
     <t>id</t>
   </si>
@@ -5090,6 +5090,291 @@
   <si>
     <t>차원패스9</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass40ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimensionpass10</t>
+  </si>
+  <si>
+    <t>dimensionpass11</t>
+  </si>
+  <si>
+    <t>dimensionpass12</t>
+  </si>
+  <si>
+    <t>dimensionpass13</t>
+  </si>
+  <si>
+    <t>dimensionpass14</t>
+  </si>
+  <si>
+    <t>dimensionpass15</t>
+  </si>
+  <si>
+    <t>dimensionpass16</t>
+  </si>
+  <si>
+    <t>dimensionpass17</t>
+  </si>
+  <si>
+    <t>dimensionpass18</t>
+  </si>
+  <si>
+    <t>dimensionpass19</t>
+  </si>
+  <si>
+    <t>dimensionpass20</t>
+  </si>
+  <si>
+    <t>dimensionpass21</t>
+  </si>
+  <si>
+    <t>dimensionpass22</t>
+  </si>
+  <si>
+    <t>dimensionpass23</t>
+  </si>
+  <si>
+    <t>dimensionpass24</t>
+  </si>
+  <si>
+    <t>dimensionpass25</t>
+  </si>
+  <si>
+    <t>dimensionpass26</t>
+  </si>
+  <si>
+    <t>dimensionpass27</t>
+  </si>
+  <si>
+    <t>dimensionpass28</t>
+  </si>
+  <si>
+    <t>dimensionpass29</t>
+  </si>
+  <si>
+    <t>dimensionpass30</t>
+  </si>
+  <si>
+    <t>dimensionpass31</t>
+  </si>
+  <si>
+    <t>dimensionpass32</t>
+  </si>
+  <si>
+    <t>dimensionpass33</t>
+  </si>
+  <si>
+    <t>dimensionpass34</t>
+  </si>
+  <si>
+    <t>dimensionpass35</t>
+  </si>
+  <si>
+    <t>dimensionpass36</t>
+  </si>
+  <si>
+    <t>dimensionpass37</t>
+  </si>
+  <si>
+    <t>dimensionpass38</t>
+  </si>
+  <si>
+    <t>dimensionpass39</t>
+  </si>
+  <si>
+    <t>dimensionpass40</t>
+  </si>
+  <si>
+    <t>dimensionpass41</t>
+  </si>
+  <si>
+    <t>dimensionpass42</t>
+  </si>
+  <si>
+    <t>dimensionpass43</t>
+  </si>
+  <si>
+    <t>dimensionpass44</t>
+  </si>
+  <si>
+    <t>dimensionpass45</t>
+  </si>
+  <si>
+    <t>dimensionpass46</t>
+  </si>
+  <si>
+    <t>dimensionpass47</t>
+  </si>
+  <si>
+    <t>dimensionpass48</t>
+  </si>
+  <si>
+    <t>dimensionpass49</t>
+  </si>
+  <si>
+    <t>dimensionpass50</t>
+  </si>
+  <si>
+    <t>dimensionpass51</t>
+  </si>
+  <si>
+    <t>dimensionpass52</t>
+  </si>
+  <si>
+    <t>dimensionpass53</t>
+  </si>
+  <si>
+    <t>dimensionpass54</t>
+  </si>
+  <si>
+    <t>dimensionpass55</t>
+  </si>
+  <si>
+    <t>차원패스10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차원패스11</t>
+  </si>
+  <si>
+    <t>차원패스12</t>
+  </si>
+  <si>
+    <t>차원패스13</t>
+  </si>
+  <si>
+    <t>차원패스14</t>
+  </si>
+  <si>
+    <t>차원패스15</t>
+  </si>
+  <si>
+    <t>차원패스16</t>
+  </si>
+  <si>
+    <t>차원패스17</t>
+  </si>
+  <si>
+    <t>차원패스18</t>
+  </si>
+  <si>
+    <t>차원패스19</t>
+  </si>
+  <si>
+    <t>차원패스20</t>
+  </si>
+  <si>
+    <t>차원패스21</t>
+  </si>
+  <si>
+    <t>차원패스22</t>
+  </si>
+  <si>
+    <t>차원패스23</t>
+  </si>
+  <si>
+    <t>차원패스24</t>
+  </si>
+  <si>
+    <t>차원패스25</t>
+  </si>
+  <si>
+    <t>차원패스26</t>
+  </si>
+  <si>
+    <t>차원패스27</t>
+  </si>
+  <si>
+    <t>차원패스28</t>
+  </si>
+  <si>
+    <t>차원패스29</t>
+  </si>
+  <si>
+    <t>차원패스30</t>
+  </si>
+  <si>
+    <t>차원패스31</t>
+  </si>
+  <si>
+    <t>차원패스32</t>
+  </si>
+  <si>
+    <t>차원패스33</t>
+  </si>
+  <si>
+    <t>차원패스34</t>
+  </si>
+  <si>
+    <t>차원패스35</t>
+  </si>
+  <si>
+    <t>차원패스36</t>
+  </si>
+  <si>
+    <t>차원패스37</t>
+  </si>
+  <si>
+    <t>차원패스38</t>
+  </si>
+  <si>
+    <t>차원패스39</t>
+  </si>
+  <si>
+    <t>차원패스40</t>
+  </si>
+  <si>
+    <t>차원패스41</t>
+  </si>
+  <si>
+    <t>차원패스42</t>
+  </si>
+  <si>
+    <t>차원패스43</t>
+  </si>
+  <si>
+    <t>차원패스44</t>
+  </si>
+  <si>
+    <t>차원패스45</t>
+  </si>
+  <si>
+    <t>차원패스46</t>
+  </si>
+  <si>
+    <t>차원패스47</t>
+  </si>
+  <si>
+    <t>차원패스48</t>
+  </si>
+  <si>
+    <t>차원패스49</t>
+  </si>
+  <si>
+    <t>차원패스50</t>
+  </si>
+  <si>
+    <t>차원패스51</t>
+  </si>
+  <si>
+    <t>차원패스52</t>
+  </si>
+  <si>
+    <t>차원패스53</t>
+  </si>
+  <si>
+    <t>차원패스54</t>
+  </si>
+  <si>
+    <t>차원패스55</t>
   </si>
 </sst>
 </file>
@@ -5715,11 +6000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U488"/>
+  <dimension ref="A1:U536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D494" sqref="D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -30501,7 +30786,7 @@
         <v>581</v>
       </c>
       <c r="T404">
-        <f t="shared" ref="T404:T488" si="17">ROW()-2</f>
+        <f t="shared" ref="T404:T491" si="17">ROW()-2</f>
         <v>402</v>
       </c>
       <c r="U404" s="15" t="s">
@@ -35635,6 +35920,2934 @@
         <v>486</v>
       </c>
       <c r="U488" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="489" spans="1:21">
+      <c r="A489">
+        <v>499</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C489" t="b">
+        <v>0</v>
+      </c>
+      <c r="D489" t="s">
+        <v>932</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G489" t="s">
+        <v>16</v>
+      </c>
+      <c r="H489" t="s">
+        <v>31</v>
+      </c>
+      <c r="I489">
+        <v>30000</v>
+      </c>
+      <c r="J489" t="s">
+        <v>46</v>
+      </c>
+      <c r="K489">
+        <v>5</v>
+      </c>
+      <c r="M489" t="b">
+        <v>0</v>
+      </c>
+      <c r="N489" t="s">
+        <v>43</v>
+      </c>
+      <c r="O489">
+        <v>0</v>
+      </c>
+      <c r="P489" t="str">
+        <f t="shared" ref="P489:P536" si="37">B489</f>
+        <v>monthpass40</v>
+      </c>
+      <c r="Q489">
+        <v>0</v>
+      </c>
+      <c r="R489">
+        <v>0</v>
+      </c>
+      <c r="S489" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="T489">
+        <f t="shared" si="17"/>
+        <v>487</v>
+      </c>
+      <c r="U489" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="490" spans="1:21">
+      <c r="A490">
+        <v>500</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C490" t="b">
+        <v>0</v>
+      </c>
+      <c r="D490" t="s">
+        <v>932</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G490" t="s">
+        <v>16</v>
+      </c>
+      <c r="H490" t="s">
+        <v>31</v>
+      </c>
+      <c r="I490">
+        <v>10000</v>
+      </c>
+      <c r="J490" t="s">
+        <v>46</v>
+      </c>
+      <c r="K490">
+        <v>5</v>
+      </c>
+      <c r="M490" t="b">
+        <v>0</v>
+      </c>
+      <c r="N490" t="s">
+        <v>43</v>
+      </c>
+      <c r="O490">
+        <v>0</v>
+      </c>
+      <c r="P490" t="str">
+        <f t="shared" si="37"/>
+        <v>monthpass40ins</v>
+      </c>
+      <c r="Q490">
+        <v>0</v>
+      </c>
+      <c r="R490">
+        <v>0</v>
+      </c>
+      <c r="S490" t="s">
+        <v>148</v>
+      </c>
+      <c r="T490">
+        <f t="shared" ref="T490" si="38">ROW()-2</f>
+        <v>488</v>
+      </c>
+      <c r="U490" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="491" spans="1:21">
+      <c r="A491">
+        <v>501</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C491" t="b">
+        <v>0</v>
+      </c>
+      <c r="D491" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H491" t="s">
+        <v>31</v>
+      </c>
+      <c r="I491">
+        <v>10000</v>
+      </c>
+      <c r="J491" t="s">
+        <v>46</v>
+      </c>
+      <c r="K491">
+        <v>5</v>
+      </c>
+      <c r="M491" t="b">
+        <v>0</v>
+      </c>
+      <c r="N491" t="s">
+        <v>43</v>
+      </c>
+      <c r="O491">
+        <v>0</v>
+      </c>
+      <c r="P491" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass10</v>
+      </c>
+      <c r="Q491">
+        <v>0</v>
+      </c>
+      <c r="R491">
+        <v>0</v>
+      </c>
+      <c r="S491" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T491">
+        <f t="shared" si="17"/>
+        <v>489</v>
+      </c>
+      <c r="U491" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="492" spans="1:21">
+      <c r="A492">
+        <v>502</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C492" t="b">
+        <v>0</v>
+      </c>
+      <c r="D492" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G492" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H492" t="s">
+        <v>31</v>
+      </c>
+      <c r="I492">
+        <v>10000</v>
+      </c>
+      <c r="J492" t="s">
+        <v>46</v>
+      </c>
+      <c r="K492">
+        <v>5</v>
+      </c>
+      <c r="M492" t="b">
+        <v>0</v>
+      </c>
+      <c r="N492" t="s">
+        <v>43</v>
+      </c>
+      <c r="O492">
+        <v>0</v>
+      </c>
+      <c r="P492" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass11</v>
+      </c>
+      <c r="Q492">
+        <v>0</v>
+      </c>
+      <c r="R492">
+        <v>0</v>
+      </c>
+      <c r="S492" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T492">
+        <f t="shared" ref="T492:T536" si="39">ROW()-2</f>
+        <v>490</v>
+      </c>
+      <c r="U492" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="493" spans="1:21">
+      <c r="A493">
+        <v>503</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C493" t="b">
+        <v>0</v>
+      </c>
+      <c r="D493" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G493" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H493" t="s">
+        <v>31</v>
+      </c>
+      <c r="I493">
+        <v>10000</v>
+      </c>
+      <c r="J493" t="s">
+        <v>46</v>
+      </c>
+      <c r="K493">
+        <v>5</v>
+      </c>
+      <c r="M493" t="b">
+        <v>0</v>
+      </c>
+      <c r="N493" t="s">
+        <v>43</v>
+      </c>
+      <c r="O493">
+        <v>0</v>
+      </c>
+      <c r="P493" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass12</v>
+      </c>
+      <c r="Q493">
+        <v>0</v>
+      </c>
+      <c r="R493">
+        <v>0</v>
+      </c>
+      <c r="S493" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T493">
+        <f t="shared" si="39"/>
+        <v>491</v>
+      </c>
+      <c r="U493" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="494" spans="1:21">
+      <c r="A494">
+        <v>504</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C494" t="b">
+        <v>0</v>
+      </c>
+      <c r="D494" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H494" t="s">
+        <v>31</v>
+      </c>
+      <c r="I494">
+        <v>10000</v>
+      </c>
+      <c r="J494" t="s">
+        <v>46</v>
+      </c>
+      <c r="K494">
+        <v>5</v>
+      </c>
+      <c r="M494" t="b">
+        <v>0</v>
+      </c>
+      <c r="N494" t="s">
+        <v>43</v>
+      </c>
+      <c r="O494">
+        <v>0</v>
+      </c>
+      <c r="P494" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass13</v>
+      </c>
+      <c r="Q494">
+        <v>0</v>
+      </c>
+      <c r="R494">
+        <v>0</v>
+      </c>
+      <c r="S494" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T494">
+        <f t="shared" si="39"/>
+        <v>492</v>
+      </c>
+      <c r="U494" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="495" spans="1:21">
+      <c r="A495">
+        <v>505</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C495" t="b">
+        <v>0</v>
+      </c>
+      <c r="D495" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H495" t="s">
+        <v>31</v>
+      </c>
+      <c r="I495">
+        <v>10000</v>
+      </c>
+      <c r="J495" t="s">
+        <v>46</v>
+      </c>
+      <c r="K495">
+        <v>5</v>
+      </c>
+      <c r="M495" t="b">
+        <v>0</v>
+      </c>
+      <c r="N495" t="s">
+        <v>43</v>
+      </c>
+      <c r="O495">
+        <v>0</v>
+      </c>
+      <c r="P495" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass14</v>
+      </c>
+      <c r="Q495">
+        <v>0</v>
+      </c>
+      <c r="R495">
+        <v>0</v>
+      </c>
+      <c r="S495" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T495">
+        <f t="shared" si="39"/>
+        <v>493</v>
+      </c>
+      <c r="U495" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="496" spans="1:21">
+      <c r="A496">
+        <v>506</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C496" t="b">
+        <v>0</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H496" t="s">
+        <v>31</v>
+      </c>
+      <c r="I496">
+        <v>10000</v>
+      </c>
+      <c r="J496" t="s">
+        <v>46</v>
+      </c>
+      <c r="K496">
+        <v>5</v>
+      </c>
+      <c r="M496" t="b">
+        <v>0</v>
+      </c>
+      <c r="N496" t="s">
+        <v>43</v>
+      </c>
+      <c r="O496">
+        <v>0</v>
+      </c>
+      <c r="P496" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass15</v>
+      </c>
+      <c r="Q496">
+        <v>0</v>
+      </c>
+      <c r="R496">
+        <v>0</v>
+      </c>
+      <c r="S496" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T496">
+        <f t="shared" si="39"/>
+        <v>494</v>
+      </c>
+      <c r="U496" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="497" spans="1:21">
+      <c r="A497">
+        <v>507</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C497" t="b">
+        <v>0</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H497" t="s">
+        <v>31</v>
+      </c>
+      <c r="I497">
+        <v>10000</v>
+      </c>
+      <c r="J497" t="s">
+        <v>46</v>
+      </c>
+      <c r="K497">
+        <v>5</v>
+      </c>
+      <c r="M497" t="b">
+        <v>0</v>
+      </c>
+      <c r="N497" t="s">
+        <v>43</v>
+      </c>
+      <c r="O497">
+        <v>0</v>
+      </c>
+      <c r="P497" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass16</v>
+      </c>
+      <c r="Q497">
+        <v>0</v>
+      </c>
+      <c r="R497">
+        <v>0</v>
+      </c>
+      <c r="S497" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T497">
+        <f t="shared" si="39"/>
+        <v>495</v>
+      </c>
+      <c r="U497" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="498" spans="1:21">
+      <c r="A498">
+        <v>508</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C498" t="b">
+        <v>0</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H498" t="s">
+        <v>31</v>
+      </c>
+      <c r="I498">
+        <v>10000</v>
+      </c>
+      <c r="J498" t="s">
+        <v>46</v>
+      </c>
+      <c r="K498">
+        <v>5</v>
+      </c>
+      <c r="M498" t="b">
+        <v>0</v>
+      </c>
+      <c r="N498" t="s">
+        <v>43</v>
+      </c>
+      <c r="O498">
+        <v>0</v>
+      </c>
+      <c r="P498" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass17</v>
+      </c>
+      <c r="Q498">
+        <v>0</v>
+      </c>
+      <c r="R498">
+        <v>0</v>
+      </c>
+      <c r="S498" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T498">
+        <f t="shared" si="39"/>
+        <v>496</v>
+      </c>
+      <c r="U498" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="499" spans="1:21">
+      <c r="A499">
+        <v>509</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C499" t="b">
+        <v>0</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H499" t="s">
+        <v>31</v>
+      </c>
+      <c r="I499">
+        <v>10000</v>
+      </c>
+      <c r="J499" t="s">
+        <v>46</v>
+      </c>
+      <c r="K499">
+        <v>5</v>
+      </c>
+      <c r="M499" t="b">
+        <v>0</v>
+      </c>
+      <c r="N499" t="s">
+        <v>43</v>
+      </c>
+      <c r="O499">
+        <v>0</v>
+      </c>
+      <c r="P499" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass18</v>
+      </c>
+      <c r="Q499">
+        <v>0</v>
+      </c>
+      <c r="R499">
+        <v>0</v>
+      </c>
+      <c r="S499" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T499">
+        <f t="shared" si="39"/>
+        <v>497</v>
+      </c>
+      <c r="U499" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="500" spans="1:21">
+      <c r="A500">
+        <v>510</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C500" t="b">
+        <v>0</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H500" t="s">
+        <v>31</v>
+      </c>
+      <c r="I500">
+        <v>10000</v>
+      </c>
+      <c r="J500" t="s">
+        <v>46</v>
+      </c>
+      <c r="K500">
+        <v>5</v>
+      </c>
+      <c r="M500" t="b">
+        <v>0</v>
+      </c>
+      <c r="N500" t="s">
+        <v>43</v>
+      </c>
+      <c r="O500">
+        <v>0</v>
+      </c>
+      <c r="P500" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass19</v>
+      </c>
+      <c r="Q500">
+        <v>0</v>
+      </c>
+      <c r="R500">
+        <v>0</v>
+      </c>
+      <c r="S500" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T500">
+        <f t="shared" si="39"/>
+        <v>498</v>
+      </c>
+      <c r="U500" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="501" spans="1:21">
+      <c r="A501">
+        <v>511</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C501" t="b">
+        <v>0</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H501" t="s">
+        <v>31</v>
+      </c>
+      <c r="I501">
+        <v>10000</v>
+      </c>
+      <c r="J501" t="s">
+        <v>46</v>
+      </c>
+      <c r="K501">
+        <v>5</v>
+      </c>
+      <c r="M501" t="b">
+        <v>0</v>
+      </c>
+      <c r="N501" t="s">
+        <v>43</v>
+      </c>
+      <c r="O501">
+        <v>0</v>
+      </c>
+      <c r="P501" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass20</v>
+      </c>
+      <c r="Q501">
+        <v>0</v>
+      </c>
+      <c r="R501">
+        <v>0</v>
+      </c>
+      <c r="S501" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T501">
+        <f t="shared" si="39"/>
+        <v>499</v>
+      </c>
+      <c r="U501" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="502" spans="1:21">
+      <c r="A502">
+        <v>512</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C502" t="b">
+        <v>0</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H502" t="s">
+        <v>31</v>
+      </c>
+      <c r="I502">
+        <v>10000</v>
+      </c>
+      <c r="J502" t="s">
+        <v>46</v>
+      </c>
+      <c r="K502">
+        <v>5</v>
+      </c>
+      <c r="M502" t="b">
+        <v>0</v>
+      </c>
+      <c r="N502" t="s">
+        <v>43</v>
+      </c>
+      <c r="O502">
+        <v>0</v>
+      </c>
+      <c r="P502" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass21</v>
+      </c>
+      <c r="Q502">
+        <v>0</v>
+      </c>
+      <c r="R502">
+        <v>0</v>
+      </c>
+      <c r="S502" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T502">
+        <f t="shared" si="39"/>
+        <v>500</v>
+      </c>
+      <c r="U502" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21">
+      <c r="A503">
+        <v>513</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C503" t="b">
+        <v>0</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H503" t="s">
+        <v>31</v>
+      </c>
+      <c r="I503">
+        <v>10000</v>
+      </c>
+      <c r="J503" t="s">
+        <v>46</v>
+      </c>
+      <c r="K503">
+        <v>5</v>
+      </c>
+      <c r="M503" t="b">
+        <v>0</v>
+      </c>
+      <c r="N503" t="s">
+        <v>43</v>
+      </c>
+      <c r="O503">
+        <v>0</v>
+      </c>
+      <c r="P503" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass22</v>
+      </c>
+      <c r="Q503">
+        <v>0</v>
+      </c>
+      <c r="R503">
+        <v>0</v>
+      </c>
+      <c r="S503" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T503">
+        <f t="shared" si="39"/>
+        <v>501</v>
+      </c>
+      <c r="U503" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21">
+      <c r="A504">
+        <v>514</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C504" t="b">
+        <v>0</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H504" t="s">
+        <v>31</v>
+      </c>
+      <c r="I504">
+        <v>10000</v>
+      </c>
+      <c r="J504" t="s">
+        <v>46</v>
+      </c>
+      <c r="K504">
+        <v>5</v>
+      </c>
+      <c r="M504" t="b">
+        <v>0</v>
+      </c>
+      <c r="N504" t="s">
+        <v>43</v>
+      </c>
+      <c r="O504">
+        <v>0</v>
+      </c>
+      <c r="P504" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass23</v>
+      </c>
+      <c r="Q504">
+        <v>0</v>
+      </c>
+      <c r="R504">
+        <v>0</v>
+      </c>
+      <c r="S504" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T504">
+        <f t="shared" si="39"/>
+        <v>502</v>
+      </c>
+      <c r="U504" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21">
+      <c r="A505">
+        <v>515</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C505" t="b">
+        <v>0</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H505" t="s">
+        <v>31</v>
+      </c>
+      <c r="I505">
+        <v>10000</v>
+      </c>
+      <c r="J505" t="s">
+        <v>46</v>
+      </c>
+      <c r="K505">
+        <v>5</v>
+      </c>
+      <c r="M505" t="b">
+        <v>0</v>
+      </c>
+      <c r="N505" t="s">
+        <v>43</v>
+      </c>
+      <c r="O505">
+        <v>0</v>
+      </c>
+      <c r="P505" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass24</v>
+      </c>
+      <c r="Q505">
+        <v>0</v>
+      </c>
+      <c r="R505">
+        <v>0</v>
+      </c>
+      <c r="S505" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T505">
+        <f t="shared" si="39"/>
+        <v>503</v>
+      </c>
+      <c r="U505" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21">
+      <c r="A506">
+        <v>516</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C506" t="b">
+        <v>0</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H506" t="s">
+        <v>31</v>
+      </c>
+      <c r="I506">
+        <v>10000</v>
+      </c>
+      <c r="J506" t="s">
+        <v>46</v>
+      </c>
+      <c r="K506">
+        <v>5</v>
+      </c>
+      <c r="M506" t="b">
+        <v>0</v>
+      </c>
+      <c r="N506" t="s">
+        <v>43</v>
+      </c>
+      <c r="O506">
+        <v>0</v>
+      </c>
+      <c r="P506" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass25</v>
+      </c>
+      <c r="Q506">
+        <v>0</v>
+      </c>
+      <c r="R506">
+        <v>0</v>
+      </c>
+      <c r="S506" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T506">
+        <f t="shared" si="39"/>
+        <v>504</v>
+      </c>
+      <c r="U506" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="507" spans="1:21">
+      <c r="A507">
+        <v>517</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C507" t="b">
+        <v>0</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H507" t="s">
+        <v>31</v>
+      </c>
+      <c r="I507">
+        <v>10000</v>
+      </c>
+      <c r="J507" t="s">
+        <v>46</v>
+      </c>
+      <c r="K507">
+        <v>5</v>
+      </c>
+      <c r="M507" t="b">
+        <v>0</v>
+      </c>
+      <c r="N507" t="s">
+        <v>43</v>
+      </c>
+      <c r="O507">
+        <v>0</v>
+      </c>
+      <c r="P507" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass26</v>
+      </c>
+      <c r="Q507">
+        <v>0</v>
+      </c>
+      <c r="R507">
+        <v>0</v>
+      </c>
+      <c r="S507" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T507">
+        <f t="shared" si="39"/>
+        <v>505</v>
+      </c>
+      <c r="U507" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="508" spans="1:21">
+      <c r="A508">
+        <v>518</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C508" t="b">
+        <v>0</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H508" t="s">
+        <v>31</v>
+      </c>
+      <c r="I508">
+        <v>10000</v>
+      </c>
+      <c r="J508" t="s">
+        <v>46</v>
+      </c>
+      <c r="K508">
+        <v>5</v>
+      </c>
+      <c r="M508" t="b">
+        <v>0</v>
+      </c>
+      <c r="N508" t="s">
+        <v>43</v>
+      </c>
+      <c r="O508">
+        <v>0</v>
+      </c>
+      <c r="P508" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass27</v>
+      </c>
+      <c r="Q508">
+        <v>0</v>
+      </c>
+      <c r="R508">
+        <v>0</v>
+      </c>
+      <c r="S508" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T508">
+        <f t="shared" si="39"/>
+        <v>506</v>
+      </c>
+      <c r="U508" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="509" spans="1:21">
+      <c r="A509">
+        <v>519</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C509" t="b">
+        <v>0</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H509" t="s">
+        <v>31</v>
+      </c>
+      <c r="I509">
+        <v>10000</v>
+      </c>
+      <c r="J509" t="s">
+        <v>46</v>
+      </c>
+      <c r="K509">
+        <v>5</v>
+      </c>
+      <c r="M509" t="b">
+        <v>0</v>
+      </c>
+      <c r="N509" t="s">
+        <v>43</v>
+      </c>
+      <c r="O509">
+        <v>0</v>
+      </c>
+      <c r="P509" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass28</v>
+      </c>
+      <c r="Q509">
+        <v>0</v>
+      </c>
+      <c r="R509">
+        <v>0</v>
+      </c>
+      <c r="S509" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T509">
+        <f t="shared" si="39"/>
+        <v>507</v>
+      </c>
+      <c r="U509" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="510" spans="1:21">
+      <c r="A510">
+        <v>520</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C510" t="b">
+        <v>0</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H510" t="s">
+        <v>31</v>
+      </c>
+      <c r="I510">
+        <v>10000</v>
+      </c>
+      <c r="J510" t="s">
+        <v>46</v>
+      </c>
+      <c r="K510">
+        <v>5</v>
+      </c>
+      <c r="M510" t="b">
+        <v>0</v>
+      </c>
+      <c r="N510" t="s">
+        <v>43</v>
+      </c>
+      <c r="O510">
+        <v>0</v>
+      </c>
+      <c r="P510" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass29</v>
+      </c>
+      <c r="Q510">
+        <v>0</v>
+      </c>
+      <c r="R510">
+        <v>0</v>
+      </c>
+      <c r="S510" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T510">
+        <f t="shared" si="39"/>
+        <v>508</v>
+      </c>
+      <c r="U510" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="511" spans="1:21">
+      <c r="A511">
+        <v>521</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C511" t="b">
+        <v>0</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G511" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H511" t="s">
+        <v>31</v>
+      </c>
+      <c r="I511">
+        <v>10000</v>
+      </c>
+      <c r="J511" t="s">
+        <v>46</v>
+      </c>
+      <c r="K511">
+        <v>5</v>
+      </c>
+      <c r="M511" t="b">
+        <v>0</v>
+      </c>
+      <c r="N511" t="s">
+        <v>43</v>
+      </c>
+      <c r="O511">
+        <v>0</v>
+      </c>
+      <c r="P511" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass30</v>
+      </c>
+      <c r="Q511">
+        <v>0</v>
+      </c>
+      <c r="R511">
+        <v>0</v>
+      </c>
+      <c r="S511" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T511">
+        <f t="shared" si="39"/>
+        <v>509</v>
+      </c>
+      <c r="U511" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="512" spans="1:21">
+      <c r="A512">
+        <v>522</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C512" t="b">
+        <v>0</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G512" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H512" t="s">
+        <v>31</v>
+      </c>
+      <c r="I512">
+        <v>10000</v>
+      </c>
+      <c r="J512" t="s">
+        <v>46</v>
+      </c>
+      <c r="K512">
+        <v>5</v>
+      </c>
+      <c r="M512" t="b">
+        <v>0</v>
+      </c>
+      <c r="N512" t="s">
+        <v>43</v>
+      </c>
+      <c r="O512">
+        <v>0</v>
+      </c>
+      <c r="P512" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass31</v>
+      </c>
+      <c r="Q512">
+        <v>0</v>
+      </c>
+      <c r="R512">
+        <v>0</v>
+      </c>
+      <c r="S512" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T512">
+        <f t="shared" si="39"/>
+        <v>510</v>
+      </c>
+      <c r="U512" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21">
+      <c r="A513">
+        <v>523</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C513" t="b">
+        <v>0</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H513" t="s">
+        <v>31</v>
+      </c>
+      <c r="I513">
+        <v>10000</v>
+      </c>
+      <c r="J513" t="s">
+        <v>46</v>
+      </c>
+      <c r="K513">
+        <v>5</v>
+      </c>
+      <c r="M513" t="b">
+        <v>0</v>
+      </c>
+      <c r="N513" t="s">
+        <v>43</v>
+      </c>
+      <c r="O513">
+        <v>0</v>
+      </c>
+      <c r="P513" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass32</v>
+      </c>
+      <c r="Q513">
+        <v>0</v>
+      </c>
+      <c r="R513">
+        <v>0</v>
+      </c>
+      <c r="S513" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T513">
+        <f t="shared" si="39"/>
+        <v>511</v>
+      </c>
+      <c r="U513" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21">
+      <c r="A514">
+        <v>524</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C514" t="b">
+        <v>0</v>
+      </c>
+      <c r="D514" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G514" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H514" t="s">
+        <v>31</v>
+      </c>
+      <c r="I514">
+        <v>10000</v>
+      </c>
+      <c r="J514" t="s">
+        <v>46</v>
+      </c>
+      <c r="K514">
+        <v>5</v>
+      </c>
+      <c r="M514" t="b">
+        <v>0</v>
+      </c>
+      <c r="N514" t="s">
+        <v>43</v>
+      </c>
+      <c r="O514">
+        <v>0</v>
+      </c>
+      <c r="P514" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass33</v>
+      </c>
+      <c r="Q514">
+        <v>0</v>
+      </c>
+      <c r="R514">
+        <v>0</v>
+      </c>
+      <c r="S514" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T514">
+        <f t="shared" si="39"/>
+        <v>512</v>
+      </c>
+      <c r="U514" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21">
+      <c r="A515">
+        <v>525</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C515" t="b">
+        <v>0</v>
+      </c>
+      <c r="D515" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F515" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G515" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H515" t="s">
+        <v>31</v>
+      </c>
+      <c r="I515">
+        <v>10000</v>
+      </c>
+      <c r="J515" t="s">
+        <v>46</v>
+      </c>
+      <c r="K515">
+        <v>5</v>
+      </c>
+      <c r="M515" t="b">
+        <v>0</v>
+      </c>
+      <c r="N515" t="s">
+        <v>43</v>
+      </c>
+      <c r="O515">
+        <v>0</v>
+      </c>
+      <c r="P515" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass34</v>
+      </c>
+      <c r="Q515">
+        <v>0</v>
+      </c>
+      <c r="R515">
+        <v>0</v>
+      </c>
+      <c r="S515" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T515">
+        <f t="shared" si="39"/>
+        <v>513</v>
+      </c>
+      <c r="U515" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21">
+      <c r="A516">
+        <v>526</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C516" t="b">
+        <v>0</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F516" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G516" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H516" t="s">
+        <v>31</v>
+      </c>
+      <c r="I516">
+        <v>10000</v>
+      </c>
+      <c r="J516" t="s">
+        <v>46</v>
+      </c>
+      <c r="K516">
+        <v>5</v>
+      </c>
+      <c r="M516" t="b">
+        <v>0</v>
+      </c>
+      <c r="N516" t="s">
+        <v>43</v>
+      </c>
+      <c r="O516">
+        <v>0</v>
+      </c>
+      <c r="P516" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass35</v>
+      </c>
+      <c r="Q516">
+        <v>0</v>
+      </c>
+      <c r="R516">
+        <v>0</v>
+      </c>
+      <c r="S516" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T516">
+        <f t="shared" si="39"/>
+        <v>514</v>
+      </c>
+      <c r="U516" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21">
+      <c r="A517">
+        <v>527</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C517" t="b">
+        <v>0</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G517" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H517" t="s">
+        <v>31</v>
+      </c>
+      <c r="I517">
+        <v>10000</v>
+      </c>
+      <c r="J517" t="s">
+        <v>46</v>
+      </c>
+      <c r="K517">
+        <v>5</v>
+      </c>
+      <c r="M517" t="b">
+        <v>0</v>
+      </c>
+      <c r="N517" t="s">
+        <v>43</v>
+      </c>
+      <c r="O517">
+        <v>0</v>
+      </c>
+      <c r="P517" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass36</v>
+      </c>
+      <c r="Q517">
+        <v>0</v>
+      </c>
+      <c r="R517">
+        <v>0</v>
+      </c>
+      <c r="S517" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T517">
+        <f t="shared" si="39"/>
+        <v>515</v>
+      </c>
+      <c r="U517" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21">
+      <c r="A518">
+        <v>528</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C518" t="b">
+        <v>0</v>
+      </c>
+      <c r="D518" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G518" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H518" t="s">
+        <v>31</v>
+      </c>
+      <c r="I518">
+        <v>10000</v>
+      </c>
+      <c r="J518" t="s">
+        <v>46</v>
+      </c>
+      <c r="K518">
+        <v>5</v>
+      </c>
+      <c r="M518" t="b">
+        <v>0</v>
+      </c>
+      <c r="N518" t="s">
+        <v>43</v>
+      </c>
+      <c r="O518">
+        <v>0</v>
+      </c>
+      <c r="P518" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass37</v>
+      </c>
+      <c r="Q518">
+        <v>0</v>
+      </c>
+      <c r="R518">
+        <v>0</v>
+      </c>
+      <c r="S518" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T518">
+        <f t="shared" si="39"/>
+        <v>516</v>
+      </c>
+      <c r="U518" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21">
+      <c r="A519">
+        <v>529</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C519" t="b">
+        <v>0</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G519" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H519" t="s">
+        <v>31</v>
+      </c>
+      <c r="I519">
+        <v>10000</v>
+      </c>
+      <c r="J519" t="s">
+        <v>46</v>
+      </c>
+      <c r="K519">
+        <v>5</v>
+      </c>
+      <c r="M519" t="b">
+        <v>0</v>
+      </c>
+      <c r="N519" t="s">
+        <v>43</v>
+      </c>
+      <c r="O519">
+        <v>0</v>
+      </c>
+      <c r="P519" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass38</v>
+      </c>
+      <c r="Q519">
+        <v>0</v>
+      </c>
+      <c r="R519">
+        <v>0</v>
+      </c>
+      <c r="S519" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T519">
+        <f t="shared" si="39"/>
+        <v>517</v>
+      </c>
+      <c r="U519" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="520" spans="1:21">
+      <c r="A520">
+        <v>530</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C520" t="b">
+        <v>0</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G520" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H520" t="s">
+        <v>31</v>
+      </c>
+      <c r="I520">
+        <v>10000</v>
+      </c>
+      <c r="J520" t="s">
+        <v>46</v>
+      </c>
+      <c r="K520">
+        <v>5</v>
+      </c>
+      <c r="M520" t="b">
+        <v>0</v>
+      </c>
+      <c r="N520" t="s">
+        <v>43</v>
+      </c>
+      <c r="O520">
+        <v>0</v>
+      </c>
+      <c r="P520" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass39</v>
+      </c>
+      <c r="Q520">
+        <v>0</v>
+      </c>
+      <c r="R520">
+        <v>0</v>
+      </c>
+      <c r="S520" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T520">
+        <f t="shared" si="39"/>
+        <v>518</v>
+      </c>
+      <c r="U520" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21">
+      <c r="A521">
+        <v>531</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C521" t="b">
+        <v>0</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G521" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H521" t="s">
+        <v>31</v>
+      </c>
+      <c r="I521">
+        <v>10000</v>
+      </c>
+      <c r="J521" t="s">
+        <v>46</v>
+      </c>
+      <c r="K521">
+        <v>5</v>
+      </c>
+      <c r="M521" t="b">
+        <v>0</v>
+      </c>
+      <c r="N521" t="s">
+        <v>43</v>
+      </c>
+      <c r="O521">
+        <v>0</v>
+      </c>
+      <c r="P521" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass40</v>
+      </c>
+      <c r="Q521">
+        <v>0</v>
+      </c>
+      <c r="R521">
+        <v>0</v>
+      </c>
+      <c r="S521" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T521">
+        <f t="shared" si="39"/>
+        <v>519</v>
+      </c>
+      <c r="U521" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="522" spans="1:21">
+      <c r="A522">
+        <v>532</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C522" t="b">
+        <v>0</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G522" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H522" t="s">
+        <v>31</v>
+      </c>
+      <c r="I522">
+        <v>10000</v>
+      </c>
+      <c r="J522" t="s">
+        <v>46</v>
+      </c>
+      <c r="K522">
+        <v>5</v>
+      </c>
+      <c r="M522" t="b">
+        <v>0</v>
+      </c>
+      <c r="N522" t="s">
+        <v>43</v>
+      </c>
+      <c r="O522">
+        <v>0</v>
+      </c>
+      <c r="P522" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass41</v>
+      </c>
+      <c r="Q522">
+        <v>0</v>
+      </c>
+      <c r="R522">
+        <v>0</v>
+      </c>
+      <c r="S522" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T522">
+        <f t="shared" si="39"/>
+        <v>520</v>
+      </c>
+      <c r="U522" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="523" spans="1:21">
+      <c r="A523">
+        <v>533</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C523" t="b">
+        <v>0</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H523" t="s">
+        <v>31</v>
+      </c>
+      <c r="I523">
+        <v>10000</v>
+      </c>
+      <c r="J523" t="s">
+        <v>46</v>
+      </c>
+      <c r="K523">
+        <v>5</v>
+      </c>
+      <c r="M523" t="b">
+        <v>0</v>
+      </c>
+      <c r="N523" t="s">
+        <v>43</v>
+      </c>
+      <c r="O523">
+        <v>0</v>
+      </c>
+      <c r="P523" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass42</v>
+      </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
+      <c r="R523">
+        <v>0</v>
+      </c>
+      <c r="S523" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T523">
+        <f t="shared" si="39"/>
+        <v>521</v>
+      </c>
+      <c r="U523" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="524" spans="1:21">
+      <c r="A524">
+        <v>534</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C524" t="b">
+        <v>0</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G524" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H524" t="s">
+        <v>31</v>
+      </c>
+      <c r="I524">
+        <v>10000</v>
+      </c>
+      <c r="J524" t="s">
+        <v>46</v>
+      </c>
+      <c r="K524">
+        <v>5</v>
+      </c>
+      <c r="M524" t="b">
+        <v>0</v>
+      </c>
+      <c r="N524" t="s">
+        <v>43</v>
+      </c>
+      <c r="O524">
+        <v>0</v>
+      </c>
+      <c r="P524" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass43</v>
+      </c>
+      <c r="Q524">
+        <v>0</v>
+      </c>
+      <c r="R524">
+        <v>0</v>
+      </c>
+      <c r="S524" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T524">
+        <f t="shared" si="39"/>
+        <v>522</v>
+      </c>
+      <c r="U524" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="525" spans="1:21">
+      <c r="A525">
+        <v>535</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C525" t="b">
+        <v>0</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G525" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H525" t="s">
+        <v>31</v>
+      </c>
+      <c r="I525">
+        <v>10000</v>
+      </c>
+      <c r="J525" t="s">
+        <v>46</v>
+      </c>
+      <c r="K525">
+        <v>5</v>
+      </c>
+      <c r="M525" t="b">
+        <v>0</v>
+      </c>
+      <c r="N525" t="s">
+        <v>43</v>
+      </c>
+      <c r="O525">
+        <v>0</v>
+      </c>
+      <c r="P525" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass44</v>
+      </c>
+      <c r="Q525">
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <v>0</v>
+      </c>
+      <c r="S525" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T525">
+        <f t="shared" si="39"/>
+        <v>523</v>
+      </c>
+      <c r="U525" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="526" spans="1:21">
+      <c r="A526">
+        <v>536</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C526" t="b">
+        <v>0</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H526" t="s">
+        <v>31</v>
+      </c>
+      <c r="I526">
+        <v>10000</v>
+      </c>
+      <c r="J526" t="s">
+        <v>46</v>
+      </c>
+      <c r="K526">
+        <v>5</v>
+      </c>
+      <c r="M526" t="b">
+        <v>0</v>
+      </c>
+      <c r="N526" t="s">
+        <v>43</v>
+      </c>
+      <c r="O526">
+        <v>0</v>
+      </c>
+      <c r="P526" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass45</v>
+      </c>
+      <c r="Q526">
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <v>0</v>
+      </c>
+      <c r="S526" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T526">
+        <f t="shared" si="39"/>
+        <v>524</v>
+      </c>
+      <c r="U526" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21">
+      <c r="A527">
+        <v>537</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C527" t="b">
+        <v>0</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G527" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H527" t="s">
+        <v>31</v>
+      </c>
+      <c r="I527">
+        <v>10000</v>
+      </c>
+      <c r="J527" t="s">
+        <v>46</v>
+      </c>
+      <c r="K527">
+        <v>5</v>
+      </c>
+      <c r="M527" t="b">
+        <v>0</v>
+      </c>
+      <c r="N527" t="s">
+        <v>43</v>
+      </c>
+      <c r="O527">
+        <v>0</v>
+      </c>
+      <c r="P527" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass46</v>
+      </c>
+      <c r="Q527">
+        <v>0</v>
+      </c>
+      <c r="R527">
+        <v>0</v>
+      </c>
+      <c r="S527" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T527">
+        <f t="shared" si="39"/>
+        <v>525</v>
+      </c>
+      <c r="U527" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21">
+      <c r="A528">
+        <v>538</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C528" t="b">
+        <v>0</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H528" t="s">
+        <v>31</v>
+      </c>
+      <c r="I528">
+        <v>10000</v>
+      </c>
+      <c r="J528" t="s">
+        <v>46</v>
+      </c>
+      <c r="K528">
+        <v>5</v>
+      </c>
+      <c r="M528" t="b">
+        <v>0</v>
+      </c>
+      <c r="N528" t="s">
+        <v>43</v>
+      </c>
+      <c r="O528">
+        <v>0</v>
+      </c>
+      <c r="P528" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass47</v>
+      </c>
+      <c r="Q528">
+        <v>0</v>
+      </c>
+      <c r="R528">
+        <v>0</v>
+      </c>
+      <c r="S528" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T528">
+        <f t="shared" si="39"/>
+        <v>526</v>
+      </c>
+      <c r="U528" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21">
+      <c r="A529">
+        <v>539</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C529" t="b">
+        <v>0</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H529" t="s">
+        <v>31</v>
+      </c>
+      <c r="I529">
+        <v>10000</v>
+      </c>
+      <c r="J529" t="s">
+        <v>46</v>
+      </c>
+      <c r="K529">
+        <v>5</v>
+      </c>
+      <c r="M529" t="b">
+        <v>0</v>
+      </c>
+      <c r="N529" t="s">
+        <v>43</v>
+      </c>
+      <c r="O529">
+        <v>0</v>
+      </c>
+      <c r="P529" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass48</v>
+      </c>
+      <c r="Q529">
+        <v>0</v>
+      </c>
+      <c r="R529">
+        <v>0</v>
+      </c>
+      <c r="S529" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T529">
+        <f t="shared" si="39"/>
+        <v>527</v>
+      </c>
+      <c r="U529" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21">
+      <c r="A530">
+        <v>540</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C530" t="b">
+        <v>0</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H530" t="s">
+        <v>31</v>
+      </c>
+      <c r="I530">
+        <v>10000</v>
+      </c>
+      <c r="J530" t="s">
+        <v>46</v>
+      </c>
+      <c r="K530">
+        <v>5</v>
+      </c>
+      <c r="M530" t="b">
+        <v>0</v>
+      </c>
+      <c r="N530" t="s">
+        <v>43</v>
+      </c>
+      <c r="O530">
+        <v>0</v>
+      </c>
+      <c r="P530" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass49</v>
+      </c>
+      <c r="Q530">
+        <v>0</v>
+      </c>
+      <c r="R530">
+        <v>0</v>
+      </c>
+      <c r="S530" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T530">
+        <f t="shared" si="39"/>
+        <v>528</v>
+      </c>
+      <c r="U530" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21">
+      <c r="A531">
+        <v>541</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C531" t="b">
+        <v>0</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H531" t="s">
+        <v>31</v>
+      </c>
+      <c r="I531">
+        <v>10000</v>
+      </c>
+      <c r="J531" t="s">
+        <v>46</v>
+      </c>
+      <c r="K531">
+        <v>5</v>
+      </c>
+      <c r="M531" t="b">
+        <v>0</v>
+      </c>
+      <c r="N531" t="s">
+        <v>43</v>
+      </c>
+      <c r="O531">
+        <v>0</v>
+      </c>
+      <c r="P531" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass50</v>
+      </c>
+      <c r="Q531">
+        <v>0</v>
+      </c>
+      <c r="R531">
+        <v>0</v>
+      </c>
+      <c r="S531" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T531">
+        <f t="shared" si="39"/>
+        <v>529</v>
+      </c>
+      <c r="U531" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21">
+      <c r="A532">
+        <v>542</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C532" t="b">
+        <v>0</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H532" t="s">
+        <v>31</v>
+      </c>
+      <c r="I532">
+        <v>10000</v>
+      </c>
+      <c r="J532" t="s">
+        <v>46</v>
+      </c>
+      <c r="K532">
+        <v>5</v>
+      </c>
+      <c r="M532" t="b">
+        <v>0</v>
+      </c>
+      <c r="N532" t="s">
+        <v>43</v>
+      </c>
+      <c r="O532">
+        <v>0</v>
+      </c>
+      <c r="P532" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass51</v>
+      </c>
+      <c r="Q532">
+        <v>0</v>
+      </c>
+      <c r="R532">
+        <v>0</v>
+      </c>
+      <c r="S532" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T532">
+        <f t="shared" si="39"/>
+        <v>530</v>
+      </c>
+      <c r="U532" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21">
+      <c r="A533">
+        <v>543</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C533" t="b">
+        <v>0</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H533" t="s">
+        <v>31</v>
+      </c>
+      <c r="I533">
+        <v>10000</v>
+      </c>
+      <c r="J533" t="s">
+        <v>46</v>
+      </c>
+      <c r="K533">
+        <v>5</v>
+      </c>
+      <c r="M533" t="b">
+        <v>0</v>
+      </c>
+      <c r="N533" t="s">
+        <v>43</v>
+      </c>
+      <c r="O533">
+        <v>0</v>
+      </c>
+      <c r="P533" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass52</v>
+      </c>
+      <c r="Q533">
+        <v>0</v>
+      </c>
+      <c r="R533">
+        <v>0</v>
+      </c>
+      <c r="S533" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T533">
+        <f t="shared" si="39"/>
+        <v>531</v>
+      </c>
+      <c r="U533" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21">
+      <c r="A534">
+        <v>544</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C534" t="b">
+        <v>0</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H534" t="s">
+        <v>31</v>
+      </c>
+      <c r="I534">
+        <v>10000</v>
+      </c>
+      <c r="J534" t="s">
+        <v>46</v>
+      </c>
+      <c r="K534">
+        <v>5</v>
+      </c>
+      <c r="M534" t="b">
+        <v>0</v>
+      </c>
+      <c r="N534" t="s">
+        <v>43</v>
+      </c>
+      <c r="O534">
+        <v>0</v>
+      </c>
+      <c r="P534" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass53</v>
+      </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
+      <c r="R534">
+        <v>0</v>
+      </c>
+      <c r="S534" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T534">
+        <f t="shared" si="39"/>
+        <v>532</v>
+      </c>
+      <c r="U534" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21">
+      <c r="A535">
+        <v>545</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C535" t="b">
+        <v>0</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H535" t="s">
+        <v>31</v>
+      </c>
+      <c r="I535">
+        <v>10000</v>
+      </c>
+      <c r="J535" t="s">
+        <v>46</v>
+      </c>
+      <c r="K535">
+        <v>5</v>
+      </c>
+      <c r="M535" t="b">
+        <v>0</v>
+      </c>
+      <c r="N535" t="s">
+        <v>43</v>
+      </c>
+      <c r="O535">
+        <v>0</v>
+      </c>
+      <c r="P535" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass54</v>
+      </c>
+      <c r="Q535">
+        <v>0</v>
+      </c>
+      <c r="R535">
+        <v>0</v>
+      </c>
+      <c r="S535" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T535">
+        <f t="shared" si="39"/>
+        <v>533</v>
+      </c>
+      <c r="U535" s="15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21">
+      <c r="A536">
+        <v>546</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C536" t="b">
+        <v>0</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H536" t="s">
+        <v>31</v>
+      </c>
+      <c r="I536">
+        <v>10000</v>
+      </c>
+      <c r="J536" t="s">
+        <v>46</v>
+      </c>
+      <c r="K536">
+        <v>5</v>
+      </c>
+      <c r="M536" t="b">
+        <v>0</v>
+      </c>
+      <c r="N536" t="s">
+        <v>43</v>
+      </c>
+      <c r="O536">
+        <v>0</v>
+      </c>
+      <c r="P536" t="str">
+        <f t="shared" si="37"/>
+        <v>dimensionpass55</v>
+      </c>
+      <c r="Q536">
+        <v>0</v>
+      </c>
+      <c r="R536">
+        <v>0</v>
+      </c>
+      <c r="S536" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="T536">
+        <f t="shared" si="39"/>
+        <v>534</v>
+      </c>
+      <c r="U536" s="15" t="s">
         <v>632</v>
       </c>
     </row>
